--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3354" uniqueCount="1372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="1496">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3043,6 +3043,198 @@
     <t xml:space="preserve">bolec.info##img[style*="max-height: 400px; min-width: 1000px;"]</t>
   </si>
   <si>
+    <t xml:space="preserve">299</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pozatorun.pl##.np-ads-wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.pozatorun.pl/minister-ardanowski-uspokaja-mamy-zapasy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pozatorun.pl##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||ibb.co^$subdocument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://lexus-forum.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">goral.info.pl##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://goral.info.pl/kontrola-sanitarna-na-granicy-polsko-slowackiej-w-malopolsce/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wysokomazowiecki24.pl###sp-reklamatop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wysokomazowiecki24.pl/news/podlaskie/10754.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^2020bannery^$domain=wysokomazowiecki24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banneritem?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogrodnikleszek.pl##.banner_wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ogrodnikleszek.pl/porady-ogrodnicze/pies-ogrodnika-mity-i-prawdy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogrodnikleszek.pl##a[href*="=baner_widget&amp;"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||ifotos.pl^$image,domain=radiobonton.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.radiobonton.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://streetwearhypeclub.com/portal/category/footwear/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streetwearhypeclub.com##.wpmui-overlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">streetwearhypeclub.com##.wpmui-popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||streetwearhypeclub.com^*^shc-timb-background-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banery^$domain=sportowememy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sportowememy.pl/totti-mial-kuszace-oferty-podczas-gry-w-romie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcslubu.pl##.tcvn-banner-item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abcslubu.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcslubu.pl##.banneritem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check partners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^show-baners.php?$script,domain=24gliwice.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.24gliwice.pl/wiadomosci/nareszcie-po-kilku-miesiacach-przerwy-drogowcy-wracaja-do-remontu-ulicy-michalowskiego/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF262626"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">anywhere.com##div[class^=”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">g-single a-”]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.anywhere.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">block too much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.meczenazywo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wp pilot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timberland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">upper right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swarzedz24.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.automatyka.pl/produkty/przetwarzanie-i-przechowywanie-energii-elektrycznej-7724-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gwiazdybasketu.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.43bis.media.pl/wiadomosci.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abcslubu.pl/panna-mloda/suknie-slubne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://patriotyczna.listastron.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Domain</t>
   </si>
   <si>
@@ -3857,6 +4049,204 @@
   </si>
   <si>
     <t xml:space="preserve">https://boost.ink/fmexxr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sportbar.biz/ukbt2sport.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://toonily.com/webtoon/teach-please-you/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.limetorrents.asia/browse-torrents/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mh24.pl/jakbym-sie-przespal/74658/?fbclid=*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.90minut.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://evertiq.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://faktykrakowa.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pilkarskiswiat.com/puchar-francji-na-antenach-polsatu/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://betonline.net.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://portal.nissanklub.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://codziennikmlawski.pl/2020/02/23/ponad-300-foczek-i-morsow-w-zalewie-ruda-puchary-dla-ciechanowa-fotorelacja/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-play.pl/rozdano-nagrody-na-pierwszej-edycji-polish-gaming-aces/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-playbet.com/athletic-bilbao-fc-barcelona-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://evertiq.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forumfajerwerki.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fresh-market.pl/1509767791/skup_stanek_sp_z_o.o.,f1445587856/cebula_obrana_w_worku_blue_back,s741170313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">autopromo?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://magazyngitarzysta.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">list of sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wkladygrzewcze.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iknurow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ki24.info/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://legionisci.com/news/80455_Wyniki_22_kolejki_PLK.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://miastons.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://mikrokontroler.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.naszwodzislaw.com/site/index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://niebezpiecznik.pl/post/osint-bialy-wywiad-czyli-techniki-pozyskiwania-informacji-o-ludziach-i-firmach/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baramundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://niebiescy.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://zzapolowy.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://evertiq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.chlodnictwoiklimatyzacja.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://slaskiesiemianowice.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">komin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sokolka.tv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sportowegniezno.pl/index.php/2020/03/13/los-organizatorow-imprez-w-czasach-koronawirusa-nazywaja-nas-zlodziejami/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sportslaski.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://staresiolkowice.pl/iii-turniej-fifa-20-mistrzowskie-rozgrywki-na-konsolach-ps4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tarnowiak.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.temi.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tkn24.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trybunaczestochowska.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup + baner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trzemeszno24.info/narada-w-sprawie-koronawirusa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kredyt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tulegnica.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">panel-right</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://open.fm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://w203.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cant check</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wronieckibazar.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xlomza.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://extraswiecie.pl/wiadomosc/proces-wojta-warlubia-szybko-sie-nie-skonczy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zw.lt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pzu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://zyciezamoscia.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.animezone.pl/anime/hakumei-no-tsubasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">###panelHolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">top 100 torrent sites</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekinomaniak.net/watch-movies/Sonic-Szybki-jak-byskawica-5983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baner</t>
   </si>
   <si>
     <t xml:space="preserve">hrubieszow.info</t>
@@ -4149,7 +4539,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4251,6 +4641,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4345,7 +4741,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4486,8 +4882,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -4502,7 +4898,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4510,15 +4906,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4967,10 +5359,10 @@
   </sheetPr>
   <dimension ref="A1:M664"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B15" activeCellId="0" sqref="B15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A550" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B550" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A550" activeCellId="0" sqref="A550"/>
+      <selection pane="topRight" activeCell="B584" activeCellId="0" sqref="B584"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19187,7 +19579,7 @@
       </c>
       <c r="F564" s="8"/>
       <c r="G564" s="6" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="H564" s="6"/>
       <c r="I564" s="6"/>
@@ -19210,7 +19602,7 @@
       </c>
       <c r="F565" s="8"/>
       <c r="G565" s="6" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="H565" s="6"/>
       <c r="I565" s="6"/>
@@ -19220,16 +19612,21 @@
       <c r="M565" s="6"/>
     </row>
     <row r="566" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A566" s="5"/>
-      <c r="B566" s="5"/>
-      <c r="C566" s="11" t="s">
+      <c r="A566" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B566" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C566" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D566" s="6"/>
+      <c r="D566" s="0" t="s">
+        <v>1008</v>
+      </c>
       <c r="E566" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F566" s="8"/>
       <c r="G566" s="6" t="s">
         <v>206</v>
       </c>
@@ -19240,17 +19637,18 @@
       <c r="L566" s="6"/>
       <c r="M566" s="6"/>
     </row>
-    <row r="567" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="567" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A567" s="5"/>
-      <c r="B567" s="5"/>
-      <c r="C567" s="11" t="s">
+      <c r="B567" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C567" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D567" s="6"/>
       <c r="E567" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F567" s="8"/>
       <c r="G567" s="6" t="s">
         <v>206</v>
       </c>
@@ -19262,16 +19660,21 @@
       <c r="M567" s="6"/>
     </row>
     <row r="568" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A568" s="5"/>
-      <c r="B568" s="5"/>
+      <c r="A568" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B568" s="35" t="s">
+        <v>1011</v>
+      </c>
       <c r="C568" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D568" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="D568" s="0" t="s">
+        <v>1012</v>
+      </c>
       <c r="E568" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F568" s="8"/>
       <c r="G568" s="6" t="s">
         <v>206</v>
       </c>
@@ -19282,17 +19685,22 @@
       <c r="L568" s="6"/>
       <c r="M568" s="6"/>
     </row>
-    <row r="569" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A569" s="5"/>
-      <c r="B569" s="5"/>
+    <row r="569" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A569" s="5" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B569" s="35" t="s">
+        <v>1014</v>
+      </c>
       <c r="C569" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D569" s="6"/>
+      <c r="D569" s="0" t="s">
+        <v>1015</v>
+      </c>
       <c r="E569" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F569" s="8"/>
       <c r="G569" s="6" t="s">
         <v>206</v>
       </c>
@@ -19304,16 +19712,21 @@
       <c r="M569" s="6"/>
     </row>
     <row r="570" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A570" s="5"/>
-      <c r="B570" s="5"/>
+      <c r="A570" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B570" s="35" t="s">
+        <v>1017</v>
+      </c>
       <c r="C570" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D570" s="6"/>
+      <c r="D570" s="0" t="s">
+        <v>1018</v>
+      </c>
       <c r="E570" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F570" s="8"/>
       <c r="G570" s="6" t="s">
         <v>206</v>
       </c>
@@ -19326,15 +19739,15 @@
     </row>
     <row r="571" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A571" s="5"/>
-      <c r="B571" s="5"/>
+      <c r="B571" s="35" t="s">
+        <v>1019</v>
+      </c>
       <c r="C571" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D571" s="6"/>
       <c r="E571" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F571" s="8"/>
       <c r="G571" s="6" t="s">
         <v>206</v>
       </c>
@@ -19345,17 +19758,17 @@
       <c r="L571" s="6"/>
       <c r="M571" s="6"/>
     </row>
-    <row r="572" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="572" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A572" s="5"/>
-      <c r="B572" s="5"/>
+      <c r="B572" s="5" t="s">
+        <v>1020</v>
+      </c>
       <c r="C572" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D572" s="11"/>
       <c r="E572" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F572" s="8"/>
       <c r="G572" s="6" t="s">
         <v>206</v>
       </c>
@@ -19367,16 +19780,21 @@
       <c r="M572" s="6"/>
     </row>
     <row r="573" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A573" s="5"/>
-      <c r="B573" s="5"/>
+      <c r="A573" s="5" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B573" s="5" t="s">
+        <v>1022</v>
+      </c>
       <c r="C573" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D573" s="35"/>
+      <c r="D573" s="0" t="s">
+        <v>1023</v>
+      </c>
       <c r="E573" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F573" s="8"/>
       <c r="G573" s="6" t="s">
         <v>206</v>
       </c>
@@ -19389,14 +19807,15 @@
     </row>
     <row r="574" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A574" s="5"/>
-      <c r="B574" s="5"/>
+      <c r="B574" s="35" t="s">
+        <v>1024</v>
+      </c>
       <c r="C574" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E574" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F574" s="8"/>
       <c r="G574" s="6" t="s">
         <v>206</v>
       </c>
@@ -19408,16 +19827,21 @@
       <c r="M574" s="6"/>
     </row>
     <row r="575" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A575" s="5"/>
-      <c r="B575" s="5"/>
+      <c r="A575" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B575" s="35" t="s">
+        <v>1026</v>
+      </c>
       <c r="C575" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D575" s="6"/>
+      <c r="D575" s="0" t="s">
+        <v>1027</v>
+      </c>
       <c r="E575" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F575" s="8"/>
       <c r="G575" s="6" t="s">
         <v>206</v>
       </c>
@@ -19429,14 +19853,19 @@
       <c r="M575" s="6"/>
     </row>
     <row r="576" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A576" s="5"/>
-      <c r="B576" s="5"/>
+      <c r="A576" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B576" s="5" t="s">
+        <v>1029</v>
+      </c>
       <c r="C576" s="6"/>
-      <c r="D576" s="6"/>
+      <c r="D576" s="0" t="s">
+        <v>1030</v>
+      </c>
       <c r="E576" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F576" s="8"/>
       <c r="G576" s="6" t="s">
         <v>206</v>
       </c>
@@ -19447,15 +19876,18 @@
       <c r="L576" s="6"/>
       <c r="M576" s="6"/>
     </row>
-    <row r="577" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5"/>
-      <c r="B577" s="5"/>
+      <c r="B577" s="5" t="s">
+        <v>1031</v>
+      </c>
       <c r="C577" s="6"/>
-      <c r="D577" s="6"/>
+      <c r="D577" s="0" t="s">
+        <v>1032</v>
+      </c>
       <c r="E577" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F577" s="8"/>
       <c r="G577" s="6" t="s">
         <v>206</v>
       </c>
@@ -19466,15 +19898,18 @@
       <c r="L577" s="6"/>
       <c r="M577" s="6"/>
     </row>
-    <row r="578" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A578" s="5"/>
-      <c r="B578" s="5"/>
+      <c r="B578" s="5" t="s">
+        <v>1033</v>
+      </c>
       <c r="C578" s="6"/>
-      <c r="D578" s="6"/>
+      <c r="D578" s="0" t="s">
+        <v>1032</v>
+      </c>
       <c r="E578" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F578" s="8"/>
       <c r="G578" s="6" t="s">
         <v>206</v>
       </c>
@@ -19485,15 +19920,15 @@
       <c r="L578" s="6"/>
       <c r="M578" s="6"/>
     </row>
-    <row r="579" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A579" s="5"/>
-      <c r="B579" s="5"/>
+      <c r="B579" s="5" t="s">
+        <v>1034</v>
+      </c>
       <c r="C579" s="6"/>
-      <c r="D579" s="6"/>
       <c r="E579" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F579" s="8"/>
       <c r="G579" s="6" t="s">
         <v>206</v>
       </c>
@@ -19505,14 +19940,21 @@
       <c r="M579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="5"/>
-      <c r="B580" s="5"/>
-      <c r="C580" s="6"/>
-      <c r="D580" s="6"/>
+      <c r="A580" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B580" s="5" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C580" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D580" s="0" t="s">
+        <v>1037</v>
+      </c>
       <c r="E580" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F580" s="8"/>
       <c r="G580" s="6" t="s">
         <v>206</v>
       </c>
@@ -19524,14 +19966,21 @@
       <c r="M580" s="6"/>
     </row>
     <row r="581" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A581" s="5"/>
-      <c r="B581" s="5"/>
-      <c r="C581" s="6"/>
-      <c r="D581" s="6"/>
+      <c r="A581" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B581" s="35" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C581" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D581" s="0" t="s">
+        <v>1040</v>
+      </c>
       <c r="E581" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F581" s="8"/>
       <c r="G581" s="6" t="s">
         <v>206</v>
       </c>
@@ -19544,13 +19993,18 @@
     </row>
     <row r="582" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A582" s="5"/>
-      <c r="B582" s="5"/>
-      <c r="C582" s="6"/>
-      <c r="D582" s="6"/>
+      <c r="B582" s="35" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C582" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D582" s="0" t="s">
+        <v>1042</v>
+      </c>
       <c r="E582" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F582" s="8"/>
       <c r="G582" s="6" t="s">
         <v>206</v>
       </c>
@@ -19562,14 +20016,21 @@
       <c r="M582" s="6"/>
     </row>
     <row r="583" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A583" s="5"/>
-      <c r="B583" s="5"/>
-      <c r="C583" s="6"/>
-      <c r="D583" s="6"/>
+      <c r="A583" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B583" s="35" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C583" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D583" s="0" t="s">
+        <v>1045</v>
+      </c>
       <c r="E583" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F583" s="8"/>
       <c r="G583" s="6" t="s">
         <v>206</v>
       </c>
@@ -19581,14 +20042,22 @@
       <c r="M583" s="6"/>
     </row>
     <row r="584" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A584" s="5"/>
-      <c r="B584" s="5"/>
+      <c r="A584" s="5" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B584" s="5" t="s">
+        <v>1047</v>
+      </c>
       <c r="C584" s="6"/>
-      <c r="D584" s="6"/>
+      <c r="D584" s="0" t="s">
+        <v>1048</v>
+      </c>
       <c r="E584" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F584" s="8"/>
+      <c r="F584" s="0" t="s">
+        <v>1049</v>
+      </c>
       <c r="G584" s="6" t="s">
         <v>206</v>
       </c>
@@ -19599,15 +20068,13 @@
       <c r="L584" s="6"/>
       <c r="M584" s="6"/>
     </row>
-    <row r="585" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A585" s="5"/>
       <c r="B585" s="5"/>
       <c r="C585" s="6"/>
-      <c r="D585" s="6"/>
       <c r="E585" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F585" s="8"/>
       <c r="G585" s="6" t="s">
         <v>206</v>
       </c>
@@ -19622,11 +20089,9 @@
       <c r="A586" s="5"/>
       <c r="B586" s="5"/>
       <c r="C586" s="6"/>
-      <c r="D586" s="6"/>
       <c r="E586" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F586" s="8"/>
       <c r="G586" s="6" t="s">
         <v>206</v>
       </c>
@@ -19641,11 +20106,9 @@
       <c r="A587" s="5"/>
       <c r="B587" s="5"/>
       <c r="C587" s="6"/>
-      <c r="D587" s="6"/>
       <c r="E587" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F587" s="8"/>
       <c r="G587" s="6" t="s">
         <v>206</v>
       </c>
@@ -19679,7 +20142,6 @@
       <c r="A589" s="5"/>
       <c r="B589" s="5"/>
       <c r="C589" s="6"/>
-      <c r="D589" s="6"/>
       <c r="E589" s="6" t="s">
         <v>206</v>
       </c>
@@ -19751,15 +20213,19 @@
       <c r="L592" s="6"/>
       <c r="M592" s="6"/>
     </row>
-    <row r="593" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="5"/>
       <c r="B593" s="5"/>
       <c r="C593" s="6"/>
-      <c r="D593" s="6"/>
+      <c r="D593" s="0" t="s">
+        <v>1050</v>
+      </c>
       <c r="E593" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F593" s="8"/>
+      <c r="F593" s="0" t="s">
+        <v>1051</v>
+      </c>
       <c r="G593" s="6" t="s">
         <v>206</v>
       </c>
@@ -19774,11 +20240,12 @@
       <c r="A594" s="5"/>
       <c r="B594" s="5"/>
       <c r="C594" s="6"/>
-      <c r="D594" s="6"/>
       <c r="E594" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F594" s="8"/>
+      <c r="F594" s="0" t="s">
+        <v>1052</v>
+      </c>
       <c r="G594" s="6" t="s">
         <v>206</v>
       </c>
@@ -19793,11 +20260,12 @@
       <c r="A595" s="5"/>
       <c r="B595" s="5"/>
       <c r="C595" s="6"/>
-      <c r="D595" s="6"/>
       <c r="E595" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F595" s="8"/>
+      <c r="F595" s="0" t="s">
+        <v>1053</v>
+      </c>
       <c r="G595" s="6" t="s">
         <v>206</v>
       </c>
@@ -19808,15 +20276,19 @@
       <c r="L595" s="6"/>
       <c r="M595" s="6"/>
     </row>
-    <row r="596" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A596" s="5"/>
       <c r="B596" s="5"/>
       <c r="C596" s="6"/>
-      <c r="D596" s="6"/>
+      <c r="D596" s="0" t="s">
+        <v>1054</v>
+      </c>
       <c r="E596" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F596" s="8"/>
+      <c r="F596" s="0" t="s">
+        <v>1055</v>
+      </c>
       <c r="G596" s="6" t="s">
         <v>206</v>
       </c>
@@ -19827,11 +20299,10 @@
       <c r="L596" s="6"/>
       <c r="M596" s="6"/>
     </row>
-    <row r="597" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A597" s="5"/>
       <c r="B597" s="5"/>
       <c r="C597" s="6"/>
-      <c r="D597" s="6"/>
       <c r="E597" s="6" t="s">
         <v>206</v>
       </c>
@@ -19846,11 +20317,10 @@
       <c r="L597" s="6"/>
       <c r="M597" s="6"/>
     </row>
-    <row r="598" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A598" s="5"/>
       <c r="B598" s="5"/>
       <c r="C598" s="6"/>
-      <c r="D598" s="6"/>
       <c r="E598" s="6" t="s">
         <v>206</v>
       </c>
@@ -19865,15 +20335,19 @@
       <c r="L598" s="6"/>
       <c r="M598" s="6"/>
     </row>
-    <row r="599" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A599" s="5"/>
       <c r="B599" s="5"/>
       <c r="C599" s="6"/>
-      <c r="D599" s="6"/>
+      <c r="D599" s="0" t="s">
+        <v>1056</v>
+      </c>
       <c r="E599" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F599" s="8"/>
+      <c r="F599" s="0" t="s">
+        <v>1057</v>
+      </c>
       <c r="G599" s="6" t="s">
         <v>206</v>
       </c>
@@ -19884,11 +20358,13 @@
       <c r="L599" s="6"/>
       <c r="M599" s="6"/>
     </row>
-    <row r="600" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A600" s="5"/>
       <c r="B600" s="5"/>
       <c r="C600" s="6"/>
-      <c r="D600" s="6"/>
+      <c r="D600" s="0" t="s">
+        <v>1058</v>
+      </c>
       <c r="E600" s="6" t="s">
         <v>206</v>
       </c>
@@ -19903,11 +20379,13 @@
       <c r="L600" s="6"/>
       <c r="M600" s="6"/>
     </row>
-    <row r="601" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A601" s="5"/>
       <c r="B601" s="5"/>
       <c r="C601" s="6"/>
-      <c r="D601" s="6"/>
+      <c r="D601" s="0" t="s">
+        <v>1059</v>
+      </c>
       <c r="E601" s="6" t="s">
         <v>206</v>
       </c>
@@ -19926,7 +20404,6 @@
       <c r="A602" s="5"/>
       <c r="B602" s="5"/>
       <c r="C602" s="6"/>
-      <c r="D602" s="6"/>
       <c r="E602" s="6" t="s">
         <v>206</v>
       </c>
@@ -19941,11 +20418,10 @@
       <c r="L602" s="6"/>
       <c r="M602" s="6"/>
     </row>
-    <row r="603" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="5"/>
       <c r="B603" s="5"/>
       <c r="C603" s="6"/>
-      <c r="D603" s="6"/>
       <c r="E603" s="6" t="s">
         <v>206</v>
       </c>
@@ -19964,7 +20440,6 @@
       <c r="A604" s="5"/>
       <c r="B604" s="5"/>
       <c r="C604" s="6"/>
-      <c r="D604" s="6"/>
       <c r="E604" s="6" t="s">
         <v>206</v>
       </c>
@@ -19983,7 +20458,6 @@
       <c r="A605" s="5"/>
       <c r="B605" s="5"/>
       <c r="C605" s="6"/>
-      <c r="D605" s="6"/>
       <c r="E605" s="6" t="s">
         <v>206</v>
       </c>
@@ -20002,7 +20476,9 @@
       <c r="A606" s="5"/>
       <c r="B606" s="5"/>
       <c r="C606" s="6"/>
-      <c r="D606" s="6"/>
+      <c r="D606" s="0" t="s">
+        <v>1060</v>
+      </c>
       <c r="E606" s="6" t="s">
         <v>206</v>
       </c>
@@ -20021,7 +20497,6 @@
       <c r="A607" s="5"/>
       <c r="B607" s="5"/>
       <c r="C607" s="6"/>
-      <c r="D607" s="6"/>
       <c r="E607" s="6" t="s">
         <v>206</v>
       </c>
@@ -20040,7 +20515,6 @@
       <c r="A608" s="5"/>
       <c r="B608" s="5"/>
       <c r="C608" s="6"/>
-      <c r="D608" s="6"/>
       <c r="E608" s="6" t="s">
         <v>206</v>
       </c>
@@ -20059,11 +20533,9 @@
       <c r="A609" s="5"/>
       <c r="B609" s="5"/>
       <c r="C609" s="6"/>
-      <c r="D609" s="6"/>
       <c r="E609" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F609" s="8"/>
       <c r="G609" s="6" t="s">
         <v>206</v>
       </c>
@@ -20078,11 +20550,12 @@
       <c r="A610" s="5"/>
       <c r="B610" s="5"/>
       <c r="C610" s="6"/>
-      <c r="D610" s="6"/>
+      <c r="D610" s="0" t="s">
+        <v>1061</v>
+      </c>
       <c r="E610" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F610" s="8"/>
       <c r="G610" s="6" t="s">
         <v>206</v>
       </c>
@@ -20097,11 +20570,12 @@
       <c r="A611" s="5"/>
       <c r="B611" s="5"/>
       <c r="C611" s="6"/>
-      <c r="D611" s="6"/>
+      <c r="D611" s="0" t="s">
+        <v>1062</v>
+      </c>
       <c r="E611" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F611" s="8"/>
       <c r="G611" s="6" t="s">
         <v>206</v>
       </c>
@@ -20116,11 +20590,12 @@
       <c r="A612" s="5"/>
       <c r="B612" s="5"/>
       <c r="C612" s="6"/>
-      <c r="D612" s="6"/>
+      <c r="D612" s="0" t="s">
+        <v>1063</v>
+      </c>
       <c r="E612" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F612" s="8"/>
       <c r="G612" s="6" t="s">
         <v>206</v>
       </c>
@@ -20135,11 +20610,9 @@
       <c r="A613" s="5"/>
       <c r="B613" s="5"/>
       <c r="C613" s="6"/>
-      <c r="D613" s="6"/>
       <c r="E613" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F613" s="8"/>
       <c r="G613" s="6" t="s">
         <v>206</v>
       </c>
@@ -20154,7 +20627,6 @@
       <c r="A614" s="5"/>
       <c r="B614" s="5"/>
       <c r="C614" s="6"/>
-      <c r="D614" s="6"/>
       <c r="E614" s="6" t="s">
         <v>206</v>
       </c>
@@ -21120,7 +21592,7 @@
       <c r="M664" s="6"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486 E390:F485 E487:F1048576 G2:I664 E1:I1">
+  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 E487:E1048576 G2:I664 E1:I1 F614:F1048576 F588:F592">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"NO"</formula>
     </cfRule>
@@ -21133,10 +21605,10 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486 E390:F485 E487:F1048576 G2:I664 E1:I1">
+  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 E487:E1048576 G2:I664 E1:I1 F614:F1048576 F588:F592">
     <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486 E390:F485 E487:F1048576 G2:I664 E1:I1">
+  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 E487:E1048576 G2:I664 E1:I1 F614:F1048576 F588:F592">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"YES"</formula>
     </cfRule>
@@ -21146,7 +21618,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C222 C248:C253 C255:C291 C225:C245 C293:C347 C349:C350 K2:K664 C352:C485 C487:C1048576 C1:C215">
+  <conditionalFormatting sqref="C222 C248:C253 C255:C291 C225:C245 C293:C347 C349:C350 K2:K664 C352:C485 C568:C1048576 C1:C215 C487:C565">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -21241,6 +21713,27 @@
     </cfRule>
     <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C566:C567">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F597:F598 F600:F608">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F597:F598 F600:F608">
+    <cfRule type="containsText" priority="34" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F597:F598 F600:F608">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+      <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -21360,1362 +21853,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1006</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1007</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1008</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1009</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1010</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1011</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1012</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1013</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1014</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1015</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1016</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1017</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1018</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1019</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1020</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1021</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1010</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1022</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1023</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1024</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1025</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1026</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1027</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1028</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1029</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1030</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1031</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1032</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1033</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1034</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1035</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1036</v>
+        <v>1094</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1037</v>
+        <v>1095</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1038</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1039</v>
+        <v>1097</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1040</v>
+        <v>1098</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1041</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1042</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1043</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1044</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1045</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1046</v>
+        <v>1104</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1047</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1048</v>
+        <v>1106</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1049</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1050</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1051</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1052</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1053</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1054</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1055</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1056</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1057</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1058</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1059</v>
+        <v>1117</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>1060</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>1061</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1062</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1063</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>1064</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>1065</v>
+        <v>1123</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1066</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1067</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1068</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>1069</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1070</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1071</v>
+        <v>1129</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1072</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>1073</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1074</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1075</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>1076</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>1077</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>1078</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>1079</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>1080</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>1081</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1082</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>1083</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1084</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1085</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1086</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1087</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1088</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1089</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1090</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1091</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1092</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1093</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1012</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1094</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1095</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1096</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1019</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1097</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1098</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1099</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1100</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1101</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1102</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>1103</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1104</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1105</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1106</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1107</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1108</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1109</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1110</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1111</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>1112</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1113</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>1114</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1115</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1116</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1117</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1118</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1119</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1120</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1121</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1122</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1123</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>1124</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1125</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1126</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>1127</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>1128</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1129</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>1130</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1131</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>1132</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1133</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1134</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1135</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1136</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>1137</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1138</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1139</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>1140</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>1141</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>1142</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>1143</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>1144</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>1145</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>1146</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>1147</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>1148</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>1149</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>1150</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>1151</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>1152</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>1153</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>1154</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>1155</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>1156</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>1157</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>1158</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>1159</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>1160</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>1161</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>1162</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>1163</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>1164</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>1165</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>1166</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>1167</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>1168</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>1169</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>1170</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>1171</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>1172</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>1173</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>1174</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>1175</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>1176</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>1177</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>1178</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>1179</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>1180</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>1181</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>1182</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>1183</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>1184</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>1185</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>1186</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>1187</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>1188</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>1189</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>1190</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>1191</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>1192</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>1193</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>1194</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>1195</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>1196</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>1197</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1198</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>1199</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1007</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>1200</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>1201</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>1202</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>1203</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>1204</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>1205</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>1206</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>1207</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1208</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>1209</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>1210</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1211</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1212</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1213</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>1214</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1215</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>1216</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1217</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>1218</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1219</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1220</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1221</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1222</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>1223</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1224</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>1225</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>1226</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1227</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1228</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1229</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>1230</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1231</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>1232</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1233</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1234</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1235</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1236</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>1237</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>1238</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1239</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1240</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1241</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>1242</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>1243</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>1244</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>1017</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>1245</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>1246</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>1247</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>1248</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>1249</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>1250</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>1251</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>1252</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>1253</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>1254</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>1255</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>1256</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>1257</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>1258</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>1259</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>1260</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>1261</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>1262</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>1263</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>1264</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>1265</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>1266</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>1267</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1268</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>1024</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>1269</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>1270</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>1271</v>
+        <v>1329</v>
       </c>
     </row>
   </sheetData>
@@ -22734,10 +23227,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:K19"/>
+  <dimension ref="B1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22750,27 +23243,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="36" t="s">
-        <v>1272</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="37" t="s">
-        <v>1273</v>
+        <v>1331</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>1274</v>
+        <v>1332</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1275</v>
+        <v>1333</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="37" t="s">
-        <v>1276</v>
+        <v>1334</v>
       </c>
       <c r="C3" s="38" t="s">
-        <v>1274</v>
+        <v>1332</v>
       </c>
       <c r="H3" s="38"/>
       <c r="I3" s="22"/>
@@ -22779,100 +23272,568 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="40" t="s">
-        <v>1277</v>
+        <v>1335</v>
       </c>
       <c r="C4" s="41"/>
       <c r="H4" s="38"/>
       <c r="I4" s="22"/>
       <c r="J4" s="38"/>
     </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="42"/>
       <c r="C5" s="41"/>
       <c r="H5" s="38"/>
       <c r="I5" s="22"/>
       <c r="J5" s="38"/>
     </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="38"/>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="42"/>
       <c r="C6" s="41"/>
       <c r="H6" s="38"/>
       <c r="I6" s="11"/>
       <c r="J6" s="38"/>
     </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="43"/>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="35" t="s">
+        <v>1336</v>
+      </c>
       <c r="C7" s="41"/>
       <c r="H7" s="38"/>
       <c r="I7" s="22"/>
       <c r="J7" s="38"/>
     </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="6"/>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="35" t="s">
+        <v>1337</v>
+      </c>
       <c r="C8" s="41"/>
       <c r="H8" s="38"/>
       <c r="I8" s="22"/>
       <c r="J8" s="38"/>
     </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="37"/>
+    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="35" t="s">
+        <v>1338</v>
+      </c>
       <c r="C9" s="41"/>
       <c r="H9" s="38"/>
       <c r="I9" s="22"/>
       <c r="J9" s="38"/>
     </row>
-    <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="6"/>
+    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="35" t="s">
+        <v>1339</v>
+      </c>
       <c r="C10" s="41"/>
       <c r="H10" s="38"/>
       <c r="I10" s="22"/>
       <c r="J10" s="38"/>
     </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="37"/>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="35" t="s">
+        <v>1340</v>
+      </c>
       <c r="C11" s="41"/>
       <c r="H11" s="38"/>
       <c r="I11" s="22"/>
       <c r="J11" s="38"/>
     </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="6"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="42"/>
       <c r="C12" s="41"/>
       <c r="H12" s="13"/>
       <c r="I12" s="11"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="37"/>
-      <c r="C13" s="41"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="6"/>
-      <c r="C14" s="41"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="37"/>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="6"/>
-      <c r="C16" s="41"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="37"/>
-      <c r="C17" s="41"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="6"/>
-      <c r="C18" s="41"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="37"/>
-      <c r="C19" s="41"/>
-    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="0" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="0" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="0" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="0" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C129" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="0" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="0" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="0" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="0" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="0" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="0" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="0" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C189" s="0" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="0" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C218" s="0" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="0" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C219" s="0" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="0" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="0" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="0" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="0" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="0" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="0" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="0" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C255" s="0" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="0" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C258" s="0" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="0" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B277" s="0" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C277" s="0" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B318" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B325" s="0" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B327" s="0" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B329" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B338" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C338" s="0" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B342" s="0" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B344" s="0" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B346" s="0" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="349" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B349" s="0" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="371" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B371" s="0" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="379" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B379" s="0" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="386" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B386" s="0" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C386" s="0" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="395" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B395" s="0" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C395" s="0" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="401" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B401" s="0" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C401" s="0" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="404" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B404" s="0" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C404" s="0" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="410" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B410" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C410" s="0" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="412" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B412" s="0" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="423" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B423" s="0" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="424" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B424" s="0" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="425" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B425" s="0" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="426" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B426" s="0" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="427" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B427" s="0" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="428" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B428" s="0" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="429" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B429" s="0" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="436" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B436" s="0" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="437" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B437" s="0" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B459" s="0" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C459" s="0" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B463" s="0" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B465" s="0" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C465" s="0" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B467" s="0" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B471" s="0" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C471" s="0" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B473" s="0" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B475" s="0" t="s">
+        <v>187</v>
+      </c>
+      <c r="C475" s="0" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://boost.ink/fmexxr"/>
+    <hyperlink ref="B7" r:id="rId2" display="https://sportbar.biz/ukbt2sport.html"/>
+    <hyperlink ref="B8" r:id="rId3" display="https://toonily.com/webtoon/teach-please-you/"/>
+    <hyperlink ref="B9" r:id="rId4" display="https://www.limetorrents.asia/browse-torrents/"/>
+    <hyperlink ref="B10" r:id="rId5" display="http://mh24.pl/jakbym-sie-przespal/74658/?fbclid=*"/>
+    <hyperlink ref="B11" r:id="rId6" display="http://www.90minut.pl"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22891,7 +23852,7 @@
   </sheetPr>
   <dimension ref="C1:C94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -22902,472 +23863,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1278</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>1279</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>1280</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>1281</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>1282</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>1283</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>1284</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>1285</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>1286</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>1287</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>1288</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>1289</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>1290</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>1291</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>1292</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>1293</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>1294</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>1295</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>1296</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>1297</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>1298</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>1299</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>1300</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>1301</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>1302</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>1303</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>1304</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>1305</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>1306</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>1307</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>1308</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>1309</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>1310</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>1311</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>1312</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>1313</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1314</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>1315</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>1316</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>1317</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>1318</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>1319</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>1320</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>1321</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>1322</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>1323</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>1324</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>1325</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>1326</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>1327</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>1328</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>1329</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>1330</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>1331</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>1332</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>1333</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>1334</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>1335</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>1336</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>1337</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>1338</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>1339</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>1340</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>1341</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>1342</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
-        <v>1343</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>1344</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>1345</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>1346</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>1347</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>1348</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>1349</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>1350</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>1351</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
-        <v>1352</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="0" t="s">
-        <v>1353</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="s">
-        <v>1354</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="0" t="s">
-        <v>1355</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
-        <v>1356</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>1357</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="s">
-        <v>1358</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="0" t="s">
-        <v>1359</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="0" t="s">
-        <v>1360</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="0" t="s">
-        <v>1361</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="0" t="s">
-        <v>1362</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="0" t="s">
-        <v>1363</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="s">
-        <v>1364</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="0" t="s">
-        <v>1365</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="0" t="s">
-        <v>1366</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="s">
-        <v>1367</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="s">
-        <v>1368</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="s">
-        <v>1369</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="0" t="s">
-        <v>1370</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="0" t="s">
-        <v>1371</v>
+        <v>1495</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3498" uniqueCount="1496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3596" uniqueCount="1557">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3112,36 +3112,234 @@
     <t xml:space="preserve">305</t>
   </si>
   <si>
+    <t xml:space="preserve">||leszczynscy.nazwa.pl^$image,domain=zlotowskie.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zlotowskie.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zlotowskie.pl##.bannerSlider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banery^$domain=sportowememy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sportowememy.pl/totti-mial-kuszace-oferty-podczas-gry-w-romie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naszwodzislaw.com,naszrybnik.com##.bazarek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.naszrybnik.com/site/index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.naszwodzislaw.com/site/index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^show-baners.php?$script,domain=24gliwice.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.24gliwice.pl/wiadomosci/nareszcie-po-kilku-miesiacach-przerwy-drogowcy-wracaja-do-remontu-ulicy-michalowskiego/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||reklama-lowicz.pl^$image,domain=lowicz24.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://lowicz24.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trzemeszno24.info##.td-a-rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://trzemeszno24.info/maseczki-trafia-do-mieszkancow-i-sluzb/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">animezone.pl##.rek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.animezone.pl/anime/hack-g-u-returner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||nfkd2ug8d9.com^$third-party</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekinomaniak.net/watch-movies/Sonic-Szybki-jak-byskawica-5983</t>
+  </si>
+  <si>
+    <t xml:space="preserve">313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">w203.pl##.af_sidebar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://w203.pl/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^inline__1_$domain=24wroclaw.pl|24jgora.pl|egawrolin.pl|iochota.pl|eprzasnysz.pl|gpr24.pl|ototorun.pl|zyciekalisza.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egarwolin.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iochota.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eprzasnysz.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gpr24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ototorun.pl/artykul/bibliotekarski-z-gminy/943045</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zyciekalisza.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24starogard.pl##.banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.24starogard.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||androidpolska.pl^*^skapiec-opony.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://androidpolska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||magazynfakty.pl^*^baner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://magazynfakty.pl/gigantyczne-pensje-dyrektorow-politykow/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||magazynfakty.pl^*^ventana_r.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ambassador24.pl/jakie-sa-roznice-miedzy-rrso-a-rso/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||rynekinwestycji.pl^*^baner-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://rynekinwestycji.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">businessjournal.pl##.vmagazine_medium_ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://businessjournal.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banners^$domain=beskidlive.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://beskidlive.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bydgoszcz24.pl##.topLayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bydgoszcz24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^inline__$domain=sejny.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sejny.net</t>
+  </si>
+  <si>
+    <t xml:space="preserve">324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bezdroza.pl##.hestia-banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bezdroza.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biznestuba.pl##.td-a-rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://biznestuba.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
   </si>
   <si>
     <t xml:space="preserve">https://streetwearhypeclub.com/portal/category/footwear/</t>
   </si>
   <si>
+    <t xml:space="preserve">FIX</t>
+  </si>
+  <si>
     <t xml:space="preserve">streetwearhypeclub.com##.wpmui-overlay</t>
   </si>
   <si>
-    <t xml:space="preserve">FIX</t>
-  </si>
-  <si>
     <t xml:space="preserve">streetwearhypeclub.com##.wpmui-popup</t>
   </si>
   <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^shc-timb-background-</t>
   </si>
   <si>
-    <t xml:space="preserve">306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^banery^$domain=sportowememy.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sportowememy.pl/totti-mial-kuszace-oferty-podczas-gry-w-romie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">307</t>
-  </si>
-  <si>
     <t xml:space="preserve">abcslubu.pl##.tcvn-banner-item</t>
   </si>
   <si>
@@ -3152,18 +3350,6 @@
   </si>
   <si>
     <t xml:space="preserve">check partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">^show-baners.php?$script,domain=24gliwice.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.24gliwice.pl/wiadomosci/nareszcie-po-kilku-miesiacach-przerwy-drogowcy-wracaja-do-remontu-ulicy-michalowskiego/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">309</t>
   </si>
   <si>
     <r>
@@ -3182,6 +3368,7 @@
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">g-single a-”]</t>
     </r>
@@ -3190,51 +3377,93 @@
     <t xml:space="preserve">https://www.anywhere.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">block too much</t>
+    <t xml:space="preserve">FIX -block too much</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cmcmedia.pl/testowa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swarzedz24.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.automatyka.pl/produkty/przetwarzanie-i-przechowywanie-energii-elektrycznej-7724-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gwiazdybasketu.pl</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.meczenazywo.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">wp pilot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timberland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">upper right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">video ad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://swarzedz24.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.automatyka.pl/produkty/przetwarzanie-i-przechowywanie-energii-elektrycznej-7724-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gwiazdybasketu.pl</t>
+    <t xml:space="preserve">https://twojradom.pl</t>
   </si>
   <si>
     <t xml:space="preserve">http://www.43bis.media.pl/wiadomosci.html</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.abcslubu.pl/panna-mloda/suknie-slubne</t>
+    <t xml:space="preserve">https://nwloclawek.pl</t>
   </si>
   <si>
     <t xml:space="preserve">http://patriotyczna.listastron.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ddb24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://babice24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://izabelin24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egorzow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bochniazbliska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.boxing.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://budujesz.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bithub.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pultusk24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bytomski.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zycie.pila.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nowinynyskie.com.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://b2-biznes.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://baltic.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bejsment.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bizneston.pl/viewforum.php?f=15&amp;sid=deef9081a1e7a8c115b0ac0794c5bbbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://biznesnafali.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">Domain</t>
   </si>
   <si>
@@ -4069,184 +4298,139 @@
     <t xml:space="preserve">https://evertiq.se</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://faktykrakowa.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html</t>
+    <t xml:space="preserve">https://betonline.net.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://portal.nissanklub.pl/</t>
   </si>
   <si>
     <t xml:space="preserve">https://pilkarskiswiat.com/puchar-francji-na-antenach-polsatu/</t>
   </si>
   <si>
+    <t xml:space="preserve">https://codziennikmlawski.pl/2020/02/23/ponad-300-foczek-i-morsow-w-zalewie-ruda-puchary-dla-ciechanowa-fotorelacja/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://zzapolowy.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tulegnica.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-play.pl/rozdano-nagrody-na-pierwszej-edycji-polish-gaming-aces/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-playbet.com/athletic-bilbao-fc-barcelona-2/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://evertiq.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://magazyngitarzysta.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wkladygrzewcze.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.temi.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.forumfajerwerki.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.fresh-market.pl/1509767791/skup_stanek_sp_z_o.o.,f1445587856/cebula_obrana_w_worku_blue_back,s741170313</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iknurow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://evertiq.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.chlodnictwoiklimatyzacja.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ki24.info/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://tarnowiak.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://xlomza.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://extraswiecie.pl/wiadomosc/proces-wojta-warlubia-szybko-sie-nie-skonczy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://legionisci.com/news/80455_Wyniki_22_kolejki_PLK.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://sportowegniezno.pl/index.php/2020/03/13/los-organizatorow-imprez-w-czasach-koronawirusa-nazywaja-nas-zlodziejami/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://tkn24.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://open.fm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://w203.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://miastons.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sokolka.tv/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.sportslaski.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://niebezpiecznik.pl/post/osint-bialy-wywiad-czyli-techniki-pozyskiwania-informacji-o-ludziach-i-firmach/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://niebiescy.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://slaskiesiemianowice.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://staresiolkowice.pl/iii-turniej-fifa-20-mistrzowskie-rozgrywki-na-konsolach-ps4/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zw.lt/</t>
+  </si>
+  <si>
     <t xml:space="preserve">?</t>
   </si>
   <si>
-    <t xml:space="preserve">https://betonline.net.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://portal.nissanklub.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://codziennikmlawski.pl/2020/02/23/ponad-300-foczek-i-morsow-w-zalewie-ruda-puchary-dla-ciechanowa-fotorelacja/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://e-play.pl/rozdano-nagrody-na-pierwszej-edycji-polish-gaming-aces/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-playbet.com/athletic-bilbao-fc-barcelona-2/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://evertiq.de</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.forumfajerwerki.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.fresh-market.pl/1509767791/skup_stanek_sp_z_o.o.,f1445587856/cebula_obrana_w_worku_blue_back,s741170313</t>
-  </si>
-  <si>
-    <t xml:space="preserve">autopromo?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://magazyngitarzysta.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">list of sites</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://wkladygrzewcze.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iknurow.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reverse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ki24.info/pl/#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://legionisci.com/news/80455_Wyniki_22_kolejki_PLK.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://miastons.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://mikrokontroler.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.naszwodzislaw.com/site/index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://niebezpiecznik.pl/post/osint-bialy-wywiad-czyli-techniki-pozyskiwania-informacji-o-ludziach-i-firmach/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baramundi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://niebiescy.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://zzapolowy.com/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://evertiq.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.chlodnictwoiklimatyzacja.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://slaskiesiemianowice.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">komin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sokolka.tv/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://sportowegniezno.pl/index.php/2020/03/13/los-organizatorow-imprez-w-czasach-koronawirusa-nazywaja-nas-zlodziejami/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.sportslaski.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://staresiolkowice.pl/iii-turniej-fifa-20-mistrzowskie-rozgrywki-na-konsolach-ps4/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://tarnowiak.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.temi.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tkn24.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fix</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://trybunaczestochowska.pl/</t>
   </si>
   <si>
-    <t xml:space="preserve">popup + baner</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://trzemeszno24.info/narada-w-sprawie-koronawirusa/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kredyt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://tulegnica.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">panel-right</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://open.fm/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://w203.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cant check</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wronieckibazar.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://xlomza.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://extraswiecie.pl/wiadomosc/proces-wojta-warlubia-szybko-sie-nie-skonczy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zw.lt/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pzu</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://zyciezamoscia.pl/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.animezone.pl/anime/hakumei-no-tsubasa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">###panelHolder</t>
-  </si>
-  <si>
     <t xml:space="preserve">top 100 torrent sites</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ekinomaniak.net/watch-movies/Sonic-Szybki-jak-byskawica-5983</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baner</t>
+    <t xml:space="preserve">https://agronews.com.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://allaboutmusic.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://ambassador24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://golfnews.pl</t>
   </si>
   <si>
     <t xml:space="preserve">hrubieszow.info</t>
@@ -4642,9 +4826,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFCE181E"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -4662,7 +4847,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4691,6 +4876,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FF203864"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00A65D"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -4741,7 +4932,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="46">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4886,6 +5077,18 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4910,7 +5113,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4925,347 +5128,315 @@
     <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
     <cellStyle name="Excel Built-in Explanatory Text" xfId="21" builtinId="53" customBuiltin="true"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="17">
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
+      </font>
       <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD6DCE5"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FFFFFFFF"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FF8FAADC"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
       </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <color rgb="FF000000"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
     <dxf>
+      <font>
+        <name val="Calibri"/>
+        <charset val="1"/>
+        <family val="2"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <color rgb="FF0563C1"/>
+        <u val="single"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="General"/>
       <fill>
         <patternFill>
-          <bgColor rgb="FFE2F0D9"/>
+          <bgColor rgb="00FFFFFF"/>
         </patternFill>
       </fill>
-      <border diagonalUp="false" diagonalDown="false">
-        <left/>
-        <right/>
-        <top style="thin"/>
-        <bottom style="thin"/>
-        <diagonal/>
-      </border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </dxf>
   </dxfs>
   <colors>
@@ -5287,7 +5458,7 @@
       <rgbColor rgb="FFFFE699"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF8FAADC"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FF660066"/>
@@ -5319,7 +5490,7 @@
       <rgbColor rgb="FF505050"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF002060"/>
-      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF00A65D"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF9C5700"/>
@@ -5332,8 +5503,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M664" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M664"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M667" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M667"/>
   <tableColumns count="13">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Filter"/>
@@ -5357,12 +5528,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M664"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A550" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B550" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A550" activeCellId="0" sqref="A550"/>
-      <selection pane="topRight" activeCell="B584" activeCellId="0" sqref="B584"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A580" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B580" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A580" activeCellId="0" sqref="A580"/>
+      <selection pane="topRight" activeCell="B608" activeCellId="0" sqref="B608"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19856,10 +20027,12 @@
       <c r="A576" s="5" t="s">
         <v>1028</v>
       </c>
-      <c r="B576" s="5" t="s">
+      <c r="B576" s="35" t="s">
         <v>1029</v>
       </c>
-      <c r="C576" s="6"/>
+      <c r="C576" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D576" s="0" t="s">
         <v>1030</v>
       </c>
@@ -19876,14 +20049,13 @@
       <c r="L576" s="6"/>
       <c r="M576" s="6"/>
     </row>
-    <row r="577" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="577" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A577" s="5"/>
-      <c r="B577" s="5" t="s">
+      <c r="B577" s="35" t="s">
         <v>1031</v>
       </c>
-      <c r="C577" s="6"/>
-      <c r="D577" s="0" t="s">
-        <v>1032</v>
+      <c r="C577" s="6" t="s">
+        <v>8</v>
       </c>
       <c r="E577" s="6" t="s">
         <v>206</v>
@@ -19898,14 +20070,18 @@
       <c r="L577" s="6"/>
       <c r="M577" s="6"/>
     </row>
-    <row r="578" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A578" s="5"/>
+    <row r="578" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A578" s="5" t="s">
+        <v>1032</v>
+      </c>
       <c r="B578" s="5" t="s">
         <v>1033</v>
       </c>
-      <c r="C578" s="6"/>
+      <c r="C578" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D578" s="0" t="s">
-        <v>1032</v>
+        <v>1034</v>
       </c>
       <c r="E578" s="6" t="s">
         <v>206</v>
@@ -19920,12 +20096,19 @@
       <c r="L578" s="6"/>
       <c r="M578" s="6"/>
     </row>
-    <row r="579" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A579" s="5"/>
-      <c r="B579" s="5" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C579" s="6"/>
+    <row r="579" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A579" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B579" s="35" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C579" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D579" s="0" t="s">
+        <v>1037</v>
+      </c>
       <c r="E579" s="6" t="s">
         <v>206</v>
       </c>
@@ -19940,17 +20123,12 @@
       <c r="M579" s="6"/>
     </row>
     <row r="580" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A580" s="5" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B580" s="5" t="s">
-        <v>1036</v>
-      </c>
+      <c r="A580" s="5"/>
       <c r="C580" s="6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D580" s="0" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="E580" s="6" t="s">
         <v>206</v>
@@ -19967,16 +20145,16 @@
     </row>
     <row r="581" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A581" s="5" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="B581" s="35" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C581" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D581" s="0" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="E581" s="6" t="s">
         <v>206</v>
@@ -19992,15 +20170,17 @@
       <c r="M581" s="6"/>
     </row>
     <row r="582" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A582" s="5"/>
+      <c r="A582" s="5" t="s">
+        <v>1042</v>
+      </c>
       <c r="B582" s="35" t="s">
-        <v>1041</v>
+        <v>1043</v>
       </c>
       <c r="C582" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="D582" s="0" t="s">
-        <v>1042</v>
+        <v>1044</v>
       </c>
       <c r="E582" s="6" t="s">
         <v>206</v>
@@ -20017,16 +20197,16 @@
     </row>
     <row r="583" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A583" s="5" t="s">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B583" s="35" t="s">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="C583" s="6" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D583" s="0" t="s">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="E583" s="6" t="s">
         <v>206</v>
@@ -20043,20 +20223,19 @@
     </row>
     <row r="584" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A584" s="5" t="s">
-        <v>1046</v>
-      </c>
-      <c r="B584" s="5" t="s">
-        <v>1047</v>
-      </c>
-      <c r="C584" s="6"/>
+        <v>1048</v>
+      </c>
+      <c r="B584" s="35" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C584" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D584" s="0" t="s">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="E584" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="F584" s="0" t="s">
-        <v>1049</v>
       </c>
       <c r="G584" s="6" t="s">
         <v>206</v>
@@ -20068,10 +20247,19 @@
       <c r="L584" s="6"/>
       <c r="M584" s="6"/>
     </row>
-    <row r="585" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A585" s="5"/>
-      <c r="B585" s="5"/>
-      <c r="C585" s="6"/>
+    <row r="585" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A585" s="5" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B585" s="35" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C585" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D585" s="0" t="s">
+        <v>1053</v>
+      </c>
       <c r="E585" s="6" t="s">
         <v>206</v>
       </c>
@@ -20086,12 +20274,22 @@
       <c r="M585" s="6"/>
     </row>
     <row r="586" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A586" s="5"/>
-      <c r="B586" s="5"/>
-      <c r="C586" s="6"/>
+      <c r="A586" s="5" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B586" s="5" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C586" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D586" s="6" t="s">
+        <v>1056</v>
+      </c>
       <c r="E586" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="F586" s="8"/>
       <c r="G586" s="6" t="s">
         <v>206</v>
       </c>
@@ -20102,13 +20300,23 @@
       <c r="L586" s="6"/>
       <c r="M586" s="6"/>
     </row>
-    <row r="587" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A587" s="5"/>
-      <c r="B587" s="5"/>
-      <c r="C587" s="6"/>
+    <row r="587" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A587" s="5" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B587" s="35" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C587" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D587" s="0" t="s">
+        <v>920</v>
+      </c>
       <c r="E587" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="F587" s="8"/>
       <c r="G587" s="6" t="s">
         <v>206</v>
       </c>
@@ -20121,9 +20329,12 @@
     </row>
     <row r="588" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A588" s="5"/>
-      <c r="B588" s="5"/>
-      <c r="C588" s="6"/>
-      <c r="D588" s="6"/>
+      <c r="C588" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D588" s="6" t="s">
+        <v>923</v>
+      </c>
       <c r="E588" s="6" t="s">
         <v>206</v>
       </c>
@@ -20140,8 +20351,12 @@
     </row>
     <row r="589" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A589" s="5"/>
-      <c r="B589" s="5"/>
-      <c r="C589" s="6"/>
+      <c r="C589" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D589" s="6" t="s">
+        <v>1059</v>
+      </c>
       <c r="E589" s="6" t="s">
         <v>206</v>
       </c>
@@ -20158,9 +20373,12 @@
     </row>
     <row r="590" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A590" s="5"/>
-      <c r="B590" s="5"/>
-      <c r="C590" s="6"/>
-      <c r="D590" s="6"/>
+      <c r="C590" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D590" s="6" t="s">
+        <v>1060</v>
+      </c>
       <c r="E590" s="6" t="s">
         <v>206</v>
       </c>
@@ -20177,9 +20395,12 @@
     </row>
     <row r="591" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A591" s="5"/>
-      <c r="B591" s="5"/>
-      <c r="C591" s="6"/>
-      <c r="D591" s="6"/>
+      <c r="C591" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D591" s="6" t="s">
+        <v>1061</v>
+      </c>
       <c r="E591" s="6" t="s">
         <v>206</v>
       </c>
@@ -20196,9 +20417,12 @@
     </row>
     <row r="592" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A592" s="5"/>
-      <c r="B592" s="5"/>
-      <c r="C592" s="6"/>
-      <c r="D592" s="6"/>
+      <c r="C592" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D592" s="6" t="s">
+        <v>1062</v>
+      </c>
       <c r="E592" s="6" t="s">
         <v>206</v>
       </c>
@@ -20213,19 +20437,18 @@
       <c r="L592" s="6"/>
       <c r="M592" s="6"/>
     </row>
-    <row r="593" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="593" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A593" s="5"/>
-      <c r="B593" s="5"/>
-      <c r="C593" s="6"/>
-      <c r="D593" s="0" t="s">
-        <v>1050</v>
+      <c r="C593" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D593" s="6" t="s">
+        <v>1063</v>
       </c>
       <c r="E593" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F593" s="0" t="s">
-        <v>1051</v>
-      </c>
+      <c r="F593" s="8"/>
       <c r="G593" s="6" t="s">
         <v>206</v>
       </c>
@@ -20238,14 +20461,16 @@
     </row>
     <row r="594" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A594" s="5"/>
-      <c r="B594" s="5"/>
-      <c r="C594" s="6"/>
+      <c r="C594" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D594" s="6" t="s">
+        <v>1064</v>
+      </c>
       <c r="E594" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F594" s="0" t="s">
-        <v>1052</v>
-      </c>
+      <c r="F594" s="8"/>
       <c r="G594" s="6" t="s">
         <v>206</v>
       </c>
@@ -20257,15 +20482,22 @@
       <c r="M594" s="6"/>
     </row>
     <row r="595" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A595" s="5"/>
-      <c r="B595" s="5"/>
-      <c r="C595" s="6"/>
+      <c r="A595" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B595" s="5" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C595" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D595" s="6" t="s">
+        <v>1067</v>
+      </c>
       <c r="E595" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F595" s="0" t="s">
-        <v>1053</v>
-      </c>
+      <c r="F595" s="8"/>
       <c r="G595" s="6" t="s">
         <v>206</v>
       </c>
@@ -20276,19 +20508,23 @@
       <c r="L595" s="6"/>
       <c r="M595" s="6"/>
     </row>
-    <row r="596" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A596" s="5"/>
-      <c r="B596" s="5"/>
-      <c r="C596" s="6"/>
-      <c r="D596" s="0" t="s">
-        <v>1054</v>
+    <row r="596" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A596" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B596" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C596" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D596" s="6" t="s">
+        <v>1070</v>
       </c>
       <c r="E596" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F596" s="0" t="s">
-        <v>1055</v>
-      </c>
+      <c r="F596" s="8"/>
       <c r="G596" s="6" t="s">
         <v>206</v>
       </c>
@@ -20299,14 +20535,22 @@
       <c r="L596" s="6"/>
       <c r="M596" s="6"/>
     </row>
-    <row r="597" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A597" s="5"/>
-      <c r="B597" s="5"/>
-      <c r="C597" s="6"/>
+    <row r="597" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A597" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B597" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C597" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D597" s="0" t="s">
+        <v>1073</v>
+      </c>
       <c r="E597" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F597" s="8"/>
       <c r="G597" s="6" t="s">
         <v>206</v>
       </c>
@@ -20317,14 +20561,22 @@
       <c r="L597" s="6"/>
       <c r="M597" s="6"/>
     </row>
-    <row r="598" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A598" s="5"/>
-      <c r="B598" s="5"/>
-      <c r="C598" s="6"/>
+    <row r="598" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A598" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B598" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C598" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D598" s="0" t="s">
+        <v>1076</v>
+      </c>
       <c r="E598" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F598" s="8"/>
       <c r="G598" s="6" t="s">
         <v>206</v>
       </c>
@@ -20335,18 +20587,21 @@
       <c r="L598" s="6"/>
       <c r="M598" s="6"/>
     </row>
-    <row r="599" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A599" s="5"/>
-      <c r="B599" s="5"/>
-      <c r="C599" s="6"/>
+    <row r="599" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A599" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B599" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C599" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D599" s="0" t="s">
-        <v>1056</v>
+        <v>1079</v>
       </c>
       <c r="E599" s="6" t="s">
         <v>206</v>
-      </c>
-      <c r="F599" s="0" t="s">
-        <v>1057</v>
       </c>
       <c r="G599" s="6" t="s">
         <v>206</v>
@@ -20358,17 +20613,22 @@
       <c r="L599" s="6"/>
       <c r="M599" s="6"/>
     </row>
-    <row r="600" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A600" s="5"/>
-      <c r="B600" s="5"/>
-      <c r="C600" s="6"/>
+    <row r="600" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A600" s="5" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B600" s="35" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C600" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D600" s="0" t="s">
-        <v>1058</v>
+        <v>1082</v>
       </c>
       <c r="E600" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F600" s="8"/>
       <c r="G600" s="6" t="s">
         <v>206</v>
       </c>
@@ -20379,12 +20639,18 @@
       <c r="L600" s="6"/>
       <c r="M600" s="6"/>
     </row>
-    <row r="601" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A601" s="5"/>
-      <c r="B601" s="5"/>
-      <c r="C601" s="6"/>
-      <c r="D601" s="0" t="s">
-        <v>1059</v>
+    <row r="601" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A601" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B601" s="35" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C601" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D601" s="36" t="s">
+        <v>1085</v>
       </c>
       <c r="E601" s="6" t="s">
         <v>206</v>
@@ -20401,13 +20667,24 @@
       <c r="M601" s="6"/>
     </row>
     <row r="602" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A602" s="5"/>
-      <c r="B602" s="5"/>
-      <c r="C602" s="6"/>
+      <c r="A602" s="5" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B602" s="35" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C602" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D602" s="0" t="s">
+        <v>1088</v>
+      </c>
       <c r="E602" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F602" s="8"/>
+      <c r="F602" s="8" t="s">
+        <v>1089</v>
+      </c>
       <c r="G602" s="6" t="s">
         <v>206</v>
       </c>
@@ -20418,14 +20695,22 @@
       <c r="L602" s="6"/>
       <c r="M602" s="6"/>
     </row>
-    <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A603" s="5"/>
-      <c r="B603" s="5"/>
-      <c r="C603" s="6"/>
+    <row r="603" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A603" s="5" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B603" s="5" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C603" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D603" s="0" t="s">
+        <v>1092</v>
+      </c>
       <c r="E603" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F603" s="8"/>
       <c r="G603" s="6" t="s">
         <v>206</v>
       </c>
@@ -20437,9 +20722,18 @@
       <c r="M603" s="6"/>
     </row>
     <row r="604" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A604" s="5"/>
-      <c r="B604" s="5"/>
-      <c r="C604" s="6"/>
+      <c r="A604" s="5" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B604" s="5" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C604" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D604" s="0" t="s">
+        <v>1095</v>
+      </c>
       <c r="E604" s="6" t="s">
         <v>206</v>
       </c>
@@ -20455,9 +20749,18 @@
       <c r="M604" s="6"/>
     </row>
     <row r="605" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A605" s="5"/>
-      <c r="B605" s="5"/>
-      <c r="C605" s="6"/>
+      <c r="A605" s="5" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B605" s="35" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C605" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D605" s="0" t="s">
+        <v>1098</v>
+      </c>
       <c r="E605" s="6" t="s">
         <v>206</v>
       </c>
@@ -20474,11 +20777,6 @@
     </row>
     <row r="606" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="5"/>
-      <c r="B606" s="5"/>
-      <c r="C606" s="6"/>
-      <c r="D606" s="0" t="s">
-        <v>1060</v>
-      </c>
       <c r="E606" s="6" t="s">
         <v>206</v>
       </c>
@@ -20495,8 +20793,6 @@
     </row>
     <row r="607" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A607" s="5"/>
-      <c r="B607" s="5"/>
-      <c r="C607" s="6"/>
       <c r="E607" s="6" t="s">
         <v>206</v>
       </c>
@@ -20513,8 +20809,6 @@
     </row>
     <row r="608" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A608" s="5"/>
-      <c r="B608" s="5"/>
-      <c r="C608" s="6"/>
       <c r="E608" s="6" t="s">
         <v>206</v>
       </c>
@@ -20529,13 +20823,12 @@
       <c r="L608" s="6"/>
       <c r="M608" s="6"/>
     </row>
-    <row r="609" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="5"/>
-      <c r="B609" s="5"/>
-      <c r="C609" s="6"/>
       <c r="E609" s="6" t="s">
         <v>206</v>
       </c>
+      <c r="F609" s="8"/>
       <c r="G609" s="6" t="s">
         <v>206</v>
       </c>
@@ -20548,13 +20841,20 @@
     </row>
     <row r="610" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A610" s="5"/>
-      <c r="B610" s="5"/>
-      <c r="C610" s="6"/>
+      <c r="B610" s="5" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C610" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="D610" s="0" t="s">
-        <v>1061</v>
+        <v>1100</v>
       </c>
       <c r="E610" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="F610" s="8" t="s">
+        <v>1101</v>
       </c>
       <c r="G610" s="6" t="s">
         <v>206</v>
@@ -20568,13 +20868,20 @@
     </row>
     <row r="611" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A611" s="5"/>
-      <c r="B611" s="5"/>
-      <c r="C611" s="6"/>
+      <c r="B611" s="5" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C611" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D611" s="0" t="s">
-        <v>1062</v>
+        <v>1101</v>
       </c>
       <c r="E611" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="F611" s="8" t="s">
+        <v>1101</v>
       </c>
       <c r="G611" s="6" t="s">
         <v>206</v>
@@ -20588,13 +20895,20 @@
     </row>
     <row r="612" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="5"/>
-      <c r="B612" s="5"/>
-      <c r="C612" s="6"/>
+      <c r="B612" s="5" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C612" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="D612" s="0" t="s">
-        <v>1063</v>
+        <v>1101</v>
       </c>
       <c r="E612" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="F612" s="0" t="s">
+        <v>1101</v>
       </c>
       <c r="G612" s="6" t="s">
         <v>206</v>
@@ -20608,10 +20922,17 @@
     </row>
     <row r="613" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="5"/>
-      <c r="B613" s="5"/>
-      <c r="C613" s="6"/>
+      <c r="B613" s="5" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C613" s="6" t="s">
+        <v>26</v>
+      </c>
       <c r="E613" s="6" t="s">
         <v>206</v>
+      </c>
+      <c r="F613" s="0" t="s">
+        <v>1101</v>
       </c>
       <c r="G613" s="6" t="s">
         <v>206</v>
@@ -20623,14 +20944,23 @@
       <c r="L613" s="6"/>
       <c r="M613" s="6"/>
     </row>
-    <row r="614" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="5"/>
-      <c r="B614" s="5"/>
-      <c r="C614" s="6"/>
+      <c r="B614" s="35" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C614" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D614" s="0" t="s">
+        <v>1106</v>
+      </c>
       <c r="E614" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F614" s="8"/>
+      <c r="F614" s="0" t="s">
+        <v>1101</v>
+      </c>
       <c r="G614" s="6" t="s">
         <v>206</v>
       </c>
@@ -20641,15 +20971,23 @@
       <c r="L614" s="6"/>
       <c r="M614" s="6"/>
     </row>
-    <row r="615" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="5"/>
-      <c r="B615" s="5"/>
-      <c r="C615" s="6"/>
-      <c r="D615" s="6"/>
+      <c r="B615" s="35" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C615" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D615" s="0" t="s">
+        <v>1108</v>
+      </c>
       <c r="E615" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F615" s="8"/>
+      <c r="F615" s="0" t="s">
+        <v>1101</v>
+      </c>
       <c r="G615" s="6" t="s">
         <v>206</v>
       </c>
@@ -20660,15 +20998,23 @@
       <c r="L615" s="6"/>
       <c r="M615" s="6"/>
     </row>
-    <row r="616" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="5"/>
-      <c r="B616" s="5"/>
-      <c r="C616" s="6"/>
-      <c r="D616" s="6"/>
+      <c r="B616" s="5" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C616" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D616" s="0" t="s">
+        <v>1110</v>
+      </c>
       <c r="E616" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="F616" s="8"/>
+      <c r="F616" s="0" t="s">
+        <v>1111</v>
+      </c>
       <c r="G616" s="6" t="s">
         <v>206</v>
       </c>
@@ -20679,11 +21025,10 @@
       <c r="L616" s="6"/>
       <c r="M616" s="6"/>
     </row>
-    <row r="617" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="5"/>
       <c r="B617" s="5"/>
       <c r="C617" s="6"/>
-      <c r="D617" s="6"/>
       <c r="E617" s="6" t="s">
         <v>206</v>
       </c>
@@ -20698,11 +21043,10 @@
       <c r="L617" s="6"/>
       <c r="M617" s="6"/>
     </row>
-    <row r="618" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="5"/>
       <c r="B618" s="5"/>
       <c r="C618" s="6"/>
-      <c r="D618" s="6"/>
       <c r="E618" s="6" t="s">
         <v>206</v>
       </c>
@@ -20717,11 +21061,10 @@
       <c r="L618" s="6"/>
       <c r="M618" s="6"/>
     </row>
-    <row r="619" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="5"/>
       <c r="B619" s="5"/>
       <c r="C619" s="6"/>
-      <c r="D619" s="6"/>
       <c r="E619" s="6" t="s">
         <v>206</v>
       </c>
@@ -20736,11 +21079,10 @@
       <c r="L619" s="6"/>
       <c r="M619" s="6"/>
     </row>
-    <row r="620" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="5"/>
       <c r="B620" s="5"/>
       <c r="C620" s="6"/>
-      <c r="D620" s="6"/>
       <c r="E620" s="6" t="s">
         <v>206</v>
       </c>
@@ -20755,11 +21097,10 @@
       <c r="L620" s="6"/>
       <c r="M620" s="6"/>
     </row>
-    <row r="621" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A621" s="5"/>
       <c r="B621" s="5"/>
       <c r="C621" s="6"/>
-      <c r="D621" s="6"/>
       <c r="E621" s="6" t="s">
         <v>206</v>
       </c>
@@ -20774,11 +21115,13 @@
       <c r="L621" s="6"/>
       <c r="M621" s="6"/>
     </row>
-    <row r="622" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="5"/>
       <c r="B622" s="5"/>
       <c r="C622" s="6"/>
-      <c r="D622" s="6"/>
+      <c r="D622" s="37" t="s">
+        <v>1112</v>
+      </c>
       <c r="E622" s="6" t="s">
         <v>206</v>
       </c>
@@ -20793,11 +21136,13 @@
       <c r="L622" s="6"/>
       <c r="M622" s="6"/>
     </row>
-    <row r="623" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A623" s="5"/>
       <c r="B623" s="5"/>
       <c r="C623" s="6"/>
-      <c r="D623" s="6"/>
+      <c r="D623" s="0" t="s">
+        <v>1113</v>
+      </c>
       <c r="E623" s="6" t="s">
         <v>206</v>
       </c>
@@ -20812,11 +21157,13 @@
       <c r="L623" s="6"/>
       <c r="M623" s="6"/>
     </row>
-    <row r="624" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A624" s="5"/>
       <c r="B624" s="5"/>
       <c r="C624" s="6"/>
-      <c r="D624" s="6"/>
+      <c r="D624" s="0" t="s">
+        <v>1114</v>
+      </c>
       <c r="E624" s="6" t="s">
         <v>206</v>
       </c>
@@ -20831,11 +21178,13 @@
       <c r="L624" s="6"/>
       <c r="M624" s="6"/>
     </row>
-    <row r="625" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="5"/>
       <c r="B625" s="5"/>
       <c r="C625" s="6"/>
-      <c r="D625" s="6"/>
+      <c r="D625" s="0" t="s">
+        <v>1115</v>
+      </c>
       <c r="E625" s="6" t="s">
         <v>206</v>
       </c>
@@ -20850,11 +21199,13 @@
       <c r="L625" s="6"/>
       <c r="M625" s="6"/>
     </row>
-    <row r="626" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="5"/>
       <c r="B626" s="5"/>
       <c r="C626" s="6"/>
-      <c r="D626" s="6"/>
+      <c r="D626" s="0" t="s">
+        <v>1116</v>
+      </c>
       <c r="E626" s="6" t="s">
         <v>206</v>
       </c>
@@ -20869,11 +21220,13 @@
       <c r="L626" s="6"/>
       <c r="M626" s="6"/>
     </row>
-    <row r="627" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A627" s="5"/>
       <c r="B627" s="5"/>
       <c r="C627" s="6"/>
-      <c r="D627" s="6"/>
+      <c r="D627" s="0" t="s">
+        <v>1117</v>
+      </c>
       <c r="E627" s="6" t="s">
         <v>206</v>
       </c>
@@ -20888,11 +21241,13 @@
       <c r="L627" s="6"/>
       <c r="M627" s="6"/>
     </row>
-    <row r="628" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A628" s="5"/>
       <c r="B628" s="5"/>
       <c r="C628" s="6"/>
-      <c r="D628" s="6"/>
+      <c r="D628" s="0" t="s">
+        <v>1118</v>
+      </c>
       <c r="E628" s="6" t="s">
         <v>206</v>
       </c>
@@ -20911,7 +21266,9 @@
       <c r="A629" s="5"/>
       <c r="B629" s="5"/>
       <c r="C629" s="6"/>
-      <c r="D629" s="6"/>
+      <c r="D629" s="0" t="s">
+        <v>1119</v>
+      </c>
       <c r="E629" s="6" t="s">
         <v>206</v>
       </c>
@@ -20926,11 +21283,13 @@
       <c r="L629" s="6"/>
       <c r="M629" s="6"/>
     </row>
-    <row r="630" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A630" s="5"/>
       <c r="B630" s="5"/>
       <c r="C630" s="6"/>
-      <c r="D630" s="6"/>
+      <c r="D630" s="0" t="s">
+        <v>1120</v>
+      </c>
       <c r="E630" s="6" t="s">
         <v>206</v>
       </c>
@@ -20949,7 +21308,9 @@
       <c r="A631" s="5"/>
       <c r="B631" s="5"/>
       <c r="C631" s="6"/>
-      <c r="D631" s="6"/>
+      <c r="D631" s="0" t="s">
+        <v>1121</v>
+      </c>
       <c r="E631" s="6" t="s">
         <v>206</v>
       </c>
@@ -20964,11 +21325,13 @@
       <c r="L631" s="6"/>
       <c r="M631" s="6"/>
     </row>
-    <row r="632" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="5"/>
       <c r="B632" s="5"/>
       <c r="C632" s="6"/>
-      <c r="D632" s="6"/>
+      <c r="D632" s="38" t="s">
+        <v>1122</v>
+      </c>
       <c r="E632" s="6" t="s">
         <v>206</v>
       </c>
@@ -20987,7 +21350,9 @@
       <c r="A633" s="5"/>
       <c r="B633" s="5"/>
       <c r="C633" s="6"/>
-      <c r="D633" s="6"/>
+      <c r="D633" s="6" t="s">
+        <v>1123</v>
+      </c>
       <c r="E633" s="6" t="s">
         <v>206</v>
       </c>
@@ -21002,11 +21367,13 @@
       <c r="L633" s="6"/>
       <c r="M633" s="6"/>
     </row>
-    <row r="634" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="5"/>
       <c r="B634" s="5"/>
       <c r="C634" s="6"/>
-      <c r="D634" s="6"/>
+      <c r="D634" s="0" t="s">
+        <v>1124</v>
+      </c>
       <c r="E634" s="6" t="s">
         <v>206</v>
       </c>
@@ -21021,11 +21388,13 @@
       <c r="L634" s="6"/>
       <c r="M634" s="6"/>
     </row>
-    <row r="635" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="5"/>
       <c r="B635" s="5"/>
       <c r="C635" s="6"/>
-      <c r="D635" s="6"/>
+      <c r="D635" s="0" t="s">
+        <v>1125</v>
+      </c>
       <c r="E635" s="6" t="s">
         <v>206</v>
       </c>
@@ -21044,7 +21413,9 @@
       <c r="A636" s="5"/>
       <c r="B636" s="5"/>
       <c r="C636" s="6"/>
-      <c r="D636" s="6"/>
+      <c r="D636" s="6" t="s">
+        <v>1126</v>
+      </c>
       <c r="E636" s="6" t="s">
         <v>206</v>
       </c>
@@ -21063,7 +21434,9 @@
       <c r="A637" s="5"/>
       <c r="B637" s="5"/>
       <c r="C637" s="6"/>
-      <c r="D637" s="6"/>
+      <c r="D637" s="6" t="s">
+        <v>584</v>
+      </c>
       <c r="E637" s="6" t="s">
         <v>206</v>
       </c>
@@ -21078,11 +21451,13 @@
       <c r="L637" s="6"/>
       <c r="M637" s="6"/>
     </row>
-    <row r="638" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="5"/>
       <c r="B638" s="5"/>
       <c r="C638" s="6"/>
-      <c r="D638" s="6"/>
+      <c r="D638" s="0" t="s">
+        <v>1127</v>
+      </c>
       <c r="E638" s="6" t="s">
         <v>206</v>
       </c>
@@ -21097,11 +21472,13 @@
       <c r="L638" s="6"/>
       <c r="M638" s="6"/>
     </row>
-    <row r="639" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="5"/>
       <c r="B639" s="5"/>
       <c r="C639" s="6"/>
-      <c r="D639" s="6"/>
+      <c r="D639" s="0" t="s">
+        <v>1128</v>
+      </c>
       <c r="E639" s="6" t="s">
         <v>206</v>
       </c>
@@ -21116,11 +21493,13 @@
       <c r="L639" s="6"/>
       <c r="M639" s="6"/>
     </row>
-    <row r="640" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="5"/>
       <c r="B640" s="5"/>
       <c r="C640" s="6"/>
-      <c r="D640" s="6"/>
+      <c r="D640" s="0" t="s">
+        <v>1129</v>
+      </c>
       <c r="E640" s="6" t="s">
         <v>206</v>
       </c>
@@ -21135,11 +21514,13 @@
       <c r="L640" s="6"/>
       <c r="M640" s="6"/>
     </row>
-    <row r="641" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="5"/>
       <c r="B641" s="5"/>
       <c r="C641" s="6"/>
-      <c r="D641" s="6"/>
+      <c r="D641" s="0" t="s">
+        <v>1130</v>
+      </c>
       <c r="E641" s="6" t="s">
         <v>206</v>
       </c>
@@ -21154,11 +21535,13 @@
       <c r="L641" s="6"/>
       <c r="M641" s="6"/>
     </row>
-    <row r="642" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="5"/>
       <c r="B642" s="5"/>
       <c r="C642" s="6"/>
-      <c r="D642" s="6"/>
+      <c r="D642" s="0" t="s">
+        <v>1131</v>
+      </c>
       <c r="E642" s="6" t="s">
         <v>206</v>
       </c>
@@ -21173,11 +21556,13 @@
       <c r="L642" s="6"/>
       <c r="M642" s="6"/>
     </row>
-    <row r="643" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="5"/>
       <c r="B643" s="5"/>
       <c r="C643" s="6"/>
-      <c r="D643" s="6"/>
+      <c r="D643" s="0" t="s">
+        <v>1132</v>
+      </c>
       <c r="E643" s="6" t="s">
         <v>206</v>
       </c>
@@ -21196,7 +21581,9 @@
       <c r="A644" s="5"/>
       <c r="B644" s="5"/>
       <c r="C644" s="6"/>
-      <c r="D644" s="6"/>
+      <c r="D644" s="6" t="s">
+        <v>1133</v>
+      </c>
       <c r="E644" s="6" t="s">
         <v>206</v>
       </c>
@@ -21215,7 +21602,9 @@
       <c r="A645" s="5"/>
       <c r="B645" s="5"/>
       <c r="C645" s="6"/>
-      <c r="D645" s="6"/>
+      <c r="D645" s="6" t="s">
+        <v>1134</v>
+      </c>
       <c r="E645" s="6" t="s">
         <v>206</v>
       </c>
@@ -21230,11 +21619,13 @@
       <c r="L645" s="6"/>
       <c r="M645" s="6"/>
     </row>
-    <row r="646" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="5"/>
       <c r="B646" s="5"/>
       <c r="C646" s="6"/>
-      <c r="D646" s="6"/>
+      <c r="D646" s="0" t="s">
+        <v>1135</v>
+      </c>
       <c r="E646" s="6" t="s">
         <v>206</v>
       </c>
@@ -21249,11 +21640,13 @@
       <c r="L646" s="6"/>
       <c r="M646" s="6"/>
     </row>
-    <row r="647" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="5"/>
       <c r="B647" s="5"/>
       <c r="C647" s="6"/>
-      <c r="D647" s="6"/>
+      <c r="D647" s="0" t="s">
+        <v>1136</v>
+      </c>
       <c r="E647" s="6" t="s">
         <v>206</v>
       </c>
@@ -21268,11 +21661,13 @@
       <c r="L647" s="6"/>
       <c r="M647" s="6"/>
     </row>
-    <row r="648" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="5"/>
       <c r="B648" s="5"/>
       <c r="C648" s="6"/>
-      <c r="D648" s="6"/>
+      <c r="D648" s="0" t="s">
+        <v>1137</v>
+      </c>
       <c r="E648" s="6" t="s">
         <v>206</v>
       </c>
@@ -21287,11 +21682,13 @@
       <c r="L648" s="6"/>
       <c r="M648" s="6"/>
     </row>
-    <row r="649" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="5"/>
       <c r="B649" s="5"/>
       <c r="C649" s="6"/>
-      <c r="D649" s="6"/>
+      <c r="D649" s="0" t="s">
+        <v>1138</v>
+      </c>
       <c r="E649" s="6" t="s">
         <v>206</v>
       </c>
@@ -21306,11 +21703,13 @@
       <c r="L649" s="6"/>
       <c r="M649" s="6"/>
     </row>
-    <row r="650" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="5"/>
       <c r="B650" s="5"/>
       <c r="C650" s="6"/>
-      <c r="D650" s="6"/>
+      <c r="D650" s="0" t="s">
+        <v>1139</v>
+      </c>
       <c r="E650" s="6" t="s">
         <v>206</v>
       </c>
@@ -21591,153 +21990,287 @@
       <c r="L664" s="6"/>
       <c r="M664" s="6"/>
     </row>
+    <row r="665" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="5"/>
+      <c r="B665" s="5"/>
+      <c r="C665" s="6"/>
+      <c r="D665" s="6"/>
+      <c r="E665" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F665" s="8"/>
+      <c r="G665" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H665" s="6"/>
+      <c r="I665" s="6"/>
+      <c r="J665" s="5"/>
+      <c r="K665" s="6"/>
+      <c r="L665" s="6"/>
+      <c r="M665" s="6"/>
+    </row>
+    <row r="666" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="5"/>
+      <c r="B666" s="5"/>
+      <c r="C666" s="6"/>
+      <c r="D666" s="6"/>
+      <c r="E666" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F666" s="8"/>
+      <c r="G666" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H666" s="6"/>
+      <c r="I666" s="6"/>
+      <c r="J666" s="5"/>
+      <c r="K666" s="6"/>
+      <c r="L666" s="6"/>
+      <c r="M666" s="6"/>
+    </row>
+    <row r="667" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="5"/>
+      <c r="B667" s="5"/>
+      <c r="C667" s="6"/>
+      <c r="D667" s="6"/>
+      <c r="E667" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="F667" s="8"/>
+      <c r="G667" s="6" t="s">
+        <v>206</v>
+      </c>
+      <c r="H667" s="6"/>
+      <c r="I667" s="6"/>
+      <c r="J667" s="5"/>
+      <c r="K667" s="6"/>
+      <c r="L667" s="6"/>
+      <c r="M667" s="6"/>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 E487:E1048576 G2:I664 E1:I1 F614:F1048576 F588:F592">
+  <conditionalFormatting sqref="E2:F23 E24:E26 H668:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 G2:I667 E1:I1 F617:F1048576 E617:E1048576 F586:F596 E487:E615">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(A1))=0</formula>
     </cfRule>
-    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 E487:E1048576 G2:I664 E1:I1 F614:F1048576 F588:F592">
-    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="3"/>
+  <conditionalFormatting sqref="E2:F23 E24:E26 H668:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 G2:I667 E1:I1 F617:F1048576 E617:E1048576 F586:F596 E487:E615">
+    <cfRule type="containsText" priority="5" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F23 E24:E26 H665:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 E487:E1048576 G2:I664 E1:I1 F614:F1048576 F588:F592">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+  <conditionalFormatting sqref="E2:F23 E24:E26 H668:J1048576 E214 E389 E217:E221 E27:F213 E222:F291 E215:F216 E293:F388 F486:F565 E390:F485 G2:I667 E1:I1 F617:F1048576 E617:E1048576 F586:F596 E487:E615">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E293:E485 E487:E1048576 E1:E291">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="5">
+  <conditionalFormatting sqref="E293:E485 E1:E291 E617:E1048576 E487:E615">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C222 C248:C253 C255:C291 C225:C245 C293:C347 C349:C350 K2:K664 C352:C485 C568:C1048576 C1:C215 C487:C565">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+  <conditionalFormatting sqref="C222 C248:C253 C255:C291 C225:C245 C293:C347 C349:C350 K2:K667 C352:C485 C617:C1048576 C1:C215 C487:C565 C568:C575 C604:C605 C578 C583:C602 C581 C615">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M665:M1048576 L1:L664">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
+  <conditionalFormatting sqref="M668:M1048576 L1:L667">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C217:C221">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292:F292">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292:F292">
-    <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="12"/>
+    <cfRule type="containsText" priority="14" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292:F292">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E292">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C292">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="8">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="9">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C247">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="10">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="11">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C348">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="12">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C351">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E486">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E486">
-    <cfRule type="containsText" priority="26" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="24"/>
+    <cfRule type="containsText" priority="26" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E486">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E486">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C486">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C566:C567">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="7">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F597:F598 F600:F608">
+  <conditionalFormatting sqref="F601:F602 F604:F611">
     <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F597:F598 F600:F608">
-    <cfRule type="containsText" priority="34" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="3"/>
+  <conditionalFormatting sqref="F601:F602 F604:F611">
+    <cfRule type="containsText" priority="34" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F597:F598 F600:F608">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="4">
+  <conditionalFormatting sqref="F601:F602 F604:F611">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C610:C613">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C576:C577">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C614:C615">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C579:C580">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C603">
+    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C582">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E616">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E616">
+    <cfRule type="containsText" priority="49" operator="containsText" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="no" dxfId="0"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E616">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E616">
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C616">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K664 C217:C222 C225:C245 C247:C253 C255:C664" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K667 C217:C222 C225:C245 C247:C253 C255:C605 C610:C667" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -21853,1362 +22386,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1064</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1065</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1066</v>
+        <v>1142</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1067</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1068</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1069</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1070</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1071</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1072</v>
+        <v>1148</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1073</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1074</v>
+        <v>1150</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1075</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1076</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1077</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1078</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1079</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1068</v>
+        <v>1144</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1080</v>
+        <v>1156</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1081</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1082</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1083</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1084</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1085</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1086</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1087</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1088</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1089</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1090</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1091</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1092</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1093</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1094</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1095</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1096</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1097</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1098</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1099</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1100</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1101</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1102</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1103</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1104</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1105</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1106</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1107</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1108</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1109</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1110</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1111</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1112</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1113</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1114</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1115</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1116</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1117</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>1118</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>1119</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1120</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1121</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>1122</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>1123</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1124</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1125</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1126</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>1127</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1128</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1129</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1130</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>1131</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1132</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1133</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>1134</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>1135</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>1136</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>1137</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>1138</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>1139</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1140</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>1141</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1142</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1143</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1144</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1145</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1146</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1147</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1148</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1149</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1150</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1151</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1070</v>
+        <v>1146</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1152</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1153</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1154</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1077</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1155</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1156</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1157</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1158</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1159</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1160</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>1161</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1162</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1163</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1164</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1165</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1166</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1167</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1168</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1169</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>1170</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1171</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>1172</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1173</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1174</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1175</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1176</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1177</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1178</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1179</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1180</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1181</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>1182</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1183</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1184</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>1185</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>1186</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1187</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>1188</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1189</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>1190</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1191</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1192</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1193</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1194</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>1195</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1196</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1197</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>1198</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>1199</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>1200</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>1201</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>1202</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>1203</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>1204</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>1205</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>1206</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>1207</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>1208</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>1209</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>1210</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>1211</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>1212</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>1213</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>1214</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>1215</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>1216</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>1217</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>1218</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>1219</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>1220</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>1221</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>1222</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>1223</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>1224</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>1225</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>1226</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>1227</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>1228</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>1229</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>1230</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>1231</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>1232</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>1233</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>1234</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>1235</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>1236</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>1237</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>1238</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>1239</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>1240</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>1241</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>1242</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>1243</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>1244</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>1245</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>1246</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>1247</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>1248</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>1249</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>1250</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>1251</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>1252</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>1253</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>1254</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>1255</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1256</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>1257</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1065</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>1258</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>1259</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>1260</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>1261</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>1262</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>1263</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>1264</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>1265</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1266</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>1267</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>1268</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1269</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1270</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1271</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>1272</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1273</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>1274</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1275</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>1276</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1277</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1278</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1279</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1280</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>1281</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1282</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>1283</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>1284</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1285</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1286</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1287</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>1288</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1289</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>1290</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1291</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1292</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1293</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1294</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>1295</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>1296</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1297</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1298</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1299</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>1300</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>1301</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>1302</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>1075</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>1303</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>1304</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>1305</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>1306</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>1307</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>1308</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>1309</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>1310</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>1311</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>1312</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>1313</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>1314</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>1315</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>1316</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>1317</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>1318</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>1319</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>1320</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>1321</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>1322</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>1323</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>1324</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>1325</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1326</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>1082</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>1327</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>1328</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>1329</v>
+        <v>1405</v>
       </c>
     </row>
   </sheetData>
@@ -23227,10 +23760,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B1:K1048576"/>
+  <dimension ref="A1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23242,485 +23775,782 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="36" t="s">
-        <v>1330</v>
+      <c r="B1" s="39" t="s">
+        <v>1406</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="37" t="s">
-        <v>1331</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>1332</v>
+      <c r="B2" s="40" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>1408</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1333</v>
+        <v>1409</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="37" t="s">
-        <v>1334</v>
-      </c>
-      <c r="C3" s="38" t="s">
-        <v>1332</v>
-      </c>
-      <c r="H3" s="38"/>
+      <c r="B3" s="40" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C3" s="41" t="s">
+        <v>1408</v>
+      </c>
+      <c r="H3" s="41"/>
       <c r="I3" s="22"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="39"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="42"/>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="40" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="H4" s="38"/>
+      <c r="B4" s="43" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C4" s="44"/>
+      <c r="H4" s="41"/>
       <c r="I4" s="22"/>
-      <c r="J4" s="38"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="42"/>
-      <c r="C5" s="41"/>
-      <c r="H5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="44"/>
+      <c r="H5" s="41"/>
       <c r="I5" s="22"/>
-      <c r="J5" s="38"/>
+      <c r="J5" s="41"/>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="42"/>
-      <c r="C6" s="41"/>
-      <c r="H6" s="38"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="44"/>
+      <c r="H6" s="41"/>
       <c r="I6" s="11"/>
-      <c r="J6" s="38"/>
+      <c r="J6" s="41"/>
     </row>
     <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="35" t="s">
-        <v>1336</v>
-      </c>
-      <c r="C7" s="41"/>
-      <c r="H7" s="38"/>
+        <v>1412</v>
+      </c>
+      <c r="C7" s="44"/>
+      <c r="H7" s="41"/>
       <c r="I7" s="22"/>
-      <c r="J7" s="38"/>
+      <c r="J7" s="41"/>
     </row>
     <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="35" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C8" s="41"/>
-      <c r="H8" s="38"/>
+        <v>1413</v>
+      </c>
+      <c r="C8" s="44"/>
+      <c r="H8" s="41"/>
       <c r="I8" s="22"/>
-      <c r="J8" s="38"/>
+      <c r="J8" s="41"/>
     </row>
     <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="35" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C9" s="41"/>
-      <c r="H9" s="38"/>
+        <v>1414</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="H9" s="41"/>
       <c r="I9" s="22"/>
-      <c r="J9" s="38"/>
+      <c r="J9" s="41"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="35" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="H10" s="38"/>
+        <v>1415</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="H10" s="41"/>
       <c r="I10" s="22"/>
-      <c r="J10" s="38"/>
+      <c r="J10" s="41"/>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="35" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C11" s="41"/>
-      <c r="H11" s="38"/>
+        <v>1416</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="H11" s="41"/>
       <c r="I11" s="22"/>
-      <c r="J11" s="38"/>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="42"/>
-      <c r="C12" s="41"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="13"/>
-    </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="J11" s="41"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="0" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="0" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="0" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="0" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="0" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="0" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="0" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="0" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="0" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="0" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="0" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="0" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="0" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="0" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="0" t="s">
+        <v>1435</v>
+      </c>
+    </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="0" t="s">
+        <v>1436</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="0" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="0" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>1441</v>
+      </c>
+    </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="0" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="0" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="0" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="0" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="0" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="0" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C129" s="0" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="0" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="0" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="0" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="0" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="0" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B184" s="0" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B188" s="0" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B189" s="0" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C189" s="0" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B218" s="0" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C218" s="0" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B219" s="0" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C219" s="0" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B228" s="0" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B234" s="0" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B235" s="0" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B240" s="0" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B246" s="0" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B248" s="0" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B255" s="0" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C255" s="0" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B258" s="0" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C258" s="0" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B259" s="0" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="277" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B277" s="0" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C277" s="0" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="318" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B318" s="0" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="325" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B325" s="0" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="327" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B327" s="0" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="329" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B329" s="0" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="338" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B338" s="0" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C338" s="0" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="342" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B342" s="0" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="344" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B344" s="0" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="346" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B346" s="0" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="349" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B349" s="0" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="371" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B371" s="0" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="379" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B379" s="0" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="386" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B386" s="0" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C386" s="0" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="395" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B395" s="0" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C395" s="0" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="401" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B401" s="0" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C401" s="0" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="404" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B404" s="0" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C404" s="0" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="410" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B410" s="0" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C410" s="0" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="412" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B412" s="0" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="423" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B423" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="424" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B424" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="425" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B425" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="426" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B426" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="427" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B427" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="428" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B428" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="429" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B429" s="0" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="436" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B436" s="0" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="437" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B437" s="0" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="459" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B459" s="0" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C459" s="0" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="463" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B463" s="0" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="465" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B465" s="0" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C465" s="0" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="467" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B467" s="0" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="471" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B471" s="0" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C471" s="0" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="473" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B473" s="0" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="475" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B475" s="0" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="0" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="0" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="0" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="0" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="0" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="0" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="0" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="0" t="s">
         <v>187</v>
       </c>
-      <c r="C475" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
+      <c r="C58" s="0" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="0" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="0" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="0" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="0" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="69" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="45"/>
+      <c r="B69" s="45"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+      <c r="I69" s="45"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="0" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="0" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="0" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="0" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -23863,472 +24693,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1402</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>1403</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>1404</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>1405</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>1406</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>1407</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>1408</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>1409</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>1410</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>1411</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>1412</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>1413</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>1414</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>1415</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>1416</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>1417</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>1418</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>1419</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>1420</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>1421</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>1422</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>1423</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>1424</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>1425</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>1426</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>1427</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>1428</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>1429</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>1430</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>1431</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>1432</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>1433</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>1434</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>1435</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>1436</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>1437</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1438</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>1439</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>1440</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>1441</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>1442</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>1443</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>1444</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>1445</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>1446</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>1447</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>1448</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>1449</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>1450</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>1451</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>1452</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>1453</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>1454</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>1455</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>1456</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>1457</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>1458</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>1459</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>1460</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>1461</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>1462</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>1463</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>1464</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>1465</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>1466</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
-        <v>1467</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>1468</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>1469</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>1470</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>1471</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>1472</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>1473</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>1474</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>1475</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
-        <v>1476</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="0" t="s">
-        <v>1477</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="s">
-        <v>1478</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="0" t="s">
-        <v>1479</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
-        <v>1480</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>1481</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="s">
-        <v>1482</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="0" t="s">
-        <v>1483</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="0" t="s">
-        <v>1484</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="0" t="s">
-        <v>1485</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="0" t="s">
-        <v>1486</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="0" t="s">
-        <v>1487</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="s">
-        <v>1488</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="0" t="s">
-        <v>1489</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="0" t="s">
-        <v>1490</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="s">
-        <v>1491</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="s">
-        <v>1492</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="s">
-        <v>1493</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="0" t="s">
-        <v>1494</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="0" t="s">
-        <v>1495</v>
+        <v>1556</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3613" uniqueCount="1569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1580">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3310,6 +3310,9 @@
     <t xml:space="preserve">popup-linux-only</t>
   </si>
   <si>
+    <t xml:space="preserve">reverted</t>
+  </si>
+  <si>
     <t xml:space="preserve">323</t>
   </si>
   <si>
@@ -3344,6 +3347,123 @@
   </si>
   <si>
     <t xml:space="preserve">http://lexus-forum.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">olx.pl##.inter-box_ad-detail_boxing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.olx.pl/oferta/toaleta-wc-toaleta-na-budowe-wynajem-toalety-przenosne-CID619-IDDvrNu.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wylecz.to##div[data-event="slotSeen"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wylecz.to/stomatologia/prognatyzm-warga-habsburska-przyczyny-objawy-leczenie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^kaczynski_click^$subdocument,domain=wylecz.to</t>
+  </si>
+  <si>
+    <t xml:space="preserve">329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cypr24.eu##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cypr24.eu/premie-dla-studentow-beda-wyplacane-od-poniedzialku/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">330</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://cmcmedia.pl/testowa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swarzedz24.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.automatyka.pl/produkty/przetwarzanie-i-przechowywanie-energii-elektrycznej-7724-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gwiazdybasketu.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.meczenazywo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twojradom.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.43bis.media.pl/wiadomosci.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nwloclawek.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://patriotyczna.listastron.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ddb24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://babice24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://izabelin24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egorzow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bochniazbliska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.boxing.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://budujesz.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bithub.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pultusk24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bytomski.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zycie.pila.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nowinynyskie.com.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://b2-biznes.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://baltic.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bejsment.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://bizneston.pl/viewforum.php?f=15&amp;sid=deef9081a1e7a8c115b0ac0794c5bbbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://biznesnafali.pl</t>
   </si>
   <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
@@ -3416,90 +3536,6 @@
     <t xml:space="preserve">block logo</t>
   </si>
   <si>
-    <t xml:space="preserve">http://cmcmedia.pl/testowa/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://swarzedz24.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.automatyka.pl/produkty/przetwarzanie-i-przechowywanie-energii-elektrycznej-7724-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gwiazdybasketu.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.meczenazywo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twojradom.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.43bis.media.pl/wiadomosci.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nwloclawek.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://patriotyczna.listastron.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ddb24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://babice24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://izabelin24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://egorzow.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bochniazbliska.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.boxing.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://budujesz.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bithub.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pultusk24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bytomski.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zycie.pila.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nowinynyskie.com.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://b2-biznes.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://baltic.info.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bejsment.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bizneston.pl/viewforum.php?f=15&amp;sid=deef9081a1e7a8c115b0ac0794c5bbbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://biznesnafali.pl</t>
-  </si>
-  <si>
     <t xml:space="preserve">Domain</t>
   </si>
   <si>
@@ -4389,9 +4425,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.chlodnictwoiklimatyzacja.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reverse</t>
   </si>
   <si>
     <t xml:space="preserve">https://ki24.info/pl/#</t>
@@ -4872,7 +4905,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4907,12 +4940,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDAE3F3"/>
         <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00A65D"/>
-        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
   </fills>
@@ -5027,7 +5054,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5168,10 +5195,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -5281,7 +5304,7 @@
       <rgbColor rgb="FF505050"/>
       <rgbColor rgb="FF969696"/>
       <rgbColor rgb="FF002060"/>
-      <rgbColor rgb="FF00A65D"/>
+      <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
@@ -5321,17 +5344,17 @@
   </sheetPr>
   <dimension ref="A1:M669"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A574" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B574" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A574" activeCellId="0" sqref="A574"/>
-      <selection pane="topRight" activeCell="B594" activeCellId="0" sqref="B594"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A592" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B592" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A592" activeCellId="0" sqref="A592"/>
+      <selection pane="topRight" activeCell="E611" activeCellId="0" sqref="E611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="68.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="31.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="28.66"/>
@@ -20577,7 +20600,9 @@
       <c r="G602" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H602" s="7"/>
+      <c r="H602" s="7" t="s">
+        <v>1095</v>
+      </c>
       <c r="I602" s="7"/>
       <c r="J602" s="7"/>
       <c r="K602" s="7"/>
@@ -20586,16 +20611,16 @@
     </row>
     <row r="603" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A603" s="10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="B603" s="11" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="C603" s="11" t="s">
         <v>32</v>
       </c>
       <c r="D603" s="11" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E603" s="11" t="s">
         <v>16</v>
@@ -20613,16 +20638,16 @@
     </row>
     <row r="604" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A604" s="6" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B604" s="7" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C604" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D604" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="E604" s="7" t="s">
         <v>16</v>
@@ -20640,16 +20665,16 @@
     </row>
     <row r="605" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A605" s="10" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="B605" s="11" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C605" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D605" s="11" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="E605" s="11" t="s">
         <v>16</v>
@@ -20667,16 +20692,16 @@
     </row>
     <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="6" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="B606" s="7" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C606" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D606" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E606" s="7" t="s">
         <v>16</v>
@@ -20692,13 +20717,21 @@
       <c r="L606" s="7"/>
       <c r="M606" s="9"/>
     </row>
-    <row r="607" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A607" s="10"/>
-      <c r="B607" s="11"/>
-      <c r="C607" s="11"/>
-      <c r="D607" s="11"/>
+    <row r="607" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A607" s="10" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B607" s="11" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C607" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D607" s="11" t="s">
+        <v>1110</v>
+      </c>
       <c r="E607" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F607" s="11"/>
       <c r="G607" s="11" t="s">
@@ -20711,13 +20744,21 @@
       <c r="L607" s="11"/>
       <c r="M607" s="12"/>
     </row>
-    <row r="608" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A608" s="6"/>
-      <c r="B608" s="7"/>
-      <c r="C608" s="7"/>
-      <c r="D608" s="7"/>
+    <row r="608" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A608" s="6" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B608" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C608" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D608" s="7" t="s">
+        <v>1113</v>
+      </c>
       <c r="E608" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F608" s="7"/>
       <c r="G608" s="7" t="s">
@@ -20730,13 +20771,17 @@
       <c r="L608" s="7"/>
       <c r="M608" s="9"/>
     </row>
-    <row r="609" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="609" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A609" s="10"/>
-      <c r="B609" s="11"/>
-      <c r="C609" s="11"/>
+      <c r="B609" s="11" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C609" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D609" s="11"/>
       <c r="E609" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F609" s="11"/>
       <c r="G609" s="11" t="s">
@@ -20749,23 +20794,23 @@
       <c r="L609" s="11"/>
       <c r="M609" s="12"/>
     </row>
-    <row r="610" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A610" s="6"/>
+    <row r="610" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A610" s="6" t="s">
+        <v>1115</v>
+      </c>
       <c r="B610" s="7" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C610" s="7" t="s">
-        <v>32</v>
+        <v>1116</v>
+      </c>
+      <c r="C610" s="11" t="s">
+        <v>14</v>
       </c>
       <c r="D610" s="7" t="s">
-        <v>1108</v>
+        <v>1117</v>
       </c>
       <c r="E610" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F610" s="7" t="s">
-        <v>1109</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F610" s="7"/>
       <c r="G610" s="7" t="s">
         <v>212</v>
       </c>
@@ -20776,23 +20821,17 @@
       <c r="L610" s="7"/>
       <c r="M610" s="9"/>
     </row>
-    <row r="611" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A611" s="10"/>
-      <c r="B611" s="11" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C611" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D611" s="11" t="s">
-        <v>1109</v>
-      </c>
+    <row r="611" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A611" s="10" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B611" s="11"/>
+      <c r="C611" s="11"/>
+      <c r="D611" s="11"/>
       <c r="E611" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F611" s="11" t="s">
-        <v>1109</v>
-      </c>
+      <c r="F611" s="11"/>
       <c r="G611" s="11" t="s">
         <v>212</v>
       </c>
@@ -20803,23 +20842,15 @@
       <c r="L611" s="11"/>
       <c r="M611" s="12"/>
     </row>
-    <row r="612" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="612" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A612" s="6"/>
-      <c r="B612" s="7" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C612" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D612" s="7" t="s">
-        <v>1109</v>
-      </c>
+      <c r="B612" s="7"/>
+      <c r="C612" s="11"/>
+      <c r="D612" s="7"/>
       <c r="E612" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F612" s="7" t="s">
-        <v>1109</v>
-      </c>
+      <c r="F612" s="7"/>
       <c r="G612" s="7" t="s">
         <v>212</v>
       </c>
@@ -20830,21 +20861,15 @@
       <c r="L612" s="7"/>
       <c r="M612" s="9"/>
     </row>
-    <row r="613" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="613" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A613" s="10"/>
-      <c r="B613" s="11" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C613" s="11" t="s">
-        <v>32</v>
-      </c>
+      <c r="B613" s="11"/>
+      <c r="C613" s="11"/>
       <c r="D613" s="11"/>
       <c r="E613" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F613" s="11" t="s">
-        <v>1109</v>
-      </c>
+      <c r="F613" s="11"/>
       <c r="G613" s="11" t="s">
         <v>212</v>
       </c>
@@ -20855,23 +20880,15 @@
       <c r="L613" s="11"/>
       <c r="M613" s="12"/>
     </row>
-    <row r="614" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="614" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A614" s="6"/>
-      <c r="B614" s="7" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C614" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D614" s="7" t="s">
-        <v>1114</v>
-      </c>
+      <c r="B614" s="7"/>
+      <c r="C614" s="11"/>
+      <c r="D614" s="7"/>
       <c r="E614" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F614" s="7" t="s">
-        <v>1109</v>
-      </c>
+      <c r="F614" s="7"/>
       <c r="G614" s="7" t="s">
         <v>212</v>
       </c>
@@ -20882,23 +20899,15 @@
       <c r="L614" s="7"/>
       <c r="M614" s="9"/>
     </row>
-    <row r="615" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="615" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="10"/>
-      <c r="B615" s="11" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C615" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D615" s="11" t="s">
-        <v>1116</v>
-      </c>
+      <c r="B615" s="11"/>
+      <c r="C615" s="11"/>
+      <c r="D615" s="11"/>
       <c r="E615" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F615" s="11" t="s">
-        <v>1109</v>
-      </c>
+      <c r="F615" s="11"/>
       <c r="G615" s="11" t="s">
         <v>212</v>
       </c>
@@ -20909,23 +20918,15 @@
       <c r="L615" s="11"/>
       <c r="M615" s="12"/>
     </row>
-    <row r="616" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="616" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="6"/>
-      <c r="B616" s="19" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C616" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D616" s="7" t="s">
-        <v>1118</v>
-      </c>
+      <c r="B616" s="19"/>
+      <c r="C616" s="11"/>
+      <c r="D616" s="7"/>
       <c r="E616" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F616" s="7" t="s">
-        <v>1119</v>
-      </c>
+      <c r="F616" s="7"/>
       <c r="G616" s="7" t="s">
         <v>212</v>
       </c>
@@ -20936,17 +20937,11 @@
       <c r="L616" s="7"/>
       <c r="M616" s="9"/>
     </row>
-    <row r="617" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="617" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A617" s="10"/>
-      <c r="B617" s="11" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C617" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D617" s="11" t="s">
-        <v>1121</v>
-      </c>
+      <c r="B617" s="11"/>
+      <c r="C617" s="11"/>
+      <c r="D617" s="11"/>
       <c r="E617" s="11" t="s">
         <v>212</v>
       </c>
@@ -20961,21 +20956,15 @@
       <c r="L617" s="11"/>
       <c r="M617" s="12"/>
     </row>
-    <row r="618" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="618" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A618" s="6"/>
-      <c r="B618" s="7" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C618" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B618" s="7"/>
+      <c r="C618" s="11"/>
       <c r="D618" s="7"/>
       <c r="E618" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F618" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="F618" s="7"/>
       <c r="G618" s="7" t="s">
         <v>212</v>
       </c>
@@ -20986,7 +20975,7 @@
       <c r="L618" s="7"/>
       <c r="M618" s="9"/>
     </row>
-    <row r="619" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="619" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A619" s="10"/>
       <c r="B619" s="11"/>
       <c r="C619" s="11"/>
@@ -21005,7 +20994,7 @@
       <c r="L619" s="11"/>
       <c r="M619" s="12"/>
     </row>
-    <row r="620" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="620" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A620" s="6"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -21048,7 +21037,7 @@
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
       <c r="D622" s="7" t="s">
-        <v>1124</v>
+        <v>1119</v>
       </c>
       <c r="E622" s="7" t="s">
         <v>212</v>
@@ -21069,7 +21058,7 @@
       <c r="B623" s="11"/>
       <c r="C623" s="11"/>
       <c r="D623" s="11" t="s">
-        <v>1125</v>
+        <v>1120</v>
       </c>
       <c r="E623" s="11" t="s">
         <v>212</v>
@@ -21090,7 +21079,7 @@
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
       <c r="D624" s="7" t="s">
-        <v>1126</v>
+        <v>1121</v>
       </c>
       <c r="E624" s="7" t="s">
         <v>212</v>
@@ -21111,7 +21100,7 @@
       <c r="B625" s="11"/>
       <c r="C625" s="11"/>
       <c r="D625" s="11" t="s">
-        <v>1127</v>
+        <v>1122</v>
       </c>
       <c r="E625" s="11" t="s">
         <v>212</v>
@@ -21132,7 +21121,7 @@
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
       <c r="D626" s="7" t="s">
-        <v>1128</v>
+        <v>1123</v>
       </c>
       <c r="E626" s="7" t="s">
         <v>212</v>
@@ -21153,7 +21142,7 @@
       <c r="B627" s="11"/>
       <c r="C627" s="11"/>
       <c r="D627" s="11" t="s">
-        <v>1129</v>
+        <v>1124</v>
       </c>
       <c r="E627" s="11" t="s">
         <v>212</v>
@@ -21174,7 +21163,7 @@
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
       <c r="D628" s="7" t="s">
-        <v>1130</v>
+        <v>1125</v>
       </c>
       <c r="E628" s="7" t="s">
         <v>212</v>
@@ -21195,7 +21184,7 @@
       <c r="B629" s="11"/>
       <c r="C629" s="11"/>
       <c r="D629" s="11" t="s">
-        <v>1131</v>
+        <v>1126</v>
       </c>
       <c r="E629" s="11" t="s">
         <v>212</v>
@@ -21216,7 +21205,7 @@
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
       <c r="D630" s="7" t="s">
-        <v>1132</v>
+        <v>1127</v>
       </c>
       <c r="E630" s="7" t="s">
         <v>212</v>
@@ -21237,7 +21226,7 @@
       <c r="B631" s="11"/>
       <c r="C631" s="11"/>
       <c r="D631" s="11" t="s">
-        <v>1133</v>
+        <v>1128</v>
       </c>
       <c r="E631" s="11" t="s">
         <v>212</v>
@@ -21258,7 +21247,7 @@
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
       <c r="D632" s="7" t="s">
-        <v>1134</v>
+        <v>1129</v>
       </c>
       <c r="E632" s="7" t="s">
         <v>212</v>
@@ -21279,7 +21268,7 @@
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
       <c r="D633" s="11" t="s">
-        <v>1135</v>
+        <v>1130</v>
       </c>
       <c r="E633" s="11" t="s">
         <v>212</v>
@@ -21300,7 +21289,7 @@
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
       <c r="D634" s="7" t="s">
-        <v>1136</v>
+        <v>1131</v>
       </c>
       <c r="E634" s="7" t="s">
         <v>212</v>
@@ -21321,7 +21310,7 @@
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
       <c r="D635" s="11" t="s">
-        <v>1137</v>
+        <v>1132</v>
       </c>
       <c r="E635" s="11" t="s">
         <v>212</v>
@@ -21342,7 +21331,7 @@
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
       <c r="D636" s="7" t="s">
-        <v>1138</v>
+        <v>1133</v>
       </c>
       <c r="E636" s="7" t="s">
         <v>212</v>
@@ -21384,7 +21373,7 @@
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
       <c r="D638" s="7" t="s">
-        <v>1139</v>
+        <v>1134</v>
       </c>
       <c r="E638" s="7" t="s">
         <v>212</v>
@@ -21405,7 +21394,7 @@
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
       <c r="D639" s="11" t="s">
-        <v>1140</v>
+        <v>1135</v>
       </c>
       <c r="E639" s="11" t="s">
         <v>212</v>
@@ -21426,7 +21415,7 @@
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
       <c r="D640" s="7" t="s">
-        <v>1141</v>
+        <v>1136</v>
       </c>
       <c r="E640" s="7" t="s">
         <v>212</v>
@@ -21447,7 +21436,7 @@
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
       <c r="D641" s="11" t="s">
-        <v>1142</v>
+        <v>1137</v>
       </c>
       <c r="E641" s="11" t="s">
         <v>212</v>
@@ -21468,7 +21457,7 @@
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
       <c r="D642" s="7" t="s">
-        <v>1143</v>
+        <v>1138</v>
       </c>
       <c r="E642" s="7" t="s">
         <v>212</v>
@@ -21489,7 +21478,7 @@
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
       <c r="D643" s="11" t="s">
-        <v>1144</v>
+        <v>1139</v>
       </c>
       <c r="E643" s="11" t="s">
         <v>212</v>
@@ -21510,7 +21499,7 @@
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
       <c r="D644" s="7" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="E644" s="7" t="s">
         <v>212</v>
@@ -21531,7 +21520,7 @@
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
       <c r="D645" s="11" t="s">
-        <v>1146</v>
+        <v>1141</v>
       </c>
       <c r="E645" s="11" t="s">
         <v>212</v>
@@ -21552,7 +21541,7 @@
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
       <c r="D646" s="7" t="s">
-        <v>1147</v>
+        <v>1142</v>
       </c>
       <c r="E646" s="7" t="s">
         <v>212</v>
@@ -21573,7 +21562,7 @@
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
       <c r="D647" s="11" t="s">
-        <v>1148</v>
+        <v>1143</v>
       </c>
       <c r="E647" s="11" t="s">
         <v>212</v>
@@ -21594,7 +21583,7 @@
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
       <c r="D648" s="7" t="s">
-        <v>1149</v>
+        <v>1144</v>
       </c>
       <c r="E648" s="7" t="s">
         <v>212</v>
@@ -21615,7 +21604,7 @@
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
       <c r="D649" s="11" t="s">
-        <v>1150</v>
+        <v>1145</v>
       </c>
       <c r="E649" s="11" t="s">
         <v>212</v>
@@ -21636,7 +21625,7 @@
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
       <c r="D650" s="7" t="s">
-        <v>1151</v>
+        <v>1146</v>
       </c>
       <c r="E650" s="7" t="s">
         <v>212</v>
@@ -21709,15 +21698,23 @@
       <c r="L653" s="11"/>
       <c r="M653" s="12"/>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="6"/>
-      <c r="B654" s="7"/>
-      <c r="C654" s="7"/>
-      <c r="D654" s="7"/>
+      <c r="B654" s="7" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C654" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D654" s="7" t="s">
+        <v>1148</v>
+      </c>
       <c r="E654" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F654" s="7"/>
+      <c r="F654" s="7" t="s">
+        <v>1149</v>
+      </c>
       <c r="G654" s="7" t="s">
         <v>212</v>
       </c>
@@ -21728,15 +21725,23 @@
       <c r="L654" s="7"/>
       <c r="M654" s="9"/>
     </row>
-    <row r="655" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="10"/>
-      <c r="B655" s="11"/>
-      <c r="C655" s="11"/>
-      <c r="D655" s="11"/>
+      <c r="B655" s="11" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C655" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D655" s="11" t="s">
+        <v>1149</v>
+      </c>
       <c r="E655" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F655" s="11"/>
+      <c r="F655" s="11" t="s">
+        <v>1149</v>
+      </c>
       <c r="G655" s="11" t="s">
         <v>212</v>
       </c>
@@ -21747,15 +21752,23 @@
       <c r="L655" s="11"/>
       <c r="M655" s="12"/>
     </row>
-    <row r="656" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="6"/>
-      <c r="B656" s="7"/>
-      <c r="C656" s="7"/>
-      <c r="D656" s="7"/>
+      <c r="B656" s="7" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C656" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D656" s="7" t="s">
+        <v>1149</v>
+      </c>
       <c r="E656" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F656" s="7"/>
+      <c r="F656" s="7" t="s">
+        <v>1149</v>
+      </c>
       <c r="G656" s="7" t="s">
         <v>212</v>
       </c>
@@ -21766,15 +21779,21 @@
       <c r="L656" s="7"/>
       <c r="M656" s="9"/>
     </row>
-    <row r="657" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="10"/>
-      <c r="B657" s="11"/>
-      <c r="C657" s="11"/>
+      <c r="B657" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C657" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D657" s="11"/>
       <c r="E657" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F657" s="11"/>
+      <c r="F657" s="11" t="s">
+        <v>1149</v>
+      </c>
       <c r="G657" s="11" t="s">
         <v>212</v>
       </c>
@@ -21785,15 +21804,23 @@
       <c r="L657" s="11"/>
       <c r="M657" s="12"/>
     </row>
-    <row r="658" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="6"/>
-      <c r="B658" s="7"/>
-      <c r="C658" s="7"/>
-      <c r="D658" s="7"/>
+      <c r="B658" s="7" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C658" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D658" s="7" t="s">
+        <v>1154</v>
+      </c>
       <c r="E658" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F658" s="7"/>
+      <c r="F658" s="7" t="s">
+        <v>1149</v>
+      </c>
       <c r="G658" s="7" t="s">
         <v>212</v>
       </c>
@@ -21804,15 +21831,23 @@
       <c r="L658" s="7"/>
       <c r="M658" s="9"/>
     </row>
-    <row r="659" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="10"/>
-      <c r="B659" s="11"/>
-      <c r="C659" s="11"/>
-      <c r="D659" s="11"/>
+      <c r="B659" s="11" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C659" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D659" s="11" t="s">
+        <v>1156</v>
+      </c>
       <c r="E659" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F659" s="11"/>
+      <c r="F659" s="11" t="s">
+        <v>1149</v>
+      </c>
       <c r="G659" s="11" t="s">
         <v>212</v>
       </c>
@@ -21823,15 +21858,23 @@
       <c r="L659" s="11"/>
       <c r="M659" s="12"/>
     </row>
-    <row r="660" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="6"/>
-      <c r="B660" s="7"/>
-      <c r="C660" s="7"/>
-      <c r="D660" s="7"/>
+      <c r="B660" s="19" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C660" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D660" s="7" t="s">
+        <v>1158</v>
+      </c>
       <c r="E660" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F660" s="7"/>
+      <c r="F660" s="7" t="s">
+        <v>1159</v>
+      </c>
       <c r="G660" s="7" t="s">
         <v>212</v>
       </c>
@@ -21842,11 +21885,17 @@
       <c r="L660" s="7"/>
       <c r="M660" s="9"/>
     </row>
-    <row r="661" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="10"/>
-      <c r="B661" s="11"/>
-      <c r="C661" s="11"/>
-      <c r="D661" s="11"/>
+      <c r="B661" s="11" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C661" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D661" s="11" t="s">
+        <v>1161</v>
+      </c>
       <c r="E661" s="11" t="s">
         <v>212</v>
       </c>
@@ -21861,15 +21910,21 @@
       <c r="L661" s="11"/>
       <c r="M661" s="12"/>
     </row>
-    <row r="662" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="6"/>
-      <c r="B662" s="7"/>
-      <c r="C662" s="7"/>
+      <c r="B662" s="7" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C662" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D662" s="7"/>
       <c r="E662" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F662" s="7"/>
+      <c r="F662" s="7" t="s">
+        <v>1163</v>
+      </c>
       <c r="G662" s="7" t="s">
         <v>212</v>
       </c>
@@ -22006,7 +22061,7 @@
       <c r="M669" s="22"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576 E1:E1048576">
+  <conditionalFormatting sqref="G1:G1048576 E663:E1048576 E1:E653">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -22017,7 +22072,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C663:C1048576 C1:C653">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -22025,8 +22080,27 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E654:E662">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C654:C662">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K667 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C610:C667" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K667 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C620:C667" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -22112,6 +22186,9 @@
     <hyperlink ref="D563" r:id="rId78" display="https://calisia.pl/1,biznes"/>
     <hyperlink ref="D566" r:id="rId79" display="http://www.pozatorun.pl/"/>
     <hyperlink ref="D567" r:id="rId80" display="http://tylkotorun.pl/twarde-pierniki-zapraszaja-do-wolontariatu-sasiedzkiego/"/>
+    <hyperlink ref="D607" r:id="rId81" display="https://www.olx.pl/oferta/toaleta-wc-toaleta-na-budowe-wynajem-toalety-przenosne-CID619-IDDvrNu.html"/>
+    <hyperlink ref="D608" r:id="rId82" display="https://wylecz.to/stomatologia/prognatyzm-warga-habsburska-przyczyny-objawy-leczenie/"/>
+    <hyperlink ref="D610" r:id="rId83" display="https://cypr24.eu/premie-dla-studentow-beda-wyplacane-od-poniedzialku/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22121,7 +22198,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId81"/>
+    <tablePart r:id="rId84"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22133,7 +22210,7 @@
   </sheetPr>
   <dimension ref="A1:A272"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -22144,1362 +22221,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>1152</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>1154</v>
+        <v>1166</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>1155</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>1157</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>1159</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>1160</v>
+        <v>1172</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>1161</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>1162</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>1164</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>1166</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>1167</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>1156</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>1168</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>1169</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>1171</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>1172</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>1173</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>1174</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>1175</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>1176</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
-        <v>1177</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
-        <v>1178</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>1179</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>1180</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>1181</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>1182</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>1183</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>1184</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>1185</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>1186</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>1187</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>1188</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>1189</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>1190</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>1191</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>1192</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>1193</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>1194</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>1195</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>1196</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>1197</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>1198</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>1199</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>1200</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>1201</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>1202</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>1203</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>1204</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>1205</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>1206</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>1207</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>1208</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>1209</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>1210</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>1211</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>1212</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>1213</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>1214</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>1215</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>1216</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
-        <v>1217</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>1218</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
-        <v>1219</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
-        <v>1220</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>1221</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>1222</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
-        <v>1223</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>1224</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>1225</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>1226</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>1227</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>1228</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>1229</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>1230</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>1231</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>1232</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>1233</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>1234</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="0" t="s">
-        <v>1235</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="s">
-        <v>1236</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>1237</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>1238</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="0" t="s">
-        <v>1239</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="s">
-        <v>1158</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="s">
-        <v>1240</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="0" t="s">
-        <v>1241</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="0" t="s">
-        <v>1242</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="0" t="s">
-        <v>1165</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="0" t="s">
-        <v>1243</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="0" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="0" t="s">
-        <v>1245</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="0" t="s">
-        <v>1246</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="0" t="s">
-        <v>1247</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="0" t="s">
-        <v>1248</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="0" t="s">
-        <v>1249</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="0" t="s">
-        <v>1250</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="0" t="s">
-        <v>1251</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="0" t="s">
-        <v>1252</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="0" t="s">
-        <v>1253</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="0" t="s">
-        <v>1254</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="0" t="s">
-        <v>1255</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="0" t="s">
-        <v>1256</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="0" t="s">
-        <v>1257</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="0" t="s">
-        <v>1258</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="0" t="s">
-        <v>1259</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="0" t="s">
-        <v>1260</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="s">
-        <v>1261</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="s">
-        <v>1262</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="0" t="s">
-        <v>1263</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="0" t="s">
-        <v>1264</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="0" t="s">
-        <v>1265</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="0" t="s">
-        <v>1266</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="0" t="s">
-        <v>1267</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="0" t="s">
-        <v>1268</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="0" t="s">
-        <v>1269</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="0" t="s">
-        <v>1270</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="0" t="s">
-        <v>1271</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="0" t="s">
-        <v>1272</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
-        <v>1273</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="0" t="s">
-        <v>1274</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="0" t="s">
-        <v>1275</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="0" t="s">
-        <v>1276</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="0" t="s">
-        <v>1277</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="0" t="s">
-        <v>1278</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="0" t="s">
-        <v>1279</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="0" t="s">
-        <v>1280</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="0" t="s">
-        <v>1281</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="0" t="s">
-        <v>1282</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="0" t="s">
-        <v>1283</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="0" t="s">
-        <v>1284</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="0" t="s">
-        <v>1285</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="0" t="s">
-        <v>1286</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="0" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="0" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="0" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="0" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="0" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="0" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="0" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="0" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="0" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="0" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="0" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="0" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="0" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="0" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="0" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="0" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="0" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="0" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="0" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="0" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="0" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="0" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="0" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="0" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="0" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="0" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="0" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="0" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="0" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="0" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="0" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="0" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="0" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="0" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="0" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="0" t="s">
-        <v>1322</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="0" t="s">
-        <v>1323</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="0" t="s">
-        <v>1324</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="0" t="s">
-        <v>1325</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="0" t="s">
-        <v>1326</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="0" t="s">
-        <v>1327</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="0" t="s">
-        <v>1328</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="0" t="s">
-        <v>1329</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="0" t="s">
-        <v>1330</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="0" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="0" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="0" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="0" t="s">
-        <v>1334</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="0" t="s">
-        <v>1335</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="0" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="0" t="s">
-        <v>1337</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="0" t="s">
-        <v>1338</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="0" t="s">
-        <v>1339</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="0" t="s">
-        <v>1340</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="0" t="s">
-        <v>1341</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="0" t="s">
-        <v>1342</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="0" t="s">
-        <v>1343</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="0" t="s">
-        <v>1344</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="0" t="s">
-        <v>1345</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="0" t="s">
-        <v>1153</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="0" t="s">
-        <v>1346</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="0" t="s">
-        <v>1347</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="0" t="s">
-        <v>1348</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="0" t="s">
-        <v>1349</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="0" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="0" t="s">
-        <v>1351</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="0" t="s">
-        <v>1352</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="0" t="s">
-        <v>1353</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="0" t="s">
-        <v>1354</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="0" t="s">
-        <v>1355</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="0" t="s">
-        <v>1356</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="0" t="s">
-        <v>1357</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="0" t="s">
-        <v>1358</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="0" t="s">
-        <v>1359</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="0" t="s">
-        <v>1360</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="0" t="s">
-        <v>1361</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="0" t="s">
-        <v>1362</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="0" t="s">
-        <v>1363</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="0" t="s">
-        <v>1364</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="0" t="s">
-        <v>1365</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="0" t="s">
-        <v>1366</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="0" t="s">
-        <v>1367</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="0" t="s">
-        <v>1368</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="0" t="s">
-        <v>1369</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="0" t="s">
-        <v>1370</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="0" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="0" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="0" t="s">
-        <v>1373</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="0" t="s">
-        <v>1374</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="0" t="s">
-        <v>1375</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="0" t="s">
-        <v>1376</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="0" t="s">
-        <v>1377</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="0" t="s">
-        <v>1378</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="0" t="s">
-        <v>1379</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="0" t="s">
-        <v>1380</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="0" t="s">
-        <v>1381</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="0" t="s">
-        <v>1382</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="0" t="s">
-        <v>1383</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="0" t="s">
-        <v>1384</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="0" t="s">
-        <v>1385</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="0" t="s">
-        <v>1386</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="0" t="s">
-        <v>1387</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="0" t="s">
-        <v>1388</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="0" t="s">
-        <v>1389</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="0" t="s">
-        <v>1390</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="0" t="s">
-        <v>1163</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="0" t="s">
-        <v>1391</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="0" t="s">
-        <v>1392</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="0" t="s">
-        <v>1393</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="0" t="s">
-        <v>1394</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="0" t="s">
-        <v>1395</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="0" t="s">
-        <v>1396</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="0" t="s">
-        <v>1397</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="0" t="s">
-        <v>1398</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="0" t="s">
-        <v>1399</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="0" t="s">
-        <v>1400</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="0" t="s">
-        <v>1401</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="0" t="s">
-        <v>1402</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="0" t="s">
-        <v>1403</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="0" t="s">
-        <v>1404</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="0" t="s">
-        <v>1405</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="0" t="s">
-        <v>1406</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="0" t="s">
-        <v>1407</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="0" t="s">
-        <v>1408</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="0" t="s">
-        <v>1409</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="0" t="s">
-        <v>1410</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="0" t="s">
-        <v>1411</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="0" t="s">
-        <v>1412</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="0" t="s">
-        <v>1413</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="0" t="s">
-        <v>1414</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="0" t="s">
-        <v>1170</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="0" t="s">
-        <v>1415</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="0" t="s">
-        <v>1416</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="0" t="s">
-        <v>1417</v>
+        <v>1429</v>
       </c>
     </row>
   </sheetData>
@@ -23518,10 +23595,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K79"/>
+  <dimension ref="B1:K1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B57" activeCellId="0" sqref="B57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23534,27 +23611,27 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="23" t="s">
-        <v>1418</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="24" t="s">
-        <v>1419</v>
+        <v>1431</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>1421</v>
+        <v>1433</v>
       </c>
       <c r="I2" s="27"/>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="24" t="s">
-        <v>1422</v>
+        <v>1434</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>1420</v>
+        <v>1432</v>
       </c>
       <c r="H3" s="25"/>
       <c r="I3" s="28"/>
@@ -23563,7 +23640,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="30" t="s">
-        <v>1423</v>
+        <v>1435</v>
       </c>
       <c r="C4" s="31"/>
       <c r="H4" s="25"/>
@@ -23586,7 +23663,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="34" t="s">
-        <v>1424</v>
+        <v>1436</v>
       </c>
       <c r="C7" s="31"/>
       <c r="H7" s="25"/>
@@ -23595,7 +23672,7 @@
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="34" t="s">
-        <v>1425</v>
+        <v>1437</v>
       </c>
       <c r="C8" s="31"/>
       <c r="H8" s="25"/>
@@ -23604,7 +23681,7 @@
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="34" t="s">
-        <v>1426</v>
+        <v>1438</v>
       </c>
       <c r="C9" s="31"/>
       <c r="H9" s="25"/>
@@ -23613,7 +23690,7 @@
     </row>
     <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="34" t="s">
-        <v>1427</v>
+        <v>1439</v>
       </c>
       <c r="C10" s="31"/>
       <c r="H10" s="25"/>
@@ -23622,7 +23699,7 @@
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="34" t="s">
-        <v>1428</v>
+        <v>1440</v>
       </c>
       <c r="C11" s="31"/>
       <c r="H11" s="25"/>
@@ -23631,37 +23708,37 @@
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0" t="s">
-        <v>1429</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
-        <v>1430</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0" t="s">
-        <v>1431</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
-        <v>1432</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
-        <v>1433</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
-        <v>1434</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
-        <v>1435</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23671,162 +23748,154 @@
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="0" t="s">
-        <v>1436</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="0" t="s">
-        <v>1437</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>1438</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0" t="s">
-        <v>1439</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="0" t="s">
-        <v>1440</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="0" t="s">
-        <v>1441</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="0" t="s">
-        <v>1442</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="0" t="s">
-        <v>1443</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="0" t="s">
-        <v>1444</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="0" t="s">
-        <v>1445</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="0" t="s">
-        <v>1446</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="0" t="s">
-        <v>1447</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="0" t="s">
-        <v>1448</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="0" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="0" t="s">
-        <v>1449</v>
-      </c>
-    </row>
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="0" t="s">
-        <v>1450</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>1451</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>1452</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>1453</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>1454</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="0" t="s">
-        <v>1455</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="0" t="s">
-        <v>1456</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="0" t="s">
-        <v>1457</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="0" t="s">
-        <v>1458</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="0" t="s">
-        <v>1459</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="0" t="s">
-        <v>1460</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="0" t="s">
-        <v>1461</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="0" t="s">
-        <v>1462</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="0" t="s">
-        <v>1463</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="0" t="s">
-        <v>1464</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="0" t="s">
-        <v>1465</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="0" t="s">
-        <v>1466</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23834,17 +23903,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>1467</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="0" t="s">
-        <v>1468</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="0" t="s">
-        <v>1469</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23854,40 +23923,38 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0" t="s">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
-      <c r="I69" s="35"/>
-    </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="0" t="s">
-        <v>1471</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="0" t="s">
-        <v>1472</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="0" t="s">
-        <v>1473</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="0" t="s">
-        <v>1474</v>
-      </c>
-    </row>
+        <v>1481</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="0" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="0" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="0" t="s">
+        <v>1485</v>
+      </c>
+    </row>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B4" r:id="rId1" display="https://boost.ink/fmexxr"/>
@@ -23925,472 +23992,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="0" t="s">
-        <v>1475</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="0" t="s">
-        <v>1476</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="0" t="s">
-        <v>1477</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="0" t="s">
-        <v>1478</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="0" t="s">
-        <v>1479</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="0" t="s">
-        <v>1480</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="0" t="s">
-        <v>1481</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="0" t="s">
-        <v>1482</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="0" t="s">
-        <v>1483</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="0" t="s">
-        <v>1484</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="0" t="s">
-        <v>1485</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="0" t="s">
-        <v>1486</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="0" t="s">
-        <v>1487</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="0" t="s">
-        <v>1488</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="0" t="s">
-        <v>1489</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="0" t="s">
-        <v>1490</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="0" t="s">
-        <v>1491</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="0" t="s">
-        <v>1492</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="0" t="s">
-        <v>1493</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="0" t="s">
-        <v>1494</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="0" t="s">
-        <v>1495</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="0" t="s">
-        <v>1496</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="0" t="s">
-        <v>1497</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="0" t="s">
-        <v>1498</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="0" t="s">
-        <v>1499</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="0" t="s">
-        <v>1500</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="0" t="s">
-        <v>1501</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="0" t="s">
-        <v>1502</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="0" t="s">
-        <v>1503</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="0" t="s">
-        <v>1504</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="0" t="s">
-        <v>1505</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="0" t="s">
-        <v>1506</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="0" t="s">
-        <v>1507</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="0" t="s">
-        <v>1508</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="0" t="s">
-        <v>1509</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="0" t="s">
-        <v>1510</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="0" t="s">
-        <v>1511</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="0" t="s">
-        <v>1512</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="0" t="s">
-        <v>1513</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="0" t="s">
-        <v>1514</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="0" t="s">
-        <v>1515</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="0" t="s">
-        <v>1516</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="0" t="s">
-        <v>1517</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="0" t="s">
-        <v>1518</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="0" t="s">
-        <v>1519</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="0" t="s">
-        <v>1520</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="0" t="s">
-        <v>1521</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="0" t="s">
-        <v>1522</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="0" t="s">
-        <v>1523</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="0" t="s">
-        <v>1524</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="0" t="s">
-        <v>1525</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="0" t="s">
-        <v>1526</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="0" t="s">
-        <v>1527</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="0" t="s">
-        <v>1528</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="0" t="s">
-        <v>1529</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="0" t="s">
-        <v>1530</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="0" t="s">
-        <v>1531</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="0" t="s">
-        <v>1532</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="0" t="s">
-        <v>1533</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="0" t="s">
-        <v>1534</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="0" t="s">
-        <v>1535</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="0" t="s">
-        <v>1536</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="0" t="s">
-        <v>1537</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="0" t="s">
-        <v>1538</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="0" t="s">
-        <v>1539</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="0" t="s">
-        <v>1540</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="0" t="s">
-        <v>1541</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="0" t="s">
-        <v>1542</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="0" t="s">
-        <v>1543</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="0" t="s">
-        <v>1544</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="0" t="s">
-        <v>1545</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="0" t="s">
-        <v>1546</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="0" t="s">
-        <v>1547</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="0" t="s">
-        <v>1548</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="0" t="s">
-        <v>1549</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="0" t="s">
-        <v>1550</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="0" t="s">
-        <v>1551</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="0" t="s">
-        <v>1552</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="0" t="s">
-        <v>1553</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="0" t="s">
-        <v>1554</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="0" t="s">
-        <v>1555</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="0" t="s">
-        <v>1556</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="0" t="s">
-        <v>1557</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="0" t="s">
-        <v>1558</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="0" t="s">
-        <v>1559</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="0" t="s">
-        <v>1560</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="0" t="s">
-        <v>1561</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="0" t="s">
-        <v>1562</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="0" t="s">
-        <v>1563</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="0" t="s">
-        <v>1564</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="0" t="s">
-        <v>1565</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="0" t="s">
-        <v>1566</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="0" t="s">
-        <v>1567</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="0" t="s">
-        <v>1568</v>
+        <v>1579</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3627" uniqueCount="1580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1611">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3382,18 +3382,153 @@
     <t xml:space="preserve">330</t>
   </si>
   <si>
-    <t xml:space="preserve">http://cmcmedia.pl/testowa/</t>
+    <t xml:space="preserve">^inline__1_$domain=nwloclawek.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nwloclawek.pl/artykul/pozar-za-pozarem-na/971578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banners^$domain=bytomski.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bytomski.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">332</t>
+  </si>
+  <si>
+    <t xml:space="preserve">b2-biznes.pl##div[class^=”ai-rotate ai-”]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://b2-biznes.pl/ponad-polowa-polakow-nie-ma-zaufania-do-obecnego-systemu-emerytalnego/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">333</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakazany-humor.pl###reklama_s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zakazany-humor.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakazany-humor.pl##.reklama_nad_trescia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zakazany-humor.pl###primary &gt; div &gt; iframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ehumor.pl##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ehumor.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">335</t>
+  </si>
+  <si>
+    <t xml:space="preserve">@@.adrotate.$domain=mh24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://mh24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">336</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||ki24.info/upload/grafiki^$image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banner_stats.$domain=ki24.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">topLayer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">338</t>
+  </si>
+  <si>
+    <t xml:space="preserve">extragoals.com###my-video_html5_api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_preroll.$domain=extragoals.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">339</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kardiolo.pl##.ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.kardiolo.pl/leki.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open.fm###bnr-top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://open.fm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open.fm##div[class^="bnr-con"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open.fm##div[class^="bnr-player-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">341</t>
+  </si>
+  <si>
+    <t xml:space="preserve">echirurgia.pl##.actr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.echirurgia.pl/wyrostek/ostre_zapalenie_wyrostka.htm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">342</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o2.pl#?#div:-abp-has(&gt; img[data-testid^="ad-placeholder-"])</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.o2.pl/informacje/wenezuela-oskarza-kolumbie-o-inwazje-na-morzu-6506778774825089a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">o2.pl##div[class$="container"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">343</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||wpcdn.pl^*^KinoWPpilot_inVideo_$image</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.wp.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">videobaner</t>
   </si>
   <si>
     <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
   </si>
   <si>
-    <t xml:space="preserve">https://swarzedz24.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.automatyka.pl/produkty/przetwarzanie-i-przechowywanie-energii-elektrycznej-7724-11</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
   </si>
   <si>
@@ -3401,69 +3536,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.meczenazywo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://twojradom.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.43bis.media.pl/wiadomosci.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nwloclawek.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://patriotyczna.listastron.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ddb24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://babice24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://izabelin24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://egorzow.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bochniazbliska.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.boxing.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://budujesz.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bithub.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pultusk24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bytomski.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://zycie.pila.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://nowinynyskie.com.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://b2-biznes.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://baltic.info.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://bejsment.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://bizneston.pl/viewforum.php?f=15&amp;sid=deef9081a1e7a8c115b0ac0794c5bbbe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://biznesnafali.pl</t>
   </si>
   <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
@@ -4346,48 +4418,72 @@
     <t xml:space="preserve">drhtv.com.pl##a[href*="fortunaaffiliates.com"]</t>
   </si>
   <si>
+    <t xml:space="preserve">tricky:</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://strims.world/CuprumLubinCzarniRadom.php</t>
   </si>
   <si>
-    <t xml:space="preserve">https://boost.ink/fmexxr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sportbar.biz/ukbt2sport.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://toonily.com/webtoon/teach-please-you/</t>
+    <t xml:space="preserve">https://ddb24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://evertiq.se</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.boxing.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egorzow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.90minut.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://twojradom.pl</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.limetorrents.asia/browse-torrents/</t>
   </si>
   <si>
-    <t xml:space="preserve">http://mh24.pl/jakbym-sie-przespal/74658/?fbclid=*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.90minut.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://evertiq.se</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html</t>
+    <t xml:space="preserve">https://budujesz.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://bithub.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pultusk24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://swarzedz24.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://zycie.pila.pl</t>
   </si>
   <si>
     <t xml:space="preserve">https://faktykrakowa.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">https://nowinynyskie.com.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://betonline.net.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://portal.nissanklub.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://pilkarskiswiat.com/puchar-francji-na-antenach-polsatu/</t>
+    <t xml:space="preserve">http://www.43bis.media.pl/wiadomosci.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://baltic.info.pl</t>
   </si>
   <si>
     <t xml:space="preserve">https://codziennikmlawski.pl/2020/02/23/ponad-300-foczek-i-morsow-w-zalewie-ruda-puchary-dla-ciechanowa-fotorelacja/</t>
   </si>
   <si>
+    <t xml:space="preserve">http://bizneston.pl/viewforum.php?f=15&amp;sid=deef9081a1e7a8c115b0ac0794c5bbbe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://biznesnafali.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://zzapolowy.com/</t>
   </si>
   <si>
@@ -4446,9 +4542,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://tkn24.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://open.fm/</t>
   </si>
   <si>
     <t xml:space="preserve">http://w203.pl/</t>
@@ -4792,7 +4885,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4887,14 +4980,6 @@
       <color rgb="FF505050"/>
       <name val="Courier New"/>
       <family val="3"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
@@ -5054,7 +5139,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5135,6 +5220,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5171,20 +5264,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -5344,10 +5425,10 @@
   </sheetPr>
   <dimension ref="A1:M669"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A592" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B592" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A592" activeCellId="0" sqref="A592"/>
-      <selection pane="topRight" activeCell="E611" activeCellId="0" sqref="E611"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A598" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B598" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A598" activeCellId="0" sqref="A598"/>
+      <selection pane="topRight" activeCell="I613" activeCellId="0" sqref="I613"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20690,7 +20771,7 @@
       <c r="L605" s="11"/>
       <c r="M605" s="12"/>
     </row>
-    <row r="606" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="606" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A606" s="6" t="s">
         <v>1105</v>
       </c>
@@ -20734,8 +20815,8 @@
         <v>16</v>
       </c>
       <c r="F607" s="11"/>
-      <c r="G607" s="11" t="s">
-        <v>212</v>
+      <c r="G607" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H607" s="11"/>
       <c r="I607" s="11"/>
@@ -20762,7 +20843,7 @@
       </c>
       <c r="F608" s="7"/>
       <c r="G608" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H608" s="7"/>
       <c r="I608" s="7"/>
@@ -20784,8 +20865,8 @@
         <v>16</v>
       </c>
       <c r="F609" s="11"/>
-      <c r="G609" s="11" t="s">
-        <v>212</v>
+      <c r="G609" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H609" s="11"/>
       <c r="I609" s="11"/>
@@ -20812,7 +20893,7 @@
       </c>
       <c r="F610" s="7"/>
       <c r="G610" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H610" s="7"/>
       <c r="I610" s="7"/>
@@ -20825,9 +20906,15 @@
       <c r="A611" s="10" t="s">
         <v>1118</v>
       </c>
-      <c r="B611" s="11"/>
-      <c r="C611" s="11"/>
-      <c r="D611" s="11"/>
+      <c r="B611" s="11" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C611" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D611" s="11" t="s">
+        <v>1120</v>
+      </c>
       <c r="E611" s="11" t="s">
         <v>212</v>
       </c>
@@ -20843,10 +20930,18 @@
       <c r="M611" s="12"/>
     </row>
     <row r="612" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A612" s="6"/>
-      <c r="B612" s="7"/>
-      <c r="C612" s="11"/>
-      <c r="D612" s="7"/>
+      <c r="A612" s="6" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B612" s="7" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C612" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D612" s="7" t="s">
+        <v>1123</v>
+      </c>
       <c r="E612" s="7" t="s">
         <v>212</v>
       </c>
@@ -20862,10 +20957,18 @@
       <c r="M612" s="9"/>
     </row>
     <row r="613" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="10"/>
-      <c r="B613" s="11"/>
-      <c r="C613" s="11"/>
-      <c r="D613" s="11"/>
+      <c r="A613" s="10" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B613" s="11" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C613" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D613" s="11" t="s">
+        <v>1126</v>
+      </c>
       <c r="E613" s="11" t="s">
         <v>212</v>
       </c>
@@ -20881,10 +20984,18 @@
       <c r="M613" s="12"/>
     </row>
     <row r="614" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="6"/>
-      <c r="B614" s="7"/>
-      <c r="C614" s="11"/>
-      <c r="D614" s="7"/>
+      <c r="A614" s="6" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B614" s="7" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C614" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D614" s="7" t="s">
+        <v>1129</v>
+      </c>
       <c r="E614" s="7" t="s">
         <v>212</v>
       </c>
@@ -20901,8 +21012,12 @@
     </row>
     <row r="615" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A615" s="10"/>
-      <c r="B615" s="11"/>
-      <c r="C615" s="11"/>
+      <c r="B615" s="11" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C615" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D615" s="11"/>
       <c r="E615" s="11" t="s">
         <v>212</v>
@@ -20920,8 +21035,12 @@
     </row>
     <row r="616" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A616" s="6"/>
-      <c r="B616" s="19"/>
-      <c r="C616" s="11"/>
+      <c r="B616" s="19" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C616" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D616" s="7"/>
       <c r="E616" s="7" t="s">
         <v>212</v>
@@ -20938,10 +21057,18 @@
       <c r="M616" s="9"/>
     </row>
     <row r="617" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="10"/>
-      <c r="B617" s="11"/>
-      <c r="C617" s="11"/>
-      <c r="D617" s="11"/>
+      <c r="A617" s="10" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B617" s="11" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C617" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D617" s="11" t="s">
+        <v>1134</v>
+      </c>
       <c r="E617" s="11" t="s">
         <v>212</v>
       </c>
@@ -20957,10 +21084,18 @@
       <c r="M617" s="12"/>
     </row>
     <row r="618" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="6"/>
-      <c r="B618" s="7"/>
-      <c r="C618" s="11"/>
-      <c r="D618" s="7"/>
+      <c r="A618" s="6" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B618" s="7" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C618" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D618" s="7" t="s">
+        <v>1137</v>
+      </c>
       <c r="E618" s="7" t="s">
         <v>212</v>
       </c>
@@ -20975,11 +21110,19 @@
       <c r="L618" s="7"/>
       <c r="M618" s="9"/>
     </row>
-    <row r="619" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="10"/>
-      <c r="B619" s="11"/>
-      <c r="C619" s="11"/>
-      <c r="D619" s="11"/>
+    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="10" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B619" s="11" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C619" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D619" s="20" t="s">
+        <v>1140</v>
+      </c>
       <c r="E619" s="11" t="s">
         <v>212</v>
       </c>
@@ -20994,15 +21137,25 @@
       <c r="L619" s="11"/>
       <c r="M619" s="12"/>
     </row>
-    <row r="620" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="6"/>
-      <c r="B620" s="7"/>
-      <c r="C620" s="7"/>
-      <c r="D620" s="7"/>
+    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B620" s="7" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C620" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D620" s="21" t="s">
+        <v>1140</v>
+      </c>
       <c r="E620" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F620" s="7"/>
+      <c r="F620" s="7" t="s">
+        <v>1143</v>
+      </c>
       <c r="G620" s="7" t="s">
         <v>212</v>
       </c>
@@ -21014,8 +21167,12 @@
       <c r="M620" s="9"/>
     </row>
     <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="10"/>
-      <c r="B621" s="11"/>
+      <c r="A621" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B621" s="11" t="s">
+        <v>1145</v>
+      </c>
       <c r="C621" s="11"/>
       <c r="D621" s="11"/>
       <c r="E621" s="11" t="s">
@@ -21032,17 +21189,19 @@
       <c r="L621" s="11"/>
       <c r="M621" s="12"/>
     </row>
-    <row r="622" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A622" s="6"/>
-      <c r="B622" s="7"/>
+      <c r="B622" s="7" t="s">
+        <v>1146</v>
+      </c>
       <c r="C622" s="7"/>
-      <c r="D622" s="7" t="s">
-        <v>1119</v>
-      </c>
+      <c r="D622" s="0"/>
       <c r="E622" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F622" s="7"/>
+      <c r="F622" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="G622" s="7" t="s">
         <v>212</v>
       </c>
@@ -21053,17 +21212,25 @@
       <c r="L622" s="7"/>
       <c r="M622" s="9"/>
     </row>
-    <row r="623" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="10"/>
-      <c r="B623" s="11"/>
-      <c r="C623" s="11"/>
-      <c r="D623" s="11" t="s">
-        <v>1120</v>
+    <row r="623" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="10" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B623" s="11" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C623" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D623" s="0" t="s">
+        <v>1149</v>
       </c>
       <c r="E623" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F623" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="F623" s="11" t="s">
+        <v>1150</v>
+      </c>
       <c r="G623" s="11" t="s">
         <v>212</v>
       </c>
@@ -21074,17 +21241,25 @@
       <c r="L623" s="11"/>
       <c r="M623" s="12"/>
     </row>
-    <row r="624" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="6"/>
-      <c r="B624" s="7"/>
-      <c r="C624" s="7"/>
-      <c r="D624" s="7" t="s">
-        <v>1121</v>
+    <row r="624" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="6" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B624" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C624" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D624" s="0" t="s">
+        <v>1153</v>
       </c>
       <c r="E624" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F624" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F624" s="7" t="s">
+        <v>1150</v>
+      </c>
       <c r="G624" s="7" t="s">
         <v>212</v>
       </c>
@@ -21095,15 +21270,17 @@
       <c r="L624" s="7"/>
       <c r="M624" s="9"/>
     </row>
-    <row r="625" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="625" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A625" s="10"/>
-      <c r="B625" s="11"/>
-      <c r="C625" s="11"/>
-      <c r="D625" s="11" t="s">
-        <v>1122</v>
-      </c>
+      <c r="B625" s="11" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C625" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D625" s="0"/>
       <c r="E625" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F625" s="11"/>
       <c r="G625" s="11" t="s">
@@ -21116,15 +21293,17 @@
       <c r="L625" s="11"/>
       <c r="M625" s="12"/>
     </row>
-    <row r="626" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="626" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A626" s="6"/>
-      <c r="B626" s="7"/>
-      <c r="C626" s="7"/>
-      <c r="D626" s="7" t="s">
-        <v>1123</v>
-      </c>
+      <c r="B626" s="7" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C626" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D626" s="0"/>
       <c r="E626" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F626" s="7"/>
       <c r="G626" s="7" t="s">
@@ -21137,17 +21316,25 @@
       <c r="L626" s="7"/>
       <c r="M626" s="9"/>
     </row>
-    <row r="627" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="10"/>
-      <c r="B627" s="11"/>
-      <c r="C627" s="11"/>
-      <c r="D627" s="11" t="s">
-        <v>1124</v>
+    <row r="627" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A627" s="10" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B627" s="11" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C627" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D627" s="0" t="s">
+        <v>1158</v>
       </c>
       <c r="E627" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F627" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="F627" s="11" t="s">
+        <v>1150</v>
+      </c>
       <c r="G627" s="11" t="s">
         <v>212</v>
       </c>
@@ -21158,17 +21345,25 @@
       <c r="L627" s="11"/>
       <c r="M627" s="12"/>
     </row>
-    <row r="628" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="6"/>
-      <c r="B628" s="7"/>
-      <c r="C628" s="7"/>
-      <c r="D628" s="7" t="s">
-        <v>1125</v>
+    <row r="628" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="6" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B628" s="7" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C628" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D628" s="0" t="s">
+        <v>1161</v>
       </c>
       <c r="E628" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F628" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F628" s="7" t="s">
+        <v>1150</v>
+      </c>
       <c r="G628" s="7" t="s">
         <v>212</v>
       </c>
@@ -21179,15 +21374,17 @@
       <c r="L628" s="7"/>
       <c r="M628" s="9"/>
     </row>
-    <row r="629" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="629" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A629" s="10"/>
-      <c r="B629" s="11"/>
-      <c r="C629" s="11"/>
-      <c r="D629" s="11" t="s">
-        <v>1126</v>
-      </c>
+      <c r="B629" s="11" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C629" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D629" s="0"/>
       <c r="E629" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F629" s="11"/>
       <c r="G629" s="11" t="s">
@@ -21200,17 +21397,25 @@
       <c r="L629" s="11"/>
       <c r="M629" s="12"/>
     </row>
-    <row r="630" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="6"/>
-      <c r="B630" s="7"/>
-      <c r="C630" s="7"/>
-      <c r="D630" s="7" t="s">
-        <v>1127</v>
+    <row r="630" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A630" s="6" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B630" s="11" t="s">
+        <v>1164</v>
+      </c>
+      <c r="C630" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D630" s="0" t="s">
+        <v>1165</v>
       </c>
       <c r="E630" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F630" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="F630" s="7" t="s">
+        <v>1166</v>
+      </c>
       <c r="G630" s="7" t="s">
         <v>212</v>
       </c>
@@ -21221,13 +21426,11 @@
       <c r="L630" s="7"/>
       <c r="M630" s="9"/>
     </row>
-    <row r="631" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A631" s="10"/>
-      <c r="B631" s="11"/>
+      <c r="B631" s="0"/>
       <c r="C631" s="11"/>
-      <c r="D631" s="11" t="s">
-        <v>1128</v>
-      </c>
+      <c r="D631" s="7"/>
       <c r="E631" s="11" t="s">
         <v>212</v>
       </c>
@@ -21242,13 +21445,11 @@
       <c r="L631" s="11"/>
       <c r="M631" s="12"/>
     </row>
-    <row r="632" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="632" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A632" s="6"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
-      <c r="D632" s="7" t="s">
-        <v>1129</v>
-      </c>
+      <c r="D632" s="21"/>
       <c r="E632" s="7" t="s">
         <v>212</v>
       </c>
@@ -21263,13 +21464,11 @@
       <c r="L632" s="7"/>
       <c r="M632" s="9"/>
     </row>
-    <row r="633" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="633" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A633" s="10"/>
       <c r="B633" s="11"/>
       <c r="C633" s="11"/>
-      <c r="D633" s="11" t="s">
-        <v>1130</v>
-      </c>
+      <c r="D633" s="7"/>
       <c r="E633" s="11" t="s">
         <v>212</v>
       </c>
@@ -21284,12 +21483,12 @@
       <c r="L633" s="11"/>
       <c r="M633" s="12"/>
     </row>
-    <row r="634" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="6"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
-      <c r="D634" s="7" t="s">
-        <v>1131</v>
+      <c r="D634" s="11" t="s">
+        <v>1167</v>
       </c>
       <c r="E634" s="7" t="s">
         <v>212</v>
@@ -21305,13 +21504,11 @@
       <c r="L634" s="7"/>
       <c r="M634" s="9"/>
     </row>
-    <row r="635" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="10"/>
       <c r="B635" s="11"/>
       <c r="C635" s="11"/>
-      <c r="D635" s="11" t="s">
-        <v>1132</v>
-      </c>
+      <c r="D635" s="0"/>
       <c r="E635" s="11" t="s">
         <v>212</v>
       </c>
@@ -21326,13 +21523,11 @@
       <c r="L635" s="11"/>
       <c r="M635" s="12"/>
     </row>
-    <row r="636" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="6"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
-      <c r="D636" s="7" t="s">
-        <v>1133</v>
-      </c>
+      <c r="D636" s="11"/>
       <c r="E636" s="7" t="s">
         <v>212</v>
       </c>
@@ -21347,12 +21542,12 @@
       <c r="L636" s="7"/>
       <c r="M636" s="9"/>
     </row>
-    <row r="637" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A637" s="10"/>
       <c r="B637" s="11"/>
       <c r="C637" s="11"/>
-      <c r="D637" s="11" t="s">
-        <v>590</v>
+      <c r="D637" s="7" t="s">
+        <v>1168</v>
       </c>
       <c r="E637" s="11" t="s">
         <v>212</v>
@@ -21368,12 +21563,12 @@
       <c r="L637" s="11"/>
       <c r="M637" s="12"/>
     </row>
-    <row r="638" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A638" s="6"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
-      <c r="D638" s="7" t="s">
-        <v>1134</v>
+      <c r="D638" s="11" t="s">
+        <v>1169</v>
       </c>
       <c r="E638" s="7" t="s">
         <v>212</v>
@@ -21389,12 +21584,12 @@
       <c r="L638" s="7"/>
       <c r="M638" s="9"/>
     </row>
-    <row r="639" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A639" s="10"/>
       <c r="B639" s="11"/>
       <c r="C639" s="11"/>
-      <c r="D639" s="11" t="s">
-        <v>1135</v>
+      <c r="D639" s="7" t="s">
+        <v>1170</v>
       </c>
       <c r="E639" s="11" t="s">
         <v>212</v>
@@ -21410,13 +21605,11 @@
       <c r="L639" s="11"/>
       <c r="M639" s="12"/>
     </row>
-    <row r="640" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="640" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A640" s="6"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
-      <c r="D640" s="7" t="s">
-        <v>1136</v>
-      </c>
+      <c r="D640" s="11"/>
       <c r="E640" s="7" t="s">
         <v>212</v>
       </c>
@@ -21431,13 +21624,11 @@
       <c r="L640" s="7"/>
       <c r="M640" s="9"/>
     </row>
-    <row r="641" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A641" s="10"/>
       <c r="B641" s="11"/>
       <c r="C641" s="11"/>
-      <c r="D641" s="11" t="s">
-        <v>1137</v>
-      </c>
+      <c r="D641" s="0"/>
       <c r="E641" s="11" t="s">
         <v>212</v>
       </c>
@@ -21452,13 +21643,11 @@
       <c r="L641" s="11"/>
       <c r="M641" s="12"/>
     </row>
-    <row r="642" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A642" s="6"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
-      <c r="D642" s="7" t="s">
-        <v>1138</v>
-      </c>
+      <c r="D642" s="0"/>
       <c r="E642" s="7" t="s">
         <v>212</v>
       </c>
@@ -21473,13 +21662,11 @@
       <c r="L642" s="7"/>
       <c r="M642" s="9"/>
     </row>
-    <row r="643" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A643" s="10"/>
       <c r="B643" s="11"/>
       <c r="C643" s="11"/>
-      <c r="D643" s="11" t="s">
-        <v>1139</v>
-      </c>
+      <c r="D643" s="0"/>
       <c r="E643" s="11" t="s">
         <v>212</v>
       </c>
@@ -21494,13 +21681,11 @@
       <c r="L643" s="11"/>
       <c r="M643" s="12"/>
     </row>
-    <row r="644" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A644" s="6"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
-      <c r="D644" s="7" t="s">
-        <v>1140</v>
-      </c>
+      <c r="D644" s="0"/>
       <c r="E644" s="7" t="s">
         <v>212</v>
       </c>
@@ -21515,13 +21700,11 @@
       <c r="L644" s="7"/>
       <c r="M644" s="9"/>
     </row>
-    <row r="645" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="10"/>
       <c r="B645" s="11"/>
       <c r="C645" s="11"/>
-      <c r="D645" s="11" t="s">
-        <v>1141</v>
-      </c>
+      <c r="D645" s="0"/>
       <c r="E645" s="11" t="s">
         <v>212</v>
       </c>
@@ -21536,13 +21719,11 @@
       <c r="L645" s="11"/>
       <c r="M645" s="12"/>
     </row>
-    <row r="646" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="6"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
-      <c r="D646" s="7" t="s">
-        <v>1142</v>
-      </c>
+      <c r="D646" s="0"/>
       <c r="E646" s="7" t="s">
         <v>212</v>
       </c>
@@ -21557,13 +21738,11 @@
       <c r="L646" s="7"/>
       <c r="M646" s="9"/>
     </row>
-    <row r="647" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="10"/>
       <c r="B647" s="11"/>
       <c r="C647" s="11"/>
-      <c r="D647" s="11" t="s">
-        <v>1143</v>
-      </c>
+      <c r="D647" s="0"/>
       <c r="E647" s="11" t="s">
         <v>212</v>
       </c>
@@ -21578,13 +21757,11 @@
       <c r="L647" s="11"/>
       <c r="M647" s="12"/>
     </row>
-    <row r="648" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="6"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
-      <c r="D648" s="7" t="s">
-        <v>1144</v>
-      </c>
+      <c r="D648" s="0"/>
       <c r="E648" s="7" t="s">
         <v>212</v>
       </c>
@@ -21599,13 +21776,11 @@
       <c r="L648" s="7"/>
       <c r="M648" s="9"/>
     </row>
-    <row r="649" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="10"/>
       <c r="B649" s="11"/>
       <c r="C649" s="11"/>
-      <c r="D649" s="11" t="s">
-        <v>1145</v>
-      </c>
+      <c r="D649" s="0"/>
       <c r="E649" s="11" t="s">
         <v>212</v>
       </c>
@@ -21620,13 +21795,11 @@
       <c r="L649" s="11"/>
       <c r="M649" s="12"/>
     </row>
-    <row r="650" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="6"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
-      <c r="D650" s="7" t="s">
-        <v>1146</v>
-      </c>
+      <c r="D650" s="0"/>
       <c r="E650" s="7" t="s">
         <v>212</v>
       </c>
@@ -21701,19 +21874,19 @@
     <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="6"/>
       <c r="B654" s="7" t="s">
-        <v>1147</v>
+        <v>1171</v>
       </c>
       <c r="C654" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D654" s="7" t="s">
-        <v>1148</v>
+        <v>1172</v>
       </c>
       <c r="E654" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F654" s="7" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="G654" s="7" t="s">
         <v>212</v>
@@ -21728,19 +21901,19 @@
     <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="10"/>
       <c r="B655" s="11" t="s">
-        <v>1150</v>
+        <v>1174</v>
       </c>
       <c r="C655" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D655" s="11" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="E655" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F655" s="11" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="G655" s="11" t="s">
         <v>212</v>
@@ -21755,19 +21928,19 @@
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="6"/>
       <c r="B656" s="7" t="s">
-        <v>1151</v>
+        <v>1175</v>
       </c>
       <c r="C656" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D656" s="7" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="E656" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F656" s="7" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="G656" s="7" t="s">
         <v>212</v>
@@ -21782,7 +21955,7 @@
     <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="10"/>
       <c r="B657" s="11" t="s">
-        <v>1152</v>
+        <v>1176</v>
       </c>
       <c r="C657" s="11" t="s">
         <v>32</v>
@@ -21792,7 +21965,7 @@
         <v>212</v>
       </c>
       <c r="F657" s="11" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="G657" s="11" t="s">
         <v>212</v>
@@ -21807,19 +21980,19 @@
     <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="6"/>
       <c r="B658" s="7" t="s">
-        <v>1153</v>
+        <v>1177</v>
       </c>
       <c r="C658" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D658" s="7" t="s">
-        <v>1154</v>
+        <v>1178</v>
       </c>
       <c r="E658" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F658" s="7" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="G658" s="7" t="s">
         <v>212</v>
@@ -21834,19 +22007,19 @@
     <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="10"/>
       <c r="B659" s="11" t="s">
-        <v>1155</v>
+        <v>1179</v>
       </c>
       <c r="C659" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D659" s="11" t="s">
-        <v>1156</v>
+        <v>1180</v>
       </c>
       <c r="E659" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F659" s="11" t="s">
-        <v>1149</v>
+        <v>1173</v>
       </c>
       <c r="G659" s="11" t="s">
         <v>212</v>
@@ -21861,19 +22034,19 @@
     <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A660" s="6"/>
       <c r="B660" s="19" t="s">
-        <v>1157</v>
+        <v>1181</v>
       </c>
       <c r="C660" s="7" t="s">
         <v>14</v>
       </c>
       <c r="D660" s="7" t="s">
-        <v>1158</v>
+        <v>1182</v>
       </c>
       <c r="E660" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F660" s="7" t="s">
-        <v>1159</v>
+        <v>1183</v>
       </c>
       <c r="G660" s="7" t="s">
         <v>212</v>
@@ -21888,13 +22061,13 @@
     <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A661" s="10"/>
       <c r="B661" s="11" t="s">
-        <v>1160</v>
+        <v>1184</v>
       </c>
       <c r="C661" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D661" s="11" t="s">
-        <v>1161</v>
+        <v>1185</v>
       </c>
       <c r="E661" s="11" t="s">
         <v>212</v>
@@ -21913,7 +22086,7 @@
     <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="6"/>
       <c r="B662" s="7" t="s">
-        <v>1162</v>
+        <v>1186</v>
       </c>
       <c r="C662" s="7" t="s">
         <v>14</v>
@@ -21923,7 +22096,7 @@
         <v>212</v>
       </c>
       <c r="F662" s="7" t="s">
-        <v>1163</v>
+        <v>1187</v>
       </c>
       <c r="G662" s="7" t="s">
         <v>212</v>
@@ -22046,22 +22219,22 @@
       <c r="M668" s="9"/>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="20"/>
-      <c r="B669" s="21"/>
-      <c r="C669" s="21"/>
-      <c r="D669" s="21"/>
-      <c r="E669" s="21"/>
-      <c r="F669" s="21"/>
-      <c r="G669" s="21"/>
-      <c r="H669" s="21"/>
-      <c r="I669" s="21"/>
-      <c r="J669" s="21"/>
-      <c r="K669" s="21"/>
-      <c r="L669" s="21"/>
-      <c r="M669" s="22"/>
+      <c r="A669" s="22"/>
+      <c r="B669" s="23"/>
+      <c r="C669" s="23"/>
+      <c r="D669" s="23"/>
+      <c r="E669" s="23"/>
+      <c r="F669" s="23"/>
+      <c r="G669" s="23"/>
+      <c r="H669" s="23"/>
+      <c r="I669" s="23"/>
+      <c r="J669" s="23"/>
+      <c r="K669" s="23"/>
+      <c r="L669" s="23"/>
+      <c r="M669" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G1:G1048576 E663:E1048576 E1:E653">
+  <conditionalFormatting sqref="E663:E1048576 E1:E653 G1:G1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -22189,6 +22362,16 @@
     <hyperlink ref="D607" r:id="rId81" display="https://www.olx.pl/oferta/toaleta-wc-toaleta-na-budowe-wynajem-toalety-przenosne-CID619-IDDvrNu.html"/>
     <hyperlink ref="D608" r:id="rId82" display="https://wylecz.to/stomatologia/prognatyzm-warga-habsburska-przyczyny-objawy-leczenie/"/>
     <hyperlink ref="D610" r:id="rId83" display="https://cypr24.eu/premie-dla-studentow-beda-wyplacane-od-poniedzialku/"/>
+    <hyperlink ref="D611" r:id="rId84" display="https://nwloclawek.pl/artykul/pozar-za-pozarem-na/971578"/>
+    <hyperlink ref="D612" r:id="rId85" display="https://bytomski.pl"/>
+    <hyperlink ref="D613" r:id="rId86" display="http://b2-biznes.pl/ponad-polowa-polakow-nie-ma-zaufania-do-obecnego-systemu-emerytalnego/"/>
+    <hyperlink ref="D614" r:id="rId87" display="https://zakazany-humor.pl"/>
+    <hyperlink ref="D618" r:id="rId88" display="http://mh24.pl"/>
+    <hyperlink ref="D619" r:id="rId89" display="https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html"/>
+    <hyperlink ref="D623" r:id="rId90" display="https://www.kardiolo.pl/leki.htm"/>
+    <hyperlink ref="D624" r:id="rId91" display="https://open.fm/"/>
+    <hyperlink ref="D627" r:id="rId92" display="https://www.echirurgia.pl/wyrostek/ostre_zapalenie_wyrostka.htm"/>
+    <hyperlink ref="D630" r:id="rId93" display="https://www.wp.pl/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22198,7 +22381,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId84"/>
+    <tablePart r:id="rId94"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22216,1367 +22399,1367 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="21" width="8.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>1164</v>
+      <c r="A1" s="21" t="s">
+        <v>1188</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1165</v>
+      <c r="A2" s="21" t="s">
+        <v>1189</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>1166</v>
+      <c r="A3" s="21" t="s">
+        <v>1190</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>1167</v>
+      <c r="A4" s="21" t="s">
+        <v>1191</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>1168</v>
+      <c r="A5" s="21" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>1169</v>
+      <c r="A6" s="21" t="s">
+        <v>1193</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>1170</v>
+      <c r="A7" s="21" t="s">
+        <v>1194</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>1171</v>
+      <c r="A8" s="21" t="s">
+        <v>1195</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>1172</v>
+      <c r="A9" s="21" t="s">
+        <v>1196</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>1173</v>
+      <c r="A10" s="21" t="s">
+        <v>1197</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>1174</v>
+      <c r="A11" s="21" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>1175</v>
+      <c r="A12" s="21" t="s">
+        <v>1199</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>1176</v>
+      <c r="A13" s="21" t="s">
+        <v>1200</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>1177</v>
+      <c r="A14" s="21" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>1178</v>
+      <c r="A15" s="21" t="s">
+        <v>1202</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>1179</v>
+      <c r="A16" s="21" t="s">
+        <v>1203</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>1168</v>
+      <c r="A17" s="21" t="s">
+        <v>1192</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>1180</v>
+      <c r="A18" s="21" t="s">
+        <v>1204</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>1181</v>
+      <c r="A19" s="21" t="s">
+        <v>1205</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>1182</v>
+      <c r="A20" s="21" t="s">
+        <v>1206</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>1183</v>
+      <c r="A21" s="21" t="s">
+        <v>1207</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>1184</v>
+      <c r="A22" s="21" t="s">
+        <v>1208</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>1185</v>
+      <c r="A23" s="21" t="s">
+        <v>1209</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>1186</v>
+      <c r="A24" s="21" t="s">
+        <v>1210</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>1187</v>
+      <c r="A25" s="21" t="s">
+        <v>1211</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>1188</v>
+      <c r="A26" s="21" t="s">
+        <v>1212</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="21" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="21" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="21" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="21" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="21" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="21" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="21" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="21" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="21" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="21" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="21" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="21" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="21" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="21" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="21" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="21" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="21" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="21" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="21" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="21" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="21" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="21" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="21" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="21" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="21" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="21" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="21" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="21" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="21" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="21" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="21" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="21" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="21" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="21" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="21" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="21" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="21" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="21" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="21" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="21" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="21" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="21" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="21" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="21" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="21" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="21" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="21" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="21" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="21" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="21" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="21" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="21" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="21" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="21" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="21" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="21" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="21" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="21" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="21" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="21" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="21" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="21" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="21" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="21" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="21" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="21" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="21" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="21" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="21" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="21" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="21" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="21" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="21" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="21" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="21" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="21" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="21" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="21" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="21" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="21" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="21" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="21" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="21" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="21" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="21" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="21" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="21" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="21" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="21" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="21" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="21" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="21" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="21" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="21" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="21" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="21" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="21" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="21" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="21" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="21" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="21" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="21" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="21" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="21" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="21" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="21" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="21" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="21" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="21" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="21" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="21" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="21" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="21" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="21" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="21" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="21" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="21" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="21" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="21" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="21" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="21" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="21" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="21" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="21" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="21" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="21" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="21" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="21" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="21" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="21" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="21" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="21" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="21" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="21" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="21" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="21" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="21" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="21" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="21" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="21" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="21" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="21" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="21" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="21" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="21" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="21" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="21" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="21" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="21" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="21" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="21" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="21" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="21" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="21" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="21" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="21" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="21" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="21" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="21" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="21" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="21" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="21" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="21" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="21" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="21" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="21" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="21" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="21" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="21" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="21" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="21" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="21" t="s">
         <v>1189</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>1192</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>1193</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="0" t="s">
+    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="21" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="21" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A201" s="21" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A202" s="21" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A203" s="21" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A204" s="21" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A205" s="21" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A206" s="21" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A207" s="21" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A208" s="21" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A209" s="21" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A210" s="21" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A211" s="21" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A212" s="21" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A213" s="21" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A214" s="21" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A215" s="21" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A216" s="21" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A217" s="21" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A218" s="21" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A219" s="21" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A220" s="21" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A221" s="21" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A222" s="21" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A223" s="21" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A224" s="21" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A225" s="21" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A226" s="21" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A227" s="21" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A228" s="21" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A229" s="21" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A230" s="21" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A231" s="21" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A232" s="21" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A233" s="21" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A234" s="21" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A235" s="21" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A236" s="21" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A237" s="21" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A238" s="21" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A239" s="21" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A240" s="21" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A241" s="21" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A242" s="21" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A243" s="21" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A244" s="21" t="s">
         <v>1199</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="0" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="0" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="0" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="0" t="s">
-        <v>1203</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="0" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="0" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0" t="s">
+    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A245" s="21" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A246" s="21" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A247" s="21" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A248" s="21" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A249" s="21" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A250" s="21" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A251" s="21" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A252" s="21" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A253" s="21" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A254" s="21" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A255" s="21" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A256" s="21" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A257" s="21" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A258" s="21" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A259" s="21" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A260" s="21" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A261" s="21" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A262" s="21" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A263" s="21" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A264" s="21" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A265" s="21" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="21" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A267" s="21" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A268" s="21" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A269" s="21" t="s">
         <v>1206</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="0" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="0" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="0" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="0" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="0" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="0" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="0" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="0" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="0" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="0" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="0" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="0" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="0" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="0" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="0" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="0" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="0" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="0" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="0" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="0" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="0" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="0" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="0" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="0" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="0" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0" t="s">
-        <v>1235</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="0" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="0" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="0" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="0" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="0" t="s">
-        <v>1240</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="0" t="s">
-        <v>1242</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="0" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="0" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="0" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="0" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="0" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="0" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="0" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="0" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="0" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="0" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="0" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="0" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="0" t="s">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="0" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="0" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="0" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="0" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="0" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="0" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="0" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="0" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="0" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="0" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="0" t="s">
-        <v>1265</v>
-      </c>
-    </row>
-    <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="0" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="0" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="0" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="0" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="0" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="0" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="0" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="0" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="0" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="0" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="0" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="0" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="0" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="0" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="0" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="0" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="0" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="0" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="0" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="0" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="0" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="0" t="s">
-        <v>1287</v>
-      </c>
-    </row>
-    <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="0" t="s">
-        <v>1288</v>
-      </c>
-    </row>
-    <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="0" t="s">
-        <v>1289</v>
-      </c>
-    </row>
-    <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="0" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="0" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="0" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="0" t="s">
-        <v>1293</v>
-      </c>
-    </row>
-    <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="0" t="s">
-        <v>1294</v>
-      </c>
-    </row>
-    <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="0" t="s">
-        <v>1295</v>
-      </c>
-    </row>
-    <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="0" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="0" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="0" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="0" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="0" t="s">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A141" s="0" t="s">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A142" s="0" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A143" s="0" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A144" s="0" t="s">
-        <v>1304</v>
-      </c>
-    </row>
-    <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A145" s="0" t="s">
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A146" s="0" t="s">
-        <v>1306</v>
-      </c>
-    </row>
-    <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A147" s="0" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A148" s="0" t="s">
-        <v>1308</v>
-      </c>
-    </row>
-    <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A149" s="0" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A150" s="0" t="s">
-        <v>1310</v>
-      </c>
-    </row>
-    <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A151" s="0" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A152" s="0" t="s">
-        <v>1312</v>
-      </c>
-    </row>
-    <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A153" s="0" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A154" s="0" t="s">
-        <v>1314</v>
-      </c>
-    </row>
-    <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A155" s="0" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A156" s="0" t="s">
-        <v>1316</v>
-      </c>
-    </row>
-    <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A157" s="0" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A158" s="0" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A159" s="0" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A160" s="0" t="s">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A161" s="0" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A162" s="0" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A163" s="0" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A164" s="0" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A165" s="0" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A166" s="0" t="s">
-        <v>1326</v>
-      </c>
-    </row>
-    <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A167" s="0" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A168" s="0" t="s">
-        <v>1328</v>
-      </c>
-    </row>
-    <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A169" s="0" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A170" s="0" t="s">
-        <v>1330</v>
-      </c>
-    </row>
-    <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A171" s="0" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A172" s="0" t="s">
-        <v>1332</v>
-      </c>
-    </row>
-    <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A173" s="0" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A174" s="0" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A175" s="0" t="s">
-        <v>1335</v>
-      </c>
-    </row>
-    <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A176" s="0" t="s">
-        <v>1336</v>
-      </c>
-    </row>
-    <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A177" s="0" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A178" s="0" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A179" s="0" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A180" s="0" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A181" s="0" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A182" s="0" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A183" s="0" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A184" s="0" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A185" s="0" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A186" s="0" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A187" s="0" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A188" s="0" t="s">
-        <v>1348</v>
-      </c>
-    </row>
-    <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A189" s="0" t="s">
-        <v>1349</v>
-      </c>
-    </row>
-    <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A190" s="0" t="s">
-        <v>1350</v>
-      </c>
-    </row>
-    <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A191" s="0" t="s">
-        <v>1351</v>
-      </c>
-    </row>
-    <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A192" s="0" t="s">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A193" s="0" t="s">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A194" s="0" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A195" s="0" t="s">
-        <v>1355</v>
-      </c>
-    </row>
-    <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A196" s="0" t="s">
-        <v>1356</v>
-      </c>
-    </row>
-    <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A197" s="0" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A198" s="0" t="s">
-        <v>1165</v>
-      </c>
-    </row>
-    <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A199" s="0" t="s">
-        <v>1358</v>
-      </c>
-    </row>
-    <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A200" s="0" t="s">
-        <v>1359</v>
-      </c>
-    </row>
-    <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A201" s="0" t="s">
-        <v>1360</v>
-      </c>
-    </row>
-    <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A202" s="0" t="s">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A203" s="0" t="s">
-        <v>1362</v>
-      </c>
-    </row>
-    <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A204" s="0" t="s">
-        <v>1363</v>
-      </c>
-    </row>
-    <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A205" s="0" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A206" s="0" t="s">
-        <v>1365</v>
-      </c>
-    </row>
-    <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A207" s="0" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A208" s="0" t="s">
-        <v>1367</v>
-      </c>
-    </row>
-    <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A209" s="0" t="s">
-        <v>1368</v>
-      </c>
-    </row>
-    <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A210" s="0" t="s">
-        <v>1369</v>
-      </c>
-    </row>
-    <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A211" s="0" t="s">
-        <v>1370</v>
-      </c>
-    </row>
-    <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A212" s="0" t="s">
-        <v>1371</v>
-      </c>
-    </row>
-    <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A213" s="0" t="s">
-        <v>1372</v>
-      </c>
-    </row>
-    <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A214" s="0" t="s">
-        <v>1373</v>
-      </c>
-    </row>
-    <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A215" s="0" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A216" s="0" t="s">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A217" s="0" t="s">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A218" s="0" t="s">
-        <v>1377</v>
-      </c>
-    </row>
-    <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A219" s="0" t="s">
-        <v>1378</v>
-      </c>
-    </row>
-    <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A220" s="0" t="s">
-        <v>1379</v>
-      </c>
-    </row>
-    <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A221" s="0" t="s">
-        <v>1380</v>
-      </c>
-    </row>
-    <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A222" s="0" t="s">
-        <v>1381</v>
-      </c>
-    </row>
-    <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A223" s="0" t="s">
-        <v>1382</v>
-      </c>
-    </row>
-    <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A224" s="0" t="s">
-        <v>1383</v>
-      </c>
-    </row>
-    <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A225" s="0" t="s">
-        <v>1384</v>
-      </c>
-    </row>
-    <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A226" s="0" t="s">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A227" s="0" t="s">
-        <v>1386</v>
-      </c>
-    </row>
-    <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A228" s="0" t="s">
-        <v>1387</v>
-      </c>
-    </row>
-    <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A229" s="0" t="s">
-        <v>1388</v>
-      </c>
-    </row>
-    <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A230" s="0" t="s">
-        <v>1389</v>
-      </c>
-    </row>
-    <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A231" s="0" t="s">
-        <v>1390</v>
-      </c>
-    </row>
-    <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A232" s="0" t="s">
-        <v>1391</v>
-      </c>
-    </row>
-    <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A233" s="0" t="s">
-        <v>1392</v>
-      </c>
-    </row>
-    <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A234" s="0" t="s">
-        <v>1393</v>
-      </c>
-    </row>
-    <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A235" s="0" t="s">
-        <v>1394</v>
-      </c>
-    </row>
-    <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A236" s="0" t="s">
-        <v>1395</v>
-      </c>
-    </row>
-    <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A237" s="0" t="s">
-        <v>1396</v>
-      </c>
-    </row>
-    <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A238" s="0" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A239" s="0" t="s">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A240" s="0" t="s">
-        <v>1399</v>
-      </c>
-    </row>
-    <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A241" s="0" t="s">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A242" s="0" t="s">
-        <v>1401</v>
-      </c>
-    </row>
-    <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A243" s="0" t="s">
-        <v>1402</v>
-      </c>
-    </row>
-    <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A244" s="0" t="s">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A245" s="0" t="s">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A246" s="0" t="s">
-        <v>1404</v>
-      </c>
-    </row>
-    <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A247" s="0" t="s">
-        <v>1405</v>
-      </c>
-    </row>
-    <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A248" s="0" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A249" s="0" t="s">
-        <v>1407</v>
-      </c>
-    </row>
-    <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A250" s="0" t="s">
-        <v>1408</v>
-      </c>
-    </row>
-    <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A251" s="0" t="s">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A252" s="0" t="s">
-        <v>1410</v>
-      </c>
-    </row>
-    <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A253" s="0" t="s">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A254" s="0" t="s">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A255" s="0" t="s">
-        <v>1413</v>
-      </c>
-    </row>
-    <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A256" s="0" t="s">
-        <v>1414</v>
-      </c>
-    </row>
-    <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A257" s="0" t="s">
-        <v>1415</v>
-      </c>
-    </row>
-    <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A258" s="0" t="s">
-        <v>1416</v>
-      </c>
-    </row>
-    <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A259" s="0" t="s">
-        <v>1417</v>
-      </c>
-    </row>
-    <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A260" s="0" t="s">
-        <v>1418</v>
-      </c>
-    </row>
-    <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A261" s="0" t="s">
-        <v>1419</v>
-      </c>
-    </row>
-    <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A262" s="0" t="s">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A263" s="0" t="s">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A264" s="0" t="s">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A265" s="0" t="s">
-        <v>1423</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="0" t="s">
-        <v>1424</v>
-      </c>
-    </row>
-    <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A267" s="0" t="s">
-        <v>1425</v>
-      </c>
-    </row>
-    <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A268" s="0" t="s">
-        <v>1426</v>
-      </c>
-    </row>
-    <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A269" s="0" t="s">
-        <v>1182</v>
-      </c>
-    </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A270" s="0" t="s">
-        <v>1427</v>
+      <c r="A270" s="21" t="s">
+        <v>1451</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A271" s="0" t="s">
-        <v>1428</v>
+      <c r="A271" s="21" t="s">
+        <v>1452</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A272" s="0" t="s">
-        <v>1429</v>
+      <c r="A272" s="21" t="s">
+        <v>1453</v>
       </c>
     </row>
   </sheetData>
@@ -23598,352 +23781,383 @@
   <dimension ref="B1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B16" activeCellId="0" sqref="B16"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.55"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="21" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="21" width="44.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="21" width="17.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="21" width="8.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="23" t="s">
-        <v>1430</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="24" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C2" s="25" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>1433</v>
-      </c>
-      <c r="I2" s="27"/>
-    </row>
-    <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="24" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>1432</v>
-      </c>
-      <c r="H3" s="25"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="29"/>
-    </row>
-    <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="30" t="s">
-        <v>1435</v>
+      <c r="B1" s="25" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="26" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1456</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1457</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="K2" s="21" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="26" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1456</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="11" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="21" t="s">
+        <v>1461</v>
       </c>
       <c r="C4" s="31"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="25"/>
-    </row>
-    <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="32"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="11" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="31"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="25"/>
-    </row>
-    <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="32"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="7" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="31"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="25"/>
-    </row>
-    <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="34" t="s">
-        <v>1436</v>
-      </c>
+      <c r="H6" s="27"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="27"/>
+      <c r="K6" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="33"/>
       <c r="C7" s="31"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="25"/>
-    </row>
-    <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="34" t="s">
-        <v>1437</v>
-      </c>
+      <c r="H7" s="27"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="33" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="33"/>
       <c r="C8" s="31"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="25"/>
-    </row>
-    <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="34" t="s">
-        <v>1438</v>
+      <c r="H8" s="27"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="21" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="33" t="s">
+        <v>1466</v>
       </c>
       <c r="C9" s="31"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="25"/>
-    </row>
-    <row r="10" customFormat="false" ht="28.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="34" t="s">
-        <v>1439</v>
-      </c>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="7" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="33"/>
       <c r="C10" s="31"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="25"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="34" t="s">
-        <v>1440</v>
-      </c>
+      <c r="H10" s="27"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="11" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="0"/>
       <c r="C11" s="31"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="25"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0" t="s">
-        <v>1441</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="0" t="s">
-        <v>1442</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="0" t="s">
-        <v>1443</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>1444</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="0" t="s">
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="0" t="s">
-        <v>1446</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="0" t="s">
-        <v>1447</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="0" t="s">
+      <c r="H11" s="27"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="7" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="0"/>
+      <c r="K12" s="7" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="0"/>
+      <c r="K13" s="7" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="21" t="s">
+        <v>1472</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K16" s="11" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="21" t="s">
+        <v>1477</v>
+      </c>
+      <c r="K18" s="11" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="21" t="s">
         <v>119</v>
       </c>
+      <c r="K19" s="7" t="s">
+        <v>1479</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="0" t="s">
-        <v>1448</v>
+      <c r="B20" s="21" t="s">
+        <v>1480</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="0" t="s">
-        <v>1449</v>
+      <c r="B21" s="21" t="s">
+        <v>1481</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="0" t="s">
-        <v>1450</v>
+      <c r="B22" s="21" t="s">
+        <v>1482</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="0" t="s">
-        <v>1451</v>
+      <c r="B23" s="21" t="s">
+        <v>1483</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="0" t="s">
-        <v>1452</v>
+      <c r="B24" s="21" t="s">
+        <v>1484</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="0" t="s">
-        <v>1453</v>
+      <c r="B25" s="21" t="s">
+        <v>1485</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>1454</v>
+      <c r="B26" s="21" t="s">
+        <v>1486</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="0" t="s">
-        <v>1455</v>
+      <c r="B27" s="21" t="s">
+        <v>1487</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="0" t="s">
-        <v>1456</v>
+      <c r="B28" s="21" t="s">
+        <v>1488</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="0" t="s">
-        <v>1457</v>
+      <c r="B29" s="21" t="s">
+        <v>1489</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="0" t="s">
-        <v>1458</v>
+      <c r="B30" s="21" t="s">
+        <v>1490</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="0" t="s">
-        <v>1459</v>
+      <c r="B31" s="21" t="s">
+        <v>1491</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="0" t="s">
-        <v>1460</v>
+      <c r="B33" s="21" t="s">
+        <v>1492</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="0" t="s">
-        <v>1461</v>
+      <c r="B37" s="21" t="s">
+        <v>1493</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
-        <v>1462</v>
+      <c r="B38" s="21" t="s">
+        <v>1494</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
-        <v>1463</v>
+      <c r="B39" s="21" t="s">
+        <v>1495</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
-        <v>1464</v>
+      <c r="B40" s="21" t="s">
+        <v>1496</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="0" t="s">
-        <v>1465</v>
+      <c r="B42" s="21" t="s">
+        <v>1497</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>1466</v>
+      <c r="B43" s="21" t="s">
+        <v>1498</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>1467</v>
+      <c r="B44" s="21" t="s">
+        <v>1499</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="0" t="s">
-        <v>1468</v>
+      <c r="B45" s="21" t="s">
+        <v>1153</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="0" t="s">
-        <v>1469</v>
+      <c r="B47" s="21" t="s">
+        <v>1500</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="0" t="s">
-        <v>1470</v>
+      <c r="B48" s="21" t="s">
+        <v>1501</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="0" t="s">
-        <v>1471</v>
+      <c r="B49" s="21" t="s">
+        <v>1502</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="0" t="s">
-        <v>1472</v>
+      <c r="B51" s="21" t="s">
+        <v>1503</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="0" t="s">
-        <v>1473</v>
+      <c r="B52" s="21" t="s">
+        <v>1504</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="0" t="s">
-        <v>1474</v>
+      <c r="B53" s="21" t="s">
+        <v>1505</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="0" t="s">
-        <v>1475</v>
+      <c r="B54" s="21" t="s">
+        <v>1506</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="0" t="s">
-        <v>1476</v>
+      <c r="B55" s="21" t="s">
+        <v>1507</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="0" t="s">
-        <v>1477</v>
+      <c r="B56" s="21" t="s">
+        <v>1508</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="0" t="s">
+      <c r="B58" s="21" t="s">
         <v>193</v>
       </c>
-      <c r="C58" s="0" t="s">
-        <v>1478</v>
+      <c r="C58" s="21" t="s">
+        <v>1509</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="0" t="s">
-        <v>1479</v>
+      <c r="B59" s="21" t="s">
+        <v>1510</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="0" t="s">
-        <v>1480</v>
+      <c r="B60" s="21" t="s">
+        <v>1511</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="0" t="s">
+      <c r="B61" s="21" t="s">
         <v>1057</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0" t="s">
-        <v>1481</v>
+      <c r="B64" s="21" t="s">
+        <v>1512</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="0" t="s">
-        <v>1482</v>
+      <c r="B65" s="21" t="s">
+        <v>1513</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>1483</v>
+      <c r="B66" s="21" t="s">
+        <v>1514</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="0" t="s">
-        <v>1484</v>
+      <c r="B67" s="21" t="s">
+        <v>1515</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="0" t="s">
-        <v>1485</v>
+      <c r="B70" s="21" t="s">
+        <v>1516</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -23957,12 +24171,9 @@
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="https://boost.ink/fmexxr"/>
-    <hyperlink ref="B7" r:id="rId2" display="https://sportbar.biz/ukbt2sport.html"/>
-    <hyperlink ref="B8" r:id="rId3" display="https://toonily.com/webtoon/teach-please-you/"/>
-    <hyperlink ref="B9" r:id="rId4" display="https://www.limetorrents.asia/browse-torrents/"/>
-    <hyperlink ref="B10" r:id="rId5" display="http://mh24.pl/jakbym-sie-przespal/74658/?fbclid=*"/>
-    <hyperlink ref="B11" r:id="rId6" display="http://www.90minut.pl"/>
+    <hyperlink ref="K7" r:id="rId1" display="http://www.90minut.pl"/>
+    <hyperlink ref="K8" r:id="rId2" display="https://twojradom.pl"/>
+    <hyperlink ref="B9" r:id="rId3" display="https://www.limetorrents.asia/browse-torrents/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -23987,477 +24198,477 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="21" width="8.55"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C1" s="0" t="s">
-        <v>1486</v>
+      <c r="C1" s="21" t="s">
+        <v>1517</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
-        <v>1487</v>
+      <c r="C2" s="21" t="s">
+        <v>1518</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
-        <v>1488</v>
+      <c r="C3" s="21" t="s">
+        <v>1519</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
-        <v>1489</v>
+      <c r="C4" s="21" t="s">
+        <v>1520</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
-        <v>1490</v>
+      <c r="C5" s="21" t="s">
+        <v>1521</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
-        <v>1491</v>
+      <c r="C6" s="21" t="s">
+        <v>1522</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
-        <v>1492</v>
+      <c r="C7" s="21" t="s">
+        <v>1523</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="0" t="s">
-        <v>1493</v>
+      <c r="C8" s="21" t="s">
+        <v>1524</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C9" s="0" t="s">
-        <v>1494</v>
+      <c r="C9" s="21" t="s">
+        <v>1525</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
-        <v>1495</v>
+      <c r="C10" s="21" t="s">
+        <v>1526</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
-        <v>1496</v>
+      <c r="C11" s="21" t="s">
+        <v>1527</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
-        <v>1497</v>
+      <c r="C12" s="21" t="s">
+        <v>1528</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="0" t="s">
-        <v>1498</v>
+      <c r="C13" s="21" t="s">
+        <v>1529</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
-        <v>1499</v>
+      <c r="C14" s="21" t="s">
+        <v>1530</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="0" t="s">
-        <v>1500</v>
+      <c r="C15" s="21" t="s">
+        <v>1531</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="0" t="s">
-        <v>1501</v>
+      <c r="C16" s="21" t="s">
+        <v>1532</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
-        <v>1502</v>
+      <c r="C17" s="21" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
-        <v>1503</v>
+      <c r="C18" s="21" t="s">
+        <v>1534</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
-        <v>1504</v>
+      <c r="C19" s="21" t="s">
+        <v>1535</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="0" t="s">
-        <v>1505</v>
+      <c r="C20" s="21" t="s">
+        <v>1536</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
-        <v>1506</v>
+      <c r="C21" s="21" t="s">
+        <v>1537</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="0" t="s">
-        <v>1507</v>
+      <c r="C22" s="21" t="s">
+        <v>1538</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="0" t="s">
-        <v>1508</v>
+      <c r="C23" s="21" t="s">
+        <v>1539</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
-        <v>1509</v>
+      <c r="C24" s="21" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
-        <v>1510</v>
+      <c r="C25" s="21" t="s">
+        <v>1541</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="0" t="s">
-        <v>1511</v>
+      <c r="C26" s="21" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
-        <v>1512</v>
+      <c r="C27" s="21" t="s">
+        <v>1543</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="0" t="s">
-        <v>1513</v>
+      <c r="C28" s="21" t="s">
+        <v>1544</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="0" t="s">
-        <v>1514</v>
+      <c r="C29" s="21" t="s">
+        <v>1545</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="0" t="s">
-        <v>1515</v>
+      <c r="C30" s="21" t="s">
+        <v>1546</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="0" t="s">
-        <v>1516</v>
+      <c r="C31" s="21" t="s">
+        <v>1547</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="0" t="s">
-        <v>1517</v>
+      <c r="C32" s="21" t="s">
+        <v>1548</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="0" t="s">
-        <v>1518</v>
+      <c r="C33" s="21" t="s">
+        <v>1549</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C34" s="0" t="s">
-        <v>1519</v>
+      <c r="C34" s="21" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="0" t="s">
-        <v>1520</v>
+      <c r="C35" s="21" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="0" t="s">
-        <v>1521</v>
+      <c r="C36" s="21" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="0" t="s">
-        <v>1522</v>
+      <c r="C37" s="21" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C38" s="0" t="s">
-        <v>1523</v>
+      <c r="C38" s="21" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="0" t="s">
-        <v>1524</v>
+      <c r="C39" s="21" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="0" t="s">
-        <v>1525</v>
+      <c r="C40" s="21" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="0" t="s">
-        <v>1526</v>
+      <c r="C41" s="21" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="0" t="s">
-        <v>1527</v>
+      <c r="C42" s="21" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="0" t="s">
-        <v>1528</v>
+      <c r="C43" s="21" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="0" t="s">
-        <v>1529</v>
+      <c r="C44" s="21" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C45" s="0" t="s">
-        <v>1530</v>
+      <c r="C45" s="21" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="0" t="s">
-        <v>1531</v>
+      <c r="C46" s="21" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="0" t="s">
-        <v>1532</v>
+      <c r="C47" s="21" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="0" t="s">
-        <v>1533</v>
+      <c r="C48" s="21" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C49" s="0" t="s">
-        <v>1534</v>
+      <c r="C49" s="21" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="0" t="s">
-        <v>1535</v>
+      <c r="C50" s="21" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C51" s="0" t="s">
-        <v>1536</v>
+      <c r="C51" s="21" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C52" s="0" t="s">
-        <v>1537</v>
+      <c r="C52" s="21" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C53" s="0" t="s">
-        <v>1538</v>
+      <c r="C53" s="21" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C54" s="0" t="s">
-        <v>1539</v>
+      <c r="C54" s="21" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C55" s="0" t="s">
-        <v>1540</v>
+      <c r="C55" s="21" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C56" s="0" t="s">
-        <v>1541</v>
+      <c r="C56" s="21" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="0" t="s">
-        <v>1542</v>
+      <c r="C57" s="21" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C58" s="0" t="s">
-        <v>1543</v>
+      <c r="C58" s="21" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="0" t="s">
-        <v>1544</v>
+      <c r="C59" s="21" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="0" t="s">
-        <v>1545</v>
+      <c r="C60" s="21" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C61" s="0" t="s">
-        <v>1546</v>
+      <c r="C61" s="21" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C62" s="0" t="s">
-        <v>1547</v>
+      <c r="C62" s="21" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C63" s="0" t="s">
-        <v>1548</v>
+      <c r="C63" s="21" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="0" t="s">
-        <v>1549</v>
+      <c r="C64" s="21" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="0" t="s">
-        <v>1550</v>
+      <c r="C65" s="21" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="0" t="s">
-        <v>1551</v>
+      <c r="C66" s="21" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="0" t="s">
-        <v>1552</v>
+      <c r="C67" s="21" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="0" t="s">
-        <v>1553</v>
+      <c r="C68" s="21" t="s">
+        <v>1584</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C69" s="0" t="s">
-        <v>1554</v>
+      <c r="C69" s="21" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C70" s="0" t="s">
-        <v>1555</v>
+      <c r="C70" s="21" t="s">
+        <v>1586</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C71" s="0" t="s">
-        <v>1556</v>
+      <c r="C71" s="21" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C72" s="0" t="s">
-        <v>1557</v>
+      <c r="C72" s="21" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C73" s="0" t="s">
-        <v>1558</v>
+      <c r="C73" s="21" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C74" s="0" t="s">
-        <v>1559</v>
+      <c r="C74" s="21" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C75" s="0" t="s">
-        <v>1560</v>
+      <c r="C75" s="21" t="s">
+        <v>1591</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C76" s="0" t="s">
-        <v>1561</v>
+      <c r="C76" s="21" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C77" s="0" t="s">
-        <v>1562</v>
+      <c r="C77" s="21" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C78" s="0" t="s">
-        <v>1563</v>
+      <c r="C78" s="21" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C79" s="0" t="s">
-        <v>1564</v>
+      <c r="C79" s="21" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C80" s="0" t="s">
-        <v>1565</v>
+      <c r="C80" s="21" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C81" s="0" t="s">
-        <v>1566</v>
+      <c r="C81" s="21" t="s">
+        <v>1597</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C82" s="0" t="s">
-        <v>1567</v>
+      <c r="C82" s="21" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C83" s="0" t="s">
-        <v>1568</v>
+      <c r="C83" s="21" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C84" s="0" t="s">
-        <v>1569</v>
+      <c r="C84" s="21" t="s">
+        <v>1600</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C85" s="0" t="s">
-        <v>1570</v>
+      <c r="C85" s="21" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C86" s="0" t="s">
-        <v>1571</v>
+      <c r="C86" s="21" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C87" s="0" t="s">
-        <v>1572</v>
+      <c r="C87" s="21" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C88" s="0" t="s">
-        <v>1573</v>
+      <c r="C88" s="21" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C89" s="0" t="s">
-        <v>1574</v>
+      <c r="C89" s="21" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C90" s="0" t="s">
-        <v>1575</v>
+      <c r="C90" s="21" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C91" s="0" t="s">
-        <v>1576</v>
+      <c r="C91" s="21" t="s">
+        <v>1607</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C92" s="0" t="s">
-        <v>1577</v>
+      <c r="C92" s="21" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C93" s="0" t="s">
-        <v>1578</v>
+      <c r="C93" s="21" t="s">
+        <v>1609</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C94" s="0" t="s">
-        <v>1579</v>
+      <c r="C94" s="21" t="s">
+        <v>1610</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3682" uniqueCount="1611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="1613">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3385,7 +3385,7 @@
     <t xml:space="preserve">^inline__1_$domain=nwloclawek.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://nwloclawek.pl/artykul/pozar-za-pozarem-na/971578</t>
+    <t xml:space="preserve">https://nwloclawek.pl</t>
   </si>
   <si>
     <t xml:space="preserve">331</t>
@@ -3397,6 +3397,9 @@
     <t xml:space="preserve">https://bytomski.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">||bytomski.pl^*^06/taxi.</t>
+  </si>
+  <si>
     <t xml:space="preserve">332</t>
   </si>
   <si>
@@ -3448,13 +3451,16 @@
     <t xml:space="preserve">https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html</t>
   </si>
   <si>
+    <t xml:space="preserve">grafiki</t>
+  </si>
+  <si>
     <t xml:space="preserve">337</t>
   </si>
   <si>
-    <t xml:space="preserve">^banner_stats.$domain=ki24.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">topLayer </t>
+    <t xml:space="preserve">^banery_foto^$domain=ki24.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banery</t>
   </si>
   <si>
     <t xml:space="preserve">338</t>
@@ -5398,8 +5404,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M667" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M667"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M668" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M668"/>
   <tableColumns count="13">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Filter"/>
@@ -5423,12 +5429,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M669"/>
+  <dimension ref="A1:M670"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A598" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B598" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A598" activeCellId="0" sqref="A598"/>
-      <selection pane="topRight" activeCell="I613" activeCellId="0" sqref="I613"/>
+      <selection pane="topRight" activeCell="E624" activeCellId="0" sqref="E624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20916,7 +20922,7 @@
         <v>1120</v>
       </c>
       <c r="E611" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F611" s="11"/>
       <c r="G611" s="11" t="s">
@@ -20943,7 +20949,7 @@
         <v>1123</v>
       </c>
       <c r="E612" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="7" t="s">
@@ -20957,1284 +20963,1309 @@
       <c r="M612" s="9"/>
     </row>
     <row r="613" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A613" s="10" t="s">
+      <c r="A613" s="6"/>
+      <c r="B613" s="7" t="s">
         <v>1124</v>
       </c>
-      <c r="B613" s="11" t="s">
+      <c r="C613" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D613" s="7"/>
+      <c r="E613" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F613" s="7"/>
+      <c r="G613" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H613" s="7"/>
+      <c r="I613" s="7"/>
+      <c r="J613" s="7"/>
+      <c r="K613" s="7"/>
+      <c r="L613" s="7"/>
+      <c r="M613" s="9"/>
+    </row>
+    <row r="614" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A614" s="10" t="s">
         <v>1125</v>
       </c>
-      <c r="C613" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D613" s="11" t="s">
+      <c r="B614" s="11" t="s">
         <v>1126</v>
       </c>
-      <c r="E613" s="11" t="s">
+      <c r="C614" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D614" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E614" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F614" s="11"/>
+      <c r="G614" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F613" s="11"/>
-      <c r="G613" s="11" t="s">
+      <c r="H614" s="11"/>
+      <c r="I614" s="11"/>
+      <c r="J614" s="11"/>
+      <c r="K614" s="11"/>
+      <c r="L614" s="11"/>
+      <c r="M614" s="12"/>
+    </row>
+    <row r="615" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A615" s="6" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B615" s="7" t="s">
+        <v>1129</v>
+      </c>
+      <c r="C615" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D615" s="7" t="s">
+        <v>1130</v>
+      </c>
+      <c r="E615" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F615" s="7"/>
+      <c r="G615" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H613" s="11"/>
-      <c r="I613" s="11"/>
-      <c r="J613" s="11"/>
-      <c r="K613" s="11"/>
-      <c r="L613" s="11"/>
-      <c r="M613" s="12"/>
-    </row>
-    <row r="614" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A614" s="6" t="s">
-        <v>1127</v>
-      </c>
-      <c r="B614" s="7" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C614" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D614" s="7" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E614" s="7" t="s">
+      <c r="H615" s="7"/>
+      <c r="I615" s="7"/>
+      <c r="J615" s="7"/>
+      <c r="K615" s="7"/>
+      <c r="L615" s="7"/>
+      <c r="M615" s="9"/>
+    </row>
+    <row r="616" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A616" s="10"/>
+      <c r="B616" s="11" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C616" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D616" s="11"/>
+      <c r="E616" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F616" s="11"/>
+      <c r="G616" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F614" s="7"/>
-      <c r="G614" s="7" t="s">
+      <c r="H616" s="11"/>
+      <c r="I616" s="11"/>
+      <c r="J616" s="11"/>
+      <c r="K616" s="11"/>
+      <c r="L616" s="11"/>
+      <c r="M616" s="12"/>
+    </row>
+    <row r="617" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A617" s="6"/>
+      <c r="B617" s="19" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C617" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D617" s="7"/>
+      <c r="E617" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F617" s="7"/>
+      <c r="G617" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H614" s="7"/>
-      <c r="I614" s="7"/>
-      <c r="J614" s="7"/>
-      <c r="K614" s="7"/>
-      <c r="L614" s="7"/>
-      <c r="M614" s="9"/>
-    </row>
-    <row r="615" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A615" s="10"/>
-      <c r="B615" s="11" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C615" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D615" s="11"/>
-      <c r="E615" s="11" t="s">
+      <c r="H617" s="7"/>
+      <c r="I617" s="7"/>
+      <c r="J617" s="7"/>
+      <c r="K617" s="7"/>
+      <c r="L617" s="7"/>
+      <c r="M617" s="9"/>
+    </row>
+    <row r="618" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A618" s="10" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B618" s="11" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C618" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D618" s="11" t="s">
+        <v>1135</v>
+      </c>
+      <c r="E618" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F618" s="11"/>
+      <c r="G618" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F615" s="11"/>
-      <c r="G615" s="11" t="s">
+      <c r="H618" s="11"/>
+      <c r="I618" s="11"/>
+      <c r="J618" s="11"/>
+      <c r="K618" s="11"/>
+      <c r="L618" s="11"/>
+      <c r="M618" s="12"/>
+    </row>
+    <row r="619" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A619" s="6" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B619" s="7" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C619" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="D619" s="7" t="s">
+        <v>1138</v>
+      </c>
+      <c r="E619" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F619" s="7"/>
+      <c r="G619" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H615" s="11"/>
-      <c r="I615" s="11"/>
-      <c r="J615" s="11"/>
-      <c r="K615" s="11"/>
-      <c r="L615" s="11"/>
-      <c r="M615" s="12"/>
-    </row>
-    <row r="616" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A616" s="6"/>
-      <c r="B616" s="19" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C616" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D616" s="7"/>
-      <c r="E616" s="7" t="s">
+      <c r="H619" s="7"/>
+      <c r="I619" s="7"/>
+      <c r="J619" s="7"/>
+      <c r="K619" s="7"/>
+      <c r="L619" s="7"/>
+      <c r="M619" s="9"/>
+    </row>
+    <row r="620" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A620" s="10" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B620" s="11" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C620" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D620" s="20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E620" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F620" s="11" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G620" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F616" s="7"/>
-      <c r="G616" s="7" t="s">
+      <c r="H620" s="11"/>
+      <c r="I620" s="11"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="11"/>
+      <c r="L620" s="11"/>
+      <c r="M620" s="12"/>
+    </row>
+    <row r="621" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A621" s="6" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B621" s="7" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C621" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D621" s="21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E621" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F621" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="G621" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H616" s="7"/>
-      <c r="I616" s="7"/>
-      <c r="J616" s="7"/>
-      <c r="K616" s="7"/>
-      <c r="L616" s="7"/>
-      <c r="M616" s="9"/>
-    </row>
-    <row r="617" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A617" s="10" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B617" s="11" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C617" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D617" s="11" t="s">
-        <v>1134</v>
-      </c>
-      <c r="E617" s="11" t="s">
+      <c r="H621" s="7"/>
+      <c r="I621" s="7"/>
+      <c r="J621" s="7"/>
+      <c r="K621" s="7"/>
+      <c r="L621" s="7"/>
+      <c r="M621" s="9"/>
+    </row>
+    <row r="622" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A622" s="10" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B622" s="11" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C622" s="11"/>
+      <c r="D622" s="11"/>
+      <c r="E622" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F617" s="11"/>
-      <c r="G617" s="11" t="s">
+      <c r="F622" s="11"/>
+      <c r="G622" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H617" s="11"/>
-      <c r="I617" s="11"/>
-      <c r="J617" s="11"/>
-      <c r="K617" s="11"/>
-      <c r="L617" s="11"/>
-      <c r="M617" s="12"/>
-    </row>
-    <row r="618" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A618" s="6" t="s">
-        <v>1135</v>
-      </c>
-      <c r="B618" s="7" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C618" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="D618" s="7" t="s">
-        <v>1137</v>
-      </c>
-      <c r="E618" s="7" t="s">
+      <c r="H622" s="11"/>
+      <c r="I622" s="11"/>
+      <c r="J622" s="11"/>
+      <c r="K622" s="11"/>
+      <c r="L622" s="11"/>
+      <c r="M622" s="12"/>
+    </row>
+    <row r="623" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A623" s="6"/>
+      <c r="B623" s="7" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C623" s="7"/>
+      <c r="D623" s="0"/>
+      <c r="E623" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F618" s="7"/>
-      <c r="G618" s="7" t="s">
+      <c r="F623" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G623" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H618" s="7"/>
-      <c r="I618" s="7"/>
-      <c r="J618" s="7"/>
-      <c r="K618" s="7"/>
-      <c r="L618" s="7"/>
-      <c r="M618" s="9"/>
-    </row>
-    <row r="619" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A619" s="10" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B619" s="11" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C619" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D619" s="20" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E619" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F619" s="11"/>
-      <c r="G619" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H619" s="11"/>
-      <c r="I619" s="11"/>
-      <c r="J619" s="11"/>
-      <c r="K619" s="11"/>
-      <c r="L619" s="11"/>
-      <c r="M619" s="12"/>
-    </row>
-    <row r="620" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A620" s="6" t="s">
-        <v>1141</v>
-      </c>
-      <c r="B620" s="7" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C620" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D620" s="21" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E620" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F620" s="7" t="s">
-        <v>1143</v>
-      </c>
-      <c r="G620" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H620" s="7"/>
-      <c r="I620" s="7"/>
-      <c r="J620" s="7"/>
-      <c r="K620" s="7"/>
-      <c r="L620" s="7"/>
-      <c r="M620" s="9"/>
-    </row>
-    <row r="621" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A621" s="10" t="s">
-        <v>1144</v>
-      </c>
-      <c r="B621" s="11" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C621" s="11"/>
-      <c r="D621" s="11"/>
-      <c r="E621" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F621" s="11"/>
-      <c r="G621" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H621" s="11"/>
-      <c r="I621" s="11"/>
-      <c r="J621" s="11"/>
-      <c r="K621" s="11"/>
-      <c r="L621" s="11"/>
-      <c r="M621" s="12"/>
-    </row>
-    <row r="622" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A622" s="6"/>
-      <c r="B622" s="7" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C622" s="7"/>
-      <c r="D622" s="0"/>
-      <c r="E622" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F622" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G622" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H622" s="7"/>
-      <c r="I622" s="7"/>
-      <c r="J622" s="7"/>
-      <c r="K622" s="7"/>
-      <c r="L622" s="7"/>
-      <c r="M622" s="9"/>
-    </row>
-    <row r="623" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A623" s="10" t="s">
-        <v>1147</v>
-      </c>
-      <c r="B623" s="11" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C623" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D623" s="0" t="s">
+      <c r="H623" s="7"/>
+      <c r="I623" s="7"/>
+      <c r="J623" s="7"/>
+      <c r="K623" s="7"/>
+      <c r="L623" s="7"/>
+      <c r="M623" s="9"/>
+    </row>
+    <row r="624" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A624" s="10" t="s">
         <v>1149</v>
       </c>
-      <c r="E623" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F623" s="11" t="s">
+      <c r="B624" s="11" t="s">
         <v>1150</v>
       </c>
-      <c r="G623" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H623" s="11"/>
-      <c r="I623" s="11"/>
-      <c r="J623" s="11"/>
-      <c r="K623" s="11"/>
-      <c r="L623" s="11"/>
-      <c r="M623" s="12"/>
-    </row>
-    <row r="624" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A624" s="6" t="s">
+      <c r="C624" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D624" s="0" t="s">
         <v>1151</v>
       </c>
-      <c r="B624" s="7" t="s">
+      <c r="E624" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F624" s="11" t="s">
         <v>1152</v>
       </c>
-      <c r="C624" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D624" s="0" t="s">
+      <c r="G624" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H624" s="11"/>
+      <c r="I624" s="11"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="11"/>
+      <c r="L624" s="11"/>
+      <c r="M624" s="12"/>
+    </row>
+    <row r="625" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A625" s="6" t="s">
         <v>1153</v>
       </c>
-      <c r="E624" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F624" s="7" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G624" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H624" s="7"/>
-      <c r="I624" s="7"/>
-      <c r="J624" s="7"/>
-      <c r="K624" s="7"/>
-      <c r="L624" s="7"/>
-      <c r="M624" s="9"/>
-    </row>
-    <row r="625" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A625" s="10"/>
-      <c r="B625" s="11" t="s">
+      <c r="B625" s="7" t="s">
         <v>1154</v>
       </c>
-      <c r="C625" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D625" s="0"/>
-      <c r="E625" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F625" s="11"/>
-      <c r="G625" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H625" s="11"/>
-      <c r="I625" s="11"/>
-      <c r="J625" s="11"/>
-      <c r="K625" s="11"/>
-      <c r="L625" s="11"/>
-      <c r="M625" s="12"/>
+      <c r="C625" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D625" s="0" t="s">
+        <v>1155</v>
+      </c>
+      <c r="E625" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F625" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G625" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H625" s="7"/>
+      <c r="I625" s="7"/>
+      <c r="J625" s="7"/>
+      <c r="K625" s="7"/>
+      <c r="L625" s="7"/>
+      <c r="M625" s="9"/>
     </row>
     <row r="626" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A626" s="6"/>
-      <c r="B626" s="7" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C626" s="7" t="s">
+      <c r="A626" s="10"/>
+      <c r="B626" s="11" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C626" s="11" t="s">
         <v>14</v>
       </c>
       <c r="D626" s="0"/>
-      <c r="E626" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F626" s="7"/>
-      <c r="G626" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H626" s="7"/>
-      <c r="I626" s="7"/>
-      <c r="J626" s="7"/>
-      <c r="K626" s="7"/>
-      <c r="L626" s="7"/>
-      <c r="M626" s="9"/>
+      <c r="E626" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F626" s="11"/>
+      <c r="G626" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H626" s="11"/>
+      <c r="I626" s="11"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="11"/>
+      <c r="L626" s="11"/>
+      <c r="M626" s="12"/>
     </row>
     <row r="627" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A627" s="10" t="s">
-        <v>1156</v>
-      </c>
-      <c r="B627" s="11" t="s">
+      <c r="A627" s="6"/>
+      <c r="B627" s="7" t="s">
         <v>1157</v>
       </c>
-      <c r="C627" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D627" s="0" t="s">
+      <c r="C627" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D627" s="0"/>
+      <c r="E627" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F627" s="7"/>
+      <c r="G627" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H627" s="7"/>
+      <c r="I627" s="7"/>
+      <c r="J627" s="7"/>
+      <c r="K627" s="7"/>
+      <c r="L627" s="7"/>
+      <c r="M627" s="9"/>
+    </row>
+    <row r="628" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A628" s="10" t="s">
         <v>1158</v>
       </c>
-      <c r="E627" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F627" s="11" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G627" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H627" s="11"/>
-      <c r="I627" s="11"/>
-      <c r="J627" s="11"/>
-      <c r="K627" s="11"/>
-      <c r="L627" s="11"/>
-      <c r="M627" s="12"/>
-    </row>
-    <row r="628" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A628" s="6" t="s">
+      <c r="B628" s="11" t="s">
         <v>1159</v>
       </c>
-      <c r="B628" s="7" t="s">
+      <c r="C628" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D628" s="0" t="s">
         <v>1160</v>
       </c>
-      <c r="C628" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D628" s="0" t="s">
+      <c r="E628" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F628" s="11" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G628" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H628" s="11"/>
+      <c r="I628" s="11"/>
+      <c r="J628" s="11"/>
+      <c r="K628" s="11"/>
+      <c r="L628" s="11"/>
+      <c r="M628" s="12"/>
+    </row>
+    <row r="629" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A629" s="6" t="s">
         <v>1161</v>
       </c>
-      <c r="E628" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F628" s="7" t="s">
-        <v>1150</v>
-      </c>
-      <c r="G628" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H628" s="7"/>
-      <c r="I628" s="7"/>
-      <c r="J628" s="7"/>
-      <c r="K628" s="7"/>
-      <c r="L628" s="7"/>
-      <c r="M628" s="9"/>
-    </row>
-    <row r="629" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A629" s="10"/>
-      <c r="B629" s="11" t="s">
+      <c r="B629" s="7" t="s">
         <v>1162</v>
       </c>
-      <c r="C629" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D629" s="0"/>
-      <c r="E629" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F629" s="11"/>
-      <c r="G629" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H629" s="11"/>
-      <c r="I629" s="11"/>
-      <c r="J629" s="11"/>
-      <c r="K629" s="11"/>
-      <c r="L629" s="11"/>
-      <c r="M629" s="12"/>
+      <c r="C629" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D629" s="0" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E629" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F629" s="7" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G629" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H629" s="7"/>
+      <c r="I629" s="7"/>
+      <c r="J629" s="7"/>
+      <c r="K629" s="7"/>
+      <c r="L629" s="7"/>
+      <c r="M629" s="9"/>
     </row>
     <row r="630" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A630" s="6" t="s">
-        <v>1163</v>
-      </c>
+      <c r="A630" s="10"/>
       <c r="B630" s="11" t="s">
         <v>1164</v>
       </c>
-      <c r="C630" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D630" s="0" t="s">
+      <c r="C630" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D630" s="0"/>
+      <c r="E630" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F630" s="11"/>
+      <c r="G630" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H630" s="11"/>
+      <c r="I630" s="11"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="11"/>
+      <c r="L630" s="11"/>
+      <c r="M630" s="12"/>
+    </row>
+    <row r="631" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A631" s="6" t="s">
         <v>1165</v>
       </c>
-      <c r="E630" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F630" s="7" t="s">
+      <c r="B631" s="11" t="s">
         <v>1166</v>
       </c>
-      <c r="G630" s="7" t="s">
+      <c r="C631" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D631" s="0" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E631" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F631" s="7" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G631" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H631" s="7"/>
+      <c r="I631" s="7"/>
+      <c r="J631" s="7"/>
+      <c r="K631" s="7"/>
+      <c r="L631" s="7"/>
+      <c r="M631" s="9"/>
+    </row>
+    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="10"/>
+      <c r="B632" s="0"/>
+      <c r="C632" s="11"/>
+      <c r="D632" s="7"/>
+      <c r="E632" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H630" s="7"/>
-      <c r="I630" s="7"/>
-      <c r="J630" s="7"/>
-      <c r="K630" s="7"/>
-      <c r="L630" s="7"/>
-      <c r="M630" s="9"/>
-    </row>
-    <row r="631" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A631" s="10"/>
-      <c r="B631" s="0"/>
-      <c r="C631" s="11"/>
-      <c r="D631" s="7"/>
-      <c r="E631" s="11" t="s">
+      <c r="F632" s="11"/>
+      <c r="G632" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F631" s="11"/>
-      <c r="G631" s="11" t="s">
+      <c r="H632" s="11"/>
+      <c r="I632" s="11"/>
+      <c r="J632" s="11"/>
+      <c r="K632" s="11"/>
+      <c r="L632" s="11"/>
+      <c r="M632" s="12"/>
+    </row>
+    <row r="633" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A633" s="6"/>
+      <c r="B633" s="7"/>
+      <c r="C633" s="7"/>
+      <c r="D633" s="21"/>
+      <c r="E633" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H631" s="11"/>
-      <c r="I631" s="11"/>
-      <c r="J631" s="11"/>
-      <c r="K631" s="11"/>
-      <c r="L631" s="11"/>
-      <c r="M631" s="12"/>
-    </row>
-    <row r="632" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="6"/>
-      <c r="B632" s="7"/>
-      <c r="C632" s="7"/>
-      <c r="D632" s="21"/>
-      <c r="E632" s="7" t="s">
+      <c r="F633" s="7"/>
+      <c r="G633" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F632" s="7"/>
-      <c r="G632" s="7" t="s">
+      <c r="H633" s="7"/>
+      <c r="I633" s="7"/>
+      <c r="J633" s="7"/>
+      <c r="K633" s="7"/>
+      <c r="L633" s="7"/>
+      <c r="M633" s="9"/>
+    </row>
+    <row r="634" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A634" s="10"/>
+      <c r="B634" s="11"/>
+      <c r="C634" s="11"/>
+      <c r="D634" s="7"/>
+      <c r="E634" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H632" s="7"/>
-      <c r="I632" s="7"/>
-      <c r="J632" s="7"/>
-      <c r="K632" s="7"/>
-      <c r="L632" s="7"/>
-      <c r="M632" s="9"/>
-    </row>
-    <row r="633" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="10"/>
-      <c r="B633" s="11"/>
-      <c r="C633" s="11"/>
-      <c r="D633" s="7"/>
-      <c r="E633" s="11" t="s">
+      <c r="F634" s="11"/>
+      <c r="G634" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F633" s="11"/>
-      <c r="G633" s="11" t="s">
+      <c r="H634" s="11"/>
+      <c r="I634" s="11"/>
+      <c r="J634" s="11"/>
+      <c r="K634" s="11"/>
+      <c r="L634" s="11"/>
+      <c r="M634" s="12"/>
+    </row>
+    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A635" s="6"/>
+      <c r="B635" s="7"/>
+      <c r="C635" s="7"/>
+      <c r="D635" s="11" t="s">
+        <v>1169</v>
+      </c>
+      <c r="E635" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H633" s="11"/>
-      <c r="I633" s="11"/>
-      <c r="J633" s="11"/>
-      <c r="K633" s="11"/>
-      <c r="L633" s="11"/>
-      <c r="M633" s="12"/>
-    </row>
-    <row r="634" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A634" s="6"/>
-      <c r="B634" s="7"/>
-      <c r="C634" s="7"/>
-      <c r="D634" s="11" t="s">
-        <v>1167</v>
-      </c>
-      <c r="E634" s="7" t="s">
+      <c r="F635" s="7"/>
+      <c r="G635" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F634" s="7"/>
-      <c r="G634" s="7" t="s">
+      <c r="H635" s="7"/>
+      <c r="I635" s="7"/>
+      <c r="J635" s="7"/>
+      <c r="K635" s="7"/>
+      <c r="L635" s="7"/>
+      <c r="M635" s="9"/>
+    </row>
+    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A636" s="10"/>
+      <c r="B636" s="11"/>
+      <c r="C636" s="11"/>
+      <c r="D636" s="0"/>
+      <c r="E636" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H634" s="7"/>
-      <c r="I634" s="7"/>
-      <c r="J634" s="7"/>
-      <c r="K634" s="7"/>
-      <c r="L634" s="7"/>
-      <c r="M634" s="9"/>
-    </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A635" s="10"/>
-      <c r="B635" s="11"/>
-      <c r="C635" s="11"/>
-      <c r="D635" s="0"/>
-      <c r="E635" s="11" t="s">
+      <c r="F636" s="11"/>
+      <c r="G636" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F635" s="11"/>
-      <c r="G635" s="11" t="s">
+      <c r="H636" s="11"/>
+      <c r="I636" s="11"/>
+      <c r="J636" s="11"/>
+      <c r="K636" s="11"/>
+      <c r="L636" s="11"/>
+      <c r="M636" s="12"/>
+    </row>
+    <row r="637" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A637" s="6"/>
+      <c r="B637" s="7"/>
+      <c r="C637" s="7"/>
+      <c r="D637" s="11"/>
+      <c r="E637" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H635" s="11"/>
-      <c r="I635" s="11"/>
-      <c r="J635" s="11"/>
-      <c r="K635" s="11"/>
-      <c r="L635" s="11"/>
-      <c r="M635" s="12"/>
-    </row>
-    <row r="636" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A636" s="6"/>
-      <c r="B636" s="7"/>
-      <c r="C636" s="7"/>
-      <c r="D636" s="11"/>
-      <c r="E636" s="7" t="s">
+      <c r="F637" s="7"/>
+      <c r="G637" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F636" s="7"/>
-      <c r="G636" s="7" t="s">
+      <c r="H637" s="7"/>
+      <c r="I637" s="7"/>
+      <c r="J637" s="7"/>
+      <c r="K637" s="7"/>
+      <c r="L637" s="7"/>
+      <c r="M637" s="9"/>
+    </row>
+    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="10"/>
+      <c r="B638" s="11"/>
+      <c r="C638" s="11"/>
+      <c r="D638" s="7" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E638" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H636" s="7"/>
-      <c r="I636" s="7"/>
-      <c r="J636" s="7"/>
-      <c r="K636" s="7"/>
-      <c r="L636" s="7"/>
-      <c r="M636" s="9"/>
-    </row>
-    <row r="637" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="10"/>
-      <c r="B637" s="11"/>
-      <c r="C637" s="11"/>
-      <c r="D637" s="7" t="s">
-        <v>1168</v>
-      </c>
-      <c r="E637" s="11" t="s">
+      <c r="F638" s="11"/>
+      <c r="G638" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F637" s="11"/>
-      <c r="G637" s="11" t="s">
+      <c r="H638" s="11"/>
+      <c r="I638" s="11"/>
+      <c r="J638" s="11"/>
+      <c r="K638" s="11"/>
+      <c r="L638" s="11"/>
+      <c r="M638" s="12"/>
+    </row>
+    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="6"/>
+      <c r="B639" s="7"/>
+      <c r="C639" s="7"/>
+      <c r="D639" s="11" t="s">
+        <v>1171</v>
+      </c>
+      <c r="E639" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H637" s="11"/>
-      <c r="I637" s="11"/>
-      <c r="J637" s="11"/>
-      <c r="K637" s="11"/>
-      <c r="L637" s="11"/>
-      <c r="M637" s="12"/>
-    </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="6"/>
-      <c r="B638" s="7"/>
-      <c r="C638" s="7"/>
-      <c r="D638" s="11" t="s">
-        <v>1169</v>
-      </c>
-      <c r="E638" s="7" t="s">
+      <c r="F639" s="7"/>
+      <c r="G639" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F638" s="7"/>
-      <c r="G638" s="7" t="s">
+      <c r="H639" s="7"/>
+      <c r="I639" s="7"/>
+      <c r="J639" s="7"/>
+      <c r="K639" s="7"/>
+      <c r="L639" s="7"/>
+      <c r="M639" s="9"/>
+    </row>
+    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="10"/>
+      <c r="B640" s="11"/>
+      <c r="C640" s="11"/>
+      <c r="D640" s="7" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E640" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H638" s="7"/>
-      <c r="I638" s="7"/>
-      <c r="J638" s="7"/>
-      <c r="K638" s="7"/>
-      <c r="L638" s="7"/>
-      <c r="M638" s="9"/>
-    </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="10"/>
-      <c r="B639" s="11"/>
-      <c r="C639" s="11"/>
-      <c r="D639" s="7" t="s">
-        <v>1170</v>
-      </c>
-      <c r="E639" s="11" t="s">
+      <c r="F640" s="11"/>
+      <c r="G640" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F639" s="11"/>
-      <c r="G639" s="11" t="s">
+      <c r="H640" s="11"/>
+      <c r="I640" s="11"/>
+      <c r="J640" s="11"/>
+      <c r="K640" s="11"/>
+      <c r="L640" s="11"/>
+      <c r="M640" s="12"/>
+    </row>
+    <row r="641" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A641" s="6"/>
+      <c r="B641" s="7"/>
+      <c r="C641" s="7"/>
+      <c r="D641" s="11"/>
+      <c r="E641" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H639" s="11"/>
-      <c r="I639" s="11"/>
-      <c r="J639" s="11"/>
-      <c r="K639" s="11"/>
-      <c r="L639" s="11"/>
-      <c r="M639" s="12"/>
-    </row>
-    <row r="640" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="6"/>
-      <c r="B640" s="7"/>
-      <c r="C640" s="7"/>
-      <c r="D640" s="11"/>
-      <c r="E640" s="7" t="s">
+      <c r="F641" s="7"/>
+      <c r="G641" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F640" s="7"/>
-      <c r="G640" s="7" t="s">
+      <c r="H641" s="7"/>
+      <c r="I641" s="7"/>
+      <c r="J641" s="7"/>
+      <c r="K641" s="7"/>
+      <c r="L641" s="7"/>
+      <c r="M641" s="9"/>
+    </row>
+    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="10"/>
+      <c r="B642" s="11"/>
+      <c r="C642" s="11"/>
+      <c r="D642" s="0"/>
+      <c r="E642" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H640" s="7"/>
-      <c r="I640" s="7"/>
-      <c r="J640" s="7"/>
-      <c r="K640" s="7"/>
-      <c r="L640" s="7"/>
-      <c r="M640" s="9"/>
-    </row>
-    <row r="641" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="10"/>
-      <c r="B641" s="11"/>
-      <c r="C641" s="11"/>
-      <c r="D641" s="0"/>
-      <c r="E641" s="11" t="s">
+      <c r="F642" s="11"/>
+      <c r="G642" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F641" s="11"/>
-      <c r="G641" s="11" t="s">
+      <c r="H642" s="11"/>
+      <c r="I642" s="11"/>
+      <c r="J642" s="11"/>
+      <c r="K642" s="11"/>
+      <c r="L642" s="11"/>
+      <c r="M642" s="12"/>
+    </row>
+    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="6"/>
+      <c r="B643" s="7"/>
+      <c r="C643" s="7"/>
+      <c r="D643" s="0"/>
+      <c r="E643" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H641" s="11"/>
-      <c r="I641" s="11"/>
-      <c r="J641" s="11"/>
-      <c r="K641" s="11"/>
-      <c r="L641" s="11"/>
-      <c r="M641" s="12"/>
-    </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="6"/>
-      <c r="B642" s="7"/>
-      <c r="C642" s="7"/>
-      <c r="D642" s="0"/>
-      <c r="E642" s="7" t="s">
+      <c r="F643" s="7"/>
+      <c r="G643" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F642" s="7"/>
-      <c r="G642" s="7" t="s">
+      <c r="H643" s="7"/>
+      <c r="I643" s="7"/>
+      <c r="J643" s="7"/>
+      <c r="K643" s="7"/>
+      <c r="L643" s="7"/>
+      <c r="M643" s="9"/>
+    </row>
+    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="10"/>
+      <c r="B644" s="11"/>
+      <c r="C644" s="11"/>
+      <c r="D644" s="0"/>
+      <c r="E644" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H642" s="7"/>
-      <c r="I642" s="7"/>
-      <c r="J642" s="7"/>
-      <c r="K642" s="7"/>
-      <c r="L642" s="7"/>
-      <c r="M642" s="9"/>
-    </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="10"/>
-      <c r="B643" s="11"/>
-      <c r="C643" s="11"/>
-      <c r="D643" s="0"/>
-      <c r="E643" s="11" t="s">
+      <c r="F644" s="11"/>
+      <c r="G644" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F643" s="11"/>
-      <c r="G643" s="11" t="s">
+      <c r="H644" s="11"/>
+      <c r="I644" s="11"/>
+      <c r="J644" s="11"/>
+      <c r="K644" s="11"/>
+      <c r="L644" s="11"/>
+      <c r="M644" s="12"/>
+    </row>
+    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="6"/>
+      <c r="B645" s="7"/>
+      <c r="C645" s="7"/>
+      <c r="D645" s="0"/>
+      <c r="E645" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H643" s="11"/>
-      <c r="I643" s="11"/>
-      <c r="J643" s="11"/>
-      <c r="K643" s="11"/>
-      <c r="L643" s="11"/>
-      <c r="M643" s="12"/>
-    </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="6"/>
-      <c r="B644" s="7"/>
-      <c r="C644" s="7"/>
-      <c r="D644" s="0"/>
-      <c r="E644" s="7" t="s">
+      <c r="F645" s="7"/>
+      <c r="G645" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F644" s="7"/>
-      <c r="G644" s="7" t="s">
+      <c r="H645" s="7"/>
+      <c r="I645" s="7"/>
+      <c r="J645" s="7"/>
+      <c r="K645" s="7"/>
+      <c r="L645" s="7"/>
+      <c r="M645" s="9"/>
+    </row>
+    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A646" s="10"/>
+      <c r="B646" s="11"/>
+      <c r="C646" s="11"/>
+      <c r="D646" s="0"/>
+      <c r="E646" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H644" s="7"/>
-      <c r="I644" s="7"/>
-      <c r="J644" s="7"/>
-      <c r="K644" s="7"/>
-      <c r="L644" s="7"/>
-      <c r="M644" s="9"/>
-    </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="10"/>
-      <c r="B645" s="11"/>
-      <c r="C645" s="11"/>
-      <c r="D645" s="0"/>
-      <c r="E645" s="11" t="s">
+      <c r="F646" s="11"/>
+      <c r="G646" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F645" s="11"/>
-      <c r="G645" s="11" t="s">
+      <c r="H646" s="11"/>
+      <c r="I646" s="11"/>
+      <c r="J646" s="11"/>
+      <c r="K646" s="11"/>
+      <c r="L646" s="11"/>
+      <c r="M646" s="12"/>
+    </row>
+    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A647" s="6"/>
+      <c r="B647" s="7"/>
+      <c r="C647" s="7"/>
+      <c r="D647" s="0"/>
+      <c r="E647" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H645" s="11"/>
-      <c r="I645" s="11"/>
-      <c r="J645" s="11"/>
-      <c r="K645" s="11"/>
-      <c r="L645" s="11"/>
-      <c r="M645" s="12"/>
-    </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="6"/>
-      <c r="B646" s="7"/>
-      <c r="C646" s="7"/>
-      <c r="D646" s="0"/>
-      <c r="E646" s="7" t="s">
+      <c r="F647" s="7"/>
+      <c r="G647" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F646" s="7"/>
-      <c r="G646" s="7" t="s">
+      <c r="H647" s="7"/>
+      <c r="I647" s="7"/>
+      <c r="J647" s="7"/>
+      <c r="K647" s="7"/>
+      <c r="L647" s="7"/>
+      <c r="M647" s="9"/>
+    </row>
+    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A648" s="10"/>
+      <c r="B648" s="11"/>
+      <c r="C648" s="11"/>
+      <c r="D648" s="0"/>
+      <c r="E648" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H646" s="7"/>
-      <c r="I646" s="7"/>
-      <c r="J646" s="7"/>
-      <c r="K646" s="7"/>
-      <c r="L646" s="7"/>
-      <c r="M646" s="9"/>
-    </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="10"/>
-      <c r="B647" s="11"/>
-      <c r="C647" s="11"/>
-      <c r="D647" s="0"/>
-      <c r="E647" s="11" t="s">
+      <c r="F648" s="11"/>
+      <c r="G648" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F647" s="11"/>
-      <c r="G647" s="11" t="s">
+      <c r="H648" s="11"/>
+      <c r="I648" s="11"/>
+      <c r="J648" s="11"/>
+      <c r="K648" s="11"/>
+      <c r="L648" s="11"/>
+      <c r="M648" s="12"/>
+    </row>
+    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A649" s="6"/>
+      <c r="B649" s="7"/>
+      <c r="C649" s="7"/>
+      <c r="D649" s="0"/>
+      <c r="E649" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H647" s="11"/>
-      <c r="I647" s="11"/>
-      <c r="J647" s="11"/>
-      <c r="K647" s="11"/>
-      <c r="L647" s="11"/>
-      <c r="M647" s="12"/>
-    </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="6"/>
-      <c r="B648" s="7"/>
-      <c r="C648" s="7"/>
-      <c r="D648" s="0"/>
-      <c r="E648" s="7" t="s">
+      <c r="F649" s="7"/>
+      <c r="G649" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F648" s="7"/>
-      <c r="G648" s="7" t="s">
+      <c r="H649" s="7"/>
+      <c r="I649" s="7"/>
+      <c r="J649" s="7"/>
+      <c r="K649" s="7"/>
+      <c r="L649" s="7"/>
+      <c r="M649" s="9"/>
+    </row>
+    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A650" s="10"/>
+      <c r="B650" s="11"/>
+      <c r="C650" s="11"/>
+      <c r="D650" s="0"/>
+      <c r="E650" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H648" s="7"/>
-      <c r="I648" s="7"/>
-      <c r="J648" s="7"/>
-      <c r="K648" s="7"/>
-      <c r="L648" s="7"/>
-      <c r="M648" s="9"/>
-    </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="10"/>
-      <c r="B649" s="11"/>
-      <c r="C649" s="11"/>
-      <c r="D649" s="0"/>
-      <c r="E649" s="11" t="s">
+      <c r="F650" s="11"/>
+      <c r="G650" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F649" s="11"/>
-      <c r="G649" s="11" t="s">
+      <c r="H650" s="11"/>
+      <c r="I650" s="11"/>
+      <c r="J650" s="11"/>
+      <c r="K650" s="11"/>
+      <c r="L650" s="11"/>
+      <c r="M650" s="12"/>
+    </row>
+    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A651" s="6"/>
+      <c r="B651" s="7"/>
+      <c r="C651" s="7"/>
+      <c r="D651" s="0"/>
+      <c r="E651" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H649" s="11"/>
-      <c r="I649" s="11"/>
-      <c r="J649" s="11"/>
-      <c r="K649" s="11"/>
-      <c r="L649" s="11"/>
-      <c r="M649" s="12"/>
-    </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="6"/>
-      <c r="B650" s="7"/>
-      <c r="C650" s="7"/>
-      <c r="D650" s="0"/>
-      <c r="E650" s="7" t="s">
+      <c r="F651" s="7"/>
+      <c r="G651" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F650" s="7"/>
-      <c r="G650" s="7" t="s">
+      <c r="H651" s="7"/>
+      <c r="I651" s="7"/>
+      <c r="J651" s="7"/>
+      <c r="K651" s="7"/>
+      <c r="L651" s="7"/>
+      <c r="M651" s="9"/>
+    </row>
+    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A652" s="10"/>
+      <c r="B652" s="11"/>
+      <c r="C652" s="11"/>
+      <c r="D652" s="11"/>
+      <c r="E652" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H650" s="7"/>
-      <c r="I650" s="7"/>
-      <c r="J650" s="7"/>
-      <c r="K650" s="7"/>
-      <c r="L650" s="7"/>
-      <c r="M650" s="9"/>
-    </row>
-    <row r="651" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A651" s="10"/>
-      <c r="B651" s="11"/>
-      <c r="C651" s="11"/>
-      <c r="D651" s="11"/>
-      <c r="E651" s="11" t="s">
+      <c r="F652" s="11"/>
+      <c r="G652" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F651" s="11"/>
-      <c r="G651" s="11" t="s">
+      <c r="H652" s="11"/>
+      <c r="I652" s="11"/>
+      <c r="J652" s="11"/>
+      <c r="K652" s="11"/>
+      <c r="L652" s="11"/>
+      <c r="M652" s="12"/>
+    </row>
+    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A653" s="6"/>
+      <c r="B653" s="7"/>
+      <c r="C653" s="7"/>
+      <c r="D653" s="7"/>
+      <c r="E653" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H651" s="11"/>
-      <c r="I651" s="11"/>
-      <c r="J651" s="11"/>
-      <c r="K651" s="11"/>
-      <c r="L651" s="11"/>
-      <c r="M651" s="12"/>
-    </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="6"/>
-      <c r="B652" s="7"/>
-      <c r="C652" s="7"/>
-      <c r="D652" s="7"/>
-      <c r="E652" s="7" t="s">
+      <c r="F653" s="7"/>
+      <c r="G653" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F652" s="7"/>
-      <c r="G652" s="7" t="s">
+      <c r="H653" s="7"/>
+      <c r="I653" s="7"/>
+      <c r="J653" s="7"/>
+      <c r="K653" s="7"/>
+      <c r="L653" s="7"/>
+      <c r="M653" s="9"/>
+    </row>
+    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A654" s="10"/>
+      <c r="B654" s="11"/>
+      <c r="C654" s="11"/>
+      <c r="D654" s="11"/>
+      <c r="E654" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H652" s="7"/>
-      <c r="I652" s="7"/>
-      <c r="J652" s="7"/>
-      <c r="K652" s="7"/>
-      <c r="L652" s="7"/>
-      <c r="M652" s="9"/>
-    </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A653" s="10"/>
-      <c r="B653" s="11"/>
-      <c r="C653" s="11"/>
-      <c r="D653" s="11"/>
-      <c r="E653" s="11" t="s">
+      <c r="F654" s="11"/>
+      <c r="G654" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F653" s="11"/>
-      <c r="G653" s="11" t="s">
+      <c r="H654" s="11"/>
+      <c r="I654" s="11"/>
+      <c r="J654" s="11"/>
+      <c r="K654" s="11"/>
+      <c r="L654" s="11"/>
+      <c r="M654" s="12"/>
+    </row>
+    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A655" s="6"/>
+      <c r="B655" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D655" s="7" t="s">
+        <v>1174</v>
+      </c>
+      <c r="E655" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H653" s="11"/>
-      <c r="I653" s="11"/>
-      <c r="J653" s="11"/>
-      <c r="K653" s="11"/>
-      <c r="L653" s="11"/>
-      <c r="M653" s="12"/>
-    </row>
-    <row r="654" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="6"/>
-      <c r="B654" s="7" t="s">
-        <v>1171</v>
-      </c>
-      <c r="C654" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D654" s="7" t="s">
-        <v>1172</v>
-      </c>
-      <c r="E654" s="7" t="s">
+      <c r="F655" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G655" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F654" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G654" s="7" t="s">
+      <c r="H655" s="7"/>
+      <c r="I655" s="7"/>
+      <c r="J655" s="7"/>
+      <c r="K655" s="7"/>
+      <c r="L655" s="7"/>
+      <c r="M655" s="9"/>
+    </row>
+    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A656" s="10"/>
+      <c r="B656" s="11" t="s">
+        <v>1176</v>
+      </c>
+      <c r="C656" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D656" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E656" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H654" s="7"/>
-      <c r="I654" s="7"/>
-      <c r="J654" s="7"/>
-      <c r="K654" s="7"/>
-      <c r="L654" s="7"/>
-      <c r="M654" s="9"/>
-    </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="10"/>
-      <c r="B655" s="11" t="s">
-        <v>1174</v>
-      </c>
-      <c r="C655" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D655" s="11" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E655" s="11" t="s">
+      <c r="F656" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G656" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F655" s="11" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G655" s="11" t="s">
+      <c r="H656" s="11"/>
+      <c r="I656" s="11"/>
+      <c r="J656" s="11"/>
+      <c r="K656" s="11"/>
+      <c r="L656" s="11"/>
+      <c r="M656" s="12"/>
+    </row>
+    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A657" s="6"/>
+      <c r="B657" s="7" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D657" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E657" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H655" s="11"/>
-      <c r="I655" s="11"/>
-      <c r="J655" s="11"/>
-      <c r="K655" s="11"/>
-      <c r="L655" s="11"/>
-      <c r="M655" s="12"/>
-    </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A656" s="6"/>
-      <c r="B656" s="7" t="s">
+      <c r="F657" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="C656" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D656" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="E656" s="7" t="s">
+      <c r="G657" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F656" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G656" s="7" t="s">
+      <c r="H657" s="7"/>
+      <c r="I657" s="7"/>
+      <c r="J657" s="7"/>
+      <c r="K657" s="7"/>
+      <c r="L657" s="7"/>
+      <c r="M657" s="9"/>
+    </row>
+    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A658" s="10"/>
+      <c r="B658" s="11" t="s">
+        <v>1178</v>
+      </c>
+      <c r="C658" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D658" s="11"/>
+      <c r="E658" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H656" s="7"/>
-      <c r="I656" s="7"/>
-      <c r="J656" s="7"/>
-      <c r="K656" s="7"/>
-      <c r="L656" s="7"/>
-      <c r="M656" s="9"/>
-    </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="10"/>
-      <c r="B657" s="11" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C657" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D657" s="11"/>
-      <c r="E657" s="11" t="s">
+      <c r="F658" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G658" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F657" s="11" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G657" s="11" t="s">
+      <c r="H658" s="11"/>
+      <c r="I658" s="11"/>
+      <c r="J658" s="11"/>
+      <c r="K658" s="11"/>
+      <c r="L658" s="11"/>
+      <c r="M658" s="12"/>
+    </row>
+    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A659" s="6"/>
+      <c r="B659" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C659" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D659" s="7" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E659" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H657" s="11"/>
-      <c r="I657" s="11"/>
-      <c r="J657" s="11"/>
-      <c r="K657" s="11"/>
-      <c r="L657" s="11"/>
-      <c r="M657" s="12"/>
-    </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="6"/>
-      <c r="B658" s="7" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C658" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D658" s="7" t="s">
-        <v>1178</v>
-      </c>
-      <c r="E658" s="7" t="s">
+      <c r="F659" s="7" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G659" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F658" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G658" s="7" t="s">
+      <c r="H659" s="7"/>
+      <c r="I659" s="7"/>
+      <c r="J659" s="7"/>
+      <c r="K659" s="7"/>
+      <c r="L659" s="7"/>
+      <c r="M659" s="9"/>
+    </row>
+    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="10"/>
+      <c r="B660" s="11" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C660" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D660" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E660" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H658" s="7"/>
-      <c r="I658" s="7"/>
-      <c r="J658" s="7"/>
-      <c r="K658" s="7"/>
-      <c r="L658" s="7"/>
-      <c r="M658" s="9"/>
-    </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="10"/>
-      <c r="B659" s="11" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C659" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D659" s="11" t="s">
-        <v>1180</v>
-      </c>
-      <c r="E659" s="11" t="s">
+      <c r="F660" s="11" t="s">
+        <v>1175</v>
+      </c>
+      <c r="G660" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F659" s="11" t="s">
-        <v>1173</v>
-      </c>
-      <c r="G659" s="11" t="s">
+      <c r="H660" s="11"/>
+      <c r="I660" s="11"/>
+      <c r="J660" s="11"/>
+      <c r="K660" s="11"/>
+      <c r="L660" s="11"/>
+      <c r="M660" s="12"/>
+    </row>
+    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="6"/>
+      <c r="B661" s="19" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D661" s="7" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E661" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H659" s="11"/>
-      <c r="I659" s="11"/>
-      <c r="J659" s="11"/>
-      <c r="K659" s="11"/>
-      <c r="L659" s="11"/>
-      <c r="M659" s="12"/>
-    </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="6"/>
-      <c r="B660" s="19" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C660" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D660" s="7" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E660" s="7" t="s">
+      <c r="F661" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="G661" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F660" s="7" t="s">
-        <v>1183</v>
-      </c>
-      <c r="G660" s="7" t="s">
+      <c r="H661" s="7"/>
+      <c r="I661" s="7"/>
+      <c r="J661" s="7"/>
+      <c r="K661" s="7"/>
+      <c r="L661" s="7"/>
+      <c r="M661" s="9"/>
+    </row>
+    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="10"/>
+      <c r="B662" s="11" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C662" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D662" s="11" t="s">
+        <v>1187</v>
+      </c>
+      <c r="E662" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H660" s="7"/>
-      <c r="I660" s="7"/>
-      <c r="J660" s="7"/>
-      <c r="K660" s="7"/>
-      <c r="L660" s="7"/>
-      <c r="M660" s="9"/>
-    </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="10"/>
-      <c r="B661" s="11" t="s">
-        <v>1184</v>
-      </c>
-      <c r="C661" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D661" s="11" t="s">
-        <v>1185</v>
-      </c>
-      <c r="E661" s="11" t="s">
+      <c r="F662" s="11"/>
+      <c r="G662" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F661" s="11"/>
-      <c r="G661" s="11" t="s">
+      <c r="H662" s="11"/>
+      <c r="I662" s="11"/>
+      <c r="J662" s="11"/>
+      <c r="K662" s="11"/>
+      <c r="L662" s="11"/>
+      <c r="M662" s="12"/>
+    </row>
+    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="6"/>
+      <c r="B663" s="7" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C663" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D663" s="7"/>
+      <c r="E663" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H661" s="11"/>
-      <c r="I661" s="11"/>
-      <c r="J661" s="11"/>
-      <c r="K661" s="11"/>
-      <c r="L661" s="11"/>
-      <c r="M661" s="12"/>
-    </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="6"/>
-      <c r="B662" s="7" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C662" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D662" s="7"/>
-      <c r="E662" s="7" t="s">
+      <c r="F663" s="7" t="s">
+        <v>1189</v>
+      </c>
+      <c r="G663" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F662" s="7" t="s">
-        <v>1187</v>
-      </c>
-      <c r="G662" s="7" t="s">
+      <c r="H663" s="7"/>
+      <c r="I663" s="7"/>
+      <c r="J663" s="7"/>
+      <c r="K663" s="7"/>
+      <c r="L663" s="7"/>
+      <c r="M663" s="9"/>
+    </row>
+    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="10"/>
+      <c r="B664" s="11"/>
+      <c r="C664" s="11"/>
+      <c r="D664" s="11"/>
+      <c r="E664" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H662" s="7"/>
-      <c r="I662" s="7"/>
-      <c r="J662" s="7"/>
-      <c r="K662" s="7"/>
-      <c r="L662" s="7"/>
-      <c r="M662" s="9"/>
-    </row>
-    <row r="663" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="10"/>
-      <c r="B663" s="11"/>
-      <c r="C663" s="11"/>
-      <c r="D663" s="11"/>
-      <c r="E663" s="11" t="s">
+      <c r="F664" s="11"/>
+      <c r="G664" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F663" s="11"/>
-      <c r="G663" s="11" t="s">
+      <c r="H664" s="11"/>
+      <c r="I664" s="11"/>
+      <c r="J664" s="11"/>
+      <c r="K664" s="11"/>
+      <c r="L664" s="11"/>
+      <c r="M664" s="12"/>
+    </row>
+    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="6"/>
+      <c r="B665" s="7"/>
+      <c r="C665" s="7"/>
+      <c r="D665" s="7"/>
+      <c r="E665" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H663" s="11"/>
-      <c r="I663" s="11"/>
-      <c r="J663" s="11"/>
-      <c r="K663" s="11"/>
-      <c r="L663" s="11"/>
-      <c r="M663" s="12"/>
-    </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="6"/>
-      <c r="B664" s="7"/>
-      <c r="C664" s="7"/>
-      <c r="D664" s="7"/>
-      <c r="E664" s="7" t="s">
+      <c r="F665" s="7"/>
+      <c r="G665" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F664" s="7"/>
-      <c r="G664" s="7" t="s">
+      <c r="H665" s="7"/>
+      <c r="I665" s="7"/>
+      <c r="J665" s="7"/>
+      <c r="K665" s="7"/>
+      <c r="L665" s="7"/>
+      <c r="M665" s="9"/>
+    </row>
+    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="10"/>
+      <c r="B666" s="11"/>
+      <c r="C666" s="11"/>
+      <c r="D666" s="11"/>
+      <c r="E666" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H664" s="7"/>
-      <c r="I664" s="7"/>
-      <c r="J664" s="7"/>
-      <c r="K664" s="7"/>
-      <c r="L664" s="7"/>
-      <c r="M664" s="9"/>
-    </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="10"/>
-      <c r="B665" s="11"/>
-      <c r="C665" s="11"/>
-      <c r="D665" s="11"/>
-      <c r="E665" s="11" t="s">
+      <c r="F666" s="11"/>
+      <c r="G666" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F665" s="11"/>
-      <c r="G665" s="11" t="s">
+      <c r="H666" s="11"/>
+      <c r="I666" s="11"/>
+      <c r="J666" s="11"/>
+      <c r="K666" s="11"/>
+      <c r="L666" s="11"/>
+      <c r="M666" s="12"/>
+    </row>
+    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="6"/>
+      <c r="B667" s="7"/>
+      <c r="C667" s="7"/>
+      <c r="D667" s="7"/>
+      <c r="E667" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H665" s="11"/>
-      <c r="I665" s="11"/>
-      <c r="J665" s="11"/>
-      <c r="K665" s="11"/>
-      <c r="L665" s="11"/>
-      <c r="M665" s="12"/>
-    </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="6"/>
-      <c r="B666" s="7"/>
-      <c r="C666" s="7"/>
-      <c r="D666" s="7"/>
-      <c r="E666" s="7" t="s">
+      <c r="F667" s="7"/>
+      <c r="G667" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F666" s="7"/>
-      <c r="G666" s="7" t="s">
+      <c r="H667" s="7"/>
+      <c r="I667" s="7"/>
+      <c r="J667" s="7"/>
+      <c r="K667" s="7"/>
+      <c r="L667" s="7"/>
+      <c r="M667" s="9"/>
+    </row>
+    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="10"/>
+      <c r="B668" s="11"/>
+      <c r="C668" s="11"/>
+      <c r="D668" s="11"/>
+      <c r="E668" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H666" s="7"/>
-      <c r="I666" s="7"/>
-      <c r="J666" s="7"/>
-      <c r="K666" s="7"/>
-      <c r="L666" s="7"/>
-      <c r="M666" s="9"/>
-    </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="10"/>
-      <c r="B667" s="11"/>
-      <c r="C667" s="11"/>
-      <c r="D667" s="11"/>
-      <c r="E667" s="11" t="s">
+      <c r="F668" s="11"/>
+      <c r="G668" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F667" s="11"/>
-      <c r="G667" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H667" s="11"/>
-      <c r="I667" s="11"/>
-      <c r="J667" s="11"/>
-      <c r="K667" s="11"/>
-      <c r="L667" s="11"/>
-      <c r="M667" s="12"/>
-    </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="6"/>
-      <c r="B668" s="7"/>
-      <c r="C668" s="7"/>
-      <c r="D668" s="7"/>
-      <c r="E668" s="7"/>
-      <c r="F668" s="7"/>
-      <c r="G668" s="7"/>
-      <c r="H668" s="7"/>
-      <c r="I668" s="7"/>
-      <c r="J668" s="7"/>
-      <c r="K668" s="7"/>
-      <c r="L668" s="7"/>
-      <c r="M668" s="9"/>
+      <c r="H668" s="11"/>
+      <c r="I668" s="11"/>
+      <c r="J668" s="11"/>
+      <c r="K668" s="11"/>
+      <c r="L668" s="11"/>
+      <c r="M668" s="12"/>
     </row>
     <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="22"/>
-      <c r="B669" s="23"/>
-      <c r="C669" s="23"/>
-      <c r="D669" s="23"/>
-      <c r="E669" s="23"/>
-      <c r="F669" s="23"/>
-      <c r="G669" s="23"/>
-      <c r="H669" s="23"/>
-      <c r="I669" s="23"/>
-      <c r="J669" s="23"/>
-      <c r="K669" s="23"/>
-      <c r="L669" s="23"/>
-      <c r="M669" s="24"/>
+      <c r="A669" s="6"/>
+      <c r="B669" s="7"/>
+      <c r="C669" s="7"/>
+      <c r="D669" s="7"/>
+      <c r="E669" s="7"/>
+      <c r="F669" s="7"/>
+      <c r="G669" s="7"/>
+      <c r="H669" s="7"/>
+      <c r="I669" s="7"/>
+      <c r="J669" s="7"/>
+      <c r="K669" s="7"/>
+      <c r="L669" s="7"/>
+      <c r="M669" s="9"/>
+    </row>
+    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="22"/>
+      <c r="B670" s="23"/>
+      <c r="C670" s="23"/>
+      <c r="D670" s="23"/>
+      <c r="E670" s="23"/>
+      <c r="F670" s="23"/>
+      <c r="G670" s="23"/>
+      <c r="H670" s="23"/>
+      <c r="I670" s="23"/>
+      <c r="J670" s="23"/>
+      <c r="K670" s="23"/>
+      <c r="L670" s="23"/>
+      <c r="M670" s="24"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E663:E1048576 E1:E653 G1:G1048576">
+  <conditionalFormatting sqref="E664:E1048576 E1:E654 G1:G1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -22245,7 +22276,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C663:C1048576 C1:C653">
+  <conditionalFormatting sqref="C664:C1048576 C1:C654">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -22253,7 +22284,7 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E654:E662">
+  <conditionalFormatting sqref="E655:E663">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -22264,7 +22295,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C654:C662">
+  <conditionalFormatting sqref="C655:C663">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -22273,7 +22304,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K667 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C620:C667" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K668 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C668" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -22362,16 +22393,15 @@
     <hyperlink ref="D607" r:id="rId81" display="https://www.olx.pl/oferta/toaleta-wc-toaleta-na-budowe-wynajem-toalety-przenosne-CID619-IDDvrNu.html"/>
     <hyperlink ref="D608" r:id="rId82" display="https://wylecz.to/stomatologia/prognatyzm-warga-habsburska-przyczyny-objawy-leczenie/"/>
     <hyperlink ref="D610" r:id="rId83" display="https://cypr24.eu/premie-dla-studentow-beda-wyplacane-od-poniedzialku/"/>
-    <hyperlink ref="D611" r:id="rId84" display="https://nwloclawek.pl/artykul/pozar-za-pozarem-na/971578"/>
-    <hyperlink ref="D612" r:id="rId85" display="https://bytomski.pl"/>
-    <hyperlink ref="D613" r:id="rId86" display="http://b2-biznes.pl/ponad-polowa-polakow-nie-ma-zaufania-do-obecnego-systemu-emerytalnego/"/>
-    <hyperlink ref="D614" r:id="rId87" display="https://zakazany-humor.pl"/>
-    <hyperlink ref="D618" r:id="rId88" display="http://mh24.pl"/>
-    <hyperlink ref="D619" r:id="rId89" display="https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html"/>
-    <hyperlink ref="D623" r:id="rId90" display="https://www.kardiolo.pl/leki.htm"/>
-    <hyperlink ref="D624" r:id="rId91" display="https://open.fm/"/>
-    <hyperlink ref="D627" r:id="rId92" display="https://www.echirurgia.pl/wyrostek/ostre_zapalenie_wyrostka.htm"/>
-    <hyperlink ref="D630" r:id="rId93" display="https://www.wp.pl/"/>
+    <hyperlink ref="D612" r:id="rId84" display="https://bytomski.pl"/>
+    <hyperlink ref="D614" r:id="rId85" display="http://b2-biznes.pl/ponad-polowa-polakow-nie-ma-zaufania-do-obecnego-systemu-emerytalnego/"/>
+    <hyperlink ref="D615" r:id="rId86" display="https://zakazany-humor.pl"/>
+    <hyperlink ref="D619" r:id="rId87" display="http://mh24.pl"/>
+    <hyperlink ref="D620" r:id="rId88" display="https://ki24.info/pl/13_sport/15438_to-beda-pierwsze-takie-mistrzostwa-w-gminie-wezmiesz-udzial.html"/>
+    <hyperlink ref="D624" r:id="rId89" display="https://www.kardiolo.pl/leki.htm"/>
+    <hyperlink ref="D625" r:id="rId90" display="https://open.fm/"/>
+    <hyperlink ref="D628" r:id="rId91" display="https://www.echirurgia.pl/wyrostek/ostre_zapalenie_wyrostka.htm"/>
+    <hyperlink ref="D631" r:id="rId92" display="https://www.wp.pl/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -22381,7 +22411,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId94"/>
+    <tablePart r:id="rId93"/>
   </tableParts>
 </worksheet>
 </file>
@@ -22404,1362 +22434,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>1188</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1190</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1191</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>1193</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>1195</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>1196</v>
+        <v>1198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>1197</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>1198</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>1200</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>1202</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>1203</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>1192</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>1204</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>1205</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>1207</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>1208</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1209</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>1210</v>
+        <v>1212</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>1212</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>1213</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>1214</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>1215</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>1216</v>
+        <v>1218</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>1217</v>
+        <v>1219</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>1218</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>1220</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>1221</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>1222</v>
+        <v>1224</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>1223</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>1224</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>1225</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>1226</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>1227</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>1228</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>1229</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>1230</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>1231</v>
+        <v>1233</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>1232</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>1233</v>
+        <v>1235</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>1234</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>1235</v>
+        <v>1237</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>1236</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>1237</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>1238</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>1239</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>1240</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>1241</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>1242</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>1243</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>1244</v>
+        <v>1246</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>1245</v>
+        <v>1247</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>1250</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>1251</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>1252</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>1253</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>1255</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>1256</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>1257</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>1258</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>1259</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>1260</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="s">
-        <v>1263</v>
+        <v>1265</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>1264</v>
+        <v>1266</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>1265</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="s">
-        <v>1266</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>1267</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="s">
-        <v>1268</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>1271</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="s">
-        <v>1272</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="s">
-        <v>1275</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="s">
-        <v>1194</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>1276</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>1277</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="s">
-        <v>1278</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="s">
-        <v>1201</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="s">
-        <v>1279</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="s">
-        <v>1280</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>1281</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>1283</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>1284</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="s">
-        <v>1285</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>1288</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="s">
-        <v>1289</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>1291</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>1292</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>1293</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>1294</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>1295</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="s">
-        <v>1296</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="21" t="s">
-        <v>1297</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="s">
-        <v>1298</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>1300</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="s">
-        <v>1301</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>1302</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="s">
-        <v>1303</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>1304</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>1305</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="s">
-        <v>1306</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>1307</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="s">
-        <v>1308</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="s">
-        <v>1309</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>1310</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>1311</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>1312</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="s">
-        <v>1313</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="s">
-        <v>1314</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
-        <v>1315</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="21" t="s">
-        <v>1316</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="s">
-        <v>1317</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="s">
-        <v>1318</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="s">
-        <v>1319</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="s">
-        <v>1320</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="s">
-        <v>1321</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
-        <v>1322</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>1324</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="s">
-        <v>1325</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="s">
-        <v>1326</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
-        <v>1327</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
-        <v>1328</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="s">
-        <v>1329</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>1330</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="21" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="21" t="s">
-        <v>1332</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="21" t="s">
-        <v>1333</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="21" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>1335</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="21" t="s">
-        <v>1336</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="21" t="s">
-        <v>1337</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="21" t="s">
-        <v>1338</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="21" t="s">
-        <v>1339</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="21" t="s">
-        <v>1340</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="21" t="s">
-        <v>1341</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="21" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="21" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="21" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="21" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
-        <v>1349</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="21" t="s">
-        <v>1350</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="21" t="s">
-        <v>1351</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="21" t="s">
-        <v>1352</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="21" t="s">
-        <v>1353</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="21" t="s">
-        <v>1354</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="21" t="s">
-        <v>1355</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="21" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="21" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="21" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="21" t="s">
-        <v>1360</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="21" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="21" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="21" t="s">
-        <v>1363</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>1364</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>1365</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>1366</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>1367</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>1368</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>1369</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>1370</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>1371</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
-        <v>1372</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="21" t="s">
-        <v>1373</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="21" t="s">
-        <v>1374</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="21" t="s">
-        <v>1375</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="21" t="s">
-        <v>1376</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="21" t="s">
-        <v>1377</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>1378</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>1380</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>1381</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>1189</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>1385</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>1386</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>1387</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>1388</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="21" t="s">
-        <v>1389</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="21" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="21" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="21" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="21" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="21" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="21" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="21" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="21" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="21" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>1408</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="21" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="21" t="s">
-        <v>1417</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>1418</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
-        <v>1419</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="21" t="s">
-        <v>1420</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="21" t="s">
-        <v>1421</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>1422</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>1423</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>1424</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="21" t="s">
-        <v>1425</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="21" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
-        <v>1199</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="21" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>1430</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>1431</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>1432</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>1433</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>1434</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>1435</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>1436</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>1437</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>1438</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>1439</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>1440</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>1441</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="21" t="s">
-        <v>1442</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="21" t="s">
-        <v>1443</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="21" t="s">
-        <v>1444</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="21" t="s">
-        <v>1445</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="21" t="s">
-        <v>1446</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="21" t="s">
-        <v>1447</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="21" t="s">
-        <v>1448</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="21" t="s">
-        <v>1449</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="21" t="s">
-        <v>1450</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="21" t="s">
-        <v>1206</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="21" t="s">
-        <v>1451</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>1452</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="21" t="s">
-        <v>1453</v>
+        <v>1455</v>
       </c>
     </row>
   </sheetData>
@@ -23794,48 +23824,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="25" t="s">
-        <v>1454</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>1455</v>
+        <v>1457</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1457</v>
+        <v>1459</v>
       </c>
       <c r="I2" s="29"/>
       <c r="K2" s="21" t="s">
-        <v>1458</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="26" t="s">
-        <v>1459</v>
+        <v>1461</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1456</v>
+        <v>1458</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="30"/>
       <c r="J3" s="27"/>
       <c r="K3" s="11" t="s">
-        <v>1460</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>1461</v>
+        <v>1463</v>
       </c>
       <c r="C4" s="31"/>
       <c r="H4" s="27"/>
       <c r="I4" s="30"/>
       <c r="J4" s="27"/>
       <c r="K4" s="11" t="s">
-        <v>1462</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23844,7 +23874,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="27"/>
       <c r="K5" s="7" t="s">
-        <v>1463</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23863,7 +23893,7 @@
       <c r="I7" s="30"/>
       <c r="J7" s="27"/>
       <c r="K7" s="33" t="s">
-        <v>1464</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23873,19 +23903,19 @@
       <c r="I8" s="30"/>
       <c r="J8" s="27"/>
       <c r="K8" s="21" t="s">
-        <v>1465</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="33" t="s">
-        <v>1466</v>
+        <v>1468</v>
       </c>
       <c r="C9" s="31"/>
       <c r="H9" s="27"/>
       <c r="I9" s="30"/>
       <c r="J9" s="27"/>
       <c r="K9" s="7" t="s">
-        <v>1467</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23895,7 +23925,7 @@
       <c r="I10" s="30"/>
       <c r="J10" s="27"/>
       <c r="K10" s="11" t="s">
-        <v>1468</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23905,40 +23935,40 @@
       <c r="I11" s="30"/>
       <c r="J11" s="27"/>
       <c r="K11" s="7" t="s">
-        <v>1469</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="0"/>
       <c r="K12" s="7" t="s">
-        <v>1470</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="K13" s="7" t="s">
-        <v>1471</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>1472</v>
+        <v>1474</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1473</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>1474</v>
+        <v>1476</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1475</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="11" t="s">
-        <v>1476</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23946,10 +23976,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>1477</v>
+        <v>1479</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1478</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23957,159 +23987,159 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1479</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>1480</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>1481</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>1482</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>1483</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21" t="s">
-        <v>1484</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21" t="s">
-        <v>1485</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21" t="s">
-        <v>1486</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21" t="s">
-        <v>1487</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21" t="s">
-        <v>1488</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>1489</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21" t="s">
-        <v>1490</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21" t="s">
-        <v>1491</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21" t="s">
-        <v>1492</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>1493</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>1494</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21" t="s">
-        <v>1495</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>1496</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>1497</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21" t="s">
-        <v>1498</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="21" t="s">
-        <v>1499</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="21" t="s">
-        <v>1153</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="21" t="s">
-        <v>1500</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="21" t="s">
-        <v>1501</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="21" t="s">
-        <v>1502</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21" t="s">
-        <v>1503</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="21" t="s">
-        <v>1504</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="21" t="s">
-        <v>1505</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="21" t="s">
-        <v>1506</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="21" t="s">
-        <v>1507</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="21" t="s">
-        <v>1508</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24117,17 +24147,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1509</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="21" t="s">
-        <v>1510</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="21" t="s">
-        <v>1511</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24137,27 +24167,27 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>1512</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21" t="s">
-        <v>1513</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21" t="s">
-        <v>1514</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="21" t="s">
-        <v>1515</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21" t="s">
-        <v>1516</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -24203,472 +24233,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="21" t="s">
-        <v>1517</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="21" t="s">
-        <v>1518</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="21" t="s">
-        <v>1519</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="21" t="s">
-        <v>1520</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="21" t="s">
-        <v>1521</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="21" t="s">
-        <v>1522</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="21" t="s">
-        <v>1523</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="21" t="s">
-        <v>1524</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="21" t="s">
-        <v>1525</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="21" t="s">
-        <v>1526</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="21" t="s">
-        <v>1527</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21" t="s">
-        <v>1528</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21" t="s">
-        <v>1529</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="21" t="s">
-        <v>1530</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="21" t="s">
-        <v>1531</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="21" t="s">
-        <v>1532</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="21" t="s">
-        <v>1533</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="21" t="s">
-        <v>1534</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="21" t="s">
-        <v>1535</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
-        <v>1536</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="21" t="s">
-        <v>1537</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="21" t="s">
-        <v>1538</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="21" t="s">
-        <v>1539</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="21" t="s">
-        <v>1540</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="21" t="s">
-        <v>1541</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="21" t="s">
-        <v>1542</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="21" t="s">
-        <v>1543</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="21" t="s">
-        <v>1544</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="21" t="s">
-        <v>1545</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="21" t="s">
-        <v>1546</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="21" t="s">
-        <v>1547</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="21" t="s">
-        <v>1548</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="21" t="s">
-        <v>1549</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="21" t="s">
-        <v>1550</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="21" t="s">
-        <v>1551</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="21" t="s">
-        <v>1552</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="21" t="s">
-        <v>1553</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="21" t="s">
-        <v>1554</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="21" t="s">
-        <v>1555</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>1556</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="21" t="s">
-        <v>1557</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="21" t="s">
-        <v>1558</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="21" t="s">
-        <v>1559</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="21" t="s">
-        <v>1560</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="21" t="s">
-        <v>1561</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="21" t="s">
-        <v>1562</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="21" t="s">
-        <v>1563</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="21" t="s">
-        <v>1564</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="21" t="s">
-        <v>1565</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="21" t="s">
-        <v>1566</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="21" t="s">
-        <v>1567</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="21" t="s">
-        <v>1568</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="21" t="s">
-        <v>1569</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="21" t="s">
-        <v>1570</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="21" t="s">
-        <v>1571</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="21" t="s">
-        <v>1572</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="21" t="s">
-        <v>1573</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="21" t="s">
-        <v>1574</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="21" t="s">
-        <v>1575</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="21" t="s">
-        <v>1576</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="21" t="s">
-        <v>1577</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="21" t="s">
-        <v>1578</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="21" t="s">
-        <v>1579</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="21" t="s">
-        <v>1580</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="21" t="s">
-        <v>1581</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="21" t="s">
-        <v>1582</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="21" t="s">
-        <v>1583</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="21" t="s">
-        <v>1584</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="21" t="s">
-        <v>1585</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="21" t="s">
-        <v>1586</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>1587</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="21" t="s">
-        <v>1588</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="21" t="s">
-        <v>1589</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="21" t="s">
-        <v>1590</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="21" t="s">
-        <v>1591</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="21" t="s">
-        <v>1592</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="21" t="s">
-        <v>1593</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="21" t="s">
-        <v>1594</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="21" t="s">
-        <v>1595</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="21" t="s">
-        <v>1596</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="21" t="s">
-        <v>1597</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="21" t="s">
-        <v>1598</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="21" t="s">
-        <v>1599</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="21" t="s">
-        <v>1600</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="21" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="21" t="s">
-        <v>1602</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="21" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="21" t="s">
-        <v>1604</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="21" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="21" t="s">
-        <v>1606</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="21" t="s">
-        <v>1607</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="21" t="s">
-        <v>1608</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="21" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="21" t="s">
-        <v>1610</v>
+        <v>1612</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3687" uniqueCount="1613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="1693">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3532,46 +3532,163 @@
     <t xml:space="preserve">videobaner</t>
   </si>
   <si>
-    <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gwiazdybasketu.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.meczenazywo.pl</t>
+    <t xml:space="preserve">344</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dobra-mama.pl##div[class^="g-dyn a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dobra-mama.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-dobrydom.pl,dobretargi.pl,abcdobrejmamy.pl,nowymagazyn.pl###slideshow_xl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-dobrydom.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dobretargi.pl/public/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://abcdobrejmamy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://nowymagazyn.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">346</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domenergo.com##.sidebar-banner-ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://domenergo.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||domenergo.com^*^pasek_reklamowy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pasek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">348</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wnetrzadomow.pl##div[class^="g-dyn a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://wnetrzadomow.pl/design-2/robert-konieczny-o-dobrym-projekcie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">349</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-kursy-walut.pl##div[data-href$="/reklamy.php"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-kursy-walut.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">350</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||kursy-walut.info.pl^*^www/bitbay.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kursy-walut.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e-telecom.pl##.Reklamy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.e-telecom.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">352</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banners^$domain=elektryka.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elektryka.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">353</t>
+  </si>
+  <si>
+    <t xml:space="preserve">354</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dodajauto.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.doskonalyslub.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://driverm.webd.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx-team.org/sprawy-dotyczace-forum-f1/strefa-vip-f163/deix-group-f193/207403-strike-back-s08-pl-web-dl-xvid-deix-720p.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-pingpong.pl</t>
   </si>
   <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://streetwearhypeclub.com/portal/category/footwear/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIX</t>
-  </si>
-  <si>
     <t xml:space="preserve">streetwearhypeclub.com##.wpmui-overlay</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.echotygodnik.info</t>
+  </si>
+  <si>
     <t xml:space="preserve">streetwearhypeclub.com##.wpmui-popup</t>
   </si>
   <si>
+    <t xml:space="preserve">https://eglos.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^shc-timb-background-</t>
   </si>
   <si>
+    <t xml:space="preserve">https://egorzow.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">abcslubu.pl##.tcvn-banner-item</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.abcslubu.pl</t>
+    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
   </si>
   <si>
     <t xml:space="preserve">abcslubu.pl##.banneritem</t>
   </si>
   <si>
-    <t xml:space="preserve">check partners</t>
+    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron</t>
   </si>
   <si>
     <r>
@@ -3596,21 +3713,135 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">https://ekspresjaroslawski.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline__1_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogrodnikleszek.pl##.banner_wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekstrasierpc.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ogrodnikleszek.pl##a[href*="=baner_widget&amp;"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekutno.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://epainfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.epiotrkow.pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://esopot.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron w stopce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://polishexpress.com.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">buffercode_banner_upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.expresselblag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mozna naprawic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://extrawalcz.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ezakopane.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Td-a-rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.f5.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Top-offer-box</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fight24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fishing-test.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://forum.gniezno.com.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class^=re_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://forumpps.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://franchising.pl/artykul/11535/chusty-maja-wziecie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scrAd1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crypto-trader.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dania-dietetyczne.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.darmowetv.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://db2010.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://deblinnews.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dentoforum.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://di.com.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diagnozujmy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://streetwearhypeclub.com/portal/category/footwear/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abcslubu.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check partners</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://www.anywhere.pl</t>
   </si>
   <si>
     <t xml:space="preserve">FIX -block too much</t>
   </si>
   <si>
-    <t xml:space="preserve">ogrodnikleszek.pl##.banner_wrapper</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://ogrodnikleszek.pl/porady-ogrodnicze/pies-ogrodnika-mity-i-prawdy/</t>
   </si>
   <si>
-    <t xml:space="preserve">ogrodnikleszek.pl##a[href*="=baner_widget&amp;"]</t>
-  </si>
-  <si>
     <t xml:space="preserve">block logo</t>
   </si>
   <si>
@@ -4439,12 +4670,12 @@
     <t xml:space="preserve">http://www.boxing.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://egorzow.pl</t>
-  </si>
-  <si>
     <t xml:space="preserve">http://www.90minut.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">https://extragoals.com/video/cef31c3560</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://twojradom.pl</t>
   </si>
   <si>
@@ -4454,10 +4685,19 @@
     <t xml:space="preserve">https://budujesz.info</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.legalnibukmacherzyinternetowi.pl/</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://bithub.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">https://www.gwiazdybasketu.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://pultusk24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.meczenazywo.pl</t>
   </si>
   <si>
     <t xml:space="preserve">https://swarzedz24.pl/</t>
@@ -4891,7 +5131,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -4975,6 +5215,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <i val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lato Medium"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -4996,7 +5244,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5017,12 +5265,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFADC5E7"/>
-        <bgColor rgb="FFC0C0C0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
         <bgColor rgb="FF000080"/>
       </patternFill>
@@ -5034,7 +5276,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -5076,43 +5318,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF00599D"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF00599D"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00599D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF00599D"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00599D"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FF00599D"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF00599D"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF00599D"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -5145,7 +5350,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5234,23 +5439,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5258,7 +5459,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5270,16 +5471,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -5378,7 +5575,7 @@
       <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FFADC5E7"/>
+      <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
       <rgbColor rgb="FFFFCCCC"/>
@@ -5404,8 +5601,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M668" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M668"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M673" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M673"/>
   <tableColumns count="13">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Filter"/>
@@ -5429,12 +5626,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M670"/>
+  <dimension ref="A1:M702"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A598" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B598" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A598" activeCellId="0" sqref="A598"/>
-      <selection pane="topRight" activeCell="E624" activeCellId="0" sqref="E624"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A640" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B640" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A640" activeCellId="0" sqref="A640"/>
+      <selection pane="topRight" activeCell="A679" activeCellId="0" sqref="A679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20925,8 +21122,8 @@
         <v>16</v>
       </c>
       <c r="F611" s="11"/>
-      <c r="G611" s="11" t="s">
-        <v>212</v>
+      <c r="G611" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H611" s="11"/>
       <c r="I611" s="11"/>
@@ -20953,7 +21150,7 @@
       </c>
       <c r="F612" s="7"/>
       <c r="G612" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H612" s="7"/>
       <c r="I612" s="7"/>
@@ -20976,7 +21173,7 @@
       </c>
       <c r="F613" s="7"/>
       <c r="G613" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H613" s="7"/>
       <c r="I613" s="7"/>
@@ -21002,8 +21199,8 @@
         <v>16</v>
       </c>
       <c r="F614" s="11"/>
-      <c r="G614" s="11" t="s">
-        <v>212</v>
+      <c r="G614" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H614" s="11"/>
       <c r="I614" s="11"/>
@@ -21030,7 +21227,7 @@
       </c>
       <c r="F615" s="7"/>
       <c r="G615" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H615" s="7"/>
       <c r="I615" s="7"/>
@@ -21052,8 +21249,8 @@
         <v>16</v>
       </c>
       <c r="F616" s="11"/>
-      <c r="G616" s="11" t="s">
-        <v>212</v>
+      <c r="G616" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H616" s="11"/>
       <c r="I616" s="11"/>
@@ -21076,7 +21273,7 @@
       </c>
       <c r="F617" s="7"/>
       <c r="G617" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H617" s="7"/>
       <c r="I617" s="7"/>
@@ -21102,8 +21299,8 @@
         <v>16</v>
       </c>
       <c r="F618" s="11"/>
-      <c r="G618" s="11" t="s">
-        <v>212</v>
+      <c r="G618" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H618" s="11"/>
       <c r="I618" s="11"/>
@@ -21130,7 +21327,7 @@
       </c>
       <c r="F619" s="7"/>
       <c r="G619" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H619" s="7"/>
       <c r="I619" s="7"/>
@@ -21158,8 +21355,8 @@
       <c r="F620" s="11" t="s">
         <v>1142</v>
       </c>
-      <c r="G620" s="11" t="s">
-        <v>212</v>
+      <c r="G620" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H620" s="11"/>
       <c r="I620" s="11"/>
@@ -21188,7 +21385,7 @@
         <v>1145</v>
       </c>
       <c r="G621" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H621" s="7"/>
       <c r="I621" s="7"/>
@@ -21457,11 +21654,19 @@
       <c r="L631" s="7"/>
       <c r="M631" s="9"/>
     </row>
-    <row r="632" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A632" s="10"/>
-      <c r="B632" s="0"/>
-      <c r="C632" s="11"/>
-      <c r="D632" s="7"/>
+    <row r="632" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A632" s="10" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B632" s="22" t="s">
+        <v>1170</v>
+      </c>
+      <c r="C632" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D632" s="0" t="s">
+        <v>1171</v>
+      </c>
       <c r="E632" s="11" t="s">
         <v>212</v>
       </c>
@@ -21477,10 +21682,18 @@
       <c r="M632" s="12"/>
     </row>
     <row r="633" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A633" s="6"/>
-      <c r="B633" s="7"/>
-      <c r="C633" s="7"/>
-      <c r="D633" s="21"/>
+      <c r="A633" s="6" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B633" s="7" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C633" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D633" s="11" t="s">
+        <v>1174</v>
+      </c>
       <c r="E633" s="7" t="s">
         <v>212</v>
       </c>
@@ -21498,8 +21711,12 @@
     <row r="634" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A634" s="10"/>
       <c r="B634" s="11"/>
-      <c r="C634" s="11"/>
-      <c r="D634" s="7"/>
+      <c r="C634" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D634" s="0" t="s">
+        <v>1175</v>
+      </c>
       <c r="E634" s="11" t="s">
         <v>212</v>
       </c>
@@ -21514,12 +21731,14 @@
       <c r="L634" s="11"/>
       <c r="M634" s="12"/>
     </row>
-    <row r="635" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="635" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A635" s="6"/>
       <c r="B635" s="7"/>
-      <c r="C635" s="7"/>
+      <c r="C635" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D635" s="11" t="s">
-        <v>1169</v>
+        <v>1176</v>
       </c>
       <c r="E635" s="7" t="s">
         <v>212</v>
@@ -21535,11 +21754,15 @@
       <c r="L635" s="7"/>
       <c r="M635" s="9"/>
     </row>
-    <row r="636" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="636" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A636" s="10"/>
       <c r="B636" s="11"/>
-      <c r="C636" s="11"/>
-      <c r="D636" s="0"/>
+      <c r="C636" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D636" s="0" t="s">
+        <v>1177</v>
+      </c>
       <c r="E636" s="11" t="s">
         <v>212</v>
       </c>
@@ -21555,10 +21778,18 @@
       <c r="M636" s="12"/>
     </row>
     <row r="637" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A637" s="6"/>
-      <c r="B637" s="7"/>
-      <c r="C637" s="7"/>
-      <c r="D637" s="11"/>
+      <c r="A637" s="6" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B637" s="7" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C637" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D637" s="11" t="s">
+        <v>1180</v>
+      </c>
       <c r="E637" s="7" t="s">
         <v>212</v>
       </c>
@@ -21573,17 +21804,25 @@
       <c r="L637" s="7"/>
       <c r="M637" s="9"/>
     </row>
-    <row r="638" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A638" s="10"/>
-      <c r="B638" s="11"/>
-      <c r="C638" s="11"/>
-      <c r="D638" s="7" t="s">
-        <v>1170</v>
+    <row r="638" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A638" s="10" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B638" s="11" t="s">
+        <v>1182</v>
+      </c>
+      <c r="C638" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D638" s="0" t="s">
+        <v>1180</v>
       </c>
       <c r="E638" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F638" s="11"/>
+      <c r="F638" s="11" t="s">
+        <v>1183</v>
+      </c>
       <c r="G638" s="11" t="s">
         <v>212</v>
       </c>
@@ -21594,12 +21833,18 @@
       <c r="L638" s="11"/>
       <c r="M638" s="12"/>
     </row>
-    <row r="639" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A639" s="6"/>
-      <c r="B639" s="7"/>
-      <c r="C639" s="7"/>
+    <row r="639" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A639" s="6" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B639" s="7" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C639" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D639" s="11" t="s">
-        <v>1171</v>
+        <v>1186</v>
       </c>
       <c r="E639" s="7" t="s">
         <v>212</v>
@@ -21615,12 +21860,18 @@
       <c r="L639" s="7"/>
       <c r="M639" s="9"/>
     </row>
-    <row r="640" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A640" s="10"/>
-      <c r="B640" s="11"/>
-      <c r="C640" s="11"/>
-      <c r="D640" s="7" t="s">
-        <v>1172</v>
+    <row r="640" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A640" s="10" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B640" s="11" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C640" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D640" s="0" t="s">
+        <v>1189</v>
       </c>
       <c r="E640" s="11" t="s">
         <v>212</v>
@@ -21637,10 +21888,18 @@
       <c r="M640" s="12"/>
     </row>
     <row r="641" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A641" s="6"/>
-      <c r="B641" s="7"/>
-      <c r="C641" s="7"/>
-      <c r="D641" s="11"/>
+      <c r="A641" s="6" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B641" s="7" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C641" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D641" s="11" t="s">
+        <v>1192</v>
+      </c>
       <c r="E641" s="7" t="s">
         <v>212</v>
       </c>
@@ -21655,11 +21914,19 @@
       <c r="L641" s="7"/>
       <c r="M641" s="9"/>
     </row>
-    <row r="642" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A642" s="10"/>
-      <c r="B642" s="11"/>
-      <c r="C642" s="11"/>
-      <c r="D642" s="0"/>
+    <row r="642" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A642" s="10" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B642" s="11" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C642" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D642" s="0" t="s">
+        <v>1195</v>
+      </c>
       <c r="E642" s="11" t="s">
         <v>212</v>
       </c>
@@ -21674,11 +21941,19 @@
       <c r="L642" s="11"/>
       <c r="M642" s="12"/>
     </row>
-    <row r="643" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A643" s="6"/>
-      <c r="B643" s="7"/>
-      <c r="C643" s="7"/>
-      <c r="D643" s="0"/>
+    <row r="643" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A643" s="6" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B643" s="7" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C643" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D643" s="0" t="s">
+        <v>1198</v>
+      </c>
       <c r="E643" s="7" t="s">
         <v>212</v>
       </c>
@@ -21693,8 +21968,10 @@
       <c r="L643" s="7"/>
       <c r="M643" s="9"/>
     </row>
-    <row r="644" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A644" s="10"/>
+    <row r="644" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A644" s="10" t="s">
+        <v>1199</v>
+      </c>
       <c r="B644" s="11"/>
       <c r="C644" s="11"/>
       <c r="D644" s="0"/>
@@ -21712,8 +21989,10 @@
       <c r="L644" s="11"/>
       <c r="M644" s="12"/>
     </row>
-    <row r="645" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A645" s="6"/>
+    <row r="645" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A645" s="6" t="s">
+        <v>1200</v>
+      </c>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
       <c r="D645" s="0"/>
@@ -21731,7 +22010,7 @@
       <c r="L645" s="7"/>
       <c r="M645" s="9"/>
     </row>
-    <row r="646" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="646" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A646" s="10"/>
       <c r="B646" s="11"/>
       <c r="C646" s="11"/>
@@ -21750,7 +22029,7 @@
       <c r="L646" s="11"/>
       <c r="M646" s="12"/>
     </row>
-    <row r="647" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="647" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A647" s="6"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -21769,7 +22048,7 @@
       <c r="L647" s="7"/>
       <c r="M647" s="9"/>
     </row>
-    <row r="648" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="648" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A648" s="10"/>
       <c r="B648" s="11"/>
       <c r="C648" s="11"/>
@@ -21788,7 +22067,7 @@
       <c r="L648" s="11"/>
       <c r="M648" s="12"/>
     </row>
-    <row r="649" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="649" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A649" s="6"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -21807,15 +22086,19 @@
       <c r="L649" s="7"/>
       <c r="M649" s="9"/>
     </row>
-    <row r="650" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="650" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A650" s="10"/>
       <c r="B650" s="11"/>
       <c r="C650" s="11"/>
-      <c r="D650" s="0"/>
+      <c r="D650" s="0" t="s">
+        <v>1201</v>
+      </c>
       <c r="E650" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F650" s="11"/>
+      <c r="F650" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="G650" s="11" t="s">
         <v>212</v>
       </c>
@@ -21826,15 +22109,19 @@
       <c r="L650" s="11"/>
       <c r="M650" s="12"/>
     </row>
-    <row r="651" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="651" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="6"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
-      <c r="D651" s="0"/>
+      <c r="D651" s="0" t="s">
+        <v>1202</v>
+      </c>
       <c r="E651" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F651" s="7"/>
+      <c r="F651" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G651" s="7" t="s">
         <v>212</v>
       </c>
@@ -21845,15 +22132,19 @@
       <c r="L651" s="7"/>
       <c r="M651" s="9"/>
     </row>
-    <row r="652" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="652" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A652" s="10"/>
       <c r="B652" s="11"/>
       <c r="C652" s="11"/>
-      <c r="D652" s="11"/>
+      <c r="D652" s="11" t="s">
+        <v>1203</v>
+      </c>
       <c r="E652" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F652" s="11"/>
+      <c r="F652" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="G652" s="11" t="s">
         <v>212</v>
       </c>
@@ -21864,15 +22155,19 @@
       <c r="L652" s="11"/>
       <c r="M652" s="12"/>
     </row>
-    <row r="653" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="653" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="6"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
-      <c r="D653" s="7"/>
+      <c r="D653" s="7" t="s">
+        <v>1204</v>
+      </c>
       <c r="E653" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F653" s="7"/>
+      <c r="F653" s="7" t="n">
+        <v>2</v>
+      </c>
       <c r="G653" s="7" t="s">
         <v>212</v>
       </c>
@@ -21883,15 +22178,19 @@
       <c r="L653" s="7"/>
       <c r="M653" s="9"/>
     </row>
-    <row r="654" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="654" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A654" s="10"/>
       <c r="B654" s="11"/>
       <c r="C654" s="11"/>
-      <c r="D654" s="11"/>
+      <c r="D654" s="11" t="s">
+        <v>1205</v>
+      </c>
       <c r="E654" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F654" s="11"/>
+      <c r="F654" s="11" t="n">
+        <v>1</v>
+      </c>
       <c r="G654" s="11" t="s">
         <v>212</v>
       </c>
@@ -21902,49 +22201,41 @@
       <c r="L654" s="11"/>
       <c r="M654" s="12"/>
     </row>
-    <row r="655" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="655" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A655" s="6"/>
-      <c r="B655" s="7" t="s">
-        <v>1173</v>
-      </c>
-      <c r="C655" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B655" s="7"/>
+      <c r="C655" s="7"/>
       <c r="D655" s="7" t="s">
-        <v>1174</v>
+        <v>1206</v>
       </c>
       <c r="E655" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F655" s="7" t="s">
-        <v>1175</v>
+        <v>1207</v>
       </c>
       <c r="G655" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H655" s="7"/>
-      <c r="I655" s="7"/>
-      <c r="J655" s="7"/>
-      <c r="K655" s="7"/>
-      <c r="L655" s="7"/>
-      <c r="M655" s="9"/>
+      <c r="H655" s="11"/>
+      <c r="I655" s="11"/>
+      <c r="J655" s="11"/>
+      <c r="K655" s="11"/>
+      <c r="L655" s="11"/>
+      <c r="M655" s="12"/>
     </row>
     <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="10"/>
-      <c r="B656" s="11" t="s">
-        <v>1176</v>
-      </c>
-      <c r="C656" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="B656" s="11"/>
+      <c r="C656" s="11"/>
       <c r="D656" s="11" t="s">
-        <v>1175</v>
+        <v>1208</v>
       </c>
       <c r="E656" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F656" s="11" t="s">
-        <v>1175</v>
+      <c r="F656" s="23" t="n">
+        <v>2</v>
       </c>
       <c r="G656" s="11" t="s">
         <v>212</v>
@@ -21956,47 +22247,37 @@
       <c r="L656" s="11"/>
       <c r="M656" s="12"/>
     </row>
-    <row r="657" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="657" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A657" s="6"/>
-      <c r="B657" s="7" t="s">
-        <v>1177</v>
-      </c>
-      <c r="C657" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D657" s="7" t="s">
-        <v>1175</v>
-      </c>
+      <c r="B657" s="7"/>
+      <c r="C657" s="7"/>
+      <c r="D657" s="7"/>
       <c r="E657" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F657" s="7" t="s">
-        <v>1175</v>
-      </c>
+      <c r="F657" s="7"/>
       <c r="G657" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H657" s="7"/>
-      <c r="I657" s="7"/>
-      <c r="J657" s="7"/>
-      <c r="K657" s="7"/>
-      <c r="L657" s="7"/>
-      <c r="M657" s="9"/>
-    </row>
-    <row r="658" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H657" s="11"/>
+      <c r="I657" s="11"/>
+      <c r="J657" s="11"/>
+      <c r="K657" s="11"/>
+      <c r="L657" s="11"/>
+      <c r="M657" s="12"/>
+    </row>
+    <row r="658" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A658" s="10"/>
-      <c r="B658" s="11" t="s">
-        <v>1178</v>
-      </c>
-      <c r="C658" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D658" s="11"/>
+      <c r="B658" s="11"/>
+      <c r="C658" s="11"/>
+      <c r="D658" s="11" t="s">
+        <v>1209</v>
+      </c>
       <c r="E658" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F658" s="11" t="s">
-        <v>1175</v>
+      <c r="F658" s="11" t="n">
+        <v>2</v>
       </c>
       <c r="G658" s="11" t="s">
         <v>212</v>
@@ -22008,264 +22289,931 @@
       <c r="L658" s="11"/>
       <c r="M658" s="12"/>
     </row>
-    <row r="659" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="659" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A659" s="6"/>
-      <c r="B659" s="7" t="s">
-        <v>1179</v>
-      </c>
-      <c r="C659" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D659" s="7" t="s">
-        <v>1180</v>
-      </c>
+      <c r="B659" s="7"/>
+      <c r="C659" s="7"/>
+      <c r="D659" s="7"/>
       <c r="E659" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F659" s="7" t="s">
-        <v>1175</v>
-      </c>
+      <c r="F659" s="7"/>
       <c r="G659" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H659" s="7"/>
-      <c r="I659" s="7"/>
-      <c r="J659" s="7"/>
-      <c r="K659" s="7"/>
-      <c r="L659" s="7"/>
-      <c r="M659" s="9"/>
-    </row>
-    <row r="660" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="10"/>
-      <c r="B660" s="11" t="s">
-        <v>1181</v>
-      </c>
-      <c r="C660" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D660" s="11" t="s">
-        <v>1182</v>
-      </c>
-      <c r="E660" s="11" t="s">
+      <c r="H659" s="11"/>
+      <c r="I659" s="11"/>
+      <c r="J659" s="11"/>
+      <c r="K659" s="11"/>
+      <c r="L659" s="11"/>
+      <c r="M659" s="12"/>
+    </row>
+    <row r="660" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A660" s="6"/>
+      <c r="B660" s="7" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C660" s="7"/>
+      <c r="D660" s="7"/>
+      <c r="E660" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F660" s="11" t="s">
-        <v>1175</v>
-      </c>
-      <c r="G660" s="11" t="s">
+      <c r="F660" s="7"/>
+      <c r="G660" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H660" s="11"/>
-      <c r="I660" s="11"/>
-      <c r="J660" s="11"/>
-      <c r="K660" s="11"/>
-      <c r="L660" s="11"/>
-      <c r="M660" s="12"/>
-    </row>
-    <row r="661" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="6"/>
-      <c r="B661" s="19" t="s">
-        <v>1183</v>
-      </c>
-      <c r="C661" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D661" s="7" t="s">
-        <v>1184</v>
-      </c>
-      <c r="E661" s="7" t="s">
+      <c r="H660" s="7"/>
+      <c r="I660" s="7"/>
+      <c r="J660" s="7"/>
+      <c r="K660" s="7"/>
+      <c r="L660" s="7"/>
+      <c r="M660" s="9"/>
+    </row>
+    <row r="661" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A661" s="10"/>
+      <c r="B661" s="11" t="s">
+        <v>1211</v>
+      </c>
+      <c r="C661" s="11"/>
+      <c r="D661" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E661" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F661" s="7" t="s">
-        <v>1185</v>
-      </c>
-      <c r="G661" s="7" t="s">
+      <c r="F661" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G661" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H661" s="7"/>
-      <c r="I661" s="7"/>
-      <c r="J661" s="7"/>
-      <c r="K661" s="7"/>
-      <c r="L661" s="7"/>
-      <c r="M661" s="9"/>
-    </row>
-    <row r="662" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="10"/>
-      <c r="B662" s="11" t="s">
-        <v>1186</v>
-      </c>
-      <c r="C662" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D662" s="11" t="s">
-        <v>1187</v>
-      </c>
-      <c r="E662" s="11" t="s">
+      <c r="H661" s="11"/>
+      <c r="I661" s="11"/>
+      <c r="J661" s="11"/>
+      <c r="K661" s="11"/>
+      <c r="L661" s="11"/>
+      <c r="M661" s="12"/>
+    </row>
+    <row r="662" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="6"/>
+      <c r="B662" s="7" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C662" s="7"/>
+      <c r="D662" s="7" t="s">
+        <v>1214</v>
+      </c>
+      <c r="E662" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F662" s="11"/>
-      <c r="G662" s="11" t="s">
+      <c r="F662" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G662" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H662" s="11"/>
-      <c r="I662" s="11"/>
-      <c r="J662" s="11"/>
-      <c r="K662" s="11"/>
-      <c r="L662" s="11"/>
-      <c r="M662" s="12"/>
-    </row>
-    <row r="663" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="6"/>
-      <c r="B663" s="7" t="s">
-        <v>1188</v>
-      </c>
-      <c r="C663" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D663" s="7"/>
-      <c r="E663" s="7" t="s">
+      <c r="H662" s="7"/>
+      <c r="I662" s="7"/>
+      <c r="J662" s="7"/>
+      <c r="K662" s="7"/>
+      <c r="L662" s="7"/>
+      <c r="M662" s="9"/>
+    </row>
+    <row r="663" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="10"/>
+      <c r="B663" s="11" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C663" s="11"/>
+      <c r="D663" s="11" t="s">
+        <v>1216</v>
+      </c>
+      <c r="E663" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F663" s="7" t="s">
-        <v>1189</v>
-      </c>
-      <c r="G663" s="7" t="s">
+      <c r="F663" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G663" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H663" s="7"/>
-      <c r="I663" s="7"/>
-      <c r="J663" s="7"/>
-      <c r="K663" s="7"/>
-      <c r="L663" s="7"/>
-      <c r="M663" s="9"/>
-    </row>
-    <row r="664" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="10"/>
-      <c r="B664" s="11"/>
-      <c r="C664" s="11"/>
-      <c r="D664" s="11"/>
-      <c r="E664" s="11" t="s">
+      <c r="H663" s="11"/>
+      <c r="I663" s="11"/>
+      <c r="J663" s="11"/>
+      <c r="K663" s="11"/>
+      <c r="L663" s="11"/>
+      <c r="M663" s="12"/>
+    </row>
+    <row r="664" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="6"/>
+      <c r="B664" s="7" t="s">
+        <v>1217</v>
+      </c>
+      <c r="C664" s="7"/>
+      <c r="D664" s="7" t="s">
+        <v>1218</v>
+      </c>
+      <c r="E664" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F664" s="11"/>
-      <c r="G664" s="11" t="s">
+      <c r="F664" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G664" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H664" s="11"/>
-      <c r="I664" s="11"/>
-      <c r="J664" s="11"/>
-      <c r="K664" s="11"/>
-      <c r="L664" s="11"/>
-      <c r="M664" s="12"/>
-    </row>
-    <row r="665" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="6"/>
-      <c r="B665" s="7"/>
-      <c r="C665" s="7"/>
-      <c r="D665" s="7"/>
-      <c r="E665" s="7" t="s">
+      <c r="H664" s="7"/>
+      <c r="I664" s="7"/>
+      <c r="J664" s="7"/>
+      <c r="K664" s="7"/>
+      <c r="L664" s="7"/>
+      <c r="M664" s="9"/>
+    </row>
+    <row r="665" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="10"/>
+      <c r="B665" s="11" t="s">
+        <v>1219</v>
+      </c>
+      <c r="C665" s="11"/>
+      <c r="D665" s="11" t="s">
+        <v>1220</v>
+      </c>
+      <c r="E665" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F665" s="7"/>
-      <c r="G665" s="7" t="s">
+      <c r="F665" s="11" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G665" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H665" s="7"/>
-      <c r="I665" s="7"/>
-      <c r="J665" s="7"/>
-      <c r="K665" s="7"/>
-      <c r="L665" s="7"/>
-      <c r="M665" s="9"/>
-    </row>
-    <row r="666" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="10"/>
-      <c r="B666" s="11"/>
-      <c r="C666" s="11"/>
-      <c r="D666" s="11"/>
-      <c r="E666" s="11" t="s">
+      <c r="H665" s="11"/>
+      <c r="I665" s="11"/>
+      <c r="J665" s="11"/>
+      <c r="K665" s="11"/>
+      <c r="L665" s="11"/>
+      <c r="M665" s="12"/>
+    </row>
+    <row r="666" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="6"/>
+      <c r="B666" s="19" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C666" s="7"/>
+      <c r="D666" s="7" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E666" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F666" s="11"/>
-      <c r="G666" s="11" t="s">
+      <c r="F666" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G666" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H666" s="11"/>
-      <c r="I666" s="11"/>
-      <c r="J666" s="11"/>
-      <c r="K666" s="11"/>
-      <c r="L666" s="11"/>
-      <c r="M666" s="12"/>
-    </row>
-    <row r="667" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="6"/>
-      <c r="B667" s="7"/>
-      <c r="C667" s="7"/>
-      <c r="D667" s="7"/>
-      <c r="E667" s="7" t="s">
+      <c r="H666" s="7"/>
+      <c r="I666" s="7"/>
+      <c r="J666" s="7"/>
+      <c r="K666" s="7"/>
+      <c r="L666" s="7"/>
+      <c r="M666" s="9"/>
+    </row>
+    <row r="667" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="10"/>
+      <c r="B667" s="11" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C667" s="11"/>
+      <c r="D667" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E667" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F667" s="7"/>
-      <c r="G667" s="7" t="s">
+      <c r="F667" s="11" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G667" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H667" s="7"/>
-      <c r="I667" s="7"/>
-      <c r="J667" s="7"/>
-      <c r="K667" s="7"/>
-      <c r="L667" s="7"/>
-      <c r="M667" s="9"/>
-    </row>
-    <row r="668" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="10"/>
-      <c r="B668" s="11"/>
-      <c r="C668" s="11"/>
-      <c r="D668" s="11"/>
-      <c r="E668" s="11" t="s">
+      <c r="H667" s="11"/>
+      <c r="I667" s="11"/>
+      <c r="J667" s="11"/>
+      <c r="K667" s="11"/>
+      <c r="L667" s="11"/>
+      <c r="M667" s="12"/>
+    </row>
+    <row r="668" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="6"/>
+      <c r="B668" s="7" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C668" s="7"/>
+      <c r="D668" s="7" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E668" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F668" s="11"/>
-      <c r="G668" s="11" t="s">
+      <c r="F668" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G668" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H668" s="11"/>
-      <c r="I668" s="11"/>
-      <c r="J668" s="11"/>
-      <c r="K668" s="11"/>
-      <c r="L668" s="11"/>
-      <c r="M668" s="12"/>
-    </row>
-    <row r="669" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="6"/>
-      <c r="B669" s="7"/>
-      <c r="C669" s="7"/>
-      <c r="D669" s="7"/>
-      <c r="E669" s="7"/>
-      <c r="F669" s="7"/>
-      <c r="G669" s="7"/>
-      <c r="H669" s="7"/>
-      <c r="I669" s="7"/>
-      <c r="J669" s="7"/>
-      <c r="K669" s="7"/>
-      <c r="L669" s="7"/>
-      <c r="M669" s="9"/>
-    </row>
-    <row r="670" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="22"/>
-      <c r="B670" s="23"/>
-      <c r="C670" s="23"/>
-      <c r="D670" s="23"/>
-      <c r="E670" s="23"/>
-      <c r="F670" s="23"/>
-      <c r="G670" s="23"/>
-      <c r="H670" s="23"/>
-      <c r="I670" s="23"/>
-      <c r="J670" s="23"/>
-      <c r="K670" s="23"/>
-      <c r="L670" s="23"/>
-      <c r="M670" s="24"/>
+      <c r="H668" s="7"/>
+      <c r="I668" s="7"/>
+      <c r="J668" s="7"/>
+      <c r="K668" s="7"/>
+      <c r="L668" s="7"/>
+      <c r="M668" s="9"/>
+    </row>
+    <row r="669" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="10"/>
+      <c r="B669" s="11"/>
+      <c r="C669" s="11"/>
+      <c r="D669" s="11"/>
+      <c r="E669" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F669" s="11"/>
+      <c r="G669" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H669" s="11"/>
+      <c r="I669" s="11"/>
+      <c r="J669" s="11"/>
+      <c r="K669" s="11"/>
+      <c r="L669" s="11"/>
+      <c r="M669" s="12"/>
+    </row>
+    <row r="670" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="6"/>
+      <c r="B670" s="7"/>
+      <c r="C670" s="7"/>
+      <c r="D670" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E670" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F670" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G670" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H670" s="7"/>
+      <c r="I670" s="7"/>
+      <c r="J670" s="7"/>
+      <c r="K670" s="7"/>
+      <c r="L670" s="7"/>
+      <c r="M670" s="9"/>
+    </row>
+    <row r="671" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="10"/>
+      <c r="B671" s="11"/>
+      <c r="C671" s="11"/>
+      <c r="D671" s="11" t="s">
+        <v>1230</v>
+      </c>
+      <c r="E671" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F671" s="11" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G671" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H671" s="11"/>
+      <c r="I671" s="11"/>
+      <c r="J671" s="11"/>
+      <c r="K671" s="11"/>
+      <c r="L671" s="11"/>
+      <c r="M671" s="12"/>
+    </row>
+    <row r="672" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="6"/>
+      <c r="B672" s="7"/>
+      <c r="C672" s="7"/>
+      <c r="D672" s="7" t="s">
+        <v>1232</v>
+      </c>
+      <c r="E672" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F672" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G672" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H672" s="7"/>
+      <c r="I672" s="7"/>
+      <c r="J672" s="7"/>
+      <c r="K672" s="7"/>
+      <c r="L672" s="7"/>
+      <c r="M672" s="9"/>
+    </row>
+    <row r="673" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="10"/>
+      <c r="B673" s="11"/>
+      <c r="C673" s="11"/>
+      <c r="D673" s="11" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E673" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F673" s="11" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G673" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H673" s="11"/>
+      <c r="I673" s="11"/>
+      <c r="J673" s="11"/>
+      <c r="K673" s="11"/>
+      <c r="L673" s="11"/>
+      <c r="M673" s="12"/>
+    </row>
+    <row r="674" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="6"/>
+      <c r="B674" s="7"/>
+      <c r="C674" s="7"/>
+      <c r="D674" s="7" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E674" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F674" s="7" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G674" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H674" s="7"/>
+      <c r="I674" s="7"/>
+      <c r="J674" s="7"/>
+      <c r="K674" s="7"/>
+      <c r="L674" s="7"/>
+      <c r="M674" s="9"/>
+    </row>
+    <row r="675" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="10"/>
+      <c r="B675" s="11"/>
+      <c r="C675" s="11"/>
+      <c r="D675" s="11" t="s">
+        <v>1237</v>
+      </c>
+      <c r="E675" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F675" s="11" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G675" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H675" s="11"/>
+      <c r="I675" s="11"/>
+      <c r="J675" s="11"/>
+      <c r="K675" s="11"/>
+      <c r="L675" s="11"/>
+      <c r="M675" s="12"/>
+    </row>
+    <row r="676" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="6"/>
+      <c r="B676" s="7"/>
+      <c r="C676" s="7"/>
+      <c r="D676" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E676" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F676" s="7" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G676" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H676" s="7"/>
+      <c r="I676" s="7"/>
+      <c r="J676" s="7"/>
+      <c r="K676" s="7"/>
+      <c r="L676" s="7"/>
+      <c r="M676" s="9"/>
+    </row>
+    <row r="677" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="10"/>
+      <c r="B677" s="11"/>
+      <c r="C677" s="11"/>
+      <c r="D677" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E677" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F677" s="11" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G677" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H677" s="11"/>
+      <c r="I677" s="11"/>
+      <c r="J677" s="11"/>
+      <c r="K677" s="11"/>
+      <c r="L677" s="11"/>
+      <c r="M677" s="12"/>
+    </row>
+    <row r="678" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="6"/>
+      <c r="B678" s="7"/>
+      <c r="C678" s="7"/>
+      <c r="D678" s="7" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E678" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F678" s="7" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G678" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H678" s="7"/>
+      <c r="I678" s="7"/>
+      <c r="J678" s="7"/>
+      <c r="K678" s="7"/>
+      <c r="L678" s="7"/>
+      <c r="M678" s="9"/>
+    </row>
+    <row r="679" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="10"/>
+      <c r="B679" s="11"/>
+      <c r="C679" s="11"/>
+      <c r="D679" s="11" t="s">
+        <v>1244</v>
+      </c>
+      <c r="E679" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F679" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G679" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H679" s="11"/>
+      <c r="I679" s="11"/>
+      <c r="J679" s="11"/>
+      <c r="K679" s="11"/>
+      <c r="L679" s="11"/>
+      <c r="M679" s="12"/>
+    </row>
+    <row r="680" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="6"/>
+      <c r="B680" s="7"/>
+      <c r="C680" s="7"/>
+      <c r="D680" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E680" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F680" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G680" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H680" s="7"/>
+      <c r="I680" s="7"/>
+      <c r="J680" s="7"/>
+      <c r="K680" s="7"/>
+      <c r="L680" s="7"/>
+      <c r="M680" s="9"/>
+    </row>
+    <row r="681" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="10"/>
+      <c r="B681" s="11"/>
+      <c r="C681" s="11"/>
+      <c r="D681" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E681" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F681" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G681" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H681" s="11"/>
+      <c r="I681" s="11"/>
+      <c r="J681" s="11"/>
+      <c r="K681" s="11"/>
+      <c r="L681" s="11"/>
+      <c r="M681" s="12"/>
+    </row>
+    <row r="682" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="6"/>
+      <c r="B682" s="7"/>
+      <c r="C682" s="7"/>
+      <c r="D682" s="7" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E682" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F682" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G682" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H682" s="7"/>
+      <c r="I682" s="7"/>
+      <c r="J682" s="7"/>
+      <c r="K682" s="7"/>
+      <c r="L682" s="7"/>
+      <c r="M682" s="9"/>
+    </row>
+    <row r="683" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="10"/>
+      <c r="B683" s="11"/>
+      <c r="C683" s="11"/>
+      <c r="D683" s="11" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E683" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F683" s="22" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G683" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H683" s="11"/>
+      <c r="I683" s="11"/>
+      <c r="J683" s="11"/>
+      <c r="K683" s="11"/>
+      <c r="L683" s="11"/>
+      <c r="M683" s="12"/>
+    </row>
+    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A684" s="6"/>
+      <c r="B684" s="7"/>
+      <c r="C684" s="7"/>
+      <c r="D684" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E684" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F684" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G684" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H684" s="7"/>
+      <c r="I684" s="7"/>
+      <c r="J684" s="7"/>
+      <c r="K684" s="7"/>
+      <c r="L684" s="7"/>
+      <c r="M684" s="9"/>
+    </row>
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="10"/>
+      <c r="B685" s="11"/>
+      <c r="C685" s="11"/>
+      <c r="D685" s="0" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E685" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F685" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G685" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H685" s="11"/>
+      <c r="I685" s="11"/>
+      <c r="J685" s="11"/>
+      <c r="K685" s="11"/>
+      <c r="L685" s="11"/>
+      <c r="M685" s="12"/>
+    </row>
+    <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A686" s="6"/>
+      <c r="B686" s="7"/>
+      <c r="C686" s="7"/>
+      <c r="D686" s="0" t="s">
+        <v>1253</v>
+      </c>
+      <c r="E686" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F686" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G686" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H686" s="7"/>
+      <c r="I686" s="7"/>
+      <c r="J686" s="7"/>
+      <c r="K686" s="7"/>
+      <c r="L686" s="7"/>
+      <c r="M686" s="9"/>
+    </row>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="10"/>
+      <c r="B687" s="11"/>
+      <c r="C687" s="11"/>
+      <c r="D687" s="0" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E687" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F687" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G687" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H687" s="11"/>
+      <c r="I687" s="11"/>
+      <c r="J687" s="11"/>
+      <c r="K687" s="11"/>
+      <c r="L687" s="11"/>
+      <c r="M687" s="12"/>
+    </row>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="6"/>
+      <c r="B688" s="7"/>
+      <c r="C688" s="7"/>
+      <c r="D688" s="0" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E688" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F688" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G688" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H688" s="7"/>
+      <c r="I688" s="7"/>
+      <c r="J688" s="7"/>
+      <c r="K688" s="7"/>
+      <c r="L688" s="7"/>
+      <c r="M688" s="9"/>
+    </row>
+    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="10"/>
+      <c r="B689" s="11"/>
+      <c r="C689" s="11"/>
+      <c r="D689" s="0" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E689" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F689" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="G689" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H689" s="11"/>
+      <c r="I689" s="11"/>
+      <c r="J689" s="11"/>
+      <c r="K689" s="11"/>
+      <c r="L689" s="11"/>
+      <c r="M689" s="12"/>
+    </row>
+    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="6"/>
+      <c r="B690" s="7"/>
+      <c r="C690" s="7"/>
+      <c r="D690" s="0" t="s">
+        <v>1257</v>
+      </c>
+      <c r="E690" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F690" s="7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G690" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H690" s="7"/>
+      <c r="I690" s="7"/>
+      <c r="J690" s="7"/>
+      <c r="K690" s="7"/>
+      <c r="L690" s="7"/>
+      <c r="M690" s="9"/>
+    </row>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="10"/>
+      <c r="B691" s="11"/>
+      <c r="C691" s="11"/>
+      <c r="D691" s="0" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E691" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F691" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G691" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H691" s="11"/>
+      <c r="I691" s="11"/>
+      <c r="J691" s="11"/>
+      <c r="K691" s="11"/>
+      <c r="L691" s="11"/>
+      <c r="M691" s="12"/>
+    </row>
+    <row r="692" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="6"/>
+      <c r="B692" s="7"/>
+      <c r="C692" s="7"/>
+      <c r="D692" s="7"/>
+      <c r="E692" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F692" s="7"/>
+      <c r="G692" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H692" s="7"/>
+      <c r="I692" s="7"/>
+      <c r="J692" s="7"/>
+      <c r="K692" s="7"/>
+      <c r="L692" s="7"/>
+      <c r="M692" s="9"/>
+    </row>
+    <row r="693" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="10"/>
+      <c r="B693" s="11"/>
+      <c r="C693" s="11"/>
+      <c r="D693" s="11"/>
+      <c r="E693" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F693" s="11"/>
+      <c r="G693" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H693" s="11"/>
+      <c r="I693" s="11"/>
+      <c r="J693" s="11"/>
+      <c r="K693" s="11"/>
+      <c r="L693" s="11"/>
+      <c r="M693" s="12"/>
+    </row>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C694" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D694" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E694" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F694" s="7" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C695" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D695" s="11" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E695" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F695" s="11" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C696" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D696" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E696" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F696" s="7" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C697" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D697" s="11"/>
+      <c r="E697" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F697" s="11" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C698" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D698" s="7" t="s">
+        <v>1261</v>
+      </c>
+      <c r="E698" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F698" s="7" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C699" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D699" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E699" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F699" s="11" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C700" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D700" s="7" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E700" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F700" s="7" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C701" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D701" s="11" t="s">
+        <v>1265</v>
+      </c>
+      <c r="E701" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F701" s="11"/>
+    </row>
+    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C702" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D702" s="7"/>
+      <c r="E702" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F702" s="7" t="s">
+        <v>1266</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="E664:E1048576 E1:E654 G1:G1048576">
+  <conditionalFormatting sqref="E655 E657 E659 E1:E653 E703:E1048576 G655:G1048576 E692:E693 G1:G653 E669:E683">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -22276,7 +23224,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C664:C1048576 C1:C654">
+  <conditionalFormatting sqref="C655 C657 C659 C1:C653 C703:C1048576 C669:C693">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -22284,7 +23232,7 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E655:E663">
+  <conditionalFormatting sqref="E660:E668">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -22295,7 +23243,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C655:C663">
+  <conditionalFormatting sqref="C660:C668">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -22303,8 +23251,68 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C654 C656 C658">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E654 E656 E658">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G654 G656 G658">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E694:E702">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C694:C702">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E684:E691">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K668 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C668" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K693 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C702" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -22434,1362 +23442,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>1190</v>
+        <v>1267</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1191</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1192</v>
+        <v>1269</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1193</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>1194</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>1195</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>1196</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>1197</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>1198</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>1199</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>1200</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>1201</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>1202</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>1203</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>1204</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>1205</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>1194</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>1206</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>1207</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>1208</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>1209</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>1210</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1211</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>1212</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>1213</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>1214</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>1215</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>1216</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>1217</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>1218</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>1219</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>1220</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>1221</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>1222</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>1223</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>1224</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>1225</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>1226</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>1227</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>1228</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>1229</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>1230</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>1231</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>1232</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>1233</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>1234</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>1235</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>1236</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>1237</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>1238</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>1239</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>1240</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>1241</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>1242</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>1243</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>1244</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>1245</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>1246</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>1247</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>1248</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>1249</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>1250</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>1251</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>1252</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>1253</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>1254</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>1255</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>1256</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>1257</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>1258</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>1259</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>1260</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>1261</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>1262</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>1263</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>1264</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="s">
-        <v>1265</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>1266</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>1267</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="s">
-        <v>1268</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>1269</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="s">
-        <v>1270</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>1271</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
-        <v>1272</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>1273</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="s">
-        <v>1274</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>1275</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>1276</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="s">
-        <v>1277</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="s">
-        <v>1196</v>
+        <v>1273</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>1278</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>1279</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="s">
-        <v>1280</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="s">
-        <v>1203</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="s">
-        <v>1281</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="s">
-        <v>1282</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>1283</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="s">
-        <v>1284</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>1285</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>1286</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="s">
-        <v>1287</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="s">
-        <v>1288</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>1289</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>1290</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="s">
-        <v>1291</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>1292</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>1293</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>1294</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>1295</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>1296</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>1297</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="s">
-        <v>1298</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="21" t="s">
-        <v>1299</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="s">
-        <v>1300</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>1301</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>1302</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="s">
-        <v>1303</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>1304</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="s">
-        <v>1305</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>1306</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>1307</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="s">
-        <v>1308</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>1309</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="s">
-        <v>1310</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="s">
-        <v>1311</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>1312</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>1313</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>1314</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="s">
-        <v>1315</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="s">
-        <v>1316</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
-        <v>1317</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="21" t="s">
-        <v>1318</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="s">
-        <v>1319</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="s">
-        <v>1320</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="s">
-        <v>1321</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="s">
-        <v>1322</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="s">
-        <v>1323</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
-        <v>1324</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>1325</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>1326</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="s">
-        <v>1327</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="s">
-        <v>1328</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
-        <v>1329</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
-        <v>1330</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="s">
-        <v>1331</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>1332</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="21" t="s">
-        <v>1333</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="21" t="s">
-        <v>1334</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="21" t="s">
-        <v>1335</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="21" t="s">
-        <v>1336</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>1337</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="21" t="s">
-        <v>1338</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="21" t="s">
-        <v>1339</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="21" t="s">
-        <v>1340</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="21" t="s">
-        <v>1341</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="21" t="s">
-        <v>1342</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="21" t="s">
-        <v>1343</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
-        <v>1344</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
-        <v>1345</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="21" t="s">
-        <v>1346</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="21" t="s">
-        <v>1347</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="21" t="s">
-        <v>1348</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>1349</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="21" t="s">
-        <v>1350</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
-        <v>1351</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="21" t="s">
-        <v>1352</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="21" t="s">
-        <v>1353</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="21" t="s">
-        <v>1354</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="21" t="s">
-        <v>1355</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="21" t="s">
-        <v>1356</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="21" t="s">
-        <v>1357</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="21" t="s">
-        <v>1358</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="21" t="s">
-        <v>1359</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="21" t="s">
-        <v>1360</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>1361</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="21" t="s">
-        <v>1362</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="21" t="s">
-        <v>1363</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="21" t="s">
-        <v>1364</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="21" t="s">
-        <v>1365</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>1366</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>1367</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>1368</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>1369</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>1370</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>1371</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>1372</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>1373</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
-        <v>1374</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="21" t="s">
-        <v>1375</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="21" t="s">
-        <v>1376</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="21" t="s">
-        <v>1377</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="21" t="s">
-        <v>1378</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="21" t="s">
-        <v>1379</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>1380</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>1381</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>1382</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>1383</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>1191</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>1384</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>1385</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>1386</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>1387</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>1388</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>1389</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>1390</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="21" t="s">
-        <v>1391</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="21" t="s">
-        <v>1392</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="21" t="s">
-        <v>1393</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="21" t="s">
-        <v>1394</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="21" t="s">
-        <v>1395</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>1396</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>1397</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>1398</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>1399</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="21" t="s">
-        <v>1400</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="21" t="s">
-        <v>1401</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>1402</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="21" t="s">
-        <v>1403</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="21" t="s">
-        <v>1404</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="21" t="s">
-        <v>1405</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>1406</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>1407</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>1408</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>1409</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>1410</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>1411</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>1412</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>1413</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>1414</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>1415</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>1416</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>1417</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="21" t="s">
-        <v>1418</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="21" t="s">
-        <v>1419</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>1420</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
-        <v>1421</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="21" t="s">
-        <v>1422</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="21" t="s">
-        <v>1423</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>1424</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>1425</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>1426</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="21" t="s">
-        <v>1427</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="21" t="s">
-        <v>1428</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
-        <v>1201</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
-        <v>1429</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="21" t="s">
-        <v>1430</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>1431</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>1432</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>1433</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>1434</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>1435</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>1436</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>1437</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>1438</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>1439</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>1440</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>1441</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>1442</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>1443</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="21" t="s">
-        <v>1444</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="21" t="s">
-        <v>1445</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="21" t="s">
-        <v>1446</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="21" t="s">
-        <v>1447</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="21" t="s">
-        <v>1448</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="21" t="s">
-        <v>1449</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="21" t="s">
-        <v>1450</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="21" t="s">
-        <v>1451</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="21" t="s">
-        <v>1452</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="21" t="s">
-        <v>1208</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="21" t="s">
-        <v>1453</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>1454</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="21" t="s">
-        <v>1455</v>
+        <v>1532</v>
       </c>
     </row>
   </sheetData>
@@ -23811,7 +24819,7 @@
   <dimension ref="B1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23823,152 +24831,160 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="25" t="s">
-        <v>1456</v>
+      <c r="B1" s="24" t="s">
+        <v>1533</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="26" t="s">
-        <v>1457</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>1459</v>
-      </c>
-      <c r="I2" s="29"/>
+      <c r="B2" s="25" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>1535</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>1536</v>
+      </c>
+      <c r="I2" s="28"/>
       <c r="K2" s="21" t="s">
-        <v>1460</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="s">
-        <v>1461</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>1458</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="25" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>1535</v>
+      </c>
+      <c r="H3" s="26"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="11" t="s">
-        <v>1462</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>1463</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="27"/>
+        <v>1540</v>
+      </c>
+      <c r="C4" s="30"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="26"/>
       <c r="K4" s="11" t="s">
-        <v>1464</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="31"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="27"/>
+      <c r="C5" s="30"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="26"/>
       <c r="K5" s="7" t="s">
-        <v>1465</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="31"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="27"/>
+      <c r="C6" s="30"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="26"/>
       <c r="K6" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="33"/>
-      <c r="C7" s="31"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="33" t="s">
-        <v>1466</v>
+      <c r="B7" s="22"/>
+      <c r="C7" s="30"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="22" t="s">
+        <v>1542</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="33"/>
-      <c r="C8" s="31"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="27"/>
+      <c r="B8" s="11" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="26"/>
       <c r="K8" s="21" t="s">
-        <v>1467</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="33" t="s">
-        <v>1468</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="27"/>
+      <c r="B9" s="22" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="7" t="s">
-        <v>1469</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="33"/>
-      <c r="C10" s="31"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="27"/>
+      <c r="B10" s="7" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="26"/>
       <c r="K10" s="11" t="s">
-        <v>1470</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="0"/>
-      <c r="C11" s="31"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="27"/>
+      <c r="B11" s="11" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="26"/>
       <c r="K11" s="7" t="s">
-        <v>1471</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="0"/>
+      <c r="B12" s="7" t="s">
+        <v>1551</v>
+      </c>
       <c r="K12" s="7" t="s">
-        <v>1472</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="K13" s="7" t="s">
-        <v>1473</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>1474</v>
+        <v>1554</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1475</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>1476</v>
+        <v>1556</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1477</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="11" t="s">
-        <v>1478</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23976,10 +24992,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>1479</v>
+        <v>1559</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1480</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23987,109 +25003,109 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1481</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>1482</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>1483</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>1484</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>1485</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21" t="s">
-        <v>1486</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21" t="s">
-        <v>1487</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21" t="s">
-        <v>1488</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21" t="s">
-        <v>1489</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21" t="s">
-        <v>1490</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>1491</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21" t="s">
-        <v>1492</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21" t="s">
-        <v>1493</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21" t="s">
-        <v>1494</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>1495</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>1496</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21" t="s">
-        <v>1497</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>1498</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>1499</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21" t="s">
-        <v>1500</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="21" t="s">
-        <v>1501</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24099,47 +25115,47 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="21" t="s">
-        <v>1502</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="21" t="s">
-        <v>1503</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="21" t="s">
-        <v>1504</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21" t="s">
-        <v>1505</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="21" t="s">
-        <v>1506</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="21" t="s">
-        <v>1507</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="21" t="s">
-        <v>1508</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="21" t="s">
-        <v>1509</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="21" t="s">
-        <v>1510</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24147,17 +25163,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1511</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="21" t="s">
-        <v>1512</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="21" t="s">
-        <v>1513</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24167,27 +25183,27 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>1514</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21" t="s">
-        <v>1515</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21" t="s">
-        <v>1516</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="21" t="s">
-        <v>1517</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21" t="s">
-        <v>1518</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -24233,472 +25249,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="21" t="s">
-        <v>1519</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="21" t="s">
-        <v>1520</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="21" t="s">
-        <v>1521</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="21" t="s">
-        <v>1522</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="21" t="s">
-        <v>1523</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="21" t="s">
-        <v>1524</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="21" t="s">
-        <v>1525</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="21" t="s">
-        <v>1526</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="21" t="s">
-        <v>1527</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="21" t="s">
-        <v>1528</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="21" t="s">
-        <v>1529</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21" t="s">
-        <v>1530</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21" t="s">
-        <v>1531</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="21" t="s">
-        <v>1532</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="21" t="s">
-        <v>1533</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="21" t="s">
-        <v>1534</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="21" t="s">
-        <v>1535</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="21" t="s">
-        <v>1536</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="21" t="s">
-        <v>1537</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
-        <v>1538</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="21" t="s">
-        <v>1539</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="21" t="s">
-        <v>1540</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="21" t="s">
-        <v>1541</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="21" t="s">
-        <v>1542</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="21" t="s">
-        <v>1543</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="21" t="s">
-        <v>1544</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="21" t="s">
-        <v>1545</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="21" t="s">
-        <v>1546</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="21" t="s">
-        <v>1547</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="21" t="s">
-        <v>1548</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="21" t="s">
-        <v>1549</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="21" t="s">
-        <v>1550</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="21" t="s">
-        <v>1551</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="21" t="s">
-        <v>1552</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="21" t="s">
-        <v>1553</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="21" t="s">
-        <v>1554</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="21" t="s">
-        <v>1555</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="21" t="s">
-        <v>1556</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="21" t="s">
-        <v>1557</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>1558</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="21" t="s">
-        <v>1559</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="21" t="s">
-        <v>1560</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="21" t="s">
-        <v>1561</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="21" t="s">
-        <v>1562</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="21" t="s">
-        <v>1563</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="21" t="s">
-        <v>1564</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="21" t="s">
-        <v>1565</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="21" t="s">
-        <v>1566</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="21" t="s">
-        <v>1567</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="21" t="s">
-        <v>1568</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="21" t="s">
-        <v>1569</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="21" t="s">
-        <v>1570</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="21" t="s">
-        <v>1571</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="21" t="s">
-        <v>1572</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="21" t="s">
-        <v>1573</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="21" t="s">
-        <v>1574</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="21" t="s">
-        <v>1575</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="21" t="s">
-        <v>1576</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="21" t="s">
-        <v>1577</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="21" t="s">
-        <v>1578</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="21" t="s">
-        <v>1579</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="21" t="s">
-        <v>1580</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="21" t="s">
-        <v>1581</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="21" t="s">
-        <v>1582</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="21" t="s">
-        <v>1583</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="21" t="s">
-        <v>1584</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="21" t="s">
-        <v>1585</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="21" t="s">
-        <v>1586</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="21" t="s">
-        <v>1587</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="21" t="s">
-        <v>1588</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>1589</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="21" t="s">
-        <v>1590</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="21" t="s">
-        <v>1591</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="21" t="s">
-        <v>1592</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="21" t="s">
-        <v>1593</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="21" t="s">
-        <v>1594</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="21" t="s">
-        <v>1595</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="21" t="s">
-        <v>1596</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="21" t="s">
-        <v>1597</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="21" t="s">
-        <v>1598</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="21" t="s">
-        <v>1599</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="21" t="s">
-        <v>1600</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="21" t="s">
-        <v>1601</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="21" t="s">
-        <v>1602</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="21" t="s">
-        <v>1603</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="21" t="s">
-        <v>1604</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="21" t="s">
-        <v>1605</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="21" t="s">
-        <v>1606</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="21" t="s">
-        <v>1607</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="21" t="s">
-        <v>1608</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="21" t="s">
-        <v>1609</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="21" t="s">
-        <v>1610</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="21" t="s">
-        <v>1611</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="21" t="s">
-        <v>1612</v>
+        <v>1692</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="1693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1700">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3625,70 +3625,193 @@
     <t xml:space="preserve">353</t>
   </si>
   <si>
+    <t xml:space="preserve">epiotrkow.pl##.rek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.epiotrkow.pl/#</t>
+  </si>
+  <si>
     <t xml:space="preserve">354</t>
   </si>
   <si>
+    <t xml:space="preserve">ezakopane.pl##.td-a-rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ezakopane.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">355</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forum.gniezno.com.pl##div[class^="re_"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://forum.gniezno.com.pl/memberlist.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expresselblag.pl##.toplayer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.expresselblag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357</t>
+  </si>
+  <si>
+    <t xml:space="preserve">polishexpress.com.au##.widget_buffercode_banner_upload_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://polishexpress.com.au</t>
+  </si>
+  <si>
+    <t xml:space="preserve">358</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||dx-team.org^*^pover.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dx-team.org/sprawy-dotyczace-forum-f1/strefa-vip-f163/deix-group-f193/207403-strike-back-s08-pl-web-dl-xvid-deix-720p.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">359</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||dodajauto.pl^*^logo%20ds%20baner.</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://dodajauto.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.doskonalyslub.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://driverm.webd.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dx-team.org/sprawy-dotyczace-forum-f1/strefa-vip-f163/deix-group-f193/207403-strike-back-s08-pl-web-dl-xvid-deix-720p.html</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
+    <t xml:space="preserve">||dodajauto.pl^*^sf.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">360</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||fishing-test.pl^*^shimano-baner02.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://fishing-test.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||fishing-test.pl^*^ft_st_croix.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||dentoforum.pl^*^baner1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://dentoforum.pl/index.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve">362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||di.com.pl^*^kalkulator-oc-mfind.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://di.com.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||di.com.pl^*^inpost.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">363</t>
+  </si>
+  <si>
+    <t xml:space="preserve">db2010.pl##div[class^="elementor-repeater-item-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://db2010.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fight24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.echotygodnik.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eglos.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egorzow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://epainfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crypto-trader.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dania-dietetyczne.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.darmowetv.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://esopot.pl/pl/</t>
   </si>
   <si>
     <t xml:space="preserve">popup </t>
   </si>
   <si>
-    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
+    <t xml:space="preserve">https://deblinnews.pl</t>
   </si>
   <si>
     <t xml:space="preserve">https://e-pingpong.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron w stopce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diagnozujmy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron</t>
+  </si>
+  <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://streetwearhypeclub.com/portal/category/footwear/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIX</t>
+  </si>
+  <si>
     <t xml:space="preserve">streetwearhypeclub.com##.wpmui-overlay</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.echotygodnik.info</t>
-  </si>
-  <si>
     <t xml:space="preserve">streetwearhypeclub.com##.wpmui-popup</t>
   </si>
   <si>
-    <t xml:space="preserve">https://eglos.pl</t>
-  </si>
-  <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^shc-timb-background-</t>
   </si>
   <si>
-    <t xml:space="preserve">https://egorzow.pl</t>
-  </si>
-  <si>
     <t xml:space="preserve">abcslubu.pl##.tcvn-banner-item</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
+    <t xml:space="preserve">https://www.abcslubu.pl</t>
   </si>
   <si>
     <t xml:space="preserve">abcslubu.pl##.banneritem</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron</t>
+    <t xml:space="preserve">check partners</t>
   </si>
   <si>
     <r>
@@ -3713,136 +3836,34 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">https://ekspresjaroslawski.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inline__1_</t>
+    <t xml:space="preserve">https://www.anywhere.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FIX -block too much</t>
   </si>
   <si>
     <t xml:space="preserve">ogrodnikleszek.pl##.banner_wrapper</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ekstrasierpc.pl/pl/</t>
+    <t xml:space="preserve">http://ogrodnikleszek.pl/porady-ogrodnicze/pies-ogrodnika-mity-i-prawdy/</t>
   </si>
   <si>
     <t xml:space="preserve">ogrodnikleszek.pl##a[href*="=baner_widget&amp;"]</t>
   </si>
   <si>
-    <t xml:space="preserve">https://ekutno.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://epainfo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.epiotrkow.pl/#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rek</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://esopot.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron w stopce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://polishexpress.com.au</t>
-  </si>
-  <si>
-    <t xml:space="preserve">buffercode_banner_upload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.expresselblag.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mozna naprawic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://extrawalcz.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ezakopane.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Td-a-rec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.f5.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Top-offer-box</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fight24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://fishing-test.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://forum.gniezno.com.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">class^=re_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://forumpps.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://franchising.pl/artykul/11535/chusty-maja-wziecie/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scrAd1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.crypto-trader.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dania-dietetyczne.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.darmowetv.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://db2010.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://deblinnews.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://dentoforum.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://di.com.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://diagnozujmy.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://streetwearhypeclub.com/portal/category/footwear/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.abcslubu.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check partners</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.anywhere.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIX -block too much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ogrodnikleszek.pl/porady-ogrodnicze/pies-ogrodnika-mity-i-prawdy/</t>
-  </si>
-  <si>
     <t xml:space="preserve">block logo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://driverm.webd.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
   </si>
   <si>
     <t xml:space="preserve">Domain</t>
@@ -5131,7 +5152,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5213,6 +5234,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lato Medium"/>
+      <family val="0"/>
     </font>
     <font>
       <i val="true"/>
@@ -5350,7 +5377,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5443,11 +5470,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5459,7 +5494,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5471,7 +5506,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5601,8 +5636,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M673" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:M673"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela2" displayName="Tabela2" ref="A1:M672" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:M672"/>
   <tableColumns count="13">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Filter"/>
@@ -5626,12 +5661,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M702"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A640" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B640" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A640" activeCellId="0" sqref="A640"/>
-      <selection pane="topRight" activeCell="A679" activeCellId="0" sqref="A679"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A628" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B628" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A628" activeCellId="0" sqref="A628"/>
+      <selection pane="topRight" activeCell="B664" activeCellId="0" sqref="B664"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21667,8 +21702,8 @@
       <c r="D632" s="0" t="s">
         <v>1171</v>
       </c>
-      <c r="E632" s="11" t="s">
-        <v>212</v>
+      <c r="E632" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F632" s="11"/>
       <c r="G632" s="11" t="s">
@@ -21695,7 +21730,7 @@
         <v>1174</v>
       </c>
       <c r="E633" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F633" s="7"/>
       <c r="G633" s="7" t="s">
@@ -21717,8 +21752,8 @@
       <c r="D634" s="0" t="s">
         <v>1175</v>
       </c>
-      <c r="E634" s="11" t="s">
-        <v>212</v>
+      <c r="E634" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F634" s="11"/>
       <c r="G634" s="11" t="s">
@@ -21741,7 +21776,7 @@
         <v>1176</v>
       </c>
       <c r="E635" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F635" s="7"/>
       <c r="G635" s="7" t="s">
@@ -21763,8 +21798,8 @@
       <c r="D636" s="0" t="s">
         <v>1177</v>
       </c>
-      <c r="E636" s="11" t="s">
-        <v>212</v>
+      <c r="E636" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F636" s="11"/>
       <c r="G636" s="11" t="s">
@@ -21791,7 +21826,7 @@
         <v>1180</v>
       </c>
       <c r="E637" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F637" s="7"/>
       <c r="G637" s="7" t="s">
@@ -21817,8 +21852,8 @@
       <c r="D638" s="0" t="s">
         <v>1180</v>
       </c>
-      <c r="E638" s="11" t="s">
-        <v>212</v>
+      <c r="E638" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F638" s="11" t="s">
         <v>1183</v>
@@ -21847,7 +21882,7 @@
         <v>1186</v>
       </c>
       <c r="E639" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F639" s="7"/>
       <c r="G639" s="7" t="s">
@@ -21873,8 +21908,8 @@
       <c r="D640" s="0" t="s">
         <v>1189</v>
       </c>
-      <c r="E640" s="11" t="s">
-        <v>212</v>
+      <c r="E640" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F640" s="11"/>
       <c r="G640" s="11" t="s">
@@ -21901,7 +21936,7 @@
         <v>1192</v>
       </c>
       <c r="E641" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F641" s="7"/>
       <c r="G641" s="7" t="s">
@@ -21927,8 +21962,8 @@
       <c r="D642" s="0" t="s">
         <v>1195</v>
       </c>
-      <c r="E642" s="11" t="s">
-        <v>212</v>
+      <c r="E642" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F642" s="11"/>
       <c r="G642" s="11" t="s">
@@ -21955,7 +21990,7 @@
         <v>1198</v>
       </c>
       <c r="E643" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F643" s="7"/>
       <c r="G643" s="7" t="s">
@@ -21972,11 +22007,17 @@
       <c r="A644" s="10" t="s">
         <v>1199</v>
       </c>
-      <c r="B644" s="11"/>
-      <c r="C644" s="11"/>
-      <c r="D644" s="0"/>
-      <c r="E644" s="11" t="s">
-        <v>212</v>
+      <c r="B644" s="11" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C644" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D644" s="11" t="s">
+        <v>1201</v>
+      </c>
+      <c r="E644" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F644" s="11"/>
       <c r="G644" s="11" t="s">
@@ -21991,13 +22032,19 @@
     </row>
     <row r="645" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A645" s="6" t="s">
-        <v>1200</v>
-      </c>
-      <c r="B645" s="7"/>
-      <c r="C645" s="7"/>
-      <c r="D645" s="0"/>
+        <v>1202</v>
+      </c>
+      <c r="B645" s="7" t="s">
+        <v>1203</v>
+      </c>
+      <c r="C645" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D645" s="0" t="s">
+        <v>1204</v>
+      </c>
       <c r="E645" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F645" s="7"/>
       <c r="G645" s="7" t="s">
@@ -22011,12 +22058,20 @@
       <c r="M645" s="9"/>
     </row>
     <row r="646" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A646" s="10"/>
-      <c r="B646" s="11"/>
-      <c r="C646" s="11"/>
-      <c r="D646" s="0"/>
-      <c r="E646" s="11" t="s">
-        <v>212</v>
+      <c r="A646" s="10" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B646" s="11" t="s">
+        <v>1206</v>
+      </c>
+      <c r="C646" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D646" s="0" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E646" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F646" s="11"/>
       <c r="G646" s="11" t="s">
@@ -22030,12 +22085,20 @@
       <c r="M646" s="12"/>
     </row>
     <row r="647" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A647" s="6"/>
-      <c r="B647" s="7"/>
-      <c r="C647" s="7"/>
-      <c r="D647" s="0"/>
+      <c r="A647" s="6" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B647" s="7" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C647" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D647" s="0" t="s">
+        <v>1210</v>
+      </c>
       <c r="E647" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F647" s="7"/>
       <c r="G647" s="7" t="s">
@@ -22049,11 +22112,19 @@
       <c r="M647" s="9"/>
     </row>
     <row r="648" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A648" s="10"/>
-      <c r="B648" s="11"/>
-      <c r="C648" s="11"/>
-      <c r="D648" s="0"/>
-      <c r="E648" s="11" t="s">
+      <c r="A648" s="10" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B648" s="11" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C648" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D648" s="23" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E648" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F648" s="11"/>
@@ -22068,12 +22139,20 @@
       <c r="M648" s="12"/>
     </row>
     <row r="649" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A649" s="6"/>
-      <c r="B649" s="7"/>
-      <c r="C649" s="7"/>
-      <c r="D649" s="0"/>
+      <c r="A649" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B649" s="7" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C649" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D649" s="0" t="s">
+        <v>1216</v>
+      </c>
       <c r="E649" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F649" s="7"/>
       <c r="G649" s="7" t="s">
@@ -22087,18 +22166,22 @@
       <c r="M649" s="9"/>
     </row>
     <row r="650" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A650" s="10"/>
-      <c r="B650" s="11"/>
-      <c r="C650" s="11"/>
+      <c r="A650" s="10" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B650" s="11" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C650" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D650" s="0" t="s">
-        <v>1201</v>
-      </c>
-      <c r="E650" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F650" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>1219</v>
+      </c>
+      <c r="E650" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F650" s="11"/>
       <c r="G650" s="11" t="s">
         <v>212</v>
       </c>
@@ -22111,17 +22194,17 @@
     </row>
     <row r="651" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A651" s="6"/>
-      <c r="B651" s="7"/>
-      <c r="C651" s="7"/>
-      <c r="D651" s="0" t="s">
-        <v>1202</v>
-      </c>
+      <c r="B651" s="7" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C651" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D651" s="0"/>
       <c r="E651" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F651" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F651" s="7"/>
       <c r="G651" s="7" t="s">
         <v>212</v>
       </c>
@@ -22133,18 +22216,22 @@
       <c r="M651" s="9"/>
     </row>
     <row r="652" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A652" s="10"/>
-      <c r="B652" s="11"/>
-      <c r="C652" s="11"/>
+      <c r="A652" s="10" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B652" s="11" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C652" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D652" s="11" t="s">
-        <v>1203</v>
-      </c>
-      <c r="E652" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F652" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>1223</v>
+      </c>
+      <c r="E652" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F652" s="11"/>
       <c r="G652" s="11" t="s">
         <v>212</v>
       </c>
@@ -22157,17 +22244,17 @@
     </row>
     <row r="653" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A653" s="6"/>
-      <c r="B653" s="7"/>
-      <c r="C653" s="7"/>
-      <c r="D653" s="7" t="s">
-        <v>1204</v>
-      </c>
+      <c r="B653" s="7" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C653" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D653" s="7"/>
       <c r="E653" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F653" s="7" t="n">
-        <v>2</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F653" s="7"/>
       <c r="G653" s="7" t="s">
         <v>212</v>
       </c>
@@ -22179,18 +22266,22 @@
       <c r="M653" s="9"/>
     </row>
     <row r="654" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A654" s="10"/>
-      <c r="B654" s="11"/>
-      <c r="C654" s="11"/>
+      <c r="A654" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B654" s="11" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C654" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D654" s="11" t="s">
-        <v>1205</v>
-      </c>
-      <c r="E654" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F654" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>1227</v>
+      </c>
+      <c r="E654" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F654" s="11"/>
       <c r="G654" s="11" t="s">
         <v>212</v>
       </c>
@@ -22202,18 +22293,22 @@
       <c r="M654" s="12"/>
     </row>
     <row r="655" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A655" s="6"/>
-      <c r="B655" s="7"/>
-      <c r="C655" s="7"/>
+      <c r="A655" s="6" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B655" s="7" t="s">
+        <v>1229</v>
+      </c>
+      <c r="C655" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D655" s="7" t="s">
-        <v>1206</v>
+        <v>1230</v>
       </c>
       <c r="E655" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F655" s="7" t="s">
-        <v>1207</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F655" s="7"/>
       <c r="G655" s="7" t="s">
         <v>212</v>
       </c>
@@ -22224,19 +22319,19 @@
       <c r="L655" s="11"/>
       <c r="M655" s="12"/>
     </row>
-    <row r="656" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="656" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="10"/>
-      <c r="B656" s="11"/>
-      <c r="C656" s="11"/>
-      <c r="D656" s="11" t="s">
-        <v>1208</v>
-      </c>
-      <c r="E656" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F656" s="23" t="n">
-        <v>2</v>
-      </c>
+      <c r="B656" s="24" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C656" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D656" s="11"/>
+      <c r="E656" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F656" s="25"/>
       <c r="G656" s="11" t="s">
         <v>212</v>
       </c>
@@ -22248,12 +22343,20 @@
       <c r="M656" s="12"/>
     </row>
     <row r="657" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A657" s="6"/>
-      <c r="B657" s="7"/>
-      <c r="C657" s="7"/>
-      <c r="D657" s="7"/>
+      <c r="A657" s="6" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B657" s="7" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C657" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D657" s="7" t="s">
+        <v>1234</v>
+      </c>
       <c r="E657" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F657" s="7"/>
       <c r="G657" s="7" t="s">
@@ -22270,15 +22373,11 @@
       <c r="A658" s="10"/>
       <c r="B658" s="11"/>
       <c r="C658" s="11"/>
-      <c r="D658" s="11" t="s">
-        <v>1209</v>
-      </c>
+      <c r="D658" s="11"/>
       <c r="E658" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F658" s="11" t="n">
-        <v>2</v>
-      </c>
+      <c r="F658" s="11"/>
       <c r="G658" s="11" t="s">
         <v>212</v>
       </c>
@@ -22301,466 +22400,384 @@
       <c r="G659" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H659" s="11"/>
-      <c r="I659" s="11"/>
-      <c r="J659" s="11"/>
-      <c r="K659" s="11"/>
-      <c r="L659" s="11"/>
-      <c r="M659" s="12"/>
+      <c r="H659" s="7"/>
+      <c r="I659" s="7"/>
+      <c r="J659" s="7"/>
+      <c r="K659" s="7"/>
+      <c r="L659" s="7"/>
+      <c r="M659" s="9"/>
     </row>
     <row r="660" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="6"/>
-      <c r="B660" s="7" t="s">
-        <v>1210</v>
-      </c>
-      <c r="C660" s="7"/>
-      <c r="D660" s="7"/>
-      <c r="E660" s="7" t="s">
+      <c r="A660" s="10"/>
+      <c r="B660" s="11"/>
+      <c r="C660" s="11"/>
+      <c r="D660" s="11"/>
+      <c r="E660" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F660" s="7"/>
-      <c r="G660" s="7" t="s">
+      <c r="F660" s="11"/>
+      <c r="G660" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H660" s="7"/>
-      <c r="I660" s="7"/>
-      <c r="J660" s="7"/>
-      <c r="K660" s="7"/>
-      <c r="L660" s="7"/>
-      <c r="M660" s="9"/>
+      <c r="H660" s="11"/>
+      <c r="I660" s="11"/>
+      <c r="J660" s="11"/>
+      <c r="K660" s="11"/>
+      <c r="L660" s="11"/>
+      <c r="M660" s="12"/>
     </row>
     <row r="661" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="10"/>
-      <c r="B661" s="11" t="s">
-        <v>1211</v>
-      </c>
-      <c r="C661" s="11"/>
-      <c r="D661" s="11" t="s">
-        <v>1212</v>
-      </c>
-      <c r="E661" s="11" t="s">
+      <c r="A661" s="6"/>
+      <c r="B661" s="7"/>
+      <c r="C661" s="7"/>
+      <c r="D661" s="7"/>
+      <c r="E661" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F661" s="11" t="n">
+      <c r="F661" s="7"/>
+      <c r="G661" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H661" s="7"/>
+      <c r="I661" s="7"/>
+      <c r="J661" s="7"/>
+      <c r="K661" s="7"/>
+      <c r="L661" s="7"/>
+      <c r="M661" s="9"/>
+    </row>
+    <row r="662" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A662" s="10"/>
+      <c r="B662" s="11"/>
+      <c r="C662" s="11"/>
+      <c r="D662" s="11"/>
+      <c r="E662" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F662" s="11"/>
+      <c r="G662" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H662" s="11"/>
+      <c r="I662" s="11"/>
+      <c r="J662" s="11"/>
+      <c r="K662" s="11"/>
+      <c r="L662" s="11"/>
+      <c r="M662" s="12"/>
+    </row>
+    <row r="663" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A663" s="6"/>
+      <c r="B663" s="7"/>
+      <c r="C663" s="7"/>
+      <c r="D663" s="7"/>
+      <c r="E663" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F663" s="7"/>
+      <c r="G663" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H663" s="7"/>
+      <c r="I663" s="7"/>
+      <c r="J663" s="7"/>
+      <c r="K663" s="7"/>
+      <c r="L663" s="7"/>
+      <c r="M663" s="9"/>
+    </row>
+    <row r="664" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A664" s="10"/>
+      <c r="B664" s="11"/>
+      <c r="C664" s="11"/>
+      <c r="D664" s="11"/>
+      <c r="E664" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F664" s="11"/>
+      <c r="G664" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H664" s="11"/>
+      <c r="I664" s="11"/>
+      <c r="J664" s="11"/>
+      <c r="K664" s="11"/>
+      <c r="L664" s="11"/>
+      <c r="M664" s="12"/>
+    </row>
+    <row r="665" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A665" s="6"/>
+      <c r="B665" s="19"/>
+      <c r="C665" s="7"/>
+      <c r="D665" s="7"/>
+      <c r="E665" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F665" s="7"/>
+      <c r="G665" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H665" s="7"/>
+      <c r="I665" s="7"/>
+      <c r="J665" s="7"/>
+      <c r="K665" s="7"/>
+      <c r="L665" s="7"/>
+      <c r="M665" s="9"/>
+    </row>
+    <row r="666" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A666" s="10"/>
+      <c r="B666" s="11"/>
+      <c r="C666" s="11"/>
+      <c r="D666" s="11"/>
+      <c r="E666" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F666" s="11"/>
+      <c r="G666" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H666" s="11"/>
+      <c r="I666" s="11"/>
+      <c r="J666" s="11"/>
+      <c r="K666" s="11"/>
+      <c r="L666" s="11"/>
+      <c r="M666" s="12"/>
+    </row>
+    <row r="667" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A667" s="6"/>
+      <c r="B667" s="7"/>
+      <c r="C667" s="7"/>
+      <c r="D667" s="7"/>
+      <c r="E667" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F667" s="7"/>
+      <c r="G667" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H667" s="7"/>
+      <c r="I667" s="7"/>
+      <c r="J667" s="7"/>
+      <c r="K667" s="7"/>
+      <c r="L667" s="7"/>
+      <c r="M667" s="9"/>
+    </row>
+    <row r="668" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A668" s="10"/>
+      <c r="B668" s="11"/>
+      <c r="C668" s="11"/>
+      <c r="D668" s="11"/>
+      <c r="E668" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F668" s="11"/>
+      <c r="G668" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H668" s="11"/>
+      <c r="I668" s="11"/>
+      <c r="J668" s="11"/>
+      <c r="K668" s="11"/>
+      <c r="L668" s="11"/>
+      <c r="M668" s="12"/>
+    </row>
+    <row r="669" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="6"/>
+      <c r="B669" s="7"/>
+      <c r="C669" s="7"/>
+      <c r="D669" s="7"/>
+      <c r="E669" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F669" s="7"/>
+      <c r="G669" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H669" s="7"/>
+      <c r="I669" s="7"/>
+      <c r="J669" s="7"/>
+      <c r="K669" s="7"/>
+      <c r="L669" s="7"/>
+      <c r="M669" s="9"/>
+    </row>
+    <row r="670" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A670" s="10"/>
+      <c r="B670" s="11"/>
+      <c r="C670" s="11"/>
+      <c r="D670" s="11"/>
+      <c r="E670" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F670" s="11"/>
+      <c r="G670" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H670" s="11"/>
+      <c r="I670" s="11"/>
+      <c r="J670" s="11"/>
+      <c r="K670" s="11"/>
+      <c r="L670" s="11"/>
+      <c r="M670" s="12"/>
+    </row>
+    <row r="671" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A671" s="6"/>
+      <c r="B671" s="7"/>
+      <c r="C671" s="7"/>
+      <c r="D671" s="7"/>
+      <c r="E671" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F671" s="7"/>
+      <c r="G671" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H671" s="7"/>
+      <c r="I671" s="7"/>
+      <c r="J671" s="7"/>
+      <c r="K671" s="7"/>
+      <c r="L671" s="7"/>
+      <c r="M671" s="9"/>
+    </row>
+    <row r="672" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A672" s="10"/>
+      <c r="B672" s="11"/>
+      <c r="C672" s="11"/>
+      <c r="D672" s="11"/>
+      <c r="E672" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F672" s="11"/>
+      <c r="G672" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H672" s="11"/>
+      <c r="I672" s="11"/>
+      <c r="J672" s="11"/>
+      <c r="K672" s="11"/>
+      <c r="L672" s="11"/>
+      <c r="M672" s="12"/>
+    </row>
+    <row r="673" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A673" s="6"/>
+      <c r="B673" s="7"/>
+      <c r="C673" s="7"/>
+      <c r="D673" s="7"/>
+      <c r="E673" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F673" s="7"/>
+      <c r="G673" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H673" s="7"/>
+      <c r="I673" s="7"/>
+      <c r="J673" s="7"/>
+      <c r="K673" s="7"/>
+      <c r="L673" s="7"/>
+      <c r="M673" s="9"/>
+    </row>
+    <row r="674" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A674" s="10"/>
+      <c r="B674" s="11"/>
+      <c r="C674" s="11"/>
+      <c r="D674" s="11"/>
+      <c r="E674" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F674" s="11"/>
+      <c r="G674" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H674" s="11"/>
+      <c r="I674" s="11"/>
+      <c r="J674" s="11"/>
+      <c r="K674" s="11"/>
+      <c r="L674" s="11"/>
+      <c r="M674" s="12"/>
+    </row>
+    <row r="675" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A675" s="6"/>
+      <c r="B675" s="7"/>
+      <c r="C675" s="7"/>
+      <c r="D675" s="7"/>
+      <c r="E675" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F675" s="7"/>
+      <c r="G675" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H675" s="7"/>
+      <c r="I675" s="7"/>
+      <c r="J675" s="7"/>
+      <c r="K675" s="7"/>
+      <c r="L675" s="7"/>
+      <c r="M675" s="9"/>
+    </row>
+    <row r="676" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A676" s="10"/>
+      <c r="B676" s="11"/>
+      <c r="C676" s="11"/>
+      <c r="D676" s="11"/>
+      <c r="E676" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F676" s="11"/>
+      <c r="G676" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H676" s="11"/>
+      <c r="I676" s="11"/>
+      <c r="J676" s="11"/>
+      <c r="K676" s="11"/>
+      <c r="L676" s="11"/>
+      <c r="M676" s="12"/>
+    </row>
+    <row r="677" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A677" s="6"/>
+      <c r="B677" s="7"/>
+      <c r="C677" s="7"/>
+      <c r="D677" s="7"/>
+      <c r="E677" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F677" s="7"/>
+      <c r="G677" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H677" s="7"/>
+      <c r="I677" s="7"/>
+      <c r="J677" s="7"/>
+      <c r="K677" s="7"/>
+      <c r="L677" s="7"/>
+      <c r="M677" s="9"/>
+    </row>
+    <row r="678" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A678" s="10"/>
+      <c r="B678" s="11"/>
+      <c r="C678" s="11"/>
+      <c r="D678" s="11" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E678" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F678" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G661" s="11" t="s">
+      <c r="G678" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H661" s="11"/>
-      <c r="I661" s="11"/>
-      <c r="J661" s="11"/>
-      <c r="K661" s="11"/>
-      <c r="L661" s="11"/>
-      <c r="M661" s="12"/>
-    </row>
-    <row r="662" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A662" s="6"/>
-      <c r="B662" s="7" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C662" s="7"/>
-      <c r="D662" s="7" t="s">
-        <v>1214</v>
-      </c>
-      <c r="E662" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F662" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G662" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H662" s="7"/>
-      <c r="I662" s="7"/>
-      <c r="J662" s="7"/>
-      <c r="K662" s="7"/>
-      <c r="L662" s="7"/>
-      <c r="M662" s="9"/>
-    </row>
-    <row r="663" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="10"/>
-      <c r="B663" s="11" t="s">
-        <v>1215</v>
-      </c>
-      <c r="C663" s="11"/>
-      <c r="D663" s="11" t="s">
-        <v>1216</v>
-      </c>
-      <c r="E663" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F663" s="11" t="n">
-        <v>2</v>
-      </c>
-      <c r="G663" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H663" s="11"/>
-      <c r="I663" s="11"/>
-      <c r="J663" s="11"/>
-      <c r="K663" s="11"/>
-      <c r="L663" s="11"/>
-      <c r="M663" s="12"/>
-    </row>
-    <row r="664" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="6"/>
-      <c r="B664" s="7" t="s">
-        <v>1217</v>
-      </c>
-      <c r="C664" s="7"/>
-      <c r="D664" s="7" t="s">
-        <v>1218</v>
-      </c>
-      <c r="E664" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F664" s="7" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G664" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H664" s="7"/>
-      <c r="I664" s="7"/>
-      <c r="J664" s="7"/>
-      <c r="K664" s="7"/>
-      <c r="L664" s="7"/>
-      <c r="M664" s="9"/>
-    </row>
-    <row r="665" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="10"/>
-      <c r="B665" s="11" t="s">
-        <v>1219</v>
-      </c>
-      <c r="C665" s="11"/>
-      <c r="D665" s="11" t="s">
-        <v>1220</v>
-      </c>
-      <c r="E665" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F665" s="11" t="s">
-        <v>1221</v>
-      </c>
-      <c r="G665" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H665" s="11"/>
-      <c r="I665" s="11"/>
-      <c r="J665" s="11"/>
-      <c r="K665" s="11"/>
-      <c r="L665" s="11"/>
-      <c r="M665" s="12"/>
-    </row>
-    <row r="666" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="6"/>
-      <c r="B666" s="19" t="s">
-        <v>1222</v>
-      </c>
-      <c r="C666" s="7"/>
-      <c r="D666" s="7" t="s">
-        <v>1223</v>
-      </c>
-      <c r="E666" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F666" s="7" t="s">
-        <v>1224</v>
-      </c>
-      <c r="G666" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H666" s="7"/>
-      <c r="I666" s="7"/>
-      <c r="J666" s="7"/>
-      <c r="K666" s="7"/>
-      <c r="L666" s="7"/>
-      <c r="M666" s="9"/>
-    </row>
-    <row r="667" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A667" s="10"/>
-      <c r="B667" s="11" t="s">
-        <v>1225</v>
-      </c>
-      <c r="C667" s="11"/>
-      <c r="D667" s="11" t="s">
-        <v>1226</v>
-      </c>
-      <c r="E667" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F667" s="11" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G667" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H667" s="11"/>
-      <c r="I667" s="11"/>
-      <c r="J667" s="11"/>
-      <c r="K667" s="11"/>
-      <c r="L667" s="11"/>
-      <c r="M667" s="12"/>
-    </row>
-    <row r="668" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A668" s="6"/>
-      <c r="B668" s="7" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C668" s="7"/>
-      <c r="D668" s="7" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E668" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F668" s="7" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G668" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H668" s="7"/>
-      <c r="I668" s="7"/>
-      <c r="J668" s="7"/>
-      <c r="K668" s="7"/>
-      <c r="L668" s="7"/>
-      <c r="M668" s="9"/>
-    </row>
-    <row r="669" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="10"/>
-      <c r="B669" s="11"/>
-      <c r="C669" s="11"/>
-      <c r="D669" s="11"/>
-      <c r="E669" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F669" s="11"/>
-      <c r="G669" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H669" s="11"/>
-      <c r="I669" s="11"/>
-      <c r="J669" s="11"/>
-      <c r="K669" s="11"/>
-      <c r="L669" s="11"/>
-      <c r="M669" s="12"/>
-    </row>
-    <row r="670" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="6"/>
-      <c r="B670" s="7"/>
-      <c r="C670" s="7"/>
-      <c r="D670" s="7" t="s">
-        <v>1229</v>
-      </c>
-      <c r="E670" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F670" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G670" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H670" s="7"/>
-      <c r="I670" s="7"/>
-      <c r="J670" s="7"/>
-      <c r="K670" s="7"/>
-      <c r="L670" s="7"/>
-      <c r="M670" s="9"/>
-    </row>
-    <row r="671" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="10"/>
-      <c r="B671" s="11"/>
-      <c r="C671" s="11"/>
-      <c r="D671" s="11" t="s">
-        <v>1230</v>
-      </c>
-      <c r="E671" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F671" s="11" t="s">
-        <v>1231</v>
-      </c>
-      <c r="G671" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H671" s="11"/>
-      <c r="I671" s="11"/>
-      <c r="J671" s="11"/>
-      <c r="K671" s="11"/>
-      <c r="L671" s="11"/>
-      <c r="M671" s="12"/>
-    </row>
-    <row r="672" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="6"/>
-      <c r="B672" s="7"/>
-      <c r="C672" s="7"/>
-      <c r="D672" s="7" t="s">
-        <v>1232</v>
-      </c>
-      <c r="E672" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F672" s="7" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G672" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H672" s="7"/>
-      <c r="I672" s="7"/>
-      <c r="J672" s="7"/>
-      <c r="K672" s="7"/>
-      <c r="L672" s="7"/>
-      <c r="M672" s="9"/>
-    </row>
-    <row r="673" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="10"/>
-      <c r="B673" s="11"/>
-      <c r="C673" s="11"/>
-      <c r="D673" s="11" t="s">
-        <v>1233</v>
-      </c>
-      <c r="E673" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F673" s="11" t="s">
-        <v>1234</v>
-      </c>
-      <c r="G673" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H673" s="11"/>
-      <c r="I673" s="11"/>
-      <c r="J673" s="11"/>
-      <c r="K673" s="11"/>
-      <c r="L673" s="11"/>
-      <c r="M673" s="12"/>
-    </row>
-    <row r="674" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="6"/>
-      <c r="B674" s="7"/>
-      <c r="C674" s="7"/>
-      <c r="D674" s="7" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E674" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F674" s="7" t="s">
+      <c r="H678" s="11"/>
+      <c r="I678" s="11"/>
+      <c r="J678" s="11"/>
+      <c r="K678" s="11"/>
+      <c r="L678" s="11"/>
+      <c r="M678" s="12"/>
+    </row>
+    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A679" s="6"/>
+      <c r="B679" s="7"/>
+      <c r="C679" s="7"/>
+      <c r="D679" s="11" t="s">
         <v>1236</v>
-      </c>
-      <c r="G674" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H674" s="7"/>
-      <c r="I674" s="7"/>
-      <c r="J674" s="7"/>
-      <c r="K674" s="7"/>
-      <c r="L674" s="7"/>
-      <c r="M674" s="9"/>
-    </row>
-    <row r="675" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A675" s="10"/>
-      <c r="B675" s="11"/>
-      <c r="C675" s="11"/>
-      <c r="D675" s="11" t="s">
-        <v>1237</v>
-      </c>
-      <c r="E675" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F675" s="11" t="s">
-        <v>1238</v>
-      </c>
-      <c r="G675" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H675" s="11"/>
-      <c r="I675" s="11"/>
-      <c r="J675" s="11"/>
-      <c r="K675" s="11"/>
-      <c r="L675" s="11"/>
-      <c r="M675" s="12"/>
-    </row>
-    <row r="676" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="6"/>
-      <c r="B676" s="7"/>
-      <c r="C676" s="7"/>
-      <c r="D676" s="7" t="s">
-        <v>1239</v>
-      </c>
-      <c r="E676" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F676" s="7" t="s">
-        <v>1207</v>
-      </c>
-      <c r="G676" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H676" s="7"/>
-      <c r="I676" s="7"/>
-      <c r="J676" s="7"/>
-      <c r="K676" s="7"/>
-      <c r="L676" s="7"/>
-      <c r="M676" s="9"/>
-    </row>
-    <row r="677" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="10"/>
-      <c r="B677" s="11"/>
-      <c r="C677" s="11"/>
-      <c r="D677" s="11" t="s">
-        <v>1240</v>
-      </c>
-      <c r="E677" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F677" s="11" t="s">
-        <v>1241</v>
-      </c>
-      <c r="G677" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="H677" s="11"/>
-      <c r="I677" s="11"/>
-      <c r="J677" s="11"/>
-      <c r="K677" s="11"/>
-      <c r="L677" s="11"/>
-      <c r="M677" s="12"/>
-    </row>
-    <row r="678" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="6"/>
-      <c r="B678" s="7"/>
-      <c r="C678" s="7"/>
-      <c r="D678" s="7" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E678" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F678" s="7" t="s">
-        <v>1243</v>
-      </c>
-      <c r="G678" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H678" s="7"/>
-      <c r="I678" s="7"/>
-      <c r="J678" s="7"/>
-      <c r="K678" s="7"/>
-      <c r="L678" s="7"/>
-      <c r="M678" s="9"/>
-    </row>
-    <row r="679" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="10"/>
-      <c r="B679" s="11"/>
-      <c r="C679" s="11"/>
-      <c r="D679" s="11" t="s">
-        <v>1244</v>
       </c>
       <c r="E679" s="11" t="s">
         <v>212</v>
@@ -22768,452 +22785,523 @@
       <c r="F679" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G679" s="11" t="s">
+      <c r="G679" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H679" s="11"/>
-      <c r="I679" s="11"/>
-      <c r="J679" s="11"/>
-      <c r="K679" s="11"/>
-      <c r="L679" s="11"/>
-      <c r="M679" s="12"/>
-    </row>
-    <row r="680" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A680" s="6"/>
-      <c r="B680" s="7"/>
-      <c r="C680" s="7"/>
+      <c r="H679" s="7"/>
+      <c r="I679" s="7"/>
+      <c r="J679" s="7"/>
+      <c r="K679" s="7"/>
+      <c r="L679" s="7"/>
+      <c r="M679" s="9"/>
+    </row>
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A680" s="10"/>
+      <c r="B680" s="11"/>
+      <c r="C680" s="11"/>
       <c r="D680" s="7" t="s">
-        <v>1245</v>
+        <v>1237</v>
       </c>
       <c r="E680" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F680" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G680" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G680" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H680" s="7"/>
-      <c r="I680" s="7"/>
-      <c r="J680" s="7"/>
-      <c r="K680" s="7"/>
-      <c r="L680" s="7"/>
-      <c r="M680" s="9"/>
-    </row>
-    <row r="681" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="10"/>
-      <c r="B681" s="11"/>
-      <c r="C681" s="11"/>
+      <c r="H680" s="11"/>
+      <c r="I680" s="11"/>
+      <c r="J680" s="11"/>
+      <c r="K680" s="11"/>
+      <c r="L680" s="11"/>
+      <c r="M680" s="12"/>
+    </row>
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="6"/>
+      <c r="B681" s="7"/>
+      <c r="C681" s="7"/>
       <c r="D681" s="11" t="s">
-        <v>1246</v>
+        <v>1238</v>
       </c>
       <c r="E681" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F681" s="11" t="s">
-        <v>1247</v>
-      </c>
-      <c r="G681" s="11" t="s">
+      <c r="F681" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G681" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H681" s="11"/>
-      <c r="I681" s="11"/>
-      <c r="J681" s="11"/>
-      <c r="K681" s="11"/>
-      <c r="L681" s="11"/>
-      <c r="M681" s="12"/>
-    </row>
-    <row r="682" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A682" s="6"/>
-      <c r="B682" s="7"/>
-      <c r="C682" s="7"/>
+      <c r="H681" s="7"/>
+      <c r="I681" s="7"/>
+      <c r="J681" s="7"/>
+      <c r="K681" s="7"/>
+      <c r="L681" s="7"/>
+      <c r="M681" s="9"/>
+    </row>
+    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A682" s="10"/>
+      <c r="B682" s="11"/>
+      <c r="C682" s="11"/>
       <c r="D682" s="7" t="s">
-        <v>1248</v>
+        <v>1239</v>
       </c>
       <c r="E682" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F682" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G682" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G682" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H682" s="7"/>
-      <c r="I682" s="7"/>
-      <c r="J682" s="7"/>
-      <c r="K682" s="7"/>
-      <c r="L682" s="7"/>
-      <c r="M682" s="9"/>
-    </row>
-    <row r="683" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="10"/>
-      <c r="B683" s="11"/>
-      <c r="C683" s="11"/>
+      <c r="H682" s="11"/>
+      <c r="I682" s="11"/>
+      <c r="J682" s="11"/>
+      <c r="K682" s="11"/>
+      <c r="L682" s="11"/>
+      <c r="M682" s="12"/>
+    </row>
+    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A683" s="6"/>
+      <c r="B683" s="7"/>
+      <c r="C683" s="7"/>
       <c r="D683" s="11" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E683" s="11" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E683" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F683" s="22" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G683" s="11" t="s">
+      <c r="F683" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="G683" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H683" s="11"/>
-      <c r="I683" s="11"/>
-      <c r="J683" s="11"/>
-      <c r="K683" s="11"/>
-      <c r="L683" s="11"/>
-      <c r="M683" s="12"/>
+      <c r="H683" s="7"/>
+      <c r="I683" s="7"/>
+      <c r="J683" s="7"/>
+      <c r="K683" s="7"/>
+      <c r="L683" s="7"/>
+      <c r="M683" s="9"/>
     </row>
     <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A684" s="6"/>
-      <c r="B684" s="7"/>
-      <c r="C684" s="7"/>
-      <c r="D684" s="11" t="s">
-        <v>1251</v>
-      </c>
-      <c r="E684" s="7" t="s">
+      <c r="A684" s="10"/>
+      <c r="B684" s="11"/>
+      <c r="C684" s="11"/>
+      <c r="D684" s="0" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E684" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F684" s="7" t="n">
+      <c r="F684" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="G684" s="7" t="s">
+      <c r="G684" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H684" s="7"/>
-      <c r="I684" s="7"/>
-      <c r="J684" s="7"/>
-      <c r="K684" s="7"/>
-      <c r="L684" s="7"/>
-      <c r="M684" s="9"/>
+      <c r="H684" s="11"/>
+      <c r="I684" s="11"/>
+      <c r="J684" s="11"/>
+      <c r="K684" s="11"/>
+      <c r="L684" s="11"/>
+      <c r="M684" s="12"/>
     </row>
     <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="10"/>
-      <c r="B685" s="11"/>
-      <c r="C685" s="11"/>
+      <c r="A685" s="6"/>
+      <c r="B685" s="7"/>
+      <c r="C685" s="7"/>
       <c r="D685" s="0" t="s">
-        <v>1252</v>
-      </c>
-      <c r="E685" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E685" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F685" s="11" t="n">
+      <c r="F685" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G685" s="11" t="s">
+      <c r="G685" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H685" s="11"/>
-      <c r="I685" s="11"/>
-      <c r="J685" s="11"/>
-      <c r="K685" s="11"/>
-      <c r="L685" s="11"/>
-      <c r="M685" s="12"/>
+      <c r="H685" s="7"/>
+      <c r="I685" s="7"/>
+      <c r="J685" s="7"/>
+      <c r="K685" s="7"/>
+      <c r="L685" s="7"/>
+      <c r="M685" s="9"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="6"/>
-      <c r="B686" s="7"/>
-      <c r="C686" s="7"/>
-      <c r="D686" s="0" t="s">
-        <v>1253</v>
+      <c r="A686" s="10"/>
+      <c r="B686" s="11"/>
+      <c r="C686" s="11"/>
+      <c r="D686" s="7" t="s">
+        <v>1243</v>
       </c>
       <c r="E686" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F686" s="7" t="n">
+      <c r="F686" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G686" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H686" s="11"/>
+      <c r="I686" s="11"/>
+      <c r="J686" s="11"/>
+      <c r="K686" s="11"/>
+      <c r="L686" s="11"/>
+      <c r="M686" s="12"/>
+    </row>
+    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="6"/>
+      <c r="B687" s="7"/>
+      <c r="C687" s="7"/>
+      <c r="D687" s="0" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E687" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F687" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G686" s="7" t="s">
+      <c r="G687" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H686" s="7"/>
-      <c r="I686" s="7"/>
-      <c r="J686" s="7"/>
-      <c r="K686" s="7"/>
-      <c r="L686" s="7"/>
-      <c r="M686" s="9"/>
-    </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="10"/>
-      <c r="B687" s="11"/>
-      <c r="C687" s="11"/>
-      <c r="D687" s="0" t="s">
-        <v>1254</v>
-      </c>
-      <c r="E687" s="11" t="s">
+      <c r="H687" s="7"/>
+      <c r="I687" s="7"/>
+      <c r="J687" s="7"/>
+      <c r="K687" s="7"/>
+      <c r="L687" s="7"/>
+      <c r="M687" s="9"/>
+    </row>
+    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A688" s="10"/>
+      <c r="B688" s="11"/>
+      <c r="C688" s="11"/>
+      <c r="D688" s="11" t="s">
+        <v>1246</v>
+      </c>
+      <c r="E688" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F687" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G687" s="11" t="s">
+      <c r="F688" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G688" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H687" s="11"/>
-      <c r="I687" s="11"/>
-      <c r="J687" s="11"/>
-      <c r="K687" s="11"/>
-      <c r="L687" s="11"/>
-      <c r="M687" s="12"/>
-    </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A688" s="6"/>
-      <c r="B688" s="7"/>
-      <c r="C688" s="7"/>
-      <c r="D688" s="0" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E688" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F688" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G688" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H688" s="7"/>
-      <c r="I688" s="7"/>
-      <c r="J688" s="7"/>
-      <c r="K688" s="7"/>
-      <c r="L688" s="7"/>
-      <c r="M688" s="9"/>
+      <c r="H688" s="11"/>
+      <c r="I688" s="11"/>
+      <c r="J688" s="11"/>
+      <c r="K688" s="11"/>
+      <c r="L688" s="11"/>
+      <c r="M688" s="12"/>
     </row>
     <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="10"/>
-      <c r="B689" s="11"/>
-      <c r="C689" s="11"/>
-      <c r="D689" s="0" t="s">
-        <v>1256</v>
+      <c r="A689" s="6"/>
+      <c r="B689" s="7"/>
+      <c r="C689" s="7"/>
+      <c r="D689" s="11" t="s">
+        <v>1247</v>
       </c>
       <c r="E689" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F689" s="11" t="n">
-        <v>1</v>
-      </c>
-      <c r="G689" s="11" t="s">
+      <c r="F689" s="11" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G689" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="H689" s="11"/>
-      <c r="I689" s="11"/>
-      <c r="J689" s="11"/>
-      <c r="K689" s="11"/>
-      <c r="L689" s="11"/>
-      <c r="M689" s="12"/>
+      <c r="H689" s="7"/>
+      <c r="I689" s="7"/>
+      <c r="J689" s="7"/>
+      <c r="K689" s="7"/>
+      <c r="L689" s="7"/>
+      <c r="M689" s="9"/>
     </row>
     <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="6"/>
-      <c r="B690" s="7"/>
-      <c r="C690" s="7"/>
+      <c r="A690" s="10"/>
+      <c r="B690" s="11"/>
+      <c r="C690" s="11"/>
       <c r="D690" s="0" t="s">
+        <v>1249</v>
+      </c>
+      <c r="E690" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F690" s="11" t="n">
+        <v>2</v>
+      </c>
+      <c r="G690" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H690" s="11"/>
+      <c r="I690" s="11"/>
+      <c r="J690" s="11"/>
+      <c r="K690" s="11"/>
+      <c r="L690" s="11"/>
+      <c r="M690" s="12"/>
+    </row>
+    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A691" s="6"/>
+      <c r="B691" s="7"/>
+      <c r="C691" s="7"/>
+      <c r="D691" s="7" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E691" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F691" s="7" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G691" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="H691" s="7"/>
+      <c r="I691" s="7"/>
+      <c r="J691" s="7"/>
+      <c r="K691" s="7"/>
+      <c r="L691" s="7"/>
+      <c r="M691" s="9"/>
+    </row>
+    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A692" s="10"/>
+      <c r="B692" s="11"/>
+      <c r="C692" s="11"/>
+      <c r="D692" s="11" t="s">
+        <v>1251</v>
+      </c>
+      <c r="E692" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F692" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G692" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="H692" s="11"/>
+      <c r="I692" s="11"/>
+      <c r="J692" s="11"/>
+      <c r="K692" s="11"/>
+      <c r="L692" s="11"/>
+      <c r="M692" s="12"/>
+    </row>
+    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B693" s="7" t="s">
+        <v>1253</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D693" s="7" t="s">
+        <v>1254</v>
+      </c>
+      <c r="E693" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F693" s="7" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B694" s="11" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C694" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D694" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E694" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F694" s="11" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B695" s="7" t="s">
         <v>1257</v>
       </c>
-      <c r="E690" s="7" t="s">
+      <c r="C695" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D695" s="7" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E695" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F690" s="7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G690" s="7" t="s">
+      <c r="F695" s="7" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B696" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C696" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D696" s="11"/>
+      <c r="E696" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H690" s="7"/>
-      <c r="I690" s="7"/>
-      <c r="J690" s="7"/>
-      <c r="K690" s="7"/>
-      <c r="L690" s="7"/>
-      <c r="M690" s="9"/>
-    </row>
-    <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="10"/>
-      <c r="B691" s="11"/>
-      <c r="C691" s="11"/>
-      <c r="D691" s="0" t="s">
-        <v>1258</v>
-      </c>
-      <c r="E691" s="11" t="s">
+      <c r="F696" s="11" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B697" s="7" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C697" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D697" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E697" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F691" s="11" t="n">
+      <c r="F697" s="7" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B698" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C698" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D698" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="E698" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F698" s="11" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B699" s="19" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C699" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D699" s="7" t="s">
+        <v>1264</v>
+      </c>
+      <c r="E699" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F699" s="7" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B700" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C700" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D700" s="11" t="s">
+        <v>1267</v>
+      </c>
+      <c r="E700" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F700" s="11"/>
+    </row>
+    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B701" s="7" t="s">
+        <v>1268</v>
+      </c>
+      <c r="C701" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D701" s="7"/>
+      <c r="E701" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F701" s="7" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D703" s="0" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E703" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F703" s="7" t="n">
         <v>2</v>
       </c>
-      <c r="G691" s="11" t="s">
+    </row>
+    <row r="704" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D704" s="11"/>
+      <c r="E704" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H691" s="11"/>
-      <c r="I691" s="11"/>
-      <c r="J691" s="11"/>
-      <c r="K691" s="11"/>
-      <c r="L691" s="11"/>
-      <c r="M691" s="12"/>
-    </row>
-    <row r="692" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="6"/>
-      <c r="B692" s="7"/>
-      <c r="C692" s="7"/>
-      <c r="D692" s="7"/>
-      <c r="E692" s="7" t="s">
+      <c r="F704" s="11"/>
+    </row>
+    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D705" s="7" t="s">
+        <v>1271</v>
+      </c>
+      <c r="E705" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F692" s="7"/>
-      <c r="G692" s="7" t="s">
+      <c r="F705" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="706" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D706" s="11"/>
+      <c r="E706" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H692" s="7"/>
-      <c r="I692" s="7"/>
-      <c r="J692" s="7"/>
-      <c r="K692" s="7"/>
-      <c r="L692" s="7"/>
-      <c r="M692" s="9"/>
-    </row>
-    <row r="693" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A693" s="10"/>
-      <c r="B693" s="11"/>
-      <c r="C693" s="11"/>
-      <c r="D693" s="11"/>
-      <c r="E693" s="11" t="s">
+      <c r="F706" s="11"/>
+    </row>
+    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D707" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E707" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F693" s="11"/>
-      <c r="G693" s="11" t="s">
+      <c r="F707" s="7" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D708" s="11" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E708" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H693" s="11"/>
-      <c r="I693" s="11"/>
-      <c r="J693" s="11"/>
-      <c r="K693" s="11"/>
-      <c r="L693" s="11"/>
-      <c r="M693" s="12"/>
-    </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C694" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D694" s="7" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E694" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F694" s="7" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C695" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D695" s="11" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E695" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F695" s="11" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C696" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D696" s="7" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E696" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F696" s="7" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C697" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D697" s="11"/>
-      <c r="E697" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F697" s="11" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C698" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D698" s="7" t="s">
-        <v>1261</v>
-      </c>
-      <c r="E698" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F698" s="7" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C699" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D699" s="11" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E699" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F699" s="11" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C700" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D700" s="7" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E700" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F700" s="7" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C701" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D701" s="11" t="s">
-        <v>1265</v>
-      </c>
-      <c r="E701" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F701" s="11"/>
-    </row>
-    <row r="702" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C702" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D702" s="7"/>
-      <c r="E702" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F702" s="7" t="s">
-        <v>1266</v>
-      </c>
-    </row>
+      <c r="F708" s="25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E655 E657 E659 E1:E653 E703:E1048576 G655:G1048576 E692:E693 G1:G653 E669:E683">
+  <conditionalFormatting sqref="E1:E657 E709:E1048576 G655:G1048576 G1:G653 E702 E668:E678">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23224,7 +23312,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C655 C657 C659 C1:C653 C703:C1048576 C669:C693">
+  <conditionalFormatting sqref="C655 C657 C1:C653 C702:C1048576 C668:C692">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -23232,7 +23320,7 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E660:E668">
+  <conditionalFormatting sqref="E659:E667">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23243,7 +23331,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C660:C668">
+  <conditionalFormatting sqref="C659:C667">
     <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -23259,7 +23347,7 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E654 E656 E658">
+  <conditionalFormatting sqref="E658">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23281,7 +23369,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E694:E702">
+  <conditionalFormatting sqref="E693:E701">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23292,7 +23380,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C694:C702">
+  <conditionalFormatting sqref="C693:C701">
     <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -23300,7 +23388,7 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E684:E691">
+  <conditionalFormatting sqref="E690 E683:E685 E687:E688">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23311,8 +23399,85 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E707 E703:E705">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E706 E708">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E679:E681">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E691:E692">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E682">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E686">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E689">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K693 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C702" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K692 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C701" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -23410,6 +23575,15 @@
     <hyperlink ref="D625" r:id="rId90" display="https://open.fm/"/>
     <hyperlink ref="D628" r:id="rId91" display="https://www.echirurgia.pl/wyrostek/ostre_zapalenie_wyrostka.htm"/>
     <hyperlink ref="D631" r:id="rId92" display="https://www.wp.pl/"/>
+    <hyperlink ref="D645" r:id="rId93" display="https://ezakopane.pl"/>
+    <hyperlink ref="D646" r:id="rId94" display="http://forum.gniezno.com.pl/memberlist.php"/>
+    <hyperlink ref="D647" r:id="rId95" display="https://www.expresselblag.pl"/>
+    <hyperlink ref="D648" r:id="rId96" display="https://polishexpress.com.au"/>
+    <hyperlink ref="D649" r:id="rId97" display="https://dx-team.org/sprawy-dotyczace-forum-f1/strefa-vip-f163/deix-group-f193/207403-strike-back-s08-pl-web-dl-xvid-deix-720p.html"/>
+    <hyperlink ref="D652" r:id="rId98" display="https://fishing-test.pl"/>
+    <hyperlink ref="D654" r:id="rId99" display="http://dentoforum.pl/index.php"/>
+    <hyperlink ref="D655" r:id="rId100" display="http://di.com.pl"/>
+    <hyperlink ref="D657" r:id="rId101" display="https://db2010.pl"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -23419,7 +23593,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId93"/>
+    <tablePart r:id="rId102"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23442,1362 +23616,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>1267</v>
+        <v>1274</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1269</v>
+        <v>1276</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1270</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>1274</v>
+        <v>1281</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>1275</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>1276</v>
+        <v>1283</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>1279</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>1281</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>1282</v>
+        <v>1289</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>1271</v>
+        <v>1278</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>1283</v>
+        <v>1290</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>1284</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>1286</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>1287</v>
+        <v>1294</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1288</v>
+        <v>1295</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>1289</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>1290</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>1291</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>1292</v>
+        <v>1299</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>1293</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>1294</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>1295</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>1296</v>
+        <v>1303</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>1297</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>1298</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>1299</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>1300</v>
+        <v>1307</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>1301</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>1302</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>1303</v>
+        <v>1310</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>1304</v>
+        <v>1311</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>1305</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>1306</v>
+        <v>1313</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>1307</v>
+        <v>1314</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>1308</v>
+        <v>1315</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>1309</v>
+        <v>1316</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>1310</v>
+        <v>1317</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>1311</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>1312</v>
+        <v>1319</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>1313</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>1314</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>1315</v>
+        <v>1322</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>1316</v>
+        <v>1323</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>1317</v>
+        <v>1324</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>1318</v>
+        <v>1325</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>1319</v>
+        <v>1326</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>1320</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>1321</v>
+        <v>1328</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>1322</v>
+        <v>1329</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>1323</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>1324</v>
+        <v>1331</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>1325</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>1327</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>1328</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>1329</v>
+        <v>1336</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>1330</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>1331</v>
+        <v>1338</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>1332</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>1333</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>1334</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>1335</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>1336</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>1337</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>1341</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="s">
-        <v>1342</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>1343</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="s">
-        <v>1345</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>1346</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="s">
-        <v>1347</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>1348</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="s">
-        <v>1273</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="s">
-        <v>1280</v>
+        <v>1287</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="s">
-        <v>1365</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>1366</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>1370</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>1371</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>1372</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>1373</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>1374</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="s">
-        <v>1375</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="21" t="s">
-        <v>1376</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="s">
-        <v>1377</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>1378</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>1379</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="s">
-        <v>1380</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>1381</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="s">
-        <v>1382</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>1383</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>1384</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="s">
-        <v>1385</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>1386</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="s">
-        <v>1387</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="s">
-        <v>1388</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>1389</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>1390</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>1391</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="s">
-        <v>1392</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="s">
-        <v>1393</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
-        <v>1394</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="21" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="s">
-        <v>1396</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="s">
-        <v>1397</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="s">
-        <v>1398</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="s">
-        <v>1399</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="s">
-        <v>1400</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
-        <v>1401</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>1402</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>1403</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="s">
-        <v>1404</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="s">
-        <v>1405</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
-        <v>1406</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
-        <v>1407</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="s">
-        <v>1408</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>1409</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="21" t="s">
-        <v>1410</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="21" t="s">
-        <v>1411</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="21" t="s">
-        <v>1412</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="21" t="s">
-        <v>1413</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>1414</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="21" t="s">
-        <v>1415</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="21" t="s">
-        <v>1416</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="21" t="s">
-        <v>1417</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="21" t="s">
-        <v>1418</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="21" t="s">
-        <v>1419</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="21" t="s">
-        <v>1420</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
-        <v>1421</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
-        <v>1422</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="21" t="s">
-        <v>1423</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="21" t="s">
-        <v>1424</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="21" t="s">
-        <v>1425</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>1426</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="21" t="s">
-        <v>1427</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
-        <v>1428</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="21" t="s">
-        <v>1429</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="21" t="s">
-        <v>1430</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="21" t="s">
-        <v>1431</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="21" t="s">
-        <v>1432</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="21" t="s">
-        <v>1433</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="21" t="s">
-        <v>1434</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="21" t="s">
-        <v>1435</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="21" t="s">
-        <v>1436</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="21" t="s">
-        <v>1437</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>1438</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="21" t="s">
-        <v>1439</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="21" t="s">
-        <v>1440</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="21" t="s">
-        <v>1441</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="21" t="s">
-        <v>1442</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>1443</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>1444</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>1445</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>1446</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>1447</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>1448</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>1449</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>1450</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
-        <v>1451</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="21" t="s">
-        <v>1452</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="21" t="s">
-        <v>1453</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="21" t="s">
-        <v>1454</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="21" t="s">
-        <v>1455</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="21" t="s">
-        <v>1456</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>1457</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>1458</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>1459</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>1460</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>1268</v>
+        <v>1275</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>1461</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>1462</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>1463</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>1464</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>1465</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>1466</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>1467</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="21" t="s">
-        <v>1468</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="21" t="s">
-        <v>1469</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="21" t="s">
-        <v>1470</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="21" t="s">
-        <v>1471</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="21" t="s">
-        <v>1472</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>1473</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>1474</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>1475</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>1476</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="21" t="s">
-        <v>1477</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="21" t="s">
-        <v>1478</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>1479</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="21" t="s">
-        <v>1480</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="21" t="s">
-        <v>1481</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="21" t="s">
-        <v>1482</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>1483</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>1484</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>1485</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>1486</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>1487</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>1488</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>1489</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>1490</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>1491</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>1492</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>1493</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>1494</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="21" t="s">
-        <v>1495</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="21" t="s">
-        <v>1496</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>1497</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
-        <v>1498</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="21" t="s">
-        <v>1499</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="21" t="s">
-        <v>1500</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>1501</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>1502</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>1503</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="21" t="s">
-        <v>1504</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="21" t="s">
-        <v>1505</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
-        <v>1278</v>
+        <v>1285</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
-        <v>1506</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="21" t="s">
-        <v>1507</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>1508</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>1509</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>1510</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>1511</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>1512</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>1513</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>1514</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>1515</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>1516</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>1517</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>1518</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>1519</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>1520</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="21" t="s">
-        <v>1521</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="21" t="s">
-        <v>1522</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="21" t="s">
-        <v>1523</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="21" t="s">
-        <v>1524</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="21" t="s">
-        <v>1525</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="21" t="s">
-        <v>1526</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="21" t="s">
-        <v>1527</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="21" t="s">
-        <v>1528</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="21" t="s">
-        <v>1529</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="21" t="s">
-        <v>1285</v>
+        <v>1292</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="21" t="s">
-        <v>1530</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>1531</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="21" t="s">
-        <v>1532</v>
+        <v>1539</v>
       </c>
     </row>
   </sheetData>
@@ -24831,160 +25005,160 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="24" t="s">
-        <v>1533</v>
+      <c r="B1" s="26" t="s">
+        <v>1540</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="25" t="s">
-        <v>1534</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>1535</v>
-      </c>
-      <c r="D2" s="27" t="s">
-        <v>1536</v>
-      </c>
-      <c r="I2" s="28"/>
+      <c r="B2" s="27" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1542</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1543</v>
+      </c>
+      <c r="I2" s="30"/>
       <c r="K2" s="21" t="s">
-        <v>1537</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="25" t="s">
-        <v>1538</v>
-      </c>
-      <c r="C3" s="26" t="s">
-        <v>1535</v>
-      </c>
-      <c r="H3" s="26"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="26"/>
+      <c r="B3" s="27" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1542</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="11" t="s">
-        <v>1539</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>1540</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="26"/>
+        <v>1547</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="11" t="s">
-        <v>1541</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="30"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="26"/>
+      <c r="C5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="7" t="s">
-        <v>1216</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="30"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="31"/>
-      <c r="J6" s="26"/>
+      <c r="C6" s="32"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="22"/>
-      <c r="C7" s="30"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="26"/>
+      <c r="C7" s="32"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="22" t="s">
-        <v>1542</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="11" t="s">
-        <v>1543</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="26"/>
+        <v>1550</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="21" t="s">
-        <v>1544</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="26"/>
+        <v>1552</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="7" t="s">
-        <v>1546</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="26"/>
+        <v>1554</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="11" t="s">
-        <v>1548</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>1549</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="26"/>
+        <v>1556</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="7" t="s">
-        <v>1550</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>1551</v>
+        <v>1558</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1552</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="K13" s="7" t="s">
-        <v>1553</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>1554</v>
+        <v>1561</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1555</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>1556</v>
+        <v>1563</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1557</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="11" t="s">
-        <v>1558</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -24992,10 +25166,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>1559</v>
+        <v>1566</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1560</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25003,109 +25177,109 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1561</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>1562</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>1563</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>1564</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>1565</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21" t="s">
-        <v>1566</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21" t="s">
-        <v>1567</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21" t="s">
-        <v>1568</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21" t="s">
-        <v>1569</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21" t="s">
-        <v>1570</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>1571</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21" t="s">
-        <v>1572</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21" t="s">
-        <v>1573</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21" t="s">
-        <v>1574</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>1575</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>1576</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21" t="s">
-        <v>1577</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>1578</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>1579</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21" t="s">
-        <v>1580</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="21" t="s">
-        <v>1581</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25115,47 +25289,47 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="21" t="s">
-        <v>1582</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="21" t="s">
-        <v>1583</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="21" t="s">
-        <v>1584</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21" t="s">
-        <v>1585</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="21" t="s">
-        <v>1586</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="21" t="s">
-        <v>1587</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="21" t="s">
-        <v>1588</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="21" t="s">
-        <v>1589</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="21" t="s">
-        <v>1590</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25163,17 +25337,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1591</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="21" t="s">
-        <v>1592</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="21" t="s">
-        <v>1593</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25183,27 +25357,27 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>1594</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21" t="s">
-        <v>1595</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21" t="s">
-        <v>1596</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="21" t="s">
-        <v>1597</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21" t="s">
-        <v>1598</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -25249,472 +25423,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="21" t="s">
-        <v>1599</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="21" t="s">
-        <v>1600</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="21" t="s">
-        <v>1601</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="21" t="s">
-        <v>1602</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="21" t="s">
-        <v>1603</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="21" t="s">
-        <v>1604</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="21" t="s">
-        <v>1605</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="21" t="s">
-        <v>1606</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="21" t="s">
-        <v>1607</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="21" t="s">
-        <v>1608</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="21" t="s">
-        <v>1609</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21" t="s">
-        <v>1610</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21" t="s">
-        <v>1611</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="21" t="s">
-        <v>1612</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="21" t="s">
-        <v>1613</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="21" t="s">
-        <v>1614</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="21" t="s">
-        <v>1615</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="21" t="s">
-        <v>1616</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="21" t="s">
-        <v>1617</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
-        <v>1618</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="21" t="s">
-        <v>1619</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="21" t="s">
-        <v>1620</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="21" t="s">
-        <v>1621</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="21" t="s">
-        <v>1622</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="21" t="s">
-        <v>1623</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="21" t="s">
-        <v>1624</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="21" t="s">
-        <v>1625</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="21" t="s">
-        <v>1626</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="21" t="s">
-        <v>1627</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="21" t="s">
-        <v>1628</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="21" t="s">
-        <v>1629</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="21" t="s">
-        <v>1630</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="21" t="s">
-        <v>1631</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="21" t="s">
-        <v>1632</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="21" t="s">
-        <v>1633</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="21" t="s">
-        <v>1634</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="21" t="s">
-        <v>1635</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="21" t="s">
-        <v>1636</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="21" t="s">
-        <v>1637</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>1638</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="21" t="s">
-        <v>1639</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="21" t="s">
-        <v>1640</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="21" t="s">
-        <v>1641</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="21" t="s">
-        <v>1642</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="21" t="s">
-        <v>1643</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="21" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="21" t="s">
-        <v>1645</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="21" t="s">
-        <v>1646</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="21" t="s">
-        <v>1647</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="21" t="s">
-        <v>1648</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="21" t="s">
-        <v>1649</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="21" t="s">
-        <v>1650</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="21" t="s">
-        <v>1651</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="21" t="s">
-        <v>1652</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="21" t="s">
-        <v>1653</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="21" t="s">
-        <v>1654</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="21" t="s">
-        <v>1655</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="21" t="s">
-        <v>1656</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="21" t="s">
-        <v>1657</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="21" t="s">
-        <v>1658</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="21" t="s">
-        <v>1659</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="21" t="s">
-        <v>1660</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="21" t="s">
-        <v>1661</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="21" t="s">
-        <v>1662</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="21" t="s">
-        <v>1663</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="21" t="s">
-        <v>1664</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="21" t="s">
-        <v>1665</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="21" t="s">
-        <v>1666</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="21" t="s">
-        <v>1667</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="21" t="s">
-        <v>1668</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>1669</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="21" t="s">
-        <v>1670</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="21" t="s">
-        <v>1671</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="21" t="s">
-        <v>1672</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="21" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="21" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="21" t="s">
-        <v>1675</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="21" t="s">
-        <v>1676</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="21" t="s">
-        <v>1677</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="21" t="s">
-        <v>1678</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="21" t="s">
-        <v>1679</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="21" t="s">
-        <v>1680</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="21" t="s">
-        <v>1681</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="21" t="s">
-        <v>1682</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="21" t="s">
-        <v>1683</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="21" t="s">
-        <v>1684</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="21" t="s">
-        <v>1685</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="21" t="s">
-        <v>1686</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="21" t="s">
-        <v>1687</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="21" t="s">
-        <v>1688</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="21" t="s">
-        <v>1689</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="21" t="s">
-        <v>1690</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="21" t="s">
-        <v>1691</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="21" t="s">
-        <v>1692</v>
+        <v>1699</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3867" uniqueCount="1700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="1765">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3730,6 +3730,195 @@
     <t xml:space="preserve">https://db2010.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">364</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^reklamy_admaster^$domain=galeriafirm.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://galeriafirm.eu/galeriafirm/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">365</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gazeo.pl##.ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazeo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">366</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^view.php?key=$image,domain=gpcodziennie.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gpcodziennie.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||gazeta-mlawska.pl^*^4%20mod_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazeta-mlawska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||gazeta-mlawska.pl^*^BANER.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gazetaostrowska.pl##.nivoSlider</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetaostrowska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">369</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||gazetakartuska.pl^*^sad/*DOWOZY%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gazetakartuska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gazeta-wiesci.pl##a[title*="clicks."] &gt; img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gazeta-wiesci.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banners^$domain=glogow-info.pl|glogow.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://glogow.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||gpi4.glogow.pl/rek^$domain=glogow-info.pl|glogow.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||gpi2.website.pl^$domain=glogow-info.pl|glogow.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">372</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^reklamy_$domain=gazetka.be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetka.be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">373</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gf24.pl##a[href*="&amp;utm_medium="] &gt; img</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gf24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gizycko.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">½</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gle24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">WTF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glokalna.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.glosgminny.pl/przyjaciel-billa-g-prof-neil-ferguson-sparalizowal-planete-falszujac-dane-c-19/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gniewkowo.eu/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://grafmag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gsim.pl/gorzej-juz-byc-nie-moze-prawda/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gst24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwarminska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorepixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwio.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hdtvpolska.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdWelcomeScreen popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hej.mielec.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hobby-elektronika.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hodowle.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://esopot.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://deblinnews.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-pingpong.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron w stopce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diagnozujmy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://galeria-tajlandia.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://www.fight24.pl</t>
   </si>
   <si>
@@ -3754,34 +3943,52 @@
     <t xml:space="preserve">https://www.darmowetv.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">https://esopot.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popup </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://deblinnews.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-pingpong.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron w stopce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://diagnozujmy.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron</t>
+    <t xml:space="preserve">http://gpd24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glostorunia.pl/wydruk-kalendarzy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glosrzeszowa glosgdyni rybnika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://driverm.webd.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://goniecpolski.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gotujzmaka.blogspot.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebroker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gostyn24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gorlice24.pl/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gazetasenior.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetatwojeinfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetazoliborza.pl/2020/05/warszawa-luzuje-obostrzenia-podano-daty-otwarcia-boisk-zlobkow-i-przedszkoli/</t>
   </si>
   <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
@@ -3854,18 +4061,6 @@
     <t xml:space="preserve">block logo</t>
   </si>
   <si>
-    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://driverm.webd.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
-  </si>
-  <si>
     <t xml:space="preserve">Domain</t>
   </si>
   <si>
@@ -5152,7 +5347,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5234,12 +5429,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lato Medium"/>
-      <family val="0"/>
     </font>
     <font>
       <i val="true"/>
@@ -5377,7 +5566,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5470,7 +5659,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5478,11 +5667,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5494,7 +5679,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5506,7 +5691,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5663,10 +5848,10 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A628" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B628" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A628" activeCellId="0" sqref="A628"/>
-      <selection pane="topRight" activeCell="B664" activeCellId="0" sqref="B664"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A645" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B645" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A645" activeCellId="0" sqref="A645"/>
+      <selection pane="topRight" activeCell="G649" activeCellId="0" sqref="G649"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -21706,8 +21891,8 @@
         <v>16</v>
       </c>
       <c r="F632" s="11"/>
-      <c r="G632" s="11" t="s">
-        <v>212</v>
+      <c r="G632" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H632" s="11"/>
       <c r="I632" s="11"/>
@@ -21734,7 +21919,7 @@
       </c>
       <c r="F633" s="7"/>
       <c r="G633" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H633" s="7"/>
       <c r="I633" s="7"/>
@@ -21756,8 +21941,8 @@
         <v>16</v>
       </c>
       <c r="F634" s="11"/>
-      <c r="G634" s="11" t="s">
-        <v>212</v>
+      <c r="G634" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H634" s="11"/>
       <c r="I634" s="11"/>
@@ -21780,7 +21965,7 @@
       </c>
       <c r="F635" s="7"/>
       <c r="G635" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H635" s="7"/>
       <c r="I635" s="7"/>
@@ -21802,8 +21987,8 @@
         <v>16</v>
       </c>
       <c r="F636" s="11"/>
-      <c r="G636" s="11" t="s">
-        <v>212</v>
+      <c r="G636" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H636" s="11"/>
       <c r="I636" s="11"/>
@@ -21830,7 +22015,7 @@
       </c>
       <c r="F637" s="7"/>
       <c r="G637" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H637" s="7"/>
       <c r="I637" s="7"/>
@@ -21858,8 +22043,8 @@
       <c r="F638" s="11" t="s">
         <v>1183</v>
       </c>
-      <c r="G638" s="11" t="s">
-        <v>212</v>
+      <c r="G638" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H638" s="11"/>
       <c r="I638" s="11"/>
@@ -21886,7 +22071,7 @@
       </c>
       <c r="F639" s="7"/>
       <c r="G639" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H639" s="7"/>
       <c r="I639" s="7"/>
@@ -21912,8 +22097,8 @@
         <v>16</v>
       </c>
       <c r="F640" s="11"/>
-      <c r="G640" s="11" t="s">
-        <v>212</v>
+      <c r="G640" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H640" s="11"/>
       <c r="I640" s="11"/>
@@ -21940,7 +22125,7 @@
       </c>
       <c r="F641" s="7"/>
       <c r="G641" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H641" s="7"/>
       <c r="I641" s="7"/>
@@ -21966,8 +22151,8 @@
         <v>16</v>
       </c>
       <c r="F642" s="11"/>
-      <c r="G642" s="11" t="s">
-        <v>212</v>
+      <c r="G642" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H642" s="11"/>
       <c r="I642" s="11"/>
@@ -21994,7 +22179,7 @@
       </c>
       <c r="F643" s="7"/>
       <c r="G643" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H643" s="7"/>
       <c r="I643" s="7"/>
@@ -22020,8 +22205,8 @@
         <v>16</v>
       </c>
       <c r="F644" s="11"/>
-      <c r="G644" s="11" t="s">
-        <v>212</v>
+      <c r="G644" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H644" s="11"/>
       <c r="I644" s="11"/>
@@ -22048,7 +22233,7 @@
       </c>
       <c r="F645" s="7"/>
       <c r="G645" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H645" s="7"/>
       <c r="I645" s="7"/>
@@ -22074,8 +22259,8 @@
         <v>16</v>
       </c>
       <c r="F646" s="11"/>
-      <c r="G646" s="11" t="s">
-        <v>212</v>
+      <c r="G646" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H646" s="11"/>
       <c r="I646" s="11"/>
@@ -22102,7 +22287,7 @@
       </c>
       <c r="F647" s="7"/>
       <c r="G647" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H647" s="7"/>
       <c r="I647" s="7"/>
@@ -22128,7 +22313,7 @@
         <v>212</v>
       </c>
       <c r="F648" s="11"/>
-      <c r="G648" s="11" t="s">
+      <c r="G648" s="7" t="s">
         <v>212</v>
       </c>
       <c r="H648" s="11"/>
@@ -22156,7 +22341,7 @@
       </c>
       <c r="F649" s="7"/>
       <c r="G649" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H649" s="7"/>
       <c r="I649" s="7"/>
@@ -22182,8 +22367,8 @@
         <v>16</v>
       </c>
       <c r="F650" s="11"/>
-      <c r="G650" s="11" t="s">
-        <v>212</v>
+      <c r="G650" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H650" s="11"/>
       <c r="I650" s="11"/>
@@ -22206,7 +22391,7 @@
       </c>
       <c r="F651" s="7"/>
       <c r="G651" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H651" s="7"/>
       <c r="I651" s="7"/>
@@ -22232,8 +22417,8 @@
         <v>16</v>
       </c>
       <c r="F652" s="11"/>
-      <c r="G652" s="11" t="s">
-        <v>212</v>
+      <c r="G652" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H652" s="11"/>
       <c r="I652" s="11"/>
@@ -22256,7 +22441,7 @@
       </c>
       <c r="F653" s="7"/>
       <c r="G653" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H653" s="7"/>
       <c r="I653" s="7"/>
@@ -22282,8 +22467,8 @@
         <v>16</v>
       </c>
       <c r="F654" s="11"/>
-      <c r="G654" s="11" t="s">
-        <v>212</v>
+      <c r="G654" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H654" s="11"/>
       <c r="I654" s="11"/>
@@ -22310,7 +22495,7 @@
       </c>
       <c r="F655" s="7"/>
       <c r="G655" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H655" s="11"/>
       <c r="I655" s="11"/>
@@ -22321,7 +22506,7 @@
     </row>
     <row r="656" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A656" s="10"/>
-      <c r="B656" s="24" t="s">
+      <c r="B656" s="11" t="s">
         <v>1231</v>
       </c>
       <c r="C656" s="11" t="s">
@@ -22331,9 +22516,9 @@
       <c r="E656" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F656" s="25"/>
-      <c r="G656" s="11" t="s">
-        <v>212</v>
+      <c r="F656" s="24"/>
+      <c r="G656" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="H656" s="11"/>
       <c r="I656" s="11"/>
@@ -22360,7 +22545,7 @@
       </c>
       <c r="F657" s="7"/>
       <c r="G657" s="7" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H657" s="11"/>
       <c r="I657" s="11"/>
@@ -22370,10 +22555,18 @@
       <c r="M657" s="12"/>
     </row>
     <row r="658" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A658" s="10"/>
-      <c r="B658" s="11"/>
-      <c r="C658" s="11"/>
-      <c r="D658" s="11"/>
+      <c r="A658" s="10" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B658" s="11" t="s">
+        <v>1236</v>
+      </c>
+      <c r="C658" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D658" s="11" t="s">
+        <v>1237</v>
+      </c>
       <c r="E658" s="11" t="s">
         <v>212</v>
       </c>
@@ -22389,10 +22582,18 @@
       <c r="M658" s="12"/>
     </row>
     <row r="659" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A659" s="6"/>
-      <c r="B659" s="7"/>
-      <c r="C659" s="7"/>
-      <c r="D659" s="7"/>
+      <c r="A659" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B659" s="7" t="s">
+        <v>1239</v>
+      </c>
+      <c r="C659" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D659" s="7" t="s">
+        <v>1240</v>
+      </c>
       <c r="E659" s="7" t="s">
         <v>212</v>
       </c>
@@ -22408,10 +22609,18 @@
       <c r="M659" s="9"/>
     </row>
     <row r="660" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A660" s="10"/>
-      <c r="B660" s="11"/>
-      <c r="C660" s="11"/>
-      <c r="D660" s="11"/>
+      <c r="A660" s="10" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B660" s="11" t="s">
+        <v>1242</v>
+      </c>
+      <c r="C660" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D660" s="11" t="s">
+        <v>1243</v>
+      </c>
       <c r="E660" s="11" t="s">
         <v>212</v>
       </c>
@@ -22427,10 +22636,18 @@
       <c r="M660" s="12"/>
     </row>
     <row r="661" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A661" s="6"/>
-      <c r="B661" s="7"/>
-      <c r="C661" s="7"/>
-      <c r="D661" s="7"/>
+      <c r="A661" s="6" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B661" s="7" t="s">
+        <v>1245</v>
+      </c>
+      <c r="C661" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D661" s="11" t="s">
+        <v>1246</v>
+      </c>
       <c r="E661" s="7" t="s">
         <v>212</v>
       </c>
@@ -22447,8 +22664,12 @@
     </row>
     <row r="662" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A662" s="10"/>
-      <c r="B662" s="11"/>
-      <c r="C662" s="11"/>
+      <c r="B662" s="11" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C662" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D662" s="11"/>
       <c r="E662" s="11" t="s">
         <v>212</v>
@@ -22465,10 +22686,18 @@
       <c r="M662" s="12"/>
     </row>
     <row r="663" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A663" s="6"/>
-      <c r="B663" s="7"/>
-      <c r="C663" s="7"/>
-      <c r="D663" s="7"/>
+      <c r="A663" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B663" s="7" t="s">
+        <v>1249</v>
+      </c>
+      <c r="C663" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D663" s="7" t="s">
+        <v>1250</v>
+      </c>
       <c r="E663" s="7" t="s">
         <v>212</v>
       </c>
@@ -22484,10 +22713,18 @@
       <c r="M663" s="9"/>
     </row>
     <row r="664" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A664" s="10"/>
-      <c r="B664" s="11"/>
-      <c r="C664" s="11"/>
-      <c r="D664" s="11"/>
+      <c r="A664" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B664" s="11" t="s">
+        <v>1252</v>
+      </c>
+      <c r="C664" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D664" s="11" t="s">
+        <v>1253</v>
+      </c>
       <c r="E664" s="11" t="s">
         <v>212</v>
       </c>
@@ -22503,10 +22740,18 @@
       <c r="M664" s="12"/>
     </row>
     <row r="665" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A665" s="6"/>
-      <c r="B665" s="19"/>
-      <c r="C665" s="7"/>
-      <c r="D665" s="7"/>
+      <c r="A665" s="6" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B665" s="19" t="s">
+        <v>1255</v>
+      </c>
+      <c r="C665" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D665" s="7" t="s">
+        <v>1256</v>
+      </c>
       <c r="E665" s="7" t="s">
         <v>212</v>
       </c>
@@ -22522,10 +22767,18 @@
       <c r="M665" s="9"/>
     </row>
     <row r="666" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A666" s="10"/>
-      <c r="B666" s="11"/>
-      <c r="C666" s="11"/>
-      <c r="D666" s="11"/>
+      <c r="A666" s="10" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B666" s="11" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C666" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D666" s="11" t="s">
+        <v>1259</v>
+      </c>
       <c r="E666" s="11" t="s">
         <v>212</v>
       </c>
@@ -22542,8 +22795,12 @@
     </row>
     <row r="667" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A667" s="6"/>
-      <c r="B667" s="7"/>
-      <c r="C667" s="7"/>
+      <c r="B667" s="7" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C667" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D667" s="7"/>
       <c r="E667" s="7" t="s">
         <v>212</v>
@@ -22561,8 +22818,12 @@
     </row>
     <row r="668" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A668" s="10"/>
-      <c r="B668" s="11"/>
-      <c r="C668" s="11"/>
+      <c r="B668" s="11" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C668" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D668" s="11"/>
       <c r="E668" s="11" t="s">
         <v>212</v>
@@ -22578,11 +22839,19 @@
       <c r="L668" s="11"/>
       <c r="M668" s="12"/>
     </row>
-    <row r="669" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A669" s="6"/>
-      <c r="B669" s="7"/>
-      <c r="C669" s="7"/>
-      <c r="D669" s="7"/>
+    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A669" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B669" s="11" t="s">
+        <v>1263</v>
+      </c>
+      <c r="C669" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D669" s="11" t="s">
+        <v>1264</v>
+      </c>
       <c r="E669" s="7" t="s">
         <v>212</v>
       </c>
@@ -22598,10 +22867,18 @@
       <c r="M669" s="9"/>
     </row>
     <row r="670" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A670" s="10"/>
-      <c r="B670" s="11"/>
-      <c r="C670" s="11"/>
-      <c r="D670" s="11"/>
+      <c r="A670" s="10" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B670" s="11" t="s">
+        <v>1266</v>
+      </c>
+      <c r="C670" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D670" s="11" t="s">
+        <v>1267</v>
+      </c>
       <c r="E670" s="11" t="s">
         <v>212</v>
       </c>
@@ -22620,11 +22897,15 @@
       <c r="A671" s="6"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
-      <c r="D671" s="7"/>
+      <c r="D671" s="7" t="s">
+        <v>1268</v>
+      </c>
       <c r="E671" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F671" s="7"/>
+      <c r="F671" s="7" t="s">
+        <v>1269</v>
+      </c>
       <c r="G671" s="7" t="s">
         <v>212</v>
       </c>
@@ -22639,11 +22920,15 @@
       <c r="A672" s="10"/>
       <c r="B672" s="11"/>
       <c r="C672" s="11"/>
-      <c r="D672" s="11"/>
+      <c r="D672" s="11" t="s">
+        <v>1270</v>
+      </c>
       <c r="E672" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F672" s="11"/>
+      <c r="F672" s="11" t="s">
+        <v>1271</v>
+      </c>
       <c r="G672" s="11" t="s">
         <v>212</v>
       </c>
@@ -22658,11 +22943,15 @@
       <c r="A673" s="6"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
-      <c r="D673" s="7"/>
+      <c r="D673" s="7" t="s">
+        <v>1259</v>
+      </c>
       <c r="E673" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F673" s="7"/>
+      <c r="F673" s="7" t="s">
+        <v>1272</v>
+      </c>
       <c r="G673" s="7" t="s">
         <v>212</v>
       </c>
@@ -22677,11 +22966,15 @@
       <c r="A674" s="10"/>
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
-      <c r="D674" s="11"/>
+      <c r="D674" s="11" t="s">
+        <v>1273</v>
+      </c>
       <c r="E674" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F674" s="11"/>
+      <c r="F674" s="11" t="s">
+        <v>1271</v>
+      </c>
       <c r="G674" s="11" t="s">
         <v>212</v>
       </c>
@@ -22696,11 +22989,15 @@
       <c r="A675" s="6"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
-      <c r="D675" s="7"/>
+      <c r="D675" s="7" t="s">
+        <v>1274</v>
+      </c>
       <c r="E675" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F675" s="7"/>
+      <c r="F675" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G675" s="7" t="s">
         <v>212</v>
       </c>
@@ -22715,11 +23012,15 @@
       <c r="A676" s="10"/>
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
-      <c r="D676" s="11"/>
+      <c r="D676" s="11" t="s">
+        <v>1275</v>
+      </c>
       <c r="E676" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F676" s="11"/>
+      <c r="F676" s="11" t="s">
+        <v>1271</v>
+      </c>
       <c r="G676" s="11" t="s">
         <v>212</v>
       </c>
@@ -22734,11 +23035,15 @@
       <c r="A677" s="6"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
-      <c r="D677" s="7"/>
+      <c r="D677" s="7" t="s">
+        <v>1276</v>
+      </c>
       <c r="E677" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F677" s="7"/>
+      <c r="F677" s="7" t="n">
+        <v>1</v>
+      </c>
       <c r="G677" s="7" t="s">
         <v>212</v>
       </c>
@@ -22754,13 +23059,13 @@
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11" t="s">
-        <v>1235</v>
+        <v>1277</v>
       </c>
       <c r="E678" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F678" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G678" s="11" t="s">
         <v>212</v>
@@ -22772,18 +23077,18 @@
       <c r="L678" s="11"/>
       <c r="M678" s="12"/>
     </row>
-    <row r="679" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="679" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A679" s="6"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
       <c r="D679" s="11" t="s">
-        <v>1236</v>
+        <v>1278</v>
       </c>
       <c r="E679" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F679" s="11" t="n">
-        <v>2</v>
+      <c r="F679" s="11" t="s">
+        <v>1271</v>
       </c>
       <c r="G679" s="7" t="s">
         <v>212</v>
@@ -22795,18 +23100,18 @@
       <c r="L679" s="7"/>
       <c r="M679" s="9"/>
     </row>
-    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="10"/>
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
       <c r="D680" s="7" t="s">
-        <v>1237</v>
+        <v>1279</v>
       </c>
       <c r="E680" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F680" s="7" t="n">
-        <v>2</v>
+      <c r="F680" s="7" t="s">
+        <v>1280</v>
       </c>
       <c r="G680" s="11" t="s">
         <v>212</v>
@@ -22818,18 +23123,18 @@
       <c r="L680" s="11"/>
       <c r="M680" s="12"/>
     </row>
-    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="681" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="6"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
       <c r="D681" s="11" t="s">
-        <v>1238</v>
+        <v>1281</v>
       </c>
       <c r="E681" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F681" s="11" t="n">
-        <v>2</v>
+      <c r="F681" s="11" t="s">
+        <v>1271</v>
       </c>
       <c r="G681" s="7" t="s">
         <v>212</v>
@@ -22846,13 +23151,13 @@
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
       <c r="D682" s="7" t="s">
-        <v>1239</v>
+        <v>1282</v>
       </c>
       <c r="E682" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F682" s="7" t="n">
-        <v>2</v>
+      <c r="F682" s="7" t="s">
+        <v>1283</v>
       </c>
       <c r="G682" s="11" t="s">
         <v>212</v>
@@ -22864,18 +23169,18 @@
       <c r="L682" s="11"/>
       <c r="M682" s="12"/>
     </row>
-    <row r="683" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="683" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A683" s="6"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
       <c r="D683" s="11" t="s">
-        <v>1240</v>
+        <v>1284</v>
       </c>
       <c r="E683" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F683" s="7" t="n">
-        <v>2</v>
+      <c r="F683" s="7" t="s">
+        <v>1271</v>
       </c>
       <c r="G683" s="7" t="s">
         <v>212</v>
@@ -22887,18 +23192,18 @@
       <c r="L683" s="7"/>
       <c r="M683" s="9"/>
     </row>
-    <row r="684" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="684" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="10"/>
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
       <c r="D684" s="0" t="s">
-        <v>1241</v>
+        <v>1285</v>
       </c>
       <c r="E684" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F684" s="11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G684" s="11" t="s">
         <v>212</v>
@@ -22910,18 +23215,18 @@
       <c r="L684" s="11"/>
       <c r="M684" s="12"/>
     </row>
-    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="685" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A685" s="6"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
       <c r="D685" s="0" t="s">
-        <v>1242</v>
+        <v>1286</v>
       </c>
       <c r="E685" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F685" s="7" t="n">
-        <v>2</v>
+      <c r="F685" s="7" t="s">
+        <v>1287</v>
       </c>
       <c r="G685" s="7" t="s">
         <v>212</v>
@@ -22938,13 +23243,13 @@
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
       <c r="D686" s="7" t="s">
-        <v>1243</v>
+        <v>1288</v>
       </c>
       <c r="E686" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F686" s="7" t="s">
-        <v>1244</v>
+        <v>1271</v>
       </c>
       <c r="G686" s="11" t="s">
         <v>212</v>
@@ -22961,7 +23266,7 @@
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
       <c r="D687" s="0" t="s">
-        <v>1245</v>
+        <v>1289</v>
       </c>
       <c r="E687" s="7" t="s">
         <v>212</v>
@@ -22984,7 +23289,7 @@
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11" t="s">
-        <v>1246</v>
+        <v>1290</v>
       </c>
       <c r="E688" s="11" t="s">
         <v>212</v>
@@ -23007,13 +23312,13 @@
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
       <c r="D689" s="11" t="s">
-        <v>1247</v>
+        <v>1291</v>
       </c>
       <c r="E689" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F689" s="11" t="s">
-        <v>1248</v>
+        <v>1292</v>
       </c>
       <c r="G689" s="7" t="s">
         <v>212</v>
@@ -23030,7 +23335,7 @@
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
       <c r="D690" s="0" t="s">
-        <v>1249</v>
+        <v>1293</v>
       </c>
       <c r="E690" s="11" t="s">
         <v>212</v>
@@ -23053,13 +23358,13 @@
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
       <c r="D691" s="7" t="s">
-        <v>1250</v>
+        <v>1294</v>
       </c>
       <c r="E691" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F691" s="7" t="s">
-        <v>1244</v>
+        <v>1271</v>
       </c>
       <c r="G691" s="7" t="s">
         <v>212</v>
@@ -23071,18 +23376,18 @@
       <c r="L691" s="7"/>
       <c r="M691" s="9"/>
     </row>
-    <row r="692" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="692" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A692" s="10"/>
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11" t="s">
-        <v>1251</v>
+        <v>1295</v>
       </c>
       <c r="E692" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F692" s="11" t="s">
-        <v>1252</v>
+        <v>1296</v>
       </c>
       <c r="G692" s="11" t="s">
         <v>212</v>
@@ -23095,155 +23400,133 @@
       <c r="M692" s="12"/>
     </row>
     <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="7" t="s">
-        <v>1253</v>
-      </c>
-      <c r="C693" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="B693" s="7"/>
+      <c r="C693" s="7"/>
       <c r="D693" s="7" t="s">
-        <v>1254</v>
+        <v>1297</v>
       </c>
       <c r="E693" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F693" s="7" t="s">
-        <v>1255</v>
+      <c r="F693" s="7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B694" s="11" t="s">
-        <v>1256</v>
-      </c>
-      <c r="C694" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="B694" s="11"/>
+      <c r="C694" s="11"/>
       <c r="D694" s="11" t="s">
-        <v>1255</v>
+        <v>1298</v>
       </c>
       <c r="E694" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F694" s="11" t="s">
-        <v>1255</v>
+      <c r="F694" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="7" t="s">
-        <v>1257</v>
-      </c>
-      <c r="C695" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D695" s="7" t="s">
-        <v>1255</v>
-      </c>
-      <c r="E695" s="7" t="s">
+      <c r="B695" s="7"/>
+      <c r="C695" s="7"/>
+      <c r="D695" s="11" t="s">
+        <v>1299</v>
+      </c>
+      <c r="E695" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F695" s="7" t="s">
-        <v>1255</v>
+      <c r="F695" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B696" s="11" t="s">
-        <v>1258</v>
-      </c>
-      <c r="C696" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="D696" s="11"/>
-      <c r="E696" s="11" t="s">
+      <c r="B696" s="11"/>
+      <c r="C696" s="11"/>
+      <c r="D696" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E696" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F696" s="11" t="s">
-        <v>1255</v>
+      <c r="F696" s="7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B697" s="7" t="s">
-        <v>1259</v>
-      </c>
-      <c r="C697" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D697" s="7" t="s">
-        <v>1260</v>
-      </c>
-      <c r="E697" s="7" t="s">
+      <c r="B697" s="7"/>
+      <c r="C697" s="7"/>
+      <c r="D697" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E697" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F697" s="7" t="s">
-        <v>1255</v>
+      <c r="F697" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B698" s="11" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C698" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D698" s="11" t="s">
-        <v>1262</v>
-      </c>
-      <c r="E698" s="11" t="s">
+      <c r="B698" s="11"/>
+      <c r="C698" s="11"/>
+      <c r="D698" s="7" t="s">
+        <v>1302</v>
+      </c>
+      <c r="E698" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F698" s="11" t="s">
-        <v>1255</v>
+      <c r="F698" s="7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B699" s="19" t="s">
-        <v>1263</v>
-      </c>
-      <c r="C699" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D699" s="7" t="s">
-        <v>1264</v>
+      <c r="B699" s="19"/>
+      <c r="C699" s="7"/>
+      <c r="D699" s="11" t="s">
+        <v>1303</v>
       </c>
       <c r="E699" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F699" s="7" t="s">
-        <v>1265</v>
+      <c r="F699" s="7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B700" s="11" t="s">
-        <v>1266</v>
-      </c>
-      <c r="C700" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D700" s="11" t="s">
-        <v>1267</v>
+      <c r="B700" s="11"/>
+      <c r="C700" s="11"/>
+      <c r="D700" s="0" t="s">
+        <v>1304</v>
       </c>
       <c r="E700" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F700" s="11"/>
+      <c r="F700" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B701" s="7" t="s">
-        <v>1268</v>
-      </c>
-      <c r="C701" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="D701" s="7"/>
+      <c r="B701" s="7"/>
+      <c r="C701" s="7"/>
+      <c r="D701" s="0" t="s">
+        <v>1305</v>
+      </c>
       <c r="E701" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F701" s="7" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="703" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F701" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D702" s="2" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F702" s="2" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="703" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D703" s="0" t="s">
-        <v>1270</v>
+        <v>1308</v>
       </c>
       <c r="E703" s="7" t="s">
         <v>212</v>
@@ -23253,15 +23536,19 @@
       </c>
     </row>
     <row r="704" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D704" s="11"/>
+      <c r="D704" s="11" t="s">
+        <v>1309</v>
+      </c>
       <c r="E704" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F704" s="11"/>
+      <c r="F704" s="11" t="s">
+        <v>1310</v>
+      </c>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D705" s="7" t="s">
-        <v>1271</v>
+        <v>1311</v>
       </c>
       <c r="E705" s="7" t="s">
         <v>212</v>
@@ -23270,38 +23557,231 @@
         <v>2</v>
       </c>
     </row>
-    <row r="706" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D706" s="11"/>
+    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D706" s="11" t="s">
+        <v>1312</v>
+      </c>
       <c r="E706" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F706" s="11"/>
+      <c r="F706" s="11" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D707" s="7" t="s">
-        <v>1272</v>
+        <v>1313</v>
       </c>
       <c r="E707" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F707" s="7" t="s">
-        <v>1244</v>
+        <v>1271</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D708" s="11" t="s">
-        <v>1273</v>
+        <v>1314</v>
       </c>
       <c r="E708" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F708" s="25" t="n">
+      <c r="F708" s="24" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D709" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F709" s="2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D710" s="2" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F710" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D711" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E711" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F711" s="7" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D712" s="11" t="s">
+        <v>1319</v>
+      </c>
+      <c r="E712" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F712" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D713" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E713" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F713" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D714" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E714" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F714" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B722" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C722" s="7"/>
+      <c r="D722" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E722" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F722" s="7" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B723" s="11" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C723" s="11"/>
+      <c r="D723" s="11" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E723" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F723" s="11" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B724" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C724" s="7"/>
+      <c r="D724" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E724" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F724" s="7" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B725" s="11" t="s">
+        <v>1327</v>
+      </c>
+      <c r="C725" s="11"/>
+      <c r="D725" s="11"/>
+      <c r="E725" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F725" s="11" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B726" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C726" s="7"/>
+      <c r="D726" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E726" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F726" s="7" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B727" s="11" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C727" s="11"/>
+      <c r="D727" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="E727" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F727" s="11" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B728" s="19" t="s">
+        <v>1332</v>
+      </c>
+      <c r="C728" s="7"/>
+      <c r="D728" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E728" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F728" s="7" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B729" s="11" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C729" s="11"/>
+      <c r="D729" s="11" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E729" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F729" s="11"/>
+    </row>
+    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B730" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C730" s="7"/>
+      <c r="D730" s="7"/>
+      <c r="E730" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F730" s="7" t="s">
+        <v>1338</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E1:E657 E709:E1048576 G655:G1048576 G1:G653 E702 E668:E678">
+  <conditionalFormatting sqref="E1:E657 E731:E1048576 G1:G1048576 E702 E668:E678 E715:E721 E709:E710">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23312,7 +23792,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C655 C657 C1:C653 C702:C1048576 C668:C692">
+  <conditionalFormatting sqref="C655 C657 C1:C653 C731:C1048576 C670:C692 C702:C721 C668">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -23358,7 +23838,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G654 G656 G658">
+  <conditionalFormatting sqref="G658">
     <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23369,7 +23849,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E693:E701">
+  <conditionalFormatting sqref="E694:E700">
     <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23476,8 +23956,134 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E722:E730">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C722:C730">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E693:E694">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E699:E700">
+    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E695:E697">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E698">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E701">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E711">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E712">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E713">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E714">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C669">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K692 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C701" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K692 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C701 C722:C730" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -23584,6 +24190,16 @@
     <hyperlink ref="D654" r:id="rId99" display="http://dentoforum.pl/index.php"/>
     <hyperlink ref="D655" r:id="rId100" display="http://di.com.pl"/>
     <hyperlink ref="D657" r:id="rId101" display="https://db2010.pl"/>
+    <hyperlink ref="D658" r:id="rId102" display="http://galeriafirm.eu/galeriafirm/"/>
+    <hyperlink ref="D659" r:id="rId103" display="https://gazeo.pl"/>
+    <hyperlink ref="D661" r:id="rId104" display="https://gazeta-mlawska.pl"/>
+    <hyperlink ref="D664" r:id="rId105" display="http://gazetakartuska.pl"/>
+    <hyperlink ref="D665" r:id="rId106" display="http://www.gazeta-wiesci.pl"/>
+    <hyperlink ref="D682" r:id="rId107" display="https://hdtvpolska.com"/>
+    <hyperlink ref="D693" r:id="rId108" display="http://galeria-tajlandia.pl"/>
+    <hyperlink ref="D706" r:id="rId109" display="http://goniecpolski.nl"/>
+    <hyperlink ref="D709" r:id="rId110" display="http://gotujzmaka.blogspot.com"/>
+    <hyperlink ref="D711" r:id="rId111" display="https://gorlice24.pl/pl/#"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -23593,7 +24209,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId102"/>
+    <tablePart r:id="rId112"/>
   </tableParts>
 </worksheet>
 </file>
@@ -23616,1362 +24232,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>1274</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1275</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1276</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1277</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>1279</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>1280</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>1281</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>1282</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>1283</v>
+        <v>1348</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>1284</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>1285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>1286</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>1287</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>1288</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>1289</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>1278</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>1290</v>
+        <v>1355</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>1291</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>1292</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>1293</v>
+        <v>1358</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>1294</v>
+        <v>1359</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1295</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>1296</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>1297</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>1298</v>
+        <v>1363</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>1299</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>1300</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>1301</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>1302</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>1303</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>1304</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>1305</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>1306</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>1307</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>1308</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>1309</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>1310</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>1311</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>1312</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>1313</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>1314</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>1315</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>1316</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>1317</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>1318</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>1319</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>1320</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>1321</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>1322</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>1323</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>1324</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>1325</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>1326</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>1327</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>1328</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>1329</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>1330</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>1331</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>1332</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>1333</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>1334</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>1335</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>1336</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>1337</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>1338</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>1339</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>1340</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>1341</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>1342</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>1343</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>1344</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>1345</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>1346</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>1347</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>1348</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="s">
-        <v>1349</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>1350</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>1351</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="s">
-        <v>1352</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>1353</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="s">
-        <v>1354</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>1355</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
-        <v>1356</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>1357</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="s">
-        <v>1358</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>1359</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>1360</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="s">
-        <v>1361</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="s">
-        <v>1280</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>1362</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>1363</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="s">
-        <v>1364</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="s">
-        <v>1287</v>
+        <v>1352</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="s">
-        <v>1365</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="s">
-        <v>1366</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>1367</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="s">
-        <v>1368</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>1369</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>1370</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="s">
-        <v>1371</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="s">
-        <v>1372</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>1373</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>1374</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="s">
-        <v>1375</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>1376</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>1377</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>1378</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>1379</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>1380</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>1381</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="s">
-        <v>1382</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="21" t="s">
-        <v>1383</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="s">
-        <v>1384</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>1385</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>1386</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="s">
-        <v>1387</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>1388</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="s">
-        <v>1389</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>1390</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>1391</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="s">
-        <v>1392</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>1393</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="s">
-        <v>1394</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="s">
-        <v>1395</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>1396</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>1397</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>1398</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="s">
-        <v>1399</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="s">
-        <v>1400</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
-        <v>1401</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="21" t="s">
-        <v>1402</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="s">
-        <v>1403</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="s">
-        <v>1404</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="s">
-        <v>1405</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="s">
-        <v>1406</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="s">
-        <v>1407</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
-        <v>1408</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>1409</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>1410</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="s">
-        <v>1411</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="s">
-        <v>1412</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
-        <v>1413</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
-        <v>1414</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="s">
-        <v>1415</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>1416</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="21" t="s">
-        <v>1417</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="21" t="s">
-        <v>1418</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="21" t="s">
-        <v>1419</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="21" t="s">
-        <v>1420</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>1421</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="21" t="s">
-        <v>1422</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="21" t="s">
-        <v>1423</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="21" t="s">
-        <v>1424</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="21" t="s">
-        <v>1425</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="21" t="s">
-        <v>1426</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="21" t="s">
-        <v>1427</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
-        <v>1428</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
-        <v>1429</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="21" t="s">
-        <v>1430</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="21" t="s">
-        <v>1431</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="21" t="s">
-        <v>1432</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>1433</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="21" t="s">
-        <v>1434</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
-        <v>1435</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="21" t="s">
-        <v>1436</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="21" t="s">
-        <v>1437</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="21" t="s">
-        <v>1438</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="21" t="s">
-        <v>1439</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="21" t="s">
-        <v>1440</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="21" t="s">
-        <v>1441</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="21" t="s">
-        <v>1442</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="21" t="s">
-        <v>1443</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="21" t="s">
-        <v>1444</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>1445</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="21" t="s">
-        <v>1446</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="21" t="s">
-        <v>1447</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="21" t="s">
-        <v>1448</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="21" t="s">
-        <v>1449</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>1450</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>1451</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>1452</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>1453</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>1454</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>1455</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>1456</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>1457</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
-        <v>1458</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="21" t="s">
-        <v>1459</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="21" t="s">
-        <v>1460</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="21" t="s">
-        <v>1461</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="21" t="s">
-        <v>1462</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="21" t="s">
-        <v>1463</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>1464</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>1465</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>1466</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>1467</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>1275</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>1468</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>1469</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>1470</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>1471</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>1472</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>1473</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>1474</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="21" t="s">
-        <v>1475</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="21" t="s">
-        <v>1476</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="21" t="s">
-        <v>1477</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="21" t="s">
-        <v>1478</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="21" t="s">
-        <v>1479</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>1480</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>1481</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>1482</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>1483</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="21" t="s">
-        <v>1484</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="21" t="s">
-        <v>1485</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>1486</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="21" t="s">
-        <v>1487</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="21" t="s">
-        <v>1488</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="21" t="s">
-        <v>1489</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>1490</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>1491</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>1492</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>1493</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>1494</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>1495</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>1496</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>1497</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>1498</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>1499</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>1500</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>1501</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="21" t="s">
-        <v>1502</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="21" t="s">
-        <v>1503</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>1504</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
-        <v>1505</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="21" t="s">
-        <v>1506</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="21" t="s">
-        <v>1507</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>1508</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>1509</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>1510</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="21" t="s">
-        <v>1511</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="21" t="s">
-        <v>1512</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
-        <v>1285</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
-        <v>1513</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="21" t="s">
-        <v>1514</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>1515</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>1516</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>1517</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>1518</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>1519</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>1520</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>1521</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>1522</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>1523</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>1524</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>1525</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>1526</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>1527</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="21" t="s">
-        <v>1528</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="21" t="s">
-        <v>1529</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="21" t="s">
-        <v>1530</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="21" t="s">
-        <v>1531</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="21" t="s">
-        <v>1532</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="21" t="s">
-        <v>1533</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="21" t="s">
-        <v>1534</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="21" t="s">
-        <v>1535</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="21" t="s">
-        <v>1536</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="21" t="s">
-        <v>1292</v>
+        <v>1357</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="21" t="s">
-        <v>1537</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>1538</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="21" t="s">
-        <v>1539</v>
+        <v>1604</v>
       </c>
     </row>
   </sheetData>
@@ -25005,160 +25621,160 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="26" t="s">
-        <v>1540</v>
+      <c r="B1" s="25" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="27" t="s">
-        <v>1541</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>1542</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>1543</v>
-      </c>
-      <c r="I2" s="30"/>
+      <c r="B2" s="26" t="s">
+        <v>1606</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I2" s="29"/>
       <c r="K2" s="21" t="s">
-        <v>1544</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="27" t="s">
-        <v>1545</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>1542</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="26" t="s">
+        <v>1610</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>1607</v>
+      </c>
+      <c r="H3" s="27"/>
+      <c r="I3" s="30"/>
+      <c r="J3" s="27"/>
       <c r="K3" s="11" t="s">
-        <v>1546</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>1547</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="28"/>
+        <v>1612</v>
+      </c>
+      <c r="C4" s="31"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="27"/>
       <c r="K4" s="11" t="s">
-        <v>1548</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="32"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="31"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="27"/>
       <c r="K5" s="7" t="s">
-        <v>1238</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="32"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="28"/>
+      <c r="C6" s="31"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="32"/>
+      <c r="J6" s="27"/>
       <c r="K6" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="22"/>
-      <c r="C7" s="32"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="28"/>
+      <c r="C7" s="31"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="27"/>
       <c r="K7" s="22" t="s">
-        <v>1549</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="11" t="s">
-        <v>1550</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="28"/>
+        <v>1615</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="27"/>
       <c r="K8" s="21" t="s">
-        <v>1551</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>1552</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="28"/>
+        <v>1617</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="27"/>
       <c r="K9" s="7" t="s">
-        <v>1553</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>1554</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="28"/>
+        <v>1619</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="27"/>
       <c r="K10" s="11" t="s">
-        <v>1555</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>1556</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="28"/>
+        <v>1621</v>
+      </c>
+      <c r="C11" s="31"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="27"/>
       <c r="K11" s="7" t="s">
-        <v>1557</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>1558</v>
+        <v>1623</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1559</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="K13" s="7" t="s">
-        <v>1560</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>1561</v>
+        <v>1626</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1562</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>1563</v>
+        <v>1628</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1564</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="11" t="s">
-        <v>1565</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25166,10 +25782,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>1566</v>
+        <v>1631</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1567</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25177,109 +25793,109 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1568</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>1569</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>1570</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>1571</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>1572</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21" t="s">
-        <v>1573</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21" t="s">
-        <v>1574</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21" t="s">
-        <v>1575</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21" t="s">
-        <v>1576</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21" t="s">
-        <v>1577</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>1578</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21" t="s">
-        <v>1579</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21" t="s">
-        <v>1580</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21" t="s">
-        <v>1581</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>1582</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>1583</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21" t="s">
-        <v>1584</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>1585</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>1586</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21" t="s">
-        <v>1587</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="21" t="s">
-        <v>1588</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25289,47 +25905,47 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="21" t="s">
-        <v>1589</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="21" t="s">
-        <v>1590</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="21" t="s">
-        <v>1591</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21" t="s">
-        <v>1592</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="21" t="s">
-        <v>1593</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="21" t="s">
-        <v>1594</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="21" t="s">
-        <v>1595</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="21" t="s">
-        <v>1596</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="21" t="s">
-        <v>1597</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25337,17 +25953,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1598</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="21" t="s">
-        <v>1599</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="21" t="s">
-        <v>1600</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25357,27 +25973,27 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>1601</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21" t="s">
-        <v>1602</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21" t="s">
-        <v>1603</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="21" t="s">
-        <v>1604</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21" t="s">
-        <v>1605</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -25423,472 +26039,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="21" t="s">
-        <v>1606</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="21" t="s">
-        <v>1607</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="21" t="s">
-        <v>1608</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="21" t="s">
-        <v>1609</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="21" t="s">
-        <v>1610</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="21" t="s">
-        <v>1611</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="21" t="s">
-        <v>1612</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="21" t="s">
-        <v>1613</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="21" t="s">
-        <v>1614</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="21" t="s">
-        <v>1615</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="21" t="s">
-        <v>1616</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21" t="s">
-        <v>1617</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21" t="s">
-        <v>1618</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="21" t="s">
-        <v>1619</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="21" t="s">
-        <v>1620</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="21" t="s">
-        <v>1621</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="21" t="s">
-        <v>1622</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="21" t="s">
-        <v>1623</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="21" t="s">
-        <v>1624</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
-        <v>1625</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="21" t="s">
-        <v>1626</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="21" t="s">
-        <v>1627</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="21" t="s">
-        <v>1628</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="21" t="s">
-        <v>1629</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="21" t="s">
-        <v>1630</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="21" t="s">
-        <v>1631</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="21" t="s">
-        <v>1632</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="21" t="s">
-        <v>1633</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="21" t="s">
-        <v>1634</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="21" t="s">
-        <v>1635</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="21" t="s">
-        <v>1636</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="21" t="s">
-        <v>1637</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="21" t="s">
-        <v>1638</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="21" t="s">
-        <v>1639</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="21" t="s">
-        <v>1640</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="21" t="s">
-        <v>1641</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="21" t="s">
-        <v>1642</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="21" t="s">
-        <v>1643</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="21" t="s">
-        <v>1644</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>1645</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="21" t="s">
-        <v>1646</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="21" t="s">
-        <v>1647</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="21" t="s">
-        <v>1648</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="21" t="s">
-        <v>1649</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="21" t="s">
-        <v>1650</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="21" t="s">
-        <v>1651</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="21" t="s">
-        <v>1652</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="21" t="s">
-        <v>1653</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="21" t="s">
-        <v>1654</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="21" t="s">
-        <v>1655</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="21" t="s">
-        <v>1656</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="21" t="s">
-        <v>1657</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="21" t="s">
-        <v>1658</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="21" t="s">
-        <v>1659</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="21" t="s">
-        <v>1660</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="21" t="s">
-        <v>1661</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="21" t="s">
-        <v>1662</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="21" t="s">
-        <v>1663</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="21" t="s">
-        <v>1664</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="21" t="s">
-        <v>1665</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="21" t="s">
-        <v>1666</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="21" t="s">
-        <v>1667</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="21" t="s">
-        <v>1668</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="21" t="s">
-        <v>1669</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="21" t="s">
-        <v>1670</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="21" t="s">
-        <v>1671</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="21" t="s">
-        <v>1672</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="21" t="s">
-        <v>1673</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="21" t="s">
-        <v>1674</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="21" t="s">
-        <v>1675</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>1676</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="21" t="s">
-        <v>1677</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="21" t="s">
-        <v>1678</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="21" t="s">
-        <v>1679</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="21" t="s">
-        <v>1680</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="21" t="s">
-        <v>1681</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="21" t="s">
-        <v>1682</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="21" t="s">
-        <v>1683</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="21" t="s">
-        <v>1684</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="21" t="s">
-        <v>1685</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="21" t="s">
-        <v>1686</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="21" t="s">
-        <v>1687</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="21" t="s">
-        <v>1688</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="21" t="s">
-        <v>1689</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="21" t="s">
-        <v>1690</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="21" t="s">
-        <v>1691</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="21" t="s">
-        <v>1692</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="21" t="s">
-        <v>1693</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="21" t="s">
-        <v>1694</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="21" t="s">
-        <v>1695</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="21" t="s">
-        <v>1696</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="21" t="s">
-        <v>1697</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="21" t="s">
-        <v>1698</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="21" t="s">
-        <v>1699</v>
+        <v>1764</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3958" uniqueCount="1765">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="1791">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3829,166 +3829,244 @@
     <t xml:space="preserve">https://gf24.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">https://ibytow.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banery foto popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gle24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glokalna.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.glosgminny.pl/przyjaciel-billa-g-prof-neil-ferguson-sparalizowal-planete-falszujac-dane-c-19/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gniewkowo.eu/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://grafmag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gsim.pl/gorzej-juz-byc-nie-moze-prawda/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gst24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwarminska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shorepixel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwio.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hdtvpolska.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sdWelcomeScreen popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hej.mielec.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hobby-elektronika.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.hodowle.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">baner </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://esopot.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://deblinnews.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-pingpong.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron w stopce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diagnozujmy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://galeria-tajlandia.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fight24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.echotygodnik.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eglos.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egorzow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://epainfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crypto-trader.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dania-dietetyczne.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.darmowetv.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gpd24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glostorunia.pl/wydruk-kalendarzy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glosrzeszowa glosgdyni rybnika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://driverm.webd.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://goniecpolski.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gotujzmaka.blogspot.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebroker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gostyn24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gorlice24.pl/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gazetasenior.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetatwojeinfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetazoliborza.pl/2020/05/warszawa-luzuje-obostrzenia-podano-daty-otwarcia-boisk-zlobkow-i-przedszkoli/</t>
+  </si>
+  <si>
     <t xml:space="preserve">http://gizycko.info.pl</t>
   </si>
   <si>
     <t xml:space="preserve">½</t>
   </si>
   <si>
-    <t xml:space="preserve">https://gle24.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">popup </t>
-  </si>
-  <si>
-    <t xml:space="preserve">WTF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.glokalna.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.glosgminny.pl/przyjaciel-billa-g-prof-neil-ferguson-sparalizowal-planete-falszujac-dane-c-19/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gniewkowo.eu/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://grafmag.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gsim.pl/gorzej-juz-byc-nie-moze-prawda/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gst24.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gwarminska.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shorepixel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gwio.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hdtvpolska.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdWelcomeScreen popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hej.mielec.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hobby-elektronika.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.hodowle.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://esopot.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://deblinnews.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-pingpong.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron w stopce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://diagnozujmy.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://galeria-tajlandia.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fight24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.echotygodnik.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eglos.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://egorzow.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://epainfo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.crypto-trader.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dania-dietetyczne.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.darmowetv.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gpd24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.glostorunia.pl/wydruk-kalendarzy/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glosrzeszowa glosgdyni rybnika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://driverm.webd.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://goniecpolski.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gotujzmaka.blogspot.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebroker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gostyn24.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gorlice24.pl/pl/#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gazetasenior.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gazetatwojeinfo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gazetazoliborza.pl/2020/05/warszawa-luzuje-obostrzenia-podano-daty-otwarcia-boisk-zlobkow-i-przedszkoli/</t>
+    <t xml:space="preserve">https://ideagrafika.pl/w-domach-z-betonu-nie-ma-wolnej-milosci-sa-wolne-umysly/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G-single a0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.info.elblag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banerkiIFRAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://infobeskidy.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infobusko.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infobrzeszcze.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Td-a-rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.infokrakow24.pl/83199/opolszczyzna-o-jaka-piekna-i-ciekawa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infokonin.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br_random_banner + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infoludek.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banneryflex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infomogilno24.pl/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iotwock.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline__1_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipoddebice.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipon.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">appAdvContainer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://irenakuczynska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.isbzdrowie.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://isel.edu.pl/forum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://itvszubin.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://izoliborz.pl</t>
   </si>
   <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
@@ -5848,10 +5926,10 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A645" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B645" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A645" activeCellId="0" sqref="A645"/>
-      <selection pane="topRight" activeCell="G649" activeCellId="0" sqref="G649"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A708" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B708" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A708" activeCellId="0" sqref="A708"/>
+      <selection pane="topRight" activeCell="B717" activeCellId="0" sqref="B717"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22943,15 +23021,11 @@
       <c r="A673" s="6"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
-      <c r="D673" s="7" t="s">
-        <v>1259</v>
-      </c>
+      <c r="D673" s="7"/>
       <c r="E673" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F673" s="7" t="s">
-        <v>1272</v>
-      </c>
+      <c r="F673" s="7"/>
       <c r="G673" s="7" t="s">
         <v>212</v>
       </c>
@@ -22967,7 +23041,7 @@
       <c r="B674" s="11"/>
       <c r="C674" s="11"/>
       <c r="D674" s="11" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="E674" s="11" t="s">
         <v>212</v>
@@ -22990,7 +23064,7 @@
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
       <c r="D675" s="7" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="E675" s="7" t="s">
         <v>212</v>
@@ -23013,7 +23087,7 @@
       <c r="B676" s="11"/>
       <c r="C676" s="11"/>
       <c r="D676" s="11" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="E676" s="11" t="s">
         <v>212</v>
@@ -23036,7 +23110,7 @@
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
       <c r="D677" s="7" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="E677" s="7" t="s">
         <v>212</v>
@@ -23059,7 +23133,7 @@
       <c r="B678" s="11"/>
       <c r="C678" s="11"/>
       <c r="D678" s="11" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="E678" s="11" t="s">
         <v>212</v>
@@ -23082,7 +23156,7 @@
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
       <c r="D679" s="11" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="E679" s="11" t="s">
         <v>212</v>
@@ -23105,13 +23179,13 @@
       <c r="B680" s="11"/>
       <c r="C680" s="11"/>
       <c r="D680" s="7" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="E680" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F680" s="7" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="G680" s="11" t="s">
         <v>212</v>
@@ -23128,7 +23202,7 @@
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
       <c r="D681" s="11" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="E681" s="11" t="s">
         <v>212</v>
@@ -23151,13 +23225,13 @@
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
       <c r="D682" s="7" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="E682" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F682" s="7" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="G682" s="11" t="s">
         <v>212</v>
@@ -23174,7 +23248,7 @@
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
       <c r="D683" s="11" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="E683" s="7" t="s">
         <v>212</v>
@@ -23197,7 +23271,7 @@
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
       <c r="D684" s="0" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="E684" s="11" t="s">
         <v>212</v>
@@ -23220,13 +23294,13 @@
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
       <c r="D685" s="0" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="E685" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F685" s="7" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="G685" s="7" t="s">
         <v>212</v>
@@ -23243,7 +23317,7 @@
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
       <c r="D686" s="7" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="E686" s="7" t="s">
         <v>212</v>
@@ -23266,7 +23340,7 @@
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
       <c r="D687" s="0" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="E687" s="7" t="s">
         <v>212</v>
@@ -23289,7 +23363,7 @@
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="E688" s="11" t="s">
         <v>212</v>
@@ -23312,13 +23386,13 @@
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
       <c r="D689" s="11" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="E689" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F689" s="11" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="G689" s="7" t="s">
         <v>212</v>
@@ -23335,7 +23409,7 @@
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
       <c r="D690" s="0" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="E690" s="11" t="s">
         <v>212</v>
@@ -23358,7 +23432,7 @@
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
       <c r="D691" s="7" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="E691" s="7" t="s">
         <v>212</v>
@@ -23381,13 +23455,13 @@
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="E692" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F692" s="11" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="G692" s="11" t="s">
         <v>212</v>
@@ -23403,7 +23477,7 @@
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
       <c r="D693" s="7" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="E693" s="7" t="s">
         <v>212</v>
@@ -23416,7 +23490,7 @@
       <c r="B694" s="11"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="E694" s="11" t="s">
         <v>212</v>
@@ -23429,7 +23503,7 @@
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
       <c r="D695" s="11" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="E695" s="11" t="s">
         <v>212</v>
@@ -23442,7 +23516,7 @@
       <c r="B696" s="11"/>
       <c r="C696" s="11"/>
       <c r="D696" s="7" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="E696" s="7" t="s">
         <v>212</v>
@@ -23455,7 +23529,7 @@
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
       <c r="D697" s="11" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="E697" s="11" t="s">
         <v>212</v>
@@ -23468,7 +23542,7 @@
       <c r="B698" s="11"/>
       <c r="C698" s="11"/>
       <c r="D698" s="7" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="E698" s="7" t="s">
         <v>212</v>
@@ -23481,7 +23555,7 @@
       <c r="B699" s="19"/>
       <c r="C699" s="7"/>
       <c r="D699" s="11" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="E699" s="7" t="s">
         <v>212</v>
@@ -23494,7 +23568,7 @@
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
       <c r="D700" s="0" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="E700" s="11" t="s">
         <v>212</v>
@@ -23507,7 +23581,7 @@
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
       <c r="D701" s="0" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="E701" s="7" t="s">
         <v>212</v>
@@ -23518,15 +23592,15 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D702" s="2" t="s">
+        <v>1305</v>
+      </c>
+      <c r="F702" s="2" t="s">
         <v>1306</v>
-      </c>
-      <c r="F702" s="2" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D703" s="0" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="E703" s="7" t="s">
         <v>212</v>
@@ -23537,18 +23611,18 @@
     </row>
     <row r="704" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D704" s="11" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="E704" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F704" s="11" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D705" s="7" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="E705" s="7" t="s">
         <v>212</v>
@@ -23559,7 +23633,7 @@
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D706" s="11" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="E706" s="11" t="s">
         <v>212</v>
@@ -23570,7 +23644,7 @@
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D707" s="7" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="E707" s="7" t="s">
         <v>212</v>
@@ -23581,7 +23655,7 @@
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D708" s="11" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="E708" s="11" t="s">
         <v>212</v>
@@ -23592,15 +23666,15 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D709" s="2" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F709" s="2" t="s">
         <v>1315</v>
-      </c>
-      <c r="F709" s="2" t="s">
-        <v>1316</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D710" s="2" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="F710" s="2" t="s">
         <v>1271</v>
@@ -23608,7 +23682,7 @@
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D711" s="7" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="E711" s="7" t="s">
         <v>212</v>
@@ -23619,7 +23693,7 @@
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D712" s="11" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="E712" s="11" t="s">
         <v>212</v>
@@ -23630,7 +23704,7 @@
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D713" s="7" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="E713" s="7" t="s">
         <v>212</v>
@@ -23641,7 +23715,7 @@
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D714" s="7" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="E714" s="7" t="s">
         <v>212</v>
@@ -23650,138 +23724,312 @@
         <v>2</v>
       </c>
     </row>
-    <row r="722" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B722" s="7" t="s">
+    <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D715" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="E715" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F715" s="7" t="s">
         <v>1322</v>
       </c>
-      <c r="C722" s="7"/>
-      <c r="D722" s="7" t="s">
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D716" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="E722" s="7" t="s">
+      <c r="F716" s="2" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D717" s="2" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F717" s="2" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D718" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F718" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D719" s="2" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F719" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D720" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F720" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D721" s="2" t="s">
+        <v>1332</v>
+      </c>
+      <c r="F721" s="2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B722" s="0"/>
+      <c r="C722" s="0"/>
+      <c r="D722" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="E722" s="0"/>
+      <c r="F722" s="0" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B723" s="0"/>
+      <c r="C723" s="0"/>
+      <c r="D723" s="0" t="s">
+        <v>1335</v>
+      </c>
+      <c r="E723" s="0"/>
+      <c r="F723" s="0" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B724" s="0"/>
+      <c r="C724" s="0"/>
+      <c r="D724" s="0" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E724" s="0"/>
+      <c r="F724" s="0" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B725" s="0"/>
+      <c r="C725" s="0"/>
+      <c r="D725" s="0" t="s">
+        <v>1338</v>
+      </c>
+      <c r="E725" s="0"/>
+      <c r="F725" s="0" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B726" s="0"/>
+      <c r="C726" s="0"/>
+      <c r="D726" s="0" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E726" s="0"/>
+      <c r="F726" s="0" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B727" s="0"/>
+      <c r="C727" s="0"/>
+      <c r="D727" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="E727" s="0"/>
+      <c r="F727" s="0" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B728" s="0"/>
+      <c r="C728" s="0"/>
+      <c r="D728" s="0" t="s">
+        <v>1343</v>
+      </c>
+      <c r="E728" s="0"/>
+      <c r="F728" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B729" s="0"/>
+      <c r="C729" s="0"/>
+      <c r="D729" s="0" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E729" s="0"/>
+      <c r="F729" s="0" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B730" s="0"/>
+      <c r="C730" s="0"/>
+      <c r="D730" s="0" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E730" s="0"/>
+      <c r="F730" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D731" s="2" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F731" s="2" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D732" s="2" t="s">
+        <v>1347</v>
+      </c>
+      <c r="F732" s="2" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B742" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C742" s="7"/>
+      <c r="D742" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E742" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F722" s="7" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="723" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B723" s="11" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C723" s="11"/>
-      <c r="D723" s="11" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E723" s="11" t="s">
+      <c r="F742" s="7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B743" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C743" s="11"/>
+      <c r="D743" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E743" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F723" s="11" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="724" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B724" s="7" t="s">
-        <v>1326</v>
-      </c>
-      <c r="C724" s="7"/>
-      <c r="D724" s="7" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E724" s="7" t="s">
+      <c r="F743" s="11" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B744" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C744" s="7"/>
+      <c r="D744" s="7" t="s">
+        <v>1350</v>
+      </c>
+      <c r="E744" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F724" s="7" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="725" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B725" s="11" t="s">
-        <v>1327</v>
-      </c>
-      <c r="C725" s="11"/>
-      <c r="D725" s="11"/>
-      <c r="E725" s="11" t="s">
+      <c r="F744" s="7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B745" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C745" s="11"/>
+      <c r="D745" s="11"/>
+      <c r="E745" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F725" s="11" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="726" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B726" s="7" t="s">
-        <v>1328</v>
-      </c>
-      <c r="C726" s="7"/>
-      <c r="D726" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E726" s="7" t="s">
+      <c r="F745" s="11" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B746" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C746" s="7"/>
+      <c r="D746" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E746" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F726" s="7" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="727" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B727" s="11" t="s">
-        <v>1330</v>
-      </c>
-      <c r="C727" s="11"/>
-      <c r="D727" s="11" t="s">
-        <v>1331</v>
-      </c>
-      <c r="E727" s="11" t="s">
+      <c r="F746" s="7" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C747" s="11"/>
+      <c r="D747" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E747" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F727" s="11" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="728" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B728" s="19" t="s">
-        <v>1332</v>
-      </c>
-      <c r="C728" s="7"/>
-      <c r="D728" s="7" t="s">
-        <v>1333</v>
-      </c>
-      <c r="E728" s="7" t="s">
+      <c r="F747" s="11" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B748" s="19" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C748" s="7"/>
+      <c r="D748" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E748" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F728" s="7" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="729" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B729" s="11" t="s">
-        <v>1335</v>
-      </c>
-      <c r="C729" s="11"/>
-      <c r="D729" s="11" t="s">
-        <v>1336</v>
-      </c>
-      <c r="E729" s="11" t="s">
+      <c r="F748" s="7" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B749" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C749" s="11"/>
+      <c r="D749" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E749" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F729" s="11"/>
-    </row>
-    <row r="730" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B730" s="7" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C730" s="7"/>
-      <c r="D730" s="7"/>
-      <c r="E730" s="7" t="s">
+      <c r="F749" s="11"/>
+    </row>
+    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C750" s="7"/>
+      <c r="D750" s="7"/>
+      <c r="E750" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F730" s="7" t="s">
-        <v>1338</v>
+      <c r="F750" s="7" t="s">
+        <v>1364</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E1:E657 E731:E1048576 G1:G1048576 E702 E668:E678 E715:E721 E709:E710">
+  <conditionalFormatting sqref="E1:E657 E751:E1048576 G1:G1048576 E702 E668:E678 E716:E721 E709:E710 E731:E741">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23792,7 +24040,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C655 C657 C1:C653 C731:C1048576 C670:C692 C702:C721 C668">
+  <conditionalFormatting sqref="C655 C657 C1:C653 C751:C1048576 C670:C692 C702:C721 C668 C731:C741">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -23956,7 +24204,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E722:E730">
+  <conditionalFormatting sqref="E693:E694">
     <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -23967,103 +24215,103 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C722:C730">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"HIDE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"BLOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E693:E694">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E699:E700">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E699:E700">
-    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E695:E697">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E698">
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E701">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E711">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E712">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E713">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E714">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C669">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E715">
     <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24074,16 +24322,27 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C669">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="E742:E750">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C742:C750">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K692 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C701 C722:C730" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K692 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C701 C742:C750" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -24232,1362 +24491,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>1339</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1340</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1341</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1342</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>1344</v>
+        <v>1370</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>1345</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>1346</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>1347</v>
+        <v>1373</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>1348</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>1349</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>1350</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>1351</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>1352</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>1353</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>1354</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>1343</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>1355</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>1356</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>1357</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>1358</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>1359</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1360</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>1361</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>1362</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>1363</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>1364</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>1365</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>1366</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>1367</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>1368</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>1369</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>1370</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>1371</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>1372</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>1373</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>1374</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>1375</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>1376</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>1377</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>1378</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>1379</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>1380</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>1381</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>1382</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>1383</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>1384</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>1385</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>1386</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>1387</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>1388</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>1389</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>1390</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>1391</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>1392</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>1393</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>1394</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>1395</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>1396</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>1397</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>1398</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>1399</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>1400</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>1401</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>1402</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>1403</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>1404</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>1405</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>1406</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>1407</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>1408</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>1409</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>1410</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>1411</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>1412</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>1413</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="s">
-        <v>1414</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>1415</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>1416</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="s">
-        <v>1417</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>1418</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="s">
-        <v>1419</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>1420</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
-        <v>1421</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>1422</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="s">
-        <v>1423</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>1424</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>1425</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="s">
-        <v>1426</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="s">
-        <v>1345</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>1427</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>1428</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="s">
-        <v>1429</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="s">
-        <v>1352</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="s">
-        <v>1430</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="s">
-        <v>1431</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>1432</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="s">
-        <v>1433</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>1434</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>1435</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="s">
-        <v>1436</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="s">
-        <v>1437</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>1438</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>1439</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="s">
-        <v>1440</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>1441</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>1442</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>1443</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>1444</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>1445</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>1446</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="s">
-        <v>1447</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="21" t="s">
-        <v>1448</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="s">
-        <v>1449</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>1450</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>1451</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="s">
-        <v>1452</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>1453</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="s">
-        <v>1454</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>1455</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>1456</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="s">
-        <v>1457</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>1458</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="s">
-        <v>1459</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="s">
-        <v>1460</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>1461</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>1462</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>1463</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="s">
-        <v>1464</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="s">
-        <v>1465</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
-        <v>1466</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="21" t="s">
-        <v>1467</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="s">
-        <v>1468</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="s">
-        <v>1469</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="s">
-        <v>1470</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="s">
-        <v>1471</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="s">
-        <v>1472</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
-        <v>1473</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>1474</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>1475</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="s">
-        <v>1476</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="s">
-        <v>1477</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
-        <v>1478</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
-        <v>1479</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="s">
-        <v>1480</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>1481</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="21" t="s">
-        <v>1482</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="21" t="s">
-        <v>1483</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="21" t="s">
-        <v>1484</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="21" t="s">
-        <v>1485</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>1486</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="21" t="s">
-        <v>1487</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="21" t="s">
-        <v>1488</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="21" t="s">
-        <v>1489</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="21" t="s">
-        <v>1490</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="21" t="s">
-        <v>1491</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="21" t="s">
-        <v>1492</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
-        <v>1493</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
-        <v>1494</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="21" t="s">
-        <v>1495</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="21" t="s">
-        <v>1496</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="21" t="s">
-        <v>1497</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>1498</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="21" t="s">
-        <v>1499</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
-        <v>1500</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="21" t="s">
-        <v>1501</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="21" t="s">
-        <v>1502</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="21" t="s">
-        <v>1503</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="21" t="s">
-        <v>1504</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="21" t="s">
-        <v>1505</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="21" t="s">
-        <v>1506</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="21" t="s">
-        <v>1507</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="21" t="s">
-        <v>1508</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="21" t="s">
-        <v>1509</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>1510</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="21" t="s">
-        <v>1511</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="21" t="s">
-        <v>1512</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="21" t="s">
-        <v>1513</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="21" t="s">
-        <v>1514</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>1515</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>1516</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>1517</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>1518</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>1519</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>1520</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>1521</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>1522</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
-        <v>1523</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="21" t="s">
-        <v>1524</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="21" t="s">
-        <v>1525</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="21" t="s">
-        <v>1526</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="21" t="s">
-        <v>1527</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="21" t="s">
-        <v>1528</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>1529</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>1530</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>1531</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>1532</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>1340</v>
+        <v>1366</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>1533</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>1534</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>1535</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>1536</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>1537</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>1538</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>1539</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="21" t="s">
-        <v>1540</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="21" t="s">
-        <v>1541</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="21" t="s">
-        <v>1542</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="21" t="s">
-        <v>1543</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="21" t="s">
-        <v>1544</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>1545</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>1546</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>1547</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>1548</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="21" t="s">
-        <v>1549</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="21" t="s">
-        <v>1550</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>1551</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="21" t="s">
-        <v>1552</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="21" t="s">
-        <v>1553</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="21" t="s">
-        <v>1554</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>1555</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>1556</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>1557</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>1558</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>1559</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>1560</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>1561</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>1562</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>1563</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>1564</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>1565</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>1566</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="21" t="s">
-        <v>1567</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="21" t="s">
-        <v>1568</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>1569</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
-        <v>1570</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="21" t="s">
-        <v>1571</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="21" t="s">
-        <v>1572</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>1573</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>1574</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>1575</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="21" t="s">
-        <v>1576</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="21" t="s">
-        <v>1577</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
-        <v>1350</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
-        <v>1578</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="21" t="s">
-        <v>1579</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>1580</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>1581</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>1582</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>1583</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>1584</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>1585</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>1586</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>1587</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>1588</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>1589</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>1590</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>1591</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>1592</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="21" t="s">
-        <v>1593</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="21" t="s">
-        <v>1594</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="21" t="s">
-        <v>1595</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="21" t="s">
-        <v>1596</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="21" t="s">
-        <v>1597</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="21" t="s">
-        <v>1598</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="21" t="s">
-        <v>1599</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="21" t="s">
-        <v>1600</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="21" t="s">
-        <v>1601</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="21" t="s">
-        <v>1357</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="21" t="s">
-        <v>1602</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>1603</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="21" t="s">
-        <v>1604</v>
+        <v>1630</v>
       </c>
     </row>
   </sheetData>
@@ -25622,48 +25881,48 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="25" t="s">
-        <v>1605</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="26" t="s">
-        <v>1606</v>
+        <v>1632</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>1607</v>
+        <v>1633</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>1608</v>
+        <v>1634</v>
       </c>
       <c r="I2" s="29"/>
       <c r="K2" s="21" t="s">
-        <v>1609</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="26" t="s">
-        <v>1610</v>
+        <v>1636</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>1607</v>
+        <v>1633</v>
       </c>
       <c r="H3" s="27"/>
       <c r="I3" s="30"/>
       <c r="J3" s="27"/>
       <c r="K3" s="11" t="s">
-        <v>1611</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>1612</v>
+        <v>1638</v>
       </c>
       <c r="C4" s="31"/>
       <c r="H4" s="27"/>
       <c r="I4" s="30"/>
       <c r="J4" s="27"/>
       <c r="K4" s="11" t="s">
-        <v>1613</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25672,7 +25931,7 @@
       <c r="I5" s="30"/>
       <c r="J5" s="27"/>
       <c r="K5" s="7" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25691,90 +25950,90 @@
       <c r="I7" s="30"/>
       <c r="J7" s="27"/>
       <c r="K7" s="22" t="s">
-        <v>1614</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="11" t="s">
-        <v>1615</v>
+        <v>1641</v>
       </c>
       <c r="C8" s="31"/>
       <c r="H8" s="27"/>
       <c r="I8" s="30"/>
       <c r="J8" s="27"/>
       <c r="K8" s="21" t="s">
-        <v>1616</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>1617</v>
+        <v>1643</v>
       </c>
       <c r="C9" s="31"/>
       <c r="H9" s="27"/>
       <c r="I9" s="30"/>
       <c r="J9" s="27"/>
       <c r="K9" s="7" t="s">
-        <v>1618</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>1619</v>
+        <v>1645</v>
       </c>
       <c r="C10" s="31"/>
       <c r="H10" s="27"/>
       <c r="I10" s="30"/>
       <c r="J10" s="27"/>
       <c r="K10" s="11" t="s">
-        <v>1620</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>1621</v>
+        <v>1647</v>
       </c>
       <c r="C11" s="31"/>
       <c r="H11" s="27"/>
       <c r="I11" s="30"/>
       <c r="J11" s="27"/>
       <c r="K11" s="7" t="s">
-        <v>1622</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>1623</v>
+        <v>1649</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1624</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="K13" s="7" t="s">
-        <v>1625</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>1626</v>
+        <v>1652</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1627</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>1628</v>
+        <v>1654</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1629</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="11" t="s">
-        <v>1630</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25782,10 +26041,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>1631</v>
+        <v>1657</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1632</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25793,109 +26052,109 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1633</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>1634</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>1635</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>1636</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>1637</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21" t="s">
-        <v>1638</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21" t="s">
-        <v>1639</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21" t="s">
-        <v>1640</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21" t="s">
-        <v>1641</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21" t="s">
-        <v>1642</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>1643</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21" t="s">
-        <v>1644</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21" t="s">
-        <v>1645</v>
+        <v>1671</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21" t="s">
-        <v>1646</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>1647</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>1648</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21" t="s">
-        <v>1649</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>1650</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>1651</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21" t="s">
-        <v>1652</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="21" t="s">
-        <v>1653</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25905,47 +26164,47 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="21" t="s">
-        <v>1654</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="21" t="s">
-        <v>1655</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="21" t="s">
-        <v>1656</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21" t="s">
-        <v>1657</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="21" t="s">
-        <v>1658</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="21" t="s">
-        <v>1659</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="21" t="s">
-        <v>1660</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="21" t="s">
-        <v>1661</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="21" t="s">
-        <v>1662</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25953,17 +26212,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1663</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="21" t="s">
-        <v>1664</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="21" t="s">
-        <v>1665</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -25973,27 +26232,27 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>1666</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21" t="s">
-        <v>1667</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21" t="s">
-        <v>1668</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="21" t="s">
-        <v>1669</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21" t="s">
-        <v>1670</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -26039,472 +26298,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="21" t="s">
-        <v>1671</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="21" t="s">
-        <v>1672</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="21" t="s">
-        <v>1673</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="21" t="s">
-        <v>1674</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="21" t="s">
-        <v>1675</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="21" t="s">
-        <v>1676</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="21" t="s">
-        <v>1677</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="21" t="s">
-        <v>1678</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="21" t="s">
-        <v>1679</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="21" t="s">
-        <v>1680</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="21" t="s">
-        <v>1681</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21" t="s">
-        <v>1682</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21" t="s">
-        <v>1683</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="21" t="s">
-        <v>1684</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="21" t="s">
-        <v>1685</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="21" t="s">
-        <v>1686</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="21" t="s">
-        <v>1687</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="21" t="s">
-        <v>1688</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="21" t="s">
-        <v>1689</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
-        <v>1690</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="21" t="s">
-        <v>1691</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="21" t="s">
-        <v>1692</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="21" t="s">
-        <v>1693</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="21" t="s">
-        <v>1694</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="21" t="s">
-        <v>1695</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="21" t="s">
-        <v>1696</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="21" t="s">
-        <v>1697</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="21" t="s">
-        <v>1698</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="21" t="s">
-        <v>1699</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="21" t="s">
-        <v>1700</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="21" t="s">
-        <v>1701</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="21" t="s">
-        <v>1702</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="21" t="s">
-        <v>1703</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="21" t="s">
-        <v>1704</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="21" t="s">
-        <v>1705</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="21" t="s">
-        <v>1706</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="21" t="s">
-        <v>1707</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="21" t="s">
-        <v>1708</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="21" t="s">
-        <v>1709</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>1710</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="21" t="s">
-        <v>1711</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="21" t="s">
-        <v>1712</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="21" t="s">
-        <v>1713</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="21" t="s">
-        <v>1714</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="21" t="s">
-        <v>1715</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="21" t="s">
-        <v>1716</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="21" t="s">
-        <v>1717</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="21" t="s">
-        <v>1718</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="21" t="s">
-        <v>1719</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="21" t="s">
-        <v>1720</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="21" t="s">
-        <v>1721</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="21" t="s">
-        <v>1722</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="21" t="s">
-        <v>1723</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="21" t="s">
-        <v>1724</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="21" t="s">
-        <v>1725</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="21" t="s">
-        <v>1726</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="21" t="s">
-        <v>1727</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="21" t="s">
-        <v>1728</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="21" t="s">
-        <v>1729</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="21" t="s">
-        <v>1730</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="21" t="s">
-        <v>1731</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="21" t="s">
-        <v>1732</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="21" t="s">
-        <v>1733</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="21" t="s">
-        <v>1734</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="21" t="s">
-        <v>1735</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="21" t="s">
-        <v>1736</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="21" t="s">
-        <v>1737</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="21" t="s">
-        <v>1738</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="21" t="s">
-        <v>1739</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="21" t="s">
-        <v>1740</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>1741</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="21" t="s">
-        <v>1742</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="21" t="s">
-        <v>1743</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="21" t="s">
-        <v>1744</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="21" t="s">
-        <v>1745</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="21" t="s">
-        <v>1746</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="21" t="s">
-        <v>1747</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="21" t="s">
-        <v>1748</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="21" t="s">
-        <v>1749</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="21" t="s">
-        <v>1750</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="21" t="s">
-        <v>1751</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="21" t="s">
-        <v>1752</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="21" t="s">
-        <v>1753</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="21" t="s">
-        <v>1754</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="21" t="s">
-        <v>1755</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="21" t="s">
-        <v>1756</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="21" t="s">
-        <v>1757</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="21" t="s">
-        <v>1758</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="21" t="s">
-        <v>1759</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="21" t="s">
-        <v>1760</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="21" t="s">
-        <v>1761</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="21" t="s">
-        <v>1762</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="21" t="s">
-        <v>1763</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="21" t="s">
-        <v>1764</v>
+        <v>1790</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3989" uniqueCount="1791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="1805">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3829,6 +3829,276 @@
     <t xml:space="preserve">https://gf24.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">374</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infobrzeszcze.pl##.td-a-rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infobrzeszcze.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infoludek.pl##.banneryflex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infoludek.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">376</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ideagrafika.pl##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ideagrafika.pl/w-domach-z-betonu-nie-ma-wolnej-milosci-sa-wolne-umysly/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">377</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glokalna.pl##.sgpb-popup-overlay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glokalna.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glokalna.pl###sgpb-popup-dialog-main-div-wrapper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">378</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lato Medium"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">speedtest.pl###</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Lato Medium"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">playClick</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.speedtest.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">379</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isbzdrowie.pl##.banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.isbzdrowie.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">380</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^baner^$domain=ipon.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.ipon.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">381</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||info.elblag.pl^*^tla/*.jpg?v=1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.info.elblag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banerkiJPG^$domain=info.elblag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^banerkiIFRAME^$domain=info.elblag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hdtvpolska.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://hej.mielec.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://hobby-elektronika.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://esopot.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://deblinnews.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-pingpong.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron w stopce</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://diagnozujmy.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lista stron</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://galeria-tajlandia.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.fight24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.echotygodnik.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://eglos.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://egorzow.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://epainfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.crypto-trader.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dania-dietetyczne.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.darmowetv.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gpd24.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ads</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glostorunia.pl/wydruk-kalendarzy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">glosrzeszowa glosgdyni rybnika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://driverm.webd.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://goniecpolski.nl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gotujzmaka.blogspot.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ebroker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gostyn24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gorlice24.pl/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.gazetasenior.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetatwojeinfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetazoliborza.pl/2020/05/warszawa-luzuje-obostrzenia-podano-daty-otwarcia-boisk-zlobkow-i-przedszkoli/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gizycko.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">½</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banerkiIFRAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://infobeskidy.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infobusko.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.glosgminny.pl/przyjaciel-billa-g-prof-neil-ferguson-sparalizowal-planete-falszujac-dane-c-19/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.infokrakow24.pl/83199/opolszczyzna-o-jaka-piekna-i-ciekawa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infokonin.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">br_random_banner + 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elektroda.pl/rtvforum/topic3623695.html#18226797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infomogilno24.pl/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iotwock.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline__1_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipoddebice.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://irenakuczynska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://isel.edu.pl/forum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://itvszubin.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://izoliborz.pl</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://ibytow.pl/pl/</t>
   </si>
   <si>
@@ -3838,15 +4108,6 @@
     <t xml:space="preserve">https://gle24.pl/pl/</t>
   </si>
   <si>
-    <t xml:space="preserve">popup </t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.glokalna.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.glosgminny.pl/przyjaciel-billa-g-prof-neil-ferguson-sparalizowal-planete-falszujac-dane-c-19/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://gniewkowo.eu/pl/</t>
   </si>
   <si>
@@ -3866,207 +4127,6 @@
   </si>
   <si>
     <t xml:space="preserve">https://gwio.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hdtvpolska.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sdWelcomeScreen popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://hej.mielec.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://hobby-elektronika.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.hodowle.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">baner </t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://esopot.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://deblinnews.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-pingpong.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://estradaistudio.pl/mieszanka/31601-0-ctrl-czyli-mlodszy-brat-0-coast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron w stopce</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://diagnozujmy.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ejarocin.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ekino.pw/articles/lista-stron-ktore-okradaja/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lista stron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://galeria-tajlandia.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.fight24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.echotygodnik.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://eglos.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://egorzow.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://epainfo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.crypto-trader.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.dania-dietetyczne.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.darmowetv.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gpd24.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ads</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dojrzalakobieta.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.glostorunia.pl/wydruk-kalendarzy/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">glosrzeszowa glosgdyni rybnika</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://driverm.webd.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://goniecpolski.nl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://e-chelmno.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gotujzmaka.blogspot.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebroker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gostyn24.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gorlice24.pl/pl/#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.gazetasenior.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gazetatwojeinfo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gazetazoliborza.pl/2020/05/warszawa-luzuje-obostrzenia-podano-daty-otwarcia-boisk-zlobkow-i-przedszkoli/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gizycko.info.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">½</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ideagrafika.pl/w-domach-z-betonu-nie-ma-wolnej-milosci-sa-wolne-umysly/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">G-single a0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.info.elblag.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banerkiIFRAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://infobeskidy.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 sad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infobusko.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infobrzeszcze.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Td-a-rec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.infokrakow24.pl/83199/opolszczyzna-o-jaka-piekna-i-ciekawa/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infokonin.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">br_random_banner + 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infoludek.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banneryflex</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infomogilno24.pl/pl/#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iotwock.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inline__1_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ipoddebice.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.ipon.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">appAdvContainer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://irenakuczynska.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.isbzdrowie.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://isel.edu.pl/forum/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://itvszubin.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://izoliborz.pl</t>
   </si>
   <si>
     <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
@@ -5425,7 +5485,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5515,6 +5575,18 @@
       <name val="Lato Medium"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Lato Medium"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -5644,7 +5716,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5745,7 +5817,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5757,7 +5833,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5769,7 +5845,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5926,10 +6002,10 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A708" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B708" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A708" activeCellId="0" sqref="A708"/>
-      <selection pane="topRight" activeCell="B717" activeCellId="0" sqref="B717"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A651" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B651" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A651" activeCellId="0" sqref="A651"/>
+      <selection pane="topRight" activeCell="A683" activeCellId="0" sqref="A682:A683"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22646,7 +22722,7 @@
         <v>1237</v>
       </c>
       <c r="E658" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F658" s="11"/>
       <c r="G658" s="11" t="s">
@@ -22672,8 +22748,8 @@
       <c r="D659" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="E659" s="7" t="s">
-        <v>212</v>
+      <c r="E659" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F659" s="7"/>
       <c r="G659" s="7" t="s">
@@ -22700,7 +22776,7 @@
         <v>1243</v>
       </c>
       <c r="E660" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F660" s="11"/>
       <c r="G660" s="11" t="s">
@@ -22726,8 +22802,8 @@
       <c r="D661" s="11" t="s">
         <v>1246</v>
       </c>
-      <c r="E661" s="7" t="s">
-        <v>212</v>
+      <c r="E661" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F661" s="7"/>
       <c r="G661" s="7" t="s">
@@ -22750,7 +22826,7 @@
       </c>
       <c r="D662" s="11"/>
       <c r="E662" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F662" s="11"/>
       <c r="G662" s="11" t="s">
@@ -22776,8 +22852,8 @@
       <c r="D663" s="7" t="s">
         <v>1250</v>
       </c>
-      <c r="E663" s="7" t="s">
-        <v>212</v>
+      <c r="E663" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F663" s="7"/>
       <c r="G663" s="7" t="s">
@@ -22804,7 +22880,7 @@
         <v>1253</v>
       </c>
       <c r="E664" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F664" s="11"/>
       <c r="G664" s="11" t="s">
@@ -22830,8 +22906,8 @@
       <c r="D665" s="7" t="s">
         <v>1256</v>
       </c>
-      <c r="E665" s="7" t="s">
-        <v>212</v>
+      <c r="E665" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F665" s="7"/>
       <c r="G665" s="7" t="s">
@@ -22858,7 +22934,7 @@
         <v>1259</v>
       </c>
       <c r="E666" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F666" s="11"/>
       <c r="G666" s="11" t="s">
@@ -22880,8 +22956,8 @@
         <v>32</v>
       </c>
       <c r="D667" s="7"/>
-      <c r="E667" s="7" t="s">
-        <v>212</v>
+      <c r="E667" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F667" s="7"/>
       <c r="G667" s="7" t="s">
@@ -22904,7 +22980,7 @@
       </c>
       <c r="D668" s="11"/>
       <c r="E668" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F668" s="11"/>
       <c r="G668" s="11" t="s">
@@ -22917,7 +22993,7 @@
       <c r="L668" s="11"/>
       <c r="M668" s="12"/>
     </row>
-    <row r="669" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="669" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A669" s="6" t="s">
         <v>1262</v>
       </c>
@@ -22930,8 +23006,8 @@
       <c r="D669" s="11" t="s">
         <v>1264</v>
       </c>
-      <c r="E669" s="7" t="s">
-        <v>212</v>
+      <c r="E669" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F669" s="7"/>
       <c r="G669" s="7" t="s">
@@ -22958,7 +23034,7 @@
         <v>1267</v>
       </c>
       <c r="E670" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="F670" s="11"/>
       <c r="G670" s="11" t="s">
@@ -22972,18 +23048,22 @@
       <c r="M670" s="12"/>
     </row>
     <row r="671" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A671" s="6"/>
-      <c r="B671" s="7"/>
-      <c r="C671" s="7"/>
+      <c r="A671" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B671" s="7" t="s">
+        <v>1269</v>
+      </c>
+      <c r="C671" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D671" s="7" t="s">
-        <v>1268</v>
-      </c>
-      <c r="E671" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F671" s="7" t="s">
-        <v>1269</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="E671" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F671" s="7"/>
       <c r="G671" s="7" t="s">
         <v>212</v>
       </c>
@@ -22995,18 +23075,22 @@
       <c r="M671" s="9"/>
     </row>
     <row r="672" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A672" s="10"/>
-      <c r="B672" s="11"/>
-      <c r="C672" s="11"/>
-      <c r="D672" s="11" t="s">
-        <v>1270</v>
+      <c r="A672" s="10" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B672" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C672" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D672" s="25" t="s">
+        <v>1273</v>
       </c>
       <c r="E672" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F672" s="11" t="s">
-        <v>1271</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F672" s="11"/>
       <c r="G672" s="11" t="s">
         <v>212</v>
       </c>
@@ -23018,12 +23102,20 @@
       <c r="M672" s="12"/>
     </row>
     <row r="673" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A673" s="6"/>
-      <c r="B673" s="7"/>
-      <c r="C673" s="7"/>
-      <c r="D673" s="7"/>
-      <c r="E673" s="7" t="s">
-        <v>212</v>
+      <c r="A673" s="6" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B673" s="7" t="s">
+        <v>1275</v>
+      </c>
+      <c r="C673" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D673" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E673" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F673" s="7"/>
       <c r="G673" s="7" t="s">
@@ -23037,18 +23129,22 @@
       <c r="M673" s="9"/>
     </row>
     <row r="674" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A674" s="10"/>
-      <c r="B674" s="11"/>
-      <c r="C674" s="11"/>
+      <c r="A674" s="10" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B674" s="11" t="s">
+        <v>1278</v>
+      </c>
+      <c r="C674" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D674" s="11" t="s">
-        <v>1272</v>
+        <v>1279</v>
       </c>
       <c r="E674" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F674" s="11" t="s">
-        <v>1271</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F674" s="11"/>
       <c r="G674" s="11" t="s">
         <v>212</v>
       </c>
@@ -23061,17 +23157,17 @@
     </row>
     <row r="675" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A675" s="6"/>
-      <c r="B675" s="7"/>
-      <c r="C675" s="7"/>
-      <c r="D675" s="7" t="s">
-        <v>1273</v>
-      </c>
-      <c r="E675" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F675" s="7" t="n">
-        <v>1</v>
-      </c>
+      <c r="B675" s="7" t="s">
+        <v>1280</v>
+      </c>
+      <c r="C675" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D675" s="7"/>
+      <c r="E675" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F675" s="7"/>
       <c r="G675" s="7" t="s">
         <v>212</v>
       </c>
@@ -23083,18 +23179,22 @@
       <c r="M675" s="9"/>
     </row>
     <row r="676" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A676" s="10"/>
-      <c r="B676" s="11"/>
-      <c r="C676" s="11"/>
+      <c r="A676" s="10" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B676" s="11" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C676" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D676" s="11" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
       <c r="E676" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F676" s="11" t="s">
-        <v>1271</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F676" s="11"/>
       <c r="G676" s="11" t="s">
         <v>212</v>
       </c>
@@ -23106,18 +23206,22 @@
       <c r="M676" s="12"/>
     </row>
     <row r="677" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A677" s="6"/>
-      <c r="B677" s="7"/>
-      <c r="C677" s="7"/>
+      <c r="A677" s="6" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B677" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="C677" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D677" s="7" t="s">
-        <v>1275</v>
-      </c>
-      <c r="E677" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F677" s="7" t="n">
-        <v>1</v>
-      </c>
+        <v>1286</v>
+      </c>
+      <c r="E677" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F677" s="7"/>
       <c r="G677" s="7" t="s">
         <v>212</v>
       </c>
@@ -23129,18 +23233,22 @@
       <c r="M677" s="9"/>
     </row>
     <row r="678" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A678" s="10"/>
-      <c r="B678" s="11"/>
-      <c r="C678" s="11"/>
+      <c r="A678" s="10" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B678" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="C678" s="11" t="s">
+        <v>32</v>
+      </c>
       <c r="D678" s="11" t="s">
-        <v>1276</v>
+        <v>1289</v>
       </c>
       <c r="E678" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F678" s="11" t="n">
-        <v>1</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F678" s="11"/>
       <c r="G678" s="11" t="s">
         <v>212</v>
       </c>
@@ -23152,18 +23260,22 @@
       <c r="M678" s="12"/>
     </row>
     <row r="679" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A679" s="6"/>
-      <c r="B679" s="7"/>
-      <c r="C679" s="7"/>
+      <c r="A679" s="6" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B679" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="C679" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="D679" s="11" t="s">
-        <v>1277</v>
+        <v>1292</v>
       </c>
       <c r="E679" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F679" s="11" t="s">
-        <v>1271</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F679" s="11"/>
       <c r="G679" s="7" t="s">
         <v>212</v>
       </c>
@@ -23176,17 +23288,17 @@
     </row>
     <row r="680" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="10"/>
-      <c r="B680" s="11"/>
-      <c r="C680" s="11"/>
-      <c r="D680" s="7" t="s">
-        <v>1278</v>
-      </c>
-      <c r="E680" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F680" s="7" t="s">
-        <v>1279</v>
-      </c>
+      <c r="B680" s="11" t="s">
+        <v>1293</v>
+      </c>
+      <c r="C680" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D680" s="7"/>
+      <c r="E680" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F680" s="7"/>
       <c r="G680" s="11" t="s">
         <v>212</v>
       </c>
@@ -23199,17 +23311,17 @@
     </row>
     <row r="681" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A681" s="6"/>
-      <c r="B681" s="7"/>
-      <c r="C681" s="7"/>
-      <c r="D681" s="11" t="s">
-        <v>1280</v>
-      </c>
+      <c r="B681" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="C681" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D681" s="11"/>
       <c r="E681" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F681" s="11" t="s">
-        <v>1271</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F681" s="11"/>
       <c r="G681" s="7" t="s">
         <v>212</v>
       </c>
@@ -23220,19 +23332,17 @@
       <c r="L681" s="7"/>
       <c r="M681" s="9"/>
     </row>
-    <row r="682" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="10"/>
       <c r="B682" s="11"/>
       <c r="C682" s="11"/>
       <c r="D682" s="7" t="s">
-        <v>1281</v>
+        <v>1295</v>
       </c>
       <c r="E682" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F682" s="7" t="s">
-        <v>1282</v>
-      </c>
+      <c r="F682" s="7"/>
       <c r="G682" s="11" t="s">
         <v>212</v>
       </c>
@@ -23248,13 +23358,13 @@
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
       <c r="D683" s="11" t="s">
-        <v>1283</v>
+        <v>1296</v>
       </c>
       <c r="E683" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F683" s="7" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
       <c r="G683" s="7" t="s">
         <v>212</v>
@@ -23271,7 +23381,7 @@
       <c r="B684" s="11"/>
       <c r="C684" s="11"/>
       <c r="D684" s="0" t="s">
-        <v>1284</v>
+        <v>1298</v>
       </c>
       <c r="E684" s="11" t="s">
         <v>212</v>
@@ -23293,15 +23403,11 @@
       <c r="A685" s="6"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
-      <c r="D685" s="0" t="s">
-        <v>1285</v>
-      </c>
+      <c r="D685" s="0"/>
       <c r="E685" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F685" s="7" t="s">
-        <v>1286</v>
-      </c>
+      <c r="F685" s="7"/>
       <c r="G685" s="7" t="s">
         <v>212</v>
       </c>
@@ -23317,13 +23423,13 @@
       <c r="B686" s="11"/>
       <c r="C686" s="11"/>
       <c r="D686" s="7" t="s">
-        <v>1287</v>
+        <v>1299</v>
       </c>
       <c r="E686" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F686" s="7" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
       <c r="G686" s="11" t="s">
         <v>212</v>
@@ -23340,7 +23446,7 @@
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
       <c r="D687" s="0" t="s">
-        <v>1288</v>
+        <v>1300</v>
       </c>
       <c r="E687" s="7" t="s">
         <v>212</v>
@@ -23363,7 +23469,7 @@
       <c r="B688" s="11"/>
       <c r="C688" s="11"/>
       <c r="D688" s="11" t="s">
-        <v>1289</v>
+        <v>1301</v>
       </c>
       <c r="E688" s="11" t="s">
         <v>212</v>
@@ -23386,13 +23492,13 @@
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
       <c r="D689" s="11" t="s">
-        <v>1290</v>
+        <v>1302</v>
       </c>
       <c r="E689" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F689" s="11" t="s">
-        <v>1291</v>
+        <v>1303</v>
       </c>
       <c r="G689" s="7" t="s">
         <v>212</v>
@@ -23409,7 +23515,7 @@
       <c r="B690" s="11"/>
       <c r="C690" s="11"/>
       <c r="D690" s="0" t="s">
-        <v>1292</v>
+        <v>1304</v>
       </c>
       <c r="E690" s="11" t="s">
         <v>212</v>
@@ -23432,13 +23538,13 @@
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
       <c r="D691" s="7" t="s">
-        <v>1293</v>
+        <v>1305</v>
       </c>
       <c r="E691" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F691" s="7" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
       <c r="G691" s="7" t="s">
         <v>212</v>
@@ -23455,13 +23561,13 @@
       <c r="B692" s="11"/>
       <c r="C692" s="11"/>
       <c r="D692" s="11" t="s">
-        <v>1294</v>
+        <v>1306</v>
       </c>
       <c r="E692" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F692" s="11" t="s">
-        <v>1295</v>
+        <v>1307</v>
       </c>
       <c r="G692" s="11" t="s">
         <v>212</v>
@@ -23477,7 +23583,7 @@
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
       <c r="D693" s="7" t="s">
-        <v>1296</v>
+        <v>1308</v>
       </c>
       <c r="E693" s="7" t="s">
         <v>212</v>
@@ -23490,7 +23596,7 @@
       <c r="B694" s="11"/>
       <c r="C694" s="11"/>
       <c r="D694" s="11" t="s">
-        <v>1297</v>
+        <v>1309</v>
       </c>
       <c r="E694" s="11" t="s">
         <v>212</v>
@@ -23503,7 +23609,7 @@
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
       <c r="D695" s="11" t="s">
-        <v>1298</v>
+        <v>1310</v>
       </c>
       <c r="E695" s="11" t="s">
         <v>212</v>
@@ -23516,7 +23622,7 @@
       <c r="B696" s="11"/>
       <c r="C696" s="11"/>
       <c r="D696" s="7" t="s">
-        <v>1299</v>
+        <v>1311</v>
       </c>
       <c r="E696" s="7" t="s">
         <v>212</v>
@@ -23529,7 +23635,7 @@
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
       <c r="D697" s="11" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
       <c r="E697" s="11" t="s">
         <v>212</v>
@@ -23542,7 +23648,7 @@
       <c r="B698" s="11"/>
       <c r="C698" s="11"/>
       <c r="D698" s="7" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="E698" s="7" t="s">
         <v>212</v>
@@ -23555,7 +23661,7 @@
       <c r="B699" s="19"/>
       <c r="C699" s="7"/>
       <c r="D699" s="11" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="E699" s="7" t="s">
         <v>212</v>
@@ -23568,7 +23674,7 @@
       <c r="B700" s="11"/>
       <c r="C700" s="11"/>
       <c r="D700" s="0" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="E700" s="11" t="s">
         <v>212</v>
@@ -23581,7 +23687,7 @@
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
       <c r="D701" s="0" t="s">
-        <v>1304</v>
+        <v>1316</v>
       </c>
       <c r="E701" s="7" t="s">
         <v>212</v>
@@ -23592,15 +23698,15 @@
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D702" s="2" t="s">
-        <v>1305</v>
+        <v>1317</v>
       </c>
       <c r="F702" s="2" t="s">
-        <v>1306</v>
+        <v>1318</v>
       </c>
     </row>
     <row r="703" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D703" s="0" t="s">
-        <v>1307</v>
+        <v>1319</v>
       </c>
       <c r="E703" s="7" t="s">
         <v>212</v>
@@ -23611,18 +23717,18 @@
     </row>
     <row r="704" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D704" s="11" t="s">
-        <v>1308</v>
+        <v>1320</v>
       </c>
       <c r="E704" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F704" s="11" t="s">
-        <v>1309</v>
+        <v>1321</v>
       </c>
     </row>
     <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D705" s="7" t="s">
-        <v>1310</v>
+        <v>1322</v>
       </c>
       <c r="E705" s="7" t="s">
         <v>212</v>
@@ -23633,7 +23739,7 @@
     </row>
     <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D706" s="11" t="s">
-        <v>1311</v>
+        <v>1323</v>
       </c>
       <c r="E706" s="11" t="s">
         <v>212</v>
@@ -23644,18 +23750,18 @@
     </row>
     <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D707" s="7" t="s">
-        <v>1312</v>
+        <v>1324</v>
       </c>
       <c r="E707" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F707" s="7" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D708" s="11" t="s">
-        <v>1313</v>
+        <v>1325</v>
       </c>
       <c r="E708" s="11" t="s">
         <v>212</v>
@@ -23666,34 +23772,34 @@
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D709" s="2" t="s">
-        <v>1314</v>
+        <v>1326</v>
       </c>
       <c r="F709" s="2" t="s">
-        <v>1315</v>
+        <v>1327</v>
       </c>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D710" s="2" t="s">
-        <v>1316</v>
+        <v>1328</v>
       </c>
       <c r="F710" s="2" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D711" s="7" t="s">
-        <v>1317</v>
+        <v>1329</v>
       </c>
       <c r="E711" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F711" s="7" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D712" s="11" t="s">
-        <v>1318</v>
+        <v>1330</v>
       </c>
       <c r="E712" s="11" t="s">
         <v>212</v>
@@ -23704,7 +23810,7 @@
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D713" s="7" t="s">
-        <v>1319</v>
+        <v>1331</v>
       </c>
       <c r="E713" s="7" t="s">
         <v>212</v>
@@ -23715,7 +23821,7 @@
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D714" s="7" t="s">
-        <v>1320</v>
+        <v>1332</v>
       </c>
       <c r="E714" s="7" t="s">
         <v>212</v>
@@ -23726,58 +23832,53 @@
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D715" s="7" t="s">
-        <v>1321</v>
+        <v>1333</v>
       </c>
       <c r="E715" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F715" s="7" t="s">
-        <v>1322</v>
-      </c>
-    </row>
-    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D716" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="F716" s="2" t="s">
-        <v>1324</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D717" s="2" t="s">
-        <v>1325</v>
+        <v>1292</v>
       </c>
       <c r="F717" s="2" t="s">
-        <v>1326</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D718" s="2" t="s">
-        <v>1327</v>
+        <v>1336</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>1328</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D719" s="2" t="s">
-        <v>1329</v>
+        <v>1338</v>
       </c>
       <c r="F719" s="2" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D720" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="F720" s="2" t="s">
-        <v>1331</v>
+    <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D720" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E720" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F720" s="7" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D721" s="2" t="s">
-        <v>1332</v>
+        <v>1340</v>
       </c>
       <c r="F721" s="2" t="n">
         <v>2</v>
@@ -23787,73 +23888,67 @@
       <c r="B722" s="0"/>
       <c r="C722" s="0"/>
       <c r="D722" s="0" t="s">
-        <v>1333</v>
+        <v>1341</v>
       </c>
       <c r="E722" s="0"/>
       <c r="F722" s="0" t="s">
-        <v>1334</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="0"/>
       <c r="C723" s="0"/>
-      <c r="D723" s="0" t="s">
-        <v>1335</v>
-      </c>
+      <c r="D723" s="0"/>
       <c r="E723" s="0"/>
-      <c r="F723" s="0" t="s">
-        <v>1336</v>
-      </c>
+      <c r="F723" s="0"/>
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B724" s="0"/>
+      <c r="B724" s="0" t="s">
+        <v>1343</v>
+      </c>
       <c r="C724" s="0"/>
       <c r="D724" s="0" t="s">
-        <v>1337</v>
+        <v>1344</v>
       </c>
       <c r="E724" s="0"/>
       <c r="F724" s="0" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B725" s="0"/>
       <c r="C725" s="0"/>
       <c r="D725" s="0" t="s">
-        <v>1338</v>
+        <v>1345</v>
       </c>
       <c r="E725" s="0"/>
       <c r="F725" s="0" t="s">
-        <v>1339</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="0"/>
       <c r="C726" s="0"/>
       <c r="D726" s="0" t="s">
-        <v>1340</v>
+        <v>1347</v>
       </c>
       <c r="E726" s="0"/>
       <c r="F726" s="0" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B727" s="0"/>
       <c r="C727" s="0"/>
-      <c r="D727" s="0" t="s">
-        <v>1341</v>
-      </c>
+      <c r="D727" s="0"/>
       <c r="E727" s="0"/>
-      <c r="F727" s="0" t="s">
-        <v>1342</v>
-      </c>
+      <c r="F727" s="0"/>
     </row>
     <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B728" s="0"/>
       <c r="C728" s="0"/>
       <c r="D728" s="0" t="s">
-        <v>1343</v>
+        <v>1348</v>
       </c>
       <c r="E728" s="0"/>
       <c r="F728" s="0" t="n">
@@ -23863,19 +23958,15 @@
     <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B729" s="0"/>
       <c r="C729" s="0"/>
-      <c r="D729" s="0" t="s">
-        <v>1344</v>
-      </c>
+      <c r="D729" s="0"/>
       <c r="E729" s="0"/>
-      <c r="F729" s="0" t="s">
-        <v>1331</v>
-      </c>
+      <c r="F729" s="0"/>
     </row>
     <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B730" s="0"/>
       <c r="C730" s="0"/>
       <c r="D730" s="0" t="s">
-        <v>1345</v>
+        <v>1349</v>
       </c>
       <c r="E730" s="0"/>
       <c r="F730" s="0" t="n">
@@ -23884,68 +23975,156 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D731" s="2" t="s">
-        <v>1346</v>
+        <v>1350</v>
       </c>
       <c r="F731" s="2" t="s">
-        <v>1271</v>
+        <v>1297</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D732" s="2" t="s">
-        <v>1347</v>
+        <v>1351</v>
       </c>
       <c r="F732" s="2" t="s">
-        <v>1339</v>
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D733" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="E733" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F733" s="7" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D734" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E734" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F734" s="11" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D735" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="E735" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F735" s="11" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D736" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E736" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F736" s="7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D737" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="E737" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F737" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D738" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E738" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F738" s="11" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D739" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="E739" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F739" s="7" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D740" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="E740" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F740" s="11" t="s">
+        <v>1297</v>
       </c>
     </row>
     <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B742" s="7" t="s">
-        <v>1348</v>
+        <v>1362</v>
       </c>
       <c r="C742" s="7"/>
       <c r="D742" s="7" t="s">
-        <v>1349</v>
+        <v>1363</v>
       </c>
       <c r="E742" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F742" s="7" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B743" s="11" t="s">
-        <v>1351</v>
+        <v>1365</v>
       </c>
       <c r="C743" s="11"/>
       <c r="D743" s="11" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="E743" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F743" s="11" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B744" s="7" t="s">
-        <v>1352</v>
+        <v>1366</v>
       </c>
       <c r="C744" s="7"/>
       <c r="D744" s="7" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
       <c r="E744" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F744" s="7" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B745" s="11" t="s">
-        <v>1353</v>
+        <v>1367</v>
       </c>
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
@@ -23953,61 +24132,61 @@
         <v>212</v>
       </c>
       <c r="F745" s="11" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B746" s="7" t="s">
-        <v>1354</v>
+        <v>1368</v>
       </c>
       <c r="C746" s="7"/>
       <c r="D746" s="7" t="s">
-        <v>1355</v>
+        <v>1369</v>
       </c>
       <c r="E746" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F746" s="7" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B747" s="11" t="s">
-        <v>1356</v>
+        <v>1370</v>
       </c>
       <c r="C747" s="11"/>
       <c r="D747" s="11" t="s">
-        <v>1357</v>
+        <v>1371</v>
       </c>
       <c r="E747" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F747" s="11" t="s">
-        <v>1350</v>
+        <v>1364</v>
       </c>
     </row>
     <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B748" s="19" t="s">
-        <v>1358</v>
+        <v>1372</v>
       </c>
       <c r="C748" s="7"/>
       <c r="D748" s="7" t="s">
-        <v>1359</v>
+        <v>1373</v>
       </c>
       <c r="E748" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F748" s="7" t="s">
-        <v>1360</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B749" s="11" t="s">
-        <v>1361</v>
+        <v>1375</v>
       </c>
       <c r="C749" s="11"/>
       <c r="D749" s="11" t="s">
-        <v>1362</v>
+        <v>1376</v>
       </c>
       <c r="E749" s="11" t="s">
         <v>212</v>
@@ -24016,7 +24195,7 @@
     </row>
     <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B750" s="7" t="s">
-        <v>1363</v>
+        <v>1377</v>
       </c>
       <c r="C750" s="7"/>
       <c r="D750" s="7"/>
@@ -24024,12 +24203,12 @@
         <v>212</v>
       </c>
       <c r="F750" s="7" t="s">
-        <v>1364</v>
+        <v>1378</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E1:E657 E751:E1048576 G1:G1048576 E702 E668:E678 E716:E721 E709:E710 E731:E741">
+  <conditionalFormatting sqref="E1:E657 E751:E1048576 G1:G1048576 E702 E721 E709:E710 E736:E741 E731:E732 E716:E719">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24048,34 +24227,34 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E659:E667">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C659:C667">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C654 C656 C658">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E658">
+  <conditionalFormatting sqref="G658">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E694:E700">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24086,37 +24265,37 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G658">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E694:E700">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C693:C701">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E690 E683:E685 E687:E688">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E707 E703:E705">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E706 E708">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24127,7 +24306,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E707 E703:E705">
+  <conditionalFormatting sqref="E658:E681">
     <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24138,7 +24317,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E706 E708">
+  <conditionalFormatting sqref="E691:E692">
     <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24149,7 +24328,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E679:E681">
+  <conditionalFormatting sqref="E682">
     <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24160,7 +24339,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E691:E692">
+  <conditionalFormatting sqref="E686">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24171,7 +24350,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E682">
+  <conditionalFormatting sqref="E689">
     <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24182,7 +24361,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E686">
+  <conditionalFormatting sqref="E693:E694">
     <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24193,7 +24372,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E689">
+  <conditionalFormatting sqref="E699:E700">
     <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24204,7 +24383,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E693:E694">
+  <conditionalFormatting sqref="E695:E697">
     <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24215,7 +24394,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E699:E700">
+  <conditionalFormatting sqref="E698">
     <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24226,7 +24405,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E695:E697">
+  <conditionalFormatting sqref="E701">
     <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24237,7 +24416,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E698">
+  <conditionalFormatting sqref="E711">
     <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24248,7 +24427,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E701">
+  <conditionalFormatting sqref="E712">
     <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24259,7 +24438,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E711">
+  <conditionalFormatting sqref="E713">
     <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24270,7 +24449,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E712">
+  <conditionalFormatting sqref="E714">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24281,64 +24460,86 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E713">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E714">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="C669">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E715">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E742:E750">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C742:C750">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733:E734">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E720">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E735:E737">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E738:E740">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -24454,11 +24655,16 @@
     <hyperlink ref="D661" r:id="rId104" display="https://gazeta-mlawska.pl"/>
     <hyperlink ref="D664" r:id="rId105" display="http://gazetakartuska.pl"/>
     <hyperlink ref="D665" r:id="rId106" display="http://www.gazeta-wiesci.pl"/>
-    <hyperlink ref="D682" r:id="rId107" display="https://hdtvpolska.com"/>
-    <hyperlink ref="D693" r:id="rId108" display="http://galeria-tajlandia.pl"/>
-    <hyperlink ref="D706" r:id="rId109" display="http://goniecpolski.nl"/>
-    <hyperlink ref="D709" r:id="rId110" display="http://gotujzmaka.blogspot.com"/>
-    <hyperlink ref="D711" r:id="rId111" display="https://gorlice24.pl/pl/#"/>
+    <hyperlink ref="D672" r:id="rId107" display="https://infoludek.pl"/>
+    <hyperlink ref="D676" r:id="rId108" display="https://www.speedtest.pl"/>
+    <hyperlink ref="D677" r:id="rId109" display="https://www.isbzdrowie.pl"/>
+    <hyperlink ref="D678" r:id="rId110" display="https://www.ipon.pl"/>
+    <hyperlink ref="D679" r:id="rId111" display="https://www.info.elblag.pl"/>
+    <hyperlink ref="D682" r:id="rId112" display="https://hdtvpolska.com"/>
+    <hyperlink ref="D693" r:id="rId113" display="http://galeria-tajlandia.pl"/>
+    <hyperlink ref="D706" r:id="rId114" display="http://goniecpolski.nl"/>
+    <hyperlink ref="D709" r:id="rId115" display="http://gotujzmaka.blogspot.com"/>
+    <hyperlink ref="D711" r:id="rId116" display="https://gorlice24.pl/pl/#"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -24468,7 +24674,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId112"/>
+    <tablePart r:id="rId117"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24481,7 +24687,7 @@
   <dimension ref="A1:A272"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A682:A683 C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24491,1362 +24697,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>1365</v>
+        <v>1379</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1367</v>
+        <v>1381</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1368</v>
+        <v>1382</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>1369</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>1370</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>1372</v>
+        <v>1386</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>1373</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>1374</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>1375</v>
+        <v>1389</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>1377</v>
+        <v>1391</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>1379</v>
+        <v>1393</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>1380</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>1369</v>
+        <v>1383</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>1381</v>
+        <v>1395</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>1382</v>
+        <v>1396</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>1383</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>1384</v>
+        <v>1398</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>1385</v>
+        <v>1399</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1386</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>1387</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>1388</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>1389</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>1390</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>1391</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>1392</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>1393</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>1394</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>1395</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>1396</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>1397</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>1398</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>1399</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>1400</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>1401</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>1402</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>1403</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>1404</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>1405</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>1406</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>1407</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>1408</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>1409</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>1410</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>1411</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>1412</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>1413</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>1414</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>1415</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>1416</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>1417</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>1418</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>1419</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>1420</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>1421</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>1422</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>1423</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>1424</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>1425</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>1426</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>1427</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>1428</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>1429</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>1430</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>1431</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>1432</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>1433</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>1434</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>1435</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>1436</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>1437</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>1438</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>1439</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="s">
-        <v>1440</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>1441</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>1442</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="s">
-        <v>1443</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>1444</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="s">
-        <v>1445</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>1446</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
-        <v>1447</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>1448</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="s">
-        <v>1449</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>1450</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>1451</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="s">
-        <v>1452</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="s">
-        <v>1371</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>1453</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>1454</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="s">
-        <v>1455</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="s">
-        <v>1378</v>
+        <v>1392</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="s">
-        <v>1456</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="s">
-        <v>1457</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>1458</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="s">
-        <v>1459</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>1460</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>1461</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="s">
-        <v>1462</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="s">
-        <v>1463</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>1464</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>1465</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="s">
-        <v>1466</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>1467</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>1468</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>1469</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>1470</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>1471</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>1472</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="s">
-        <v>1473</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="21" t="s">
-        <v>1474</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="s">
-        <v>1475</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>1476</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>1477</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="s">
-        <v>1478</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>1479</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="s">
-        <v>1480</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>1481</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>1482</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="s">
-        <v>1483</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>1484</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="s">
-        <v>1485</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="s">
-        <v>1486</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>1487</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>1488</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>1489</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="s">
-        <v>1490</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="s">
-        <v>1491</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
-        <v>1492</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="21" t="s">
-        <v>1493</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="s">
-        <v>1494</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="s">
-        <v>1495</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="s">
-        <v>1496</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="s">
-        <v>1497</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="s">
-        <v>1498</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
-        <v>1499</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>1500</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>1501</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="s">
-        <v>1502</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="s">
-        <v>1503</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
-        <v>1504</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
-        <v>1505</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="s">
-        <v>1506</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>1507</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="21" t="s">
-        <v>1508</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="21" t="s">
-        <v>1509</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="21" t="s">
-        <v>1510</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="21" t="s">
-        <v>1511</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>1512</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="21" t="s">
-        <v>1513</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="21" t="s">
-        <v>1514</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="21" t="s">
-        <v>1515</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="21" t="s">
-        <v>1516</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="21" t="s">
-        <v>1517</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="21" t="s">
-        <v>1518</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
-        <v>1519</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
-        <v>1520</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="21" t="s">
-        <v>1521</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="21" t="s">
-        <v>1522</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="21" t="s">
-        <v>1523</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>1524</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="21" t="s">
-        <v>1525</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
-        <v>1526</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="21" t="s">
-        <v>1527</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="21" t="s">
-        <v>1528</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="21" t="s">
-        <v>1529</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="21" t="s">
-        <v>1530</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="21" t="s">
-        <v>1531</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="21" t="s">
-        <v>1532</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="21" t="s">
-        <v>1533</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="21" t="s">
-        <v>1534</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="21" t="s">
-        <v>1535</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>1536</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="21" t="s">
-        <v>1537</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="21" t="s">
-        <v>1538</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="21" t="s">
-        <v>1539</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="21" t="s">
-        <v>1540</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>1541</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>1542</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>1543</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>1544</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>1545</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>1546</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>1547</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>1548</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
-        <v>1549</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="21" t="s">
-        <v>1550</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="21" t="s">
-        <v>1551</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="21" t="s">
-        <v>1552</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="21" t="s">
-        <v>1553</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="21" t="s">
-        <v>1554</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>1555</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>1556</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>1557</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>1558</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>1366</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>1559</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>1560</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>1561</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>1562</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>1563</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>1564</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>1565</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="21" t="s">
-        <v>1566</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="21" t="s">
-        <v>1567</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="21" t="s">
-        <v>1568</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="21" t="s">
-        <v>1569</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="21" t="s">
-        <v>1570</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>1571</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>1572</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>1573</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>1574</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="21" t="s">
-        <v>1575</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="21" t="s">
-        <v>1576</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>1577</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="21" t="s">
-        <v>1578</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="21" t="s">
-        <v>1579</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="21" t="s">
-        <v>1580</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>1581</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>1582</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>1583</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>1584</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>1585</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>1586</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>1587</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>1588</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>1589</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>1590</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>1591</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>1592</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="21" t="s">
-        <v>1593</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="21" t="s">
-        <v>1594</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>1595</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
-        <v>1596</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="21" t="s">
-        <v>1597</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="21" t="s">
-        <v>1598</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>1599</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>1600</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>1601</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="21" t="s">
-        <v>1602</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="21" t="s">
-        <v>1603</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
-        <v>1376</v>
+        <v>1390</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
-        <v>1604</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="21" t="s">
-        <v>1605</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>1606</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>1607</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>1608</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>1609</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>1610</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>1611</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>1612</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>1613</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>1614</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>1615</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>1616</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>1617</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>1618</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="21" t="s">
-        <v>1619</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="21" t="s">
-        <v>1620</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="21" t="s">
-        <v>1621</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="21" t="s">
-        <v>1622</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="21" t="s">
-        <v>1623</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="21" t="s">
-        <v>1624</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="21" t="s">
-        <v>1625</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="21" t="s">
-        <v>1626</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="21" t="s">
-        <v>1627</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="21" t="s">
-        <v>1383</v>
+        <v>1397</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="21" t="s">
-        <v>1628</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>1629</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="21" t="s">
-        <v>1630</v>
+        <v>1644</v>
       </c>
     </row>
   </sheetData>
@@ -25868,7 +26074,7 @@
   <dimension ref="B1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A682:A683 B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25880,160 +26086,160 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="25" t="s">
-        <v>1631</v>
+      <c r="B1" s="26" t="s">
+        <v>1645</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="26" t="s">
-        <v>1632</v>
-      </c>
-      <c r="C2" s="27" t="s">
-        <v>1633</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>1634</v>
-      </c>
-      <c r="I2" s="29"/>
+      <c r="B2" s="27" t="s">
+        <v>1646</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>1647</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>1648</v>
+      </c>
+      <c r="I2" s="30"/>
       <c r="K2" s="21" t="s">
-        <v>1635</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="26" t="s">
-        <v>1636</v>
-      </c>
-      <c r="C3" s="27" t="s">
-        <v>1633</v>
-      </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="27"/>
+      <c r="B3" s="27" t="s">
+        <v>1650</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>1647</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="11" t="s">
-        <v>1637</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>1638</v>
-      </c>
-      <c r="C4" s="31"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="27"/>
+        <v>1652</v>
+      </c>
+      <c r="C4" s="32"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="28"/>
       <c r="K4" s="11" t="s">
-        <v>1639</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="31"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="7" t="s">
-        <v>1300</v>
+        <v>1312</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="31"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="28"/>
       <c r="K6" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="22"/>
-      <c r="C7" s="31"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="28"/>
       <c r="K7" s="22" t="s">
-        <v>1640</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="11" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="27"/>
+        <v>1655</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="28"/>
       <c r="K8" s="21" t="s">
-        <v>1642</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="27"/>
+        <v>1657</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="7" t="s">
-        <v>1644</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="27"/>
+        <v>1659</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="28"/>
       <c r="K10" s="11" t="s">
-        <v>1646</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C11" s="31"/>
-      <c r="H11" s="27"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="27"/>
+        <v>1661</v>
+      </c>
+      <c r="C11" s="32"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="28"/>
       <c r="K11" s="7" t="s">
-        <v>1648</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>1649</v>
+        <v>1663</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1650</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="K13" s="7" t="s">
-        <v>1651</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>1652</v>
+        <v>1666</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1653</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>1654</v>
+        <v>1668</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1655</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="11" t="s">
-        <v>1656</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26041,10 +26247,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>1657</v>
+        <v>1671</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1658</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26052,109 +26258,109 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1659</v>
+        <v>1673</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>1660</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>1661</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>1662</v>
+        <v>1676</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>1663</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21" t="s">
-        <v>1664</v>
+        <v>1678</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21" t="s">
-        <v>1665</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21" t="s">
-        <v>1666</v>
+        <v>1680</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21" t="s">
-        <v>1667</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21" t="s">
-        <v>1668</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>1669</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21" t="s">
-        <v>1670</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21" t="s">
-        <v>1671</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21" t="s">
-        <v>1672</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>1673</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>1674</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21" t="s">
-        <v>1675</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>1676</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>1677</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21" t="s">
-        <v>1678</v>
+        <v>1692</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="21" t="s">
-        <v>1679</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26164,47 +26370,47 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="21" t="s">
-        <v>1680</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="21" t="s">
-        <v>1681</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="21" t="s">
-        <v>1682</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21" t="s">
-        <v>1683</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="21" t="s">
-        <v>1684</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="21" t="s">
-        <v>1685</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="21" t="s">
-        <v>1686</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="21" t="s">
-        <v>1687</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="21" t="s">
-        <v>1688</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26212,17 +26418,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1689</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="21" t="s">
-        <v>1690</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="21" t="s">
-        <v>1691</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26232,27 +26438,27 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>1692</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21" t="s">
-        <v>1693</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21" t="s">
-        <v>1694</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="21" t="s">
-        <v>1695</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21" t="s">
-        <v>1696</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -26288,7 +26494,7 @@
   <dimension ref="C1:C94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="A682:A683 F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26298,472 +26504,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="21" t="s">
-        <v>1697</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="21" t="s">
-        <v>1698</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="21" t="s">
-        <v>1699</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="21" t="s">
-        <v>1700</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="21" t="s">
-        <v>1701</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="21" t="s">
-        <v>1702</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="21" t="s">
-        <v>1703</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="21" t="s">
-        <v>1704</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="21" t="s">
-        <v>1705</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="21" t="s">
-        <v>1706</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="21" t="s">
-        <v>1707</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21" t="s">
-        <v>1708</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21" t="s">
-        <v>1709</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="21" t="s">
-        <v>1710</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="21" t="s">
-        <v>1711</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="21" t="s">
-        <v>1712</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="21" t="s">
-        <v>1713</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="21" t="s">
-        <v>1714</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="21" t="s">
-        <v>1715</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
-        <v>1716</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="21" t="s">
-        <v>1717</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="21" t="s">
-        <v>1718</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="21" t="s">
-        <v>1719</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="21" t="s">
-        <v>1720</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="21" t="s">
-        <v>1721</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="21" t="s">
-        <v>1722</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="21" t="s">
-        <v>1723</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="21" t="s">
-        <v>1724</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="21" t="s">
-        <v>1725</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="21" t="s">
-        <v>1726</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="21" t="s">
-        <v>1727</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="21" t="s">
-        <v>1728</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="21" t="s">
-        <v>1729</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="21" t="s">
-        <v>1730</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="21" t="s">
-        <v>1731</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="21" t="s">
-        <v>1732</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="21" t="s">
-        <v>1733</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="21" t="s">
-        <v>1734</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="21" t="s">
-        <v>1735</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>1736</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="21" t="s">
-        <v>1737</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="21" t="s">
-        <v>1738</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="21" t="s">
-        <v>1739</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="21" t="s">
-        <v>1740</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="21" t="s">
-        <v>1741</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="21" t="s">
-        <v>1742</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="21" t="s">
-        <v>1743</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="21" t="s">
-        <v>1744</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="21" t="s">
-        <v>1745</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="21" t="s">
-        <v>1746</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="21" t="s">
-        <v>1747</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="21" t="s">
-        <v>1748</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="21" t="s">
-        <v>1749</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="21" t="s">
-        <v>1750</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="21" t="s">
-        <v>1751</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="21" t="s">
-        <v>1752</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="21" t="s">
-        <v>1753</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="21" t="s">
-        <v>1754</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="21" t="s">
-        <v>1755</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="21" t="s">
-        <v>1756</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="21" t="s">
-        <v>1757</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="21" t="s">
-        <v>1758</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="21" t="s">
-        <v>1759</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="21" t="s">
-        <v>1760</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="21" t="s">
-        <v>1761</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="21" t="s">
-        <v>1762</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="21" t="s">
-        <v>1763</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="21" t="s">
-        <v>1764</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="21" t="s">
-        <v>1765</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="21" t="s">
-        <v>1766</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>1767</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="21" t="s">
-        <v>1768</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="21" t="s">
-        <v>1769</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="21" t="s">
-        <v>1770</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="21" t="s">
-        <v>1771</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="21" t="s">
-        <v>1772</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="21" t="s">
-        <v>1773</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="21" t="s">
-        <v>1774</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="21" t="s">
-        <v>1775</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="21" t="s">
-        <v>1776</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="21" t="s">
-        <v>1777</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="21" t="s">
-        <v>1778</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="21" t="s">
-        <v>1779</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="21" t="s">
-        <v>1780</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="21" t="s">
-        <v>1781</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="21" t="s">
-        <v>1782</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="21" t="s">
-        <v>1783</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="21" t="s">
-        <v>1784</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="21" t="s">
-        <v>1785</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="21" t="s">
-        <v>1786</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="21" t="s">
-        <v>1787</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="21" t="s">
-        <v>1788</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="21" t="s">
-        <v>1789</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="21" t="s">
-        <v>1790</v>
+        <v>1804</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4022" uniqueCount="1805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="1826">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -3871,25 +3871,7 @@
     <t xml:space="preserve">378</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato Medium"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">speedtest.pl###</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Lato Medium"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">playClick</t>
-    </r>
+    <t xml:space="preserve">speedtest.pl###playClick</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.speedtest.pl</t>
@@ -3922,21 +3904,237 @@
     <t xml:space="preserve">https://www.info.elblag.pl</t>
   </si>
   <si>
-    <t xml:space="preserve">^banerkiJPG^$domain=info.elblag.pl</t>
-  </si>
-  <si>
     <t xml:space="preserve">^banerkiIFRAME^$domain=info.elblag.pl</t>
   </si>
   <si>
+    <t xml:space="preserve">382</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kliknijwzdrowie.pl##.banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://kliknijwzdrowie.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kliknijwzdrowie.pl##a[href*="&amp;utm_campaign=banner&amp;"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">383</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jarmark.com.pl##.mMaterialRotator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://jarmark.com.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jarmark.com.pl###k3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">384</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jakzrobicwexcelu.pl##img[alt*="reklama"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jakzrobicwexcelu.pl/formuly/jak-obliczyc-roznice-dat-w-latach-miesiacach-i-dniach/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">385</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||sportdziennik.com^*^01/300x600.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://sportdziennik.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">386</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infokonin.pl##img[width="240"][height="80"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infokonin.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">infokonin.pl##.bc_random_banner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">387</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gwarminska.pl##img[srcset]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwarminska.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">388</t>
+  </si>
+  <si>
+    <t xml:space="preserve">klin-tv.pl##.widget_supermag_ad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://klin-tv.pl/2020/05/18/juna-najlepsza-w-iii-lidze/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">389</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^Rekl_$domain=klin-tv.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">popup </t>
+  </si>
+  <si>
+    <t xml:space="preserve">390</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^sad^$image,domain=infobeskidy.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://infobeskidy.eu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||infobeskidy.eu^*^r5.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">391</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jazdaprawna.pl##.td-a-rec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://jazdaprawna.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jazdaprawna.pl##.td_single_image_bg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">392</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^Baner-$domain=jazdaprawna.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^Baner_$domain=jazdaprawna.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">393</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anywhere.pl##div[class^="g-single a-"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">abcslubu.pl##.banneritem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.abcslubu.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isel.edu.pl###text-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://isel.edu.pl/forum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">396</t>
+  </si>
+  <si>
+    <t xml:space="preserve">enerad.pl##.sg_ad_banner_link</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://enerad.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetatwojeinfo.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gazetazoliborza.pl/2020/05/warszawa-luzuje-obostrzenia-podano-daty-otwarcia-boisk-zlobkow-i-przedszkoli/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gizycko.info.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">½</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 sad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infobusko.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.glosgminny.pl/przyjaciel-billa-g-prof-neil-ferguson-sparalizowal-planete-falszujac-dane-c-19/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.infokrakow24.pl/83199/opolszczyzna-o-jaka-piekna-i-ciekawa/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.elektroda.pl/rtvforum/topic3623695.html#18226797</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://infomogilno24.pl/pl/#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://iotwock.info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inline__1_</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ipoddebice.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://irenakuczynska.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://itvszubin.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://izoliborz.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ibytow.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banery foto popup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gle24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gniewkowo.eu/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://grafmag.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://gsim.pl/gorzej-juz-byc-nie-moze-prawda/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gst24.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gwio.pl/pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://klobuck365.pl/pl/#</t>
+  </si>
+  <si>
     <t xml:space="preserve">https://hdtvpolska.com</t>
   </si>
   <si>
     <t xml:space="preserve">https://hej.mielec.pl/pl/</t>
   </si>
   <si>
-    <t xml:space="preserve">popup </t>
-  </si>
-  <si>
     <t xml:space="preserve">http://hobby-elektronika.eu</t>
   </si>
   <si>
@@ -4021,182 +4219,10 @@
     <t xml:space="preserve">http://e-lokalne.pl/index2.php?idmodyf=40&amp;tab=lokalneczytanie</t>
   </si>
   <si>
-    <t xml:space="preserve">http://gotujzmaka.blogspot.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ebroker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gostyn24.pl/pl/</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://gorlice24.pl/pl/#</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.gazetasenior.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gazetatwojeinfo.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gazetazoliborza.pl/2020/05/warszawa-luzuje-obostrzenia-podano-daty-otwarcia-boisk-zlobkow-i-przedszkoli/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gizycko.info.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">½</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banerkiIFRAME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://infobeskidy.eu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 sad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infobusko.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.glosgminny.pl/przyjaciel-billa-g-prof-neil-ferguson-sparalizowal-planete-falszujac-dane-c-19/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.infokrakow24.pl/83199/opolszczyzna-o-jaka-piekna-i-ciekawa/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infokonin.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">br_random_banner + 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.elektroda.pl/rtvforum/topic3623695.html#18226797</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://infomogilno24.pl/pl/#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iotwock.info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Inline__1_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ipoddebice.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://irenakuczynska.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://isel.edu.pl/forum/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://itvszubin.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://izoliborz.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://ibytow.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">banery foto popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gle24.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gniewkowo.eu/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://grafmag.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://gsim.pl/gorzej-juz-byc-nie-moze-prawda/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gst24.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gwarminska.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shorepixel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://gwio.pl/pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||streetwearhypeclub.com^*^Timberland1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://streetwearhypeclub.com/portal/category/footwear/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">streetwearhypeclub.com##.wpmui-overlay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">streetwearhypeclub.com##.wpmui-popup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">||streetwearhypeclub.com^*^shc-timb-background-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abcslubu.pl##.tcvn-banner-item</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.abcslubu.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">abcslubu.pl##.banneritem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check partners</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF262626"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">anywhere.com##div[class^=”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">g-single a-”]</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.anywhere.pl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FIX -block too much</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogrodnikleszek.pl##.banner_wrapper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://ogrodnikleszek.pl/porady-ogrodnicze/pies-ogrodnika-mity-i-prawdy/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ogrodnikleszek.pl##a[href*="=baner_widget&amp;"]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">block logo</t>
   </si>
   <si>
     <t xml:space="preserve">Domain</t>
@@ -5485,7 +5511,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -5581,6 +5607,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Lato Medium"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -5716,7 +5748,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5817,11 +5849,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5833,7 +5877,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5845,7 +5889,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false" readingOrder="1"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -6002,18 +6046,18 @@
   </sheetPr>
   <dimension ref="A1:M1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A651" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="B651" activePane="topRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A651" activeCellId="0" sqref="A651"/>
-      <selection pane="topRight" activeCell="A683" activeCellId="0" sqref="A682:A683"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A765" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="0" topLeftCell="B765" activePane="topRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A765" activeCellId="0" sqref="A765"/>
+      <selection pane="topRight" activeCell="B784" activeCellId="0" sqref="B784"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="68.8"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="31.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="5.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="49.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="7.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="26.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="8.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="28.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="7.83"/>
@@ -22726,7 +22770,7 @@
       </c>
       <c r="F658" s="11"/>
       <c r="G658" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H658" s="11"/>
       <c r="I658" s="11"/>
@@ -22752,8 +22796,8 @@
         <v>16</v>
       </c>
       <c r="F659" s="7"/>
-      <c r="G659" s="7" t="s">
-        <v>212</v>
+      <c r="G659" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H659" s="7"/>
       <c r="I659" s="7"/>
@@ -22780,7 +22824,7 @@
       </c>
       <c r="F660" s="11"/>
       <c r="G660" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H660" s="11"/>
       <c r="I660" s="11"/>
@@ -22806,8 +22850,8 @@
         <v>16</v>
       </c>
       <c r="F661" s="7"/>
-      <c r="G661" s="7" t="s">
-        <v>212</v>
+      <c r="G661" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H661" s="7"/>
       <c r="I661" s="7"/>
@@ -22830,7 +22874,7 @@
       </c>
       <c r="F662" s="11"/>
       <c r="G662" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H662" s="11"/>
       <c r="I662" s="11"/>
@@ -22856,8 +22900,8 @@
         <v>16</v>
       </c>
       <c r="F663" s="7"/>
-      <c r="G663" s="7" t="s">
-        <v>212</v>
+      <c r="G663" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H663" s="7"/>
       <c r="I663" s="7"/>
@@ -22884,7 +22928,7 @@
       </c>
       <c r="F664" s="11"/>
       <c r="G664" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H664" s="11"/>
       <c r="I664" s="11"/>
@@ -22910,8 +22954,8 @@
         <v>16</v>
       </c>
       <c r="F665" s="7"/>
-      <c r="G665" s="7" t="s">
-        <v>212</v>
+      <c r="G665" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H665" s="7"/>
       <c r="I665" s="7"/>
@@ -22938,7 +22982,7 @@
       </c>
       <c r="F666" s="11"/>
       <c r="G666" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H666" s="11"/>
       <c r="I666" s="11"/>
@@ -22960,8 +23004,8 @@
         <v>16</v>
       </c>
       <c r="F667" s="7"/>
-      <c r="G667" s="7" t="s">
-        <v>212</v>
+      <c r="G667" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H667" s="7"/>
       <c r="I667" s="7"/>
@@ -22984,7 +23028,7 @@
       </c>
       <c r="F668" s="11"/>
       <c r="G668" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H668" s="11"/>
       <c r="I668" s="11"/>
@@ -23010,8 +23054,8 @@
         <v>16</v>
       </c>
       <c r="F669" s="7"/>
-      <c r="G669" s="7" t="s">
-        <v>212</v>
+      <c r="G669" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H669" s="7"/>
       <c r="I669" s="7"/>
@@ -23028,7 +23072,7 @@
         <v>1266</v>
       </c>
       <c r="C670" s="11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D670" s="11" t="s">
         <v>1267</v>
@@ -23038,7 +23082,7 @@
       </c>
       <c r="F670" s="11"/>
       <c r="G670" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H670" s="11"/>
       <c r="I670" s="11"/>
@@ -23064,8 +23108,8 @@
         <v>16</v>
       </c>
       <c r="F671" s="7"/>
-      <c r="G671" s="7" t="s">
-        <v>212</v>
+      <c r="G671" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H671" s="7"/>
       <c r="I671" s="7"/>
@@ -23084,7 +23128,7 @@
       <c r="C672" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D672" s="25" t="s">
+      <c r="D672" s="20" t="s">
         <v>1273</v>
       </c>
       <c r="E672" s="11" t="s">
@@ -23092,7 +23136,7 @@
       </c>
       <c r="F672" s="11"/>
       <c r="G672" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H672" s="11"/>
       <c r="I672" s="11"/>
@@ -23118,8 +23162,8 @@
         <v>16</v>
       </c>
       <c r="F673" s="7"/>
-      <c r="G673" s="7" t="s">
-        <v>212</v>
+      <c r="G673" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H673" s="7"/>
       <c r="I673" s="7"/>
@@ -23146,7 +23190,7 @@
       </c>
       <c r="F674" s="11"/>
       <c r="G674" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H674" s="11"/>
       <c r="I674" s="11"/>
@@ -23168,8 +23212,8 @@
         <v>16</v>
       </c>
       <c r="F675" s="7"/>
-      <c r="G675" s="7" t="s">
-        <v>212</v>
+      <c r="G675" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H675" s="7"/>
       <c r="I675" s="7"/>
@@ -23196,7 +23240,7 @@
       </c>
       <c r="F676" s="11"/>
       <c r="G676" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H676" s="11"/>
       <c r="I676" s="11"/>
@@ -23222,8 +23266,8 @@
         <v>16</v>
       </c>
       <c r="F677" s="7"/>
-      <c r="G677" s="7" t="s">
-        <v>212</v>
+      <c r="G677" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H677" s="7"/>
       <c r="I677" s="7"/>
@@ -23250,7 +23294,7 @@
       </c>
       <c r="F678" s="11"/>
       <c r="G678" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H678" s="11"/>
       <c r="I678" s="11"/>
@@ -23276,8 +23320,8 @@
         <v>16</v>
       </c>
       <c r="F679" s="11"/>
-      <c r="G679" s="7" t="s">
-        <v>212</v>
+      <c r="G679" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H679" s="7"/>
       <c r="I679" s="7"/>
@@ -23286,12 +23330,12 @@
       <c r="L679" s="7"/>
       <c r="M679" s="9"/>
     </row>
-    <row r="680" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="680" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A680" s="10"/>
-      <c r="B680" s="11" t="s">
+      <c r="B680" s="7" t="s">
         <v>1293</v>
       </c>
-      <c r="C680" s="11" t="s">
+      <c r="C680" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D680" s="7"/>
@@ -23300,7 +23344,7 @@
       </c>
       <c r="F680" s="7"/>
       <c r="G680" s="11" t="s">
-        <v>212</v>
+        <v>16</v>
       </c>
       <c r="H680" s="11"/>
       <c r="I680" s="11"/>
@@ -23309,20 +23353,24 @@
       <c r="L680" s="11"/>
       <c r="M680" s="12"/>
     </row>
-    <row r="681" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A681" s="6"/>
-      <c r="B681" s="7" t="s">
+    <row r="681" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A681" s="6" t="s">
         <v>1294</v>
       </c>
+      <c r="B681" s="25" t="s">
+        <v>1295</v>
+      </c>
       <c r="C681" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D681" s="11"/>
+        <v>14</v>
+      </c>
+      <c r="D681" s="11" t="s">
+        <v>1296</v>
+      </c>
       <c r="E681" s="11" t="s">
-        <v>16</v>
+        <v>212</v>
       </c>
       <c r="F681" s="11"/>
-      <c r="G681" s="7" t="s">
+      <c r="G681" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H681" s="7"/>
@@ -23332,14 +23380,16 @@
       <c r="L681" s="7"/>
       <c r="M681" s="9"/>
     </row>
-    <row r="682" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="682" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A682" s="10"/>
-      <c r="B682" s="11"/>
-      <c r="C682" s="11"/>
-      <c r="D682" s="7" t="s">
-        <v>1295</v>
-      </c>
-      <c r="E682" s="7" t="s">
+      <c r="B682" s="22" t="s">
+        <v>1297</v>
+      </c>
+      <c r="C682" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D682" s="7"/>
+      <c r="E682" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F682" s="7"/>
@@ -23354,19 +23404,23 @@
       <c r="M682" s="12"/>
     </row>
     <row r="683" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A683" s="6"/>
-      <c r="B683" s="7"/>
-      <c r="C683" s="7"/>
-      <c r="D683" s="11" t="s">
-        <v>1296</v>
-      </c>
-      <c r="E683" s="7" t="s">
+      <c r="A683" s="6" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B683" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C683" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D683" s="26" t="s">
+        <v>1300</v>
+      </c>
+      <c r="E683" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F683" s="7" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G683" s="7" t="s">
+      <c r="F683" s="11"/>
+      <c r="G683" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H683" s="7"/>
@@ -23378,17 +23432,17 @@
     </row>
     <row r="684" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A684" s="10"/>
-      <c r="B684" s="11"/>
-      <c r="C684" s="11"/>
-      <c r="D684" s="0" t="s">
-        <v>1298</v>
-      </c>
+      <c r="B684" s="11" t="s">
+        <v>1301</v>
+      </c>
+      <c r="C684" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D684" s="7"/>
       <c r="E684" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F684" s="11" t="n">
-        <v>1</v>
-      </c>
+      <c r="F684" s="7"/>
       <c r="G684" s="11" t="s">
         <v>212</v>
       </c>
@@ -23399,16 +23453,24 @@
       <c r="L684" s="11"/>
       <c r="M684" s="12"/>
     </row>
-    <row r="685" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A685" s="6"/>
-      <c r="B685" s="7"/>
-      <c r="C685" s="7"/>
-      <c r="D685" s="0"/>
-      <c r="E685" s="7" t="s">
+    <row r="685" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A685" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B685" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="C685" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D685" s="2" t="s">
+        <v>1304</v>
+      </c>
+      <c r="E685" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F685" s="7"/>
-      <c r="G685" s="7" t="s">
+      <c r="F685" s="11"/>
+      <c r="G685" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H685" s="7"/>
@@ -23419,18 +23481,22 @@
       <c r="M685" s="9"/>
     </row>
     <row r="686" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A686" s="10"/>
-      <c r="B686" s="11"/>
-      <c r="C686" s="11"/>
-      <c r="D686" s="7" t="s">
-        <v>1299</v>
-      </c>
-      <c r="E686" s="7" t="s">
+      <c r="A686" s="10" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B686" s="11" t="s">
+        <v>1306</v>
+      </c>
+      <c r="C686" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D686" s="27" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E686" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F686" s="7" t="s">
-        <v>1297</v>
-      </c>
+      <c r="F686" s="7"/>
       <c r="G686" s="11" t="s">
         <v>212</v>
       </c>
@@ -23441,20 +23507,24 @@
       <c r="L686" s="11"/>
       <c r="M686" s="12"/>
     </row>
-    <row r="687" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A687" s="6"/>
-      <c r="B687" s="7"/>
-      <c r="C687" s="7"/>
-      <c r="D687" s="0" t="s">
-        <v>1300</v>
-      </c>
-      <c r="E687" s="7" t="s">
+    <row r="687" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A687" s="6" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B687" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="C687" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D687" s="11" t="s">
+        <v>1310</v>
+      </c>
+      <c r="E687" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F687" s="7" t="n">
-        <v>2</v>
-      </c>
-      <c r="G687" s="7" t="s">
+      <c r="F687" s="11"/>
+      <c r="G687" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H687" s="7"/>
@@ -23464,19 +23534,19 @@
       <c r="L687" s="7"/>
       <c r="M687" s="9"/>
     </row>
-    <row r="688" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="688" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A688" s="10"/>
-      <c r="B688" s="11"/>
-      <c r="C688" s="11"/>
-      <c r="D688" s="11" t="s">
-        <v>1301</v>
-      </c>
+      <c r="B688" s="11" t="s">
+        <v>1311</v>
+      </c>
+      <c r="C688" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D688" s="7"/>
       <c r="E688" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F688" s="11" t="n">
-        <v>2</v>
-      </c>
+      <c r="F688" s="7"/>
       <c r="G688" s="11" t="s">
         <v>212</v>
       </c>
@@ -23487,20 +23557,24 @@
       <c r="L688" s="11"/>
       <c r="M688" s="12"/>
     </row>
-    <row r="689" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A689" s="6"/>
-      <c r="B689" s="7"/>
-      <c r="C689" s="7"/>
+    <row r="689" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A689" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B689" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="C689" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="D689" s="11" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="E689" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F689" s="11" t="s">
-        <v>1303</v>
-      </c>
-      <c r="G689" s="7" t="s">
+      <c r="F689" s="11"/>
+      <c r="G689" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H689" s="7"/>
@@ -23510,19 +23584,23 @@
       <c r="L689" s="7"/>
       <c r="M689" s="9"/>
     </row>
-    <row r="690" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A690" s="10"/>
-      <c r="B690" s="11"/>
-      <c r="C690" s="11"/>
-      <c r="D690" s="0" t="s">
-        <v>1304</v>
+    <row r="690" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A690" s="10" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B690" s="11" t="s">
+        <v>1316</v>
+      </c>
+      <c r="C690" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D690" s="27" t="s">
+        <v>1317</v>
       </c>
       <c r="E690" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F690" s="11" t="n">
-        <v>2</v>
-      </c>
+      <c r="F690" s="7"/>
       <c r="G690" s="11" t="s">
         <v>212</v>
       </c>
@@ -23534,19 +23612,25 @@
       <c r="M690" s="12"/>
     </row>
     <row r="691" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A691" s="6"/>
-      <c r="B691" s="7"/>
-      <c r="C691" s="7"/>
-      <c r="D691" s="7" t="s">
-        <v>1305</v>
-      </c>
-      <c r="E691" s="7" t="s">
+      <c r="A691" s="6" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B691" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="C691" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D691" s="11" t="s">
+        <v>1317</v>
+      </c>
+      <c r="E691" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F691" s="7" t="s">
-        <v>1297</v>
-      </c>
-      <c r="G691" s="7" t="s">
+      <c r="F691" s="11" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G691" s="11" t="s">
         <v>212</v>
       </c>
       <c r="H691" s="7"/>
@@ -23557,18 +23641,22 @@
       <c r="M691" s="9"/>
     </row>
     <row r="692" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A692" s="10"/>
-      <c r="B692" s="11"/>
-      <c r="C692" s="11"/>
-      <c r="D692" s="11" t="s">
-        <v>1306</v>
+      <c r="A692" s="10" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B692" s="0" t="s">
+        <v>1322</v>
+      </c>
+      <c r="C692" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D692" s="26" t="s">
+        <v>1323</v>
       </c>
       <c r="E692" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F692" s="11" t="s">
-        <v>1307</v>
-      </c>
+      <c r="F692" s="7"/>
       <c r="G692" s="11" t="s">
         <v>212</v>
       </c>
@@ -23579,238 +23667,243 @@
       <c r="L692" s="11"/>
       <c r="M692" s="12"/>
     </row>
-    <row r="693" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B693" s="7"/>
-      <c r="C693" s="7"/>
-      <c r="D693" s="7" t="s">
-        <v>1308</v>
-      </c>
-      <c r="E693" s="7" t="s">
+    <row r="693" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A693" s="6"/>
+      <c r="B693" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="C693" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D693" s="11"/>
+      <c r="E693" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F693" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="694" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B694" s="11"/>
-      <c r="C694" s="11"/>
-      <c r="D694" s="11" t="s">
-        <v>1309</v>
+      <c r="F693" s="11"/>
+      <c r="G693" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="694" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A694" s="10" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B694" s="11" t="s">
+        <v>1326</v>
+      </c>
+      <c r="C694" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D694" s="22" t="s">
+        <v>1327</v>
       </c>
       <c r="E694" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F694" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="695" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B695" s="7"/>
-      <c r="C695" s="7"/>
-      <c r="D695" s="11" t="s">
-        <v>1310</v>
-      </c>
+      <c r="F694" s="7"/>
+      <c r="G694" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="695" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A695" s="6"/>
+      <c r="B695" s="7" t="s">
+        <v>1328</v>
+      </c>
+      <c r="C695" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D695" s="11"/>
       <c r="E695" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F695" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="696" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B696" s="11"/>
-      <c r="C696" s="11"/>
-      <c r="D696" s="7" t="s">
-        <v>1311</v>
-      </c>
-      <c r="E696" s="7" t="s">
+      <c r="F695" s="11"/>
+      <c r="G695" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F696" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="697" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B697" s="7"/>
-      <c r="C697" s="7"/>
-      <c r="D697" s="11" t="s">
-        <v>1312</v>
-      </c>
+    </row>
+    <row r="696" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A696" s="10" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B696" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="C696" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D696" s="22" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E696" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F696" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G696" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="697" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A697" s="6"/>
+      <c r="B697" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="C697" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D697" s="11"/>
       <c r="E697" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F697" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="698" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B698" s="11"/>
-      <c r="C698" s="11"/>
+      <c r="F697" s="11"/>
+      <c r="G697" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="698" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A698" s="10" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B698" s="0" t="s">
+        <v>1333</v>
+      </c>
+      <c r="C698" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="D698" s="7" t="s">
-        <v>1313</v>
-      </c>
-      <c r="E698" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E698" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F698" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="699" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B699" s="19"/>
-      <c r="C699" s="7"/>
-      <c r="D699" s="11" t="s">
-        <v>1314</v>
-      </c>
-      <c r="E699" s="7" t="s">
+      <c r="F698" s="7"/>
+      <c r="G698" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F699" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="700" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B700" s="11"/>
-      <c r="C700" s="11"/>
-      <c r="D700" s="0" t="s">
-        <v>1315</v>
+    </row>
+    <row r="699" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A699" s="6" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B699" s="22" t="s">
+        <v>1335</v>
+      </c>
+      <c r="C699" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D699" s="28" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E699" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F699" s="11"/>
+      <c r="G699" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="700" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A700" s="10" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B700" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C700" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D700" s="7" t="s">
+        <v>1339</v>
       </c>
       <c r="E700" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F700" s="11" t="n">
-        <v>2</v>
+      <c r="F700" s="7"/>
+      <c r="G700" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="701" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B701" s="7"/>
-      <c r="C701" s="7"/>
-      <c r="D701" s="0" t="s">
-        <v>1316</v>
-      </c>
-      <c r="E701" s="7" t="s">
+      <c r="A701" s="6" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B701" s="0" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C701" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D701" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E701" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="F701" s="7" t="n">
-        <v>2</v>
+      <c r="F701" s="11"/>
+      <c r="G701" s="11" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D702" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="F702" s="2" t="s">
-        <v>1318</v>
-      </c>
-    </row>
-    <row r="703" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D703" s="0" t="s">
-        <v>1319</v>
-      </c>
-      <c r="E703" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F703" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="704" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D704" s="11" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E704" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F704" s="11" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="705" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D705" s="7" t="s">
-        <v>1322</v>
-      </c>
-      <c r="E705" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F705" s="7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="706" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D706" s="11" t="s">
-        <v>1323</v>
-      </c>
-      <c r="E706" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F706" s="11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="707" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D707" s="7" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E707" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F707" s="7" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="708" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D708" s="11" t="s">
-        <v>1325</v>
-      </c>
-      <c r="E708" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F708" s="24" t="n">
-        <v>2</v>
-      </c>
+      <c r="D702" s="0"/>
+      <c r="E702" s="0"/>
+      <c r="F702" s="0"/>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D703" s="0"/>
+      <c r="E703" s="0"/>
+      <c r="F703" s="0"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D704" s="0"/>
+      <c r="E704" s="0"/>
+      <c r="F704" s="0"/>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D705" s="0"/>
+      <c r="E705" s="0"/>
+      <c r="F705" s="0"/>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D706" s="0"/>
+      <c r="E706" s="0"/>
+      <c r="F706" s="0"/>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D707" s="0"/>
+      <c r="E707" s="0"/>
+      <c r="F707" s="0"/>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D708" s="0"/>
+      <c r="E708" s="0"/>
+      <c r="F708" s="0"/>
     </row>
     <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D709" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="F709" s="2" t="s">
-        <v>1327</v>
-      </c>
+      <c r="D709" s="0"/>
+      <c r="E709" s="0"/>
+      <c r="F709" s="0"/>
     </row>
     <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D710" s="2" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F710" s="2" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="711" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D711" s="7" t="s">
-        <v>1329</v>
-      </c>
-      <c r="E711" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F711" s="7" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="712" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D712" s="11" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E712" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F712" s="11" t="n">
-        <v>2</v>
-      </c>
+      <c r="D710" s="0"/>
+      <c r="E710" s="0"/>
+      <c r="F710" s="0"/>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D711" s="0"/>
+      <c r="E711" s="0"/>
+      <c r="F711" s="0"/>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D712" s="0"/>
+      <c r="E712" s="0"/>
+      <c r="F712" s="0"/>
     </row>
     <row r="713" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D713" s="7" t="s">
-        <v>1331</v>
+        <v>1343</v>
       </c>
       <c r="E713" s="7" t="s">
         <v>212</v>
@@ -23821,7 +23914,7 @@
     </row>
     <row r="714" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D714" s="7" t="s">
-        <v>1332</v>
+        <v>1344</v>
       </c>
       <c r="E714" s="7" t="s">
         <v>212</v>
@@ -23832,34 +23925,26 @@
     </row>
     <row r="715" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D715" s="7" t="s">
-        <v>1333</v>
+        <v>1345</v>
       </c>
       <c r="E715" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F715" s="7" t="s">
-        <v>1334</v>
-      </c>
-    </row>
-    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D717" s="2" t="s">
-        <v>1292</v>
-      </c>
-      <c r="F717" s="2" t="s">
-        <v>1335</v>
+        <v>1346</v>
       </c>
     </row>
     <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D718" s="2" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="F718" s="2" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D719" s="2" t="s">
-        <v>1338</v>
+        <v>1348</v>
       </c>
       <c r="F719" s="2" t="n">
         <v>2</v>
@@ -23867,7 +23952,7 @@
     </row>
     <row r="720" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D720" s="7" t="s">
-        <v>1339</v>
+        <v>1349</v>
       </c>
       <c r="E720" s="7" t="s">
         <v>212</v>
@@ -23878,7 +23963,7 @@
     </row>
     <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D721" s="2" t="s">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="F721" s="2" t="n">
         <v>2</v>
@@ -23887,13 +23972,9 @@
     <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B722" s="0"/>
       <c r="C722" s="0"/>
-      <c r="D722" s="0" t="s">
-        <v>1341</v>
-      </c>
+      <c r="D722" s="0"/>
       <c r="E722" s="0"/>
-      <c r="F722" s="0" t="s">
-        <v>1342</v>
-      </c>
+      <c r="F722" s="0"/>
     </row>
     <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B723" s="0"/>
@@ -23904,37 +23985,37 @@
     </row>
     <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B724" s="0" t="s">
-        <v>1343</v>
+        <v>1351</v>
       </c>
       <c r="C724" s="0"/>
       <c r="D724" s="0" t="s">
-        <v>1344</v>
+        <v>1352</v>
       </c>
       <c r="E724" s="0"/>
       <c r="F724" s="0" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B725" s="0"/>
       <c r="C725" s="0"/>
       <c r="D725" s="0" t="s">
-        <v>1345</v>
+        <v>1353</v>
       </c>
       <c r="E725" s="0"/>
       <c r="F725" s="0" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B726" s="0"/>
       <c r="C726" s="0"/>
       <c r="D726" s="0" t="s">
-        <v>1347</v>
+        <v>1355</v>
       </c>
       <c r="E726" s="0"/>
       <c r="F726" s="0" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23948,7 +24029,7 @@
       <c r="B728" s="0"/>
       <c r="C728" s="0"/>
       <c r="D728" s="0" t="s">
-        <v>1348</v>
+        <v>1356</v>
       </c>
       <c r="E728" s="0"/>
       <c r="F728" s="0" t="n">
@@ -23966,7 +24047,7 @@
       <c r="B730" s="0"/>
       <c r="C730" s="0"/>
       <c r="D730" s="0" t="s">
-        <v>1349</v>
+        <v>1339</v>
       </c>
       <c r="E730" s="0"/>
       <c r="F730" s="0" t="n">
@@ -23975,56 +24056,56 @@
     </row>
     <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D731" s="2" t="s">
-        <v>1350</v>
+        <v>1357</v>
       </c>
       <c r="F731" s="2" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D732" s="2" t="s">
-        <v>1351</v>
+        <v>1358</v>
       </c>
       <c r="F732" s="2" t="s">
-        <v>1346</v>
+        <v>1354</v>
       </c>
     </row>
     <row r="733" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D733" s="7" t="s">
-        <v>1352</v>
+        <v>1359</v>
       </c>
       <c r="E733" s="7" t="s">
         <v>212</v>
       </c>
       <c r="F733" s="7" t="s">
-        <v>1353</v>
+        <v>1360</v>
       </c>
     </row>
     <row r="734" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D734" s="11" t="s">
-        <v>1354</v>
+        <v>1361</v>
       </c>
       <c r="E734" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F734" s="11" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="735" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D735" s="11" t="s">
-        <v>1355</v>
+        <v>1362</v>
       </c>
       <c r="E735" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F735" s="11" t="s">
-        <v>1297</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="736" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D736" s="7" t="s">
-        <v>1356</v>
+        <v>1363</v>
       </c>
       <c r="E736" s="7" t="s">
         <v>212</v>
@@ -24035,7 +24116,7 @@
     </row>
     <row r="737" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D737" s="11" t="s">
-        <v>1357</v>
+        <v>1364</v>
       </c>
       <c r="E737" s="11" t="s">
         <v>212</v>
@@ -24046,169 +24127,432 @@
     </row>
     <row r="738" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D738" s="11" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="E738" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F738" s="11" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="739" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D739" s="7" t="s">
-        <v>1359</v>
-      </c>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="739" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D739" s="7"/>
       <c r="E739" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F739" s="7" t="s">
-        <v>1360</v>
-      </c>
+      <c r="F739" s="7"/>
     </row>
     <row r="740" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D740" s="11" t="s">
-        <v>1361</v>
+        <v>1366</v>
       </c>
       <c r="E740" s="11" t="s">
         <v>212</v>
       </c>
       <c r="F740" s="11" t="s">
-        <v>1297</v>
-      </c>
-    </row>
-    <row r="742" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B742" s="7" t="s">
-        <v>1362</v>
-      </c>
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="742" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B742" s="7"/>
       <c r="C742" s="7"/>
-      <c r="D742" s="7" t="s">
-        <v>1363</v>
-      </c>
-      <c r="E742" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F742" s="7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="743" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B743" s="11" t="s">
-        <v>1365</v>
-      </c>
+      <c r="D742" s="7"/>
+      <c r="E742" s="7"/>
+      <c r="F742" s="7"/>
+    </row>
+    <row r="743" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B743" s="11"/>
       <c r="C743" s="11"/>
-      <c r="D743" s="11" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E743" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F743" s="11" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="744" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B744" s="7" t="s">
-        <v>1366</v>
-      </c>
+      <c r="D743" s="11"/>
+      <c r="E743" s="11"/>
+      <c r="F743" s="11"/>
+    </row>
+    <row r="744" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B744" s="7"/>
       <c r="C744" s="7"/>
-      <c r="D744" s="7" t="s">
-        <v>1364</v>
-      </c>
-      <c r="E744" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F744" s="7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="745" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B745" s="11" t="s">
-        <v>1367</v>
-      </c>
+      <c r="D744" s="7"/>
+      <c r="E744" s="7"/>
+      <c r="F744" s="7"/>
+    </row>
+    <row r="745" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B745" s="11"/>
       <c r="C745" s="11"/>
       <c r="D745" s="11"/>
-      <c r="E745" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F745" s="11" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="746" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B746" s="7" t="s">
-        <v>1368</v>
-      </c>
+      <c r="E745" s="11"/>
+      <c r="F745" s="11"/>
+    </row>
+    <row r="746" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B746" s="7"/>
       <c r="C746" s="7"/>
-      <c r="D746" s="7" t="s">
-        <v>1369</v>
-      </c>
-      <c r="E746" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F746" s="7" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="747" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B747" s="11" t="s">
-        <v>1370</v>
-      </c>
+      <c r="D746" s="0"/>
+      <c r="E746" s="7"/>
+      <c r="F746" s="7"/>
+    </row>
+    <row r="747" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B747" s="11"/>
       <c r="C747" s="11"/>
-      <c r="D747" s="11" t="s">
-        <v>1371</v>
-      </c>
-      <c r="E747" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="F747" s="11" t="s">
-        <v>1364</v>
-      </c>
-    </row>
-    <row r="748" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B748" s="19" t="s">
-        <v>1372</v>
-      </c>
+      <c r="D747" s="11"/>
+      <c r="E747" s="11"/>
+      <c r="F747" s="11"/>
+    </row>
+    <row r="748" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B748" s="19"/>
       <c r="C748" s="7"/>
-      <c r="D748" s="7" t="s">
-        <v>1373</v>
-      </c>
-      <c r="E748" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="F748" s="7" t="s">
-        <v>1374</v>
-      </c>
-    </row>
-    <row r="749" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B749" s="11" t="s">
-        <v>1375</v>
-      </c>
+      <c r="D748" s="7"/>
+      <c r="E748" s="7"/>
+      <c r="F748" s="7"/>
+    </row>
+    <row r="749" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B749" s="11"/>
       <c r="C749" s="11"/>
-      <c r="D749" s="11" t="s">
-        <v>1376</v>
-      </c>
-      <c r="E749" s="11" t="s">
-        <v>212</v>
-      </c>
+      <c r="D749" s="11"/>
+      <c r="E749" s="11"/>
       <c r="F749" s="11"/>
     </row>
-    <row r="750" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B750" s="7" t="s">
-        <v>1377</v>
-      </c>
+    <row r="750" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B750" s="7"/>
       <c r="C750" s="7"/>
       <c r="D750" s="7"/>
-      <c r="E750" s="7" t="s">
+      <c r="E750" s="7"/>
+      <c r="F750" s="7"/>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D753" s="0"/>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D754" s="0"/>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D758" s="0"/>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D760" s="0"/>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D761" s="2" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F761" s="2" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D762" s="0"/>
+    </row>
+    <row r="763" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D763" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="E763" s="7" t="s">
         <v>212</v>
       </c>
-      <c r="F750" s="7" t="s">
+      <c r="F763" s="7"/>
+    </row>
+    <row r="764" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D764" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E764" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F764" s="7" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="765" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D765" s="0" t="s">
+        <v>1370</v>
+      </c>
+      <c r="E765" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F765" s="11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D766" s="0"/>
+      <c r="E766" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F766" s="7"/>
+    </row>
+    <row r="767" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D767" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E767" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F767" s="7" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="768" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D768" s="0" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E768" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F768" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="769" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D769" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="E769" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F769" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="770" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D770" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E770" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F770" s="11" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="771" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D771" s="0" t="s">
+        <v>1376</v>
+      </c>
+      <c r="E771" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F771" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="772" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D772" s="7" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E772" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F772" s="7" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="773" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D773" s="11" t="s">
         <v>1378</v>
+      </c>
+      <c r="E773" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F773" s="11" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="774" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D774" s="7" t="s">
+        <v>1380</v>
+      </c>
+      <c r="E774" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F774" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="775" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D775" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E775" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F775" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="776" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D776" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E776" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F776" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="777" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D777" s="7" t="s">
+        <v>1383</v>
+      </c>
+      <c r="E777" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F777" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="778" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D778" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="E778" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F778" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="779" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D779" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E779" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F779" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="780" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D780" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E780" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F780" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="781" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D781" s="0" t="s">
+        <v>1387</v>
+      </c>
+      <c r="E781" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F781" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="782" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D782" s="0" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E782" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F782" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D783" s="2" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F783" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="784" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D784" s="0" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E784" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F784" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="785" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D785" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="E785" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F785" s="11" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="786" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D786" s="7" t="s">
+        <v>1394</v>
+      </c>
+      <c r="E786" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F786" s="7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="787" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D787" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E787" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F787" s="11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="788" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D788" s="7" t="s">
+        <v>1396</v>
+      </c>
+      <c r="E788" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F788" s="7" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="789" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D789" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="E789" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F789" s="24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="792" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D792" s="7" t="s">
+        <v>1398</v>
+      </c>
+      <c r="E792" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F792" s="7" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="793" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D793" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="E793" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="F793" s="11" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <conditionalFormatting sqref="E1:E657 E751:E1048576 G1:G1048576 E702 E721 E709:E710 E736:E741 E731:E732 E716:E719">
+  <conditionalFormatting sqref="E1:E657 E794:E1048576 E721 E736:E741 E731:E732 E716:E719 E751:E762 G1:G679 G681:G1048576">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24219,7 +24563,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C655 C657 C1:C653 C751:C1048576 C670:C692 C702:C721 C668 C731:C741">
+  <conditionalFormatting sqref="C655 C657 C1:C653 C751:C1048576 C702:C721 C668 C731:C741 C670:C679 C681:C700">
     <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
@@ -24243,7 +24587,7 @@
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G658">
+  <conditionalFormatting sqref="G658:G679 G682:G701">
     <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24254,7 +24598,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E694:E700">
+  <conditionalFormatting sqref="E658:E679 E682:E701">
     <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24265,37 +24609,37 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C693:C701">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="E713">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E714">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C669">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E690 E683:E685 E687:E688">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E707 E703:E705">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>"no"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"revert"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E706 E708">
+  <conditionalFormatting sqref="E715">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24306,7 +24650,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E658:E681">
+  <conditionalFormatting sqref="E742:E750">
     <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24317,158 +24661,158 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E691:E692">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="C742:C750">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E733:E734">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E682">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E720">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E686">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E735:E737">
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E689">
-    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E738:E740">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E693:E694">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E783 E790:E791">
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E699:E700">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E775:E781">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E695:E697">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E771 E764:E766 E768:E769">
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E698">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E788 E784:E786">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E701">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E787 E789">
+    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E711">
-    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E772:E773">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E712">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E763">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E713">
-    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E767">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E714">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="E770">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C669">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>"HIDE"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>"BLOCK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E715">
+  <conditionalFormatting sqref="E774:E775">
     <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24479,7 +24823,7 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E742:E750">
+  <conditionalFormatting sqref="E780:E781">
     <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
@@ -24490,60 +24834,199 @@
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C742:C750">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+  <conditionalFormatting sqref="E776:E778">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E779">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E782">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E792">
+    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E793">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G681:G708">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C702:C708 C681:C700">
+    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"HIDE"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"BLOCK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E733:E734">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="C681:C686 E682:E701">
+    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C687:C700">
+    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E680:E701">
+    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E720">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="G681:G701">
+    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E735:E737">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="G681:G701">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E738:E740">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+  <conditionalFormatting sqref="G681:G701">
+    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>"no"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>"revert"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G681:G701">
+    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G680:G701">
+    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G680:G701">
+    <cfRule type="cellIs" priority="120" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>"no"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"revert"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C680">
+    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C680">
+    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="126" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C680">
+    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
+      <formula>"HIDE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>"BLOCK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K692 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C701 C742:C750" type="list">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="C2:C215 K2:K692 C217:C222 C225:C245 C247:C253 C255:C567 C569:C606 C621:C700 C742:C750" type="list">
       <formula1>"BLOCK,HIDE,POPUP,3RD,3RDPOPUP,AD,ADPOPUP,WHITE,WHITEDIM,WHITEPOPUP"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -24660,11 +25143,24 @@
     <hyperlink ref="D677" r:id="rId109" display="https://www.isbzdrowie.pl"/>
     <hyperlink ref="D678" r:id="rId110" display="https://www.ipon.pl"/>
     <hyperlink ref="D679" r:id="rId111" display="https://www.info.elblag.pl"/>
-    <hyperlink ref="D682" r:id="rId112" display="https://hdtvpolska.com"/>
-    <hyperlink ref="D693" r:id="rId113" display="http://galeria-tajlandia.pl"/>
-    <hyperlink ref="D706" r:id="rId114" display="http://goniecpolski.nl"/>
-    <hyperlink ref="D709" r:id="rId115" display="http://gotujzmaka.blogspot.com"/>
-    <hyperlink ref="D711" r:id="rId116" display="https://gorlice24.pl/pl/#"/>
+    <hyperlink ref="D681" r:id="rId112" display="https://kliknijwzdrowie.pl/"/>
+    <hyperlink ref="D683" r:id="rId113" display="http://jarmark.com.pl/"/>
+    <hyperlink ref="D686" r:id="rId114" display="https://sportdziennik.com/"/>
+    <hyperlink ref="D687" r:id="rId115" display="https://infokonin.pl/"/>
+    <hyperlink ref="D689" r:id="rId116" display="https://gwarminska.pl/"/>
+    <hyperlink ref="D690" r:id="rId117" display="https://klin-tv.pl/2020/05/18/juna-najlepsza-w-iii-lidze/"/>
+    <hyperlink ref="D691" r:id="rId118" display="https://klin-tv.pl/2020/05/18/juna-najlepsza-w-iii-lidze/"/>
+    <hyperlink ref="D692" r:id="rId119" display="http://infobeskidy.eu"/>
+    <hyperlink ref="D694" r:id="rId120" display="https://jazdaprawna.pl/"/>
+    <hyperlink ref="D696" r:id="rId121" display="https://jazdaprawna.pl/"/>
+    <hyperlink ref="D698" r:id="rId122" display="https://www.anywhere.pl/"/>
+    <hyperlink ref="D699" r:id="rId123" display="https://www.abcslubu.pl"/>
+    <hyperlink ref="D700" r:id="rId124" display="https://isel.edu.pl/forum/"/>
+    <hyperlink ref="D701" r:id="rId125" display="https://enerad.pl/"/>
+    <hyperlink ref="D763" r:id="rId126" display="https://hdtvpolska.com"/>
+    <hyperlink ref="D774" r:id="rId127" display="http://galeria-tajlandia.pl"/>
+    <hyperlink ref="D787" r:id="rId128" display="http://goniecpolski.nl"/>
+    <hyperlink ref="D792" r:id="rId129" display="https://gorlice24.pl/pl/#"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -24674,7 +25170,7 @@
     <oddFooter/>
   </headerFooter>
   <tableParts>
-    <tablePart r:id="rId117"/>
+    <tablePart r:id="rId130"/>
   </tableParts>
 </worksheet>
 </file>
@@ -24687,7 +25183,7 @@
   <dimension ref="A1:A272"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="1" sqref="A682:A683 C6"/>
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24697,1362 +25193,1362 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
-        <v>1379</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="s">
-        <v>1380</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="s">
-        <v>1381</v>
+        <v>1402</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="s">
-        <v>1382</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="s">
-        <v>1383</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="21" t="s">
-        <v>1384</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="21" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="s">
-        <v>1386</v>
+        <v>1407</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="21" t="s">
-        <v>1387</v>
+        <v>1408</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="21" t="s">
-        <v>1388</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="s">
-        <v>1389</v>
+        <v>1410</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="21" t="s">
-        <v>1390</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="21" t="s">
-        <v>1391</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="21" t="s">
-        <v>1392</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="21" t="s">
-        <v>1393</v>
+        <v>1414</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="21" t="s">
-        <v>1394</v>
+        <v>1415</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="21" t="s">
-        <v>1383</v>
+        <v>1404</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="21" t="s">
-        <v>1395</v>
+        <v>1416</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="21" t="s">
-        <v>1396</v>
+        <v>1417</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="21" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="21" t="s">
-        <v>1398</v>
+        <v>1419</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="21" t="s">
-        <v>1399</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="21" t="s">
-        <v>1400</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="21" t="s">
-        <v>1401</v>
+        <v>1422</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="21" t="s">
-        <v>1402</v>
+        <v>1423</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="21" t="s">
-        <v>1403</v>
+        <v>1424</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="21" t="s">
-        <v>1404</v>
+        <v>1425</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="21" t="s">
-        <v>1405</v>
+        <v>1426</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="21" t="s">
-        <v>1406</v>
+        <v>1427</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="21" t="s">
-        <v>1407</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="21" t="s">
-        <v>1408</v>
+        <v>1429</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="21" t="s">
-        <v>1409</v>
+        <v>1430</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="21" t="s">
-        <v>1410</v>
+        <v>1431</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="21" t="s">
-        <v>1411</v>
+        <v>1432</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="21" t="s">
-        <v>1412</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="21" t="s">
-        <v>1413</v>
+        <v>1434</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="21" t="s">
-        <v>1414</v>
+        <v>1435</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="21" t="s">
-        <v>1415</v>
+        <v>1436</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="21" t="s">
-        <v>1416</v>
+        <v>1437</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="21" t="s">
-        <v>1417</v>
+        <v>1438</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="21" t="s">
-        <v>1418</v>
+        <v>1439</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="21" t="s">
-        <v>1419</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="21" t="s">
-        <v>1420</v>
+        <v>1441</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="21" t="s">
-        <v>1421</v>
+        <v>1442</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
-        <v>1422</v>
+        <v>1443</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="21" t="s">
-        <v>1423</v>
+        <v>1444</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="21" t="s">
-        <v>1424</v>
+        <v>1445</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="21" t="s">
-        <v>1425</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="21" t="s">
-        <v>1426</v>
+        <v>1447</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="21" t="s">
-        <v>1427</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="21" t="s">
-        <v>1428</v>
+        <v>1449</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="21" t="s">
-        <v>1429</v>
+        <v>1450</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="21" t="s">
-        <v>1430</v>
+        <v>1451</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="21" t="s">
-        <v>1431</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="21" t="s">
-        <v>1432</v>
+        <v>1453</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="21" t="s">
-        <v>1433</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="21" t="s">
-        <v>1434</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="21" t="s">
-        <v>1435</v>
+        <v>1456</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="21" t="s">
-        <v>1436</v>
+        <v>1457</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="21" t="s">
-        <v>1437</v>
+        <v>1458</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="21" t="s">
-        <v>1438</v>
+        <v>1459</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="21" t="s">
-        <v>1439</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="21" t="s">
-        <v>1440</v>
+        <v>1461</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="21" t="s">
-        <v>1441</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="21" t="s">
-        <v>1442</v>
+        <v>1463</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="21" t="s">
-        <v>1443</v>
+        <v>1464</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="21" t="s">
-        <v>1444</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="21" t="s">
-        <v>1445</v>
+        <v>1466</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="21" t="s">
-        <v>1446</v>
+        <v>1467</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="21" t="s">
-        <v>1447</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="21" t="s">
-        <v>1448</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="21" t="s">
-        <v>1449</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="21" t="s">
-        <v>1450</v>
+        <v>1471</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="21" t="s">
-        <v>1451</v>
+        <v>1472</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="21" t="s">
-        <v>1452</v>
+        <v>1473</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="21" t="s">
-        <v>1453</v>
+        <v>1474</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="21" t="s">
-        <v>1454</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="21" t="s">
-        <v>1455</v>
+        <v>1476</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="21" t="s">
-        <v>1456</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="21" t="s">
-        <v>1457</v>
+        <v>1478</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="21" t="s">
-        <v>1458</v>
+        <v>1479</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="21" t="s">
-        <v>1459</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="21" t="s">
-        <v>1460</v>
+        <v>1481</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="21" t="s">
-        <v>1461</v>
+        <v>1482</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="21" t="s">
-        <v>1462</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="21" t="s">
-        <v>1463</v>
+        <v>1484</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="21" t="s">
-        <v>1464</v>
+        <v>1485</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="21" t="s">
-        <v>1465</v>
+        <v>1486</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="21" t="s">
-        <v>1466</v>
+        <v>1487</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="21" t="s">
-        <v>1385</v>
+        <v>1406</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="21" t="s">
-        <v>1467</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="21" t="s">
-        <v>1468</v>
+        <v>1489</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="21" t="s">
-        <v>1469</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="21" t="s">
-        <v>1392</v>
+        <v>1413</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="21" t="s">
-        <v>1470</v>
+        <v>1491</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="21" t="s">
-        <v>1471</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="21" t="s">
-        <v>1472</v>
+        <v>1493</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="21" t="s">
-        <v>1473</v>
+        <v>1494</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="21" t="s">
-        <v>1474</v>
+        <v>1495</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="21" t="s">
-        <v>1475</v>
+        <v>1496</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="21" t="s">
-        <v>1476</v>
+        <v>1497</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="21" t="s">
-        <v>1477</v>
+        <v>1498</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="21" t="s">
-        <v>1478</v>
+        <v>1499</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="21" t="s">
-        <v>1479</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="21" t="s">
-        <v>1480</v>
+        <v>1501</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="21" t="s">
-        <v>1481</v>
+        <v>1502</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="21" t="s">
-        <v>1482</v>
+        <v>1503</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="21" t="s">
-        <v>1483</v>
+        <v>1504</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="21" t="s">
-        <v>1484</v>
+        <v>1505</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="21" t="s">
-        <v>1485</v>
+        <v>1506</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="21" t="s">
-        <v>1486</v>
+        <v>1507</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="21" t="s">
-        <v>1487</v>
+        <v>1508</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="21" t="s">
-        <v>1488</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="21" t="s">
-        <v>1489</v>
+        <v>1510</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="21" t="s">
-        <v>1490</v>
+        <v>1511</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="21" t="s">
-        <v>1491</v>
+        <v>1512</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="21" t="s">
-        <v>1492</v>
+        <v>1513</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="21" t="s">
-        <v>1493</v>
+        <v>1514</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="21" t="s">
-        <v>1494</v>
+        <v>1515</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="21" t="s">
-        <v>1495</v>
+        <v>1516</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="21" t="s">
-        <v>1496</v>
+        <v>1517</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="21" t="s">
-        <v>1497</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="21" t="s">
-        <v>1498</v>
+        <v>1519</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="21" t="s">
-        <v>1499</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="21" t="s">
-        <v>1500</v>
+        <v>1521</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="21" t="s">
-        <v>1501</v>
+        <v>1522</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="21" t="s">
-        <v>1502</v>
+        <v>1523</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="21" t="s">
-        <v>1503</v>
+        <v>1524</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="21" t="s">
-        <v>1504</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="21" t="s">
-        <v>1505</v>
+        <v>1526</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="21" t="s">
-        <v>1506</v>
+        <v>1527</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="21" t="s">
-        <v>1507</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="21" t="s">
-        <v>1508</v>
+        <v>1529</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="21" t="s">
-        <v>1509</v>
+        <v>1530</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="21" t="s">
-        <v>1510</v>
+        <v>1531</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="21" t="s">
-        <v>1511</v>
+        <v>1532</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="21" t="s">
-        <v>1512</v>
+        <v>1533</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="21" t="s">
-        <v>1513</v>
+        <v>1534</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="21" t="s">
-        <v>1514</v>
+        <v>1535</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="21" t="s">
-        <v>1515</v>
+        <v>1536</v>
       </c>
     </row>
     <row r="141" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="21" t="s">
-        <v>1516</v>
+        <v>1537</v>
       </c>
     </row>
     <row r="142" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="21" t="s">
-        <v>1517</v>
+        <v>1538</v>
       </c>
     </row>
     <row r="143" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="21" t="s">
-        <v>1518</v>
+        <v>1539</v>
       </c>
     </row>
     <row r="144" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="21" t="s">
-        <v>1519</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="145" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="21" t="s">
-        <v>1520</v>
+        <v>1541</v>
       </c>
     </row>
     <row r="146" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="21" t="s">
-        <v>1521</v>
+        <v>1542</v>
       </c>
     </row>
     <row r="147" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="21" t="s">
-        <v>1522</v>
+        <v>1543</v>
       </c>
     </row>
     <row r="148" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="21" t="s">
-        <v>1523</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="21" t="s">
-        <v>1524</v>
+        <v>1545</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="21" t="s">
-        <v>1525</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="21" t="s">
-        <v>1526</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="21" t="s">
-        <v>1527</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="21" t="s">
-        <v>1528</v>
+        <v>1549</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="21" t="s">
-        <v>1529</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="21" t="s">
-        <v>1530</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="21" t="s">
-        <v>1531</v>
+        <v>1552</v>
       </c>
     </row>
     <row r="157" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="21" t="s">
-        <v>1532</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="158" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="21" t="s">
-        <v>1533</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="159" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="21" t="s">
-        <v>1534</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="21" t="s">
-        <v>1535</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="21" t="s">
-        <v>1536</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="21" t="s">
-        <v>1537</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="21" t="s">
-        <v>1538</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="21" t="s">
-        <v>1539</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="21" t="s">
-        <v>1540</v>
+        <v>1561</v>
       </c>
     </row>
     <row r="166" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="21" t="s">
-        <v>1541</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="21" t="s">
-        <v>1542</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="168" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="21" t="s">
-        <v>1543</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="169" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="21" t="s">
-        <v>1544</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="21" t="s">
-        <v>1545</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="21" t="s">
-        <v>1546</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="21" t="s">
-        <v>1547</v>
+        <v>1568</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="21" t="s">
-        <v>1548</v>
+        <v>1569</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="21" t="s">
-        <v>1549</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A175" s="21" t="s">
-        <v>1550</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A176" s="21" t="s">
-        <v>1551</v>
+        <v>1572</v>
       </c>
     </row>
     <row r="177" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="21" t="s">
-        <v>1552</v>
+        <v>1573</v>
       </c>
     </row>
     <row r="178" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="21" t="s">
-        <v>1553</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="179" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="21" t="s">
-        <v>1554</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="180" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="21" t="s">
-        <v>1555</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="181" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="21" t="s">
-        <v>1556</v>
+        <v>1577</v>
       </c>
     </row>
     <row r="182" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="21" t="s">
-        <v>1557</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="183" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="21" t="s">
-        <v>1558</v>
+        <v>1579</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="21" t="s">
-        <v>1559</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="185" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="21" t="s">
-        <v>1560</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="186" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="21" t="s">
-        <v>1561</v>
+        <v>1582</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="21" t="s">
-        <v>1562</v>
+        <v>1583</v>
       </c>
     </row>
     <row r="188" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="21" t="s">
-        <v>1563</v>
+        <v>1584</v>
       </c>
     </row>
     <row r="189" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="21" t="s">
-        <v>1564</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="190" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="21" t="s">
-        <v>1565</v>
+        <v>1586</v>
       </c>
     </row>
     <row r="191" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="21" t="s">
-        <v>1566</v>
+        <v>1587</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="21" t="s">
-        <v>1567</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="193" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="21" t="s">
-        <v>1568</v>
+        <v>1589</v>
       </c>
     </row>
     <row r="194" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="21" t="s">
-        <v>1569</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="195" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="21" t="s">
-        <v>1570</v>
+        <v>1591</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="21" t="s">
-        <v>1571</v>
+        <v>1592</v>
       </c>
     </row>
     <row r="197" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="21" t="s">
-        <v>1572</v>
+        <v>1593</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="21" t="s">
-        <v>1380</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="199" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="21" t="s">
-        <v>1573</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="200" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="21" t="s">
-        <v>1574</v>
+        <v>1595</v>
       </c>
     </row>
     <row r="201" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="21" t="s">
-        <v>1575</v>
+        <v>1596</v>
       </c>
     </row>
     <row r="202" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="21" t="s">
-        <v>1576</v>
+        <v>1597</v>
       </c>
     </row>
     <row r="203" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="21" t="s">
-        <v>1577</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="204" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="21" t="s">
-        <v>1578</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="205" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="21" t="s">
-        <v>1579</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="206" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="21" t="s">
-        <v>1580</v>
+        <v>1601</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="21" t="s">
-        <v>1581</v>
+        <v>1602</v>
       </c>
     </row>
     <row r="208" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="21" t="s">
-        <v>1582</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="209" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="21" t="s">
-        <v>1583</v>
+        <v>1604</v>
       </c>
     </row>
     <row r="210" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="21" t="s">
-        <v>1584</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="211" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="21" t="s">
-        <v>1585</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="212" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A212" s="21" t="s">
-        <v>1586</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="213" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A213" s="21" t="s">
-        <v>1587</v>
+        <v>1608</v>
       </c>
     </row>
     <row r="214" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="21" t="s">
-        <v>1588</v>
+        <v>1609</v>
       </c>
     </row>
     <row r="215" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="21" t="s">
-        <v>1589</v>
+        <v>1610</v>
       </c>
     </row>
     <row r="216" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="21" t="s">
-        <v>1590</v>
+        <v>1611</v>
       </c>
     </row>
     <row r="217" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="21" t="s">
-        <v>1591</v>
+        <v>1612</v>
       </c>
     </row>
     <row r="218" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="21" t="s">
-        <v>1592</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="219" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="21" t="s">
-        <v>1593</v>
+        <v>1614</v>
       </c>
     </row>
     <row r="220" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="21" t="s">
-        <v>1594</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="221" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="21" t="s">
-        <v>1595</v>
+        <v>1616</v>
       </c>
     </row>
     <row r="222" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="21" t="s">
-        <v>1596</v>
+        <v>1617</v>
       </c>
     </row>
     <row r="223" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="21" t="s">
-        <v>1597</v>
+        <v>1618</v>
       </c>
     </row>
     <row r="224" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="21" t="s">
-        <v>1598</v>
+        <v>1619</v>
       </c>
     </row>
     <row r="225" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="21" t="s">
-        <v>1599</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="226" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="21" t="s">
-        <v>1600</v>
+        <v>1621</v>
       </c>
     </row>
     <row r="227" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="21" t="s">
-        <v>1601</v>
+        <v>1622</v>
       </c>
     </row>
     <row r="228" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="21" t="s">
-        <v>1602</v>
+        <v>1623</v>
       </c>
     </row>
     <row r="229" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="21" t="s">
-        <v>1603</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="230" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="21" t="s">
-        <v>1604</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="231" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="21" t="s">
-        <v>1605</v>
+        <v>1626</v>
       </c>
     </row>
     <row r="232" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="21" t="s">
-        <v>1606</v>
+        <v>1627</v>
       </c>
     </row>
     <row r="233" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="21" t="s">
-        <v>1607</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="234" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="21" t="s">
-        <v>1608</v>
+        <v>1629</v>
       </c>
     </row>
     <row r="235" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="21" t="s">
-        <v>1609</v>
+        <v>1630</v>
       </c>
     </row>
     <row r="236" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A236" s="21" t="s">
-        <v>1610</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="237" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A237" s="21" t="s">
-        <v>1611</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="238" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="21" t="s">
-        <v>1612</v>
+        <v>1633</v>
       </c>
     </row>
     <row r="239" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="21" t="s">
-        <v>1613</v>
+        <v>1634</v>
       </c>
     </row>
     <row r="240" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="21" t="s">
-        <v>1614</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="241" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="21" t="s">
-        <v>1615</v>
+        <v>1636</v>
       </c>
     </row>
     <row r="242" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="21" t="s">
-        <v>1616</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="243" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="21" t="s">
-        <v>1617</v>
+        <v>1638</v>
       </c>
     </row>
     <row r="244" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="21" t="s">
-        <v>1390</v>
+        <v>1411</v>
       </c>
     </row>
     <row r="245" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="21" t="s">
-        <v>1618</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="246" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="21" t="s">
-        <v>1619</v>
+        <v>1640</v>
       </c>
     </row>
     <row r="247" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="21" t="s">
-        <v>1620</v>
+        <v>1641</v>
       </c>
     </row>
     <row r="248" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="21" t="s">
-        <v>1621</v>
+        <v>1642</v>
       </c>
     </row>
     <row r="249" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="21" t="s">
-        <v>1622</v>
+        <v>1643</v>
       </c>
     </row>
     <row r="250" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="21" t="s">
-        <v>1623</v>
+        <v>1644</v>
       </c>
     </row>
     <row r="251" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="21" t="s">
-        <v>1624</v>
+        <v>1645</v>
       </c>
     </row>
     <row r="252" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="21" t="s">
-        <v>1625</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="253" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="21" t="s">
-        <v>1626</v>
+        <v>1647</v>
       </c>
     </row>
     <row r="254" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="21" t="s">
-        <v>1627</v>
+        <v>1648</v>
       </c>
     </row>
     <row r="255" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="21" t="s">
-        <v>1628</v>
+        <v>1649</v>
       </c>
     </row>
     <row r="256" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="21" t="s">
-        <v>1629</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="257" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="21" t="s">
-        <v>1630</v>
+        <v>1651</v>
       </c>
     </row>
     <row r="258" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="21" t="s">
-        <v>1631</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="259" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="21" t="s">
-        <v>1632</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="260" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="21" t="s">
-        <v>1633</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="261" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="21" t="s">
-        <v>1634</v>
+        <v>1655</v>
       </c>
     </row>
     <row r="262" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="21" t="s">
-        <v>1635</v>
+        <v>1656</v>
       </c>
     </row>
     <row r="263" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="21" t="s">
-        <v>1636</v>
+        <v>1657</v>
       </c>
     </row>
     <row r="264" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="21" t="s">
-        <v>1637</v>
+        <v>1658</v>
       </c>
     </row>
     <row r="265" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="21" t="s">
-        <v>1638</v>
+        <v>1659</v>
       </c>
     </row>
     <row r="266" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="21" t="s">
-        <v>1639</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="267" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="21" t="s">
-        <v>1640</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="268" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="21" t="s">
-        <v>1641</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="269" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="21" t="s">
-        <v>1397</v>
+        <v>1418</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="21" t="s">
-        <v>1642</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="21" t="s">
-        <v>1643</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="272" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="21" t="s">
-        <v>1644</v>
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -26074,7 +26570,7 @@
   <dimension ref="B1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="A682:A683 B8"/>
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26086,160 +26582,160 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="26" t="s">
-        <v>1645</v>
+      <c r="B1" s="29" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="27" t="s">
-        <v>1646</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>1647</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>1648</v>
-      </c>
-      <c r="I2" s="30"/>
+      <c r="B2" s="30" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>1668</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>1669</v>
+      </c>
+      <c r="I2" s="33"/>
       <c r="K2" s="21" t="s">
-        <v>1649</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="27" t="s">
-        <v>1650</v>
-      </c>
-      <c r="C3" s="28" t="s">
-        <v>1647</v>
-      </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="28"/>
+      <c r="B3" s="30" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>1668</v>
+      </c>
+      <c r="H3" s="31"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="31"/>
       <c r="K3" s="11" t="s">
-        <v>1651</v>
+        <v>1672</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="21" t="s">
-        <v>1652</v>
-      </c>
-      <c r="C4" s="32"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="28"/>
+        <v>1673</v>
+      </c>
+      <c r="C4" s="35"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="31"/>
       <c r="K4" s="11" t="s">
-        <v>1653</v>
+        <v>1674</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="32"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="28"/>
+      <c r="C5" s="35"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="31"/>
       <c r="K5" s="7" t="s">
-        <v>1312</v>
+        <v>1384</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="32"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="28"/>
+      <c r="C6" s="35"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="31"/>
       <c r="K6" s="11" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="22"/>
-      <c r="C7" s="32"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="28"/>
+      <c r="C7" s="35"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="31"/>
       <c r="K7" s="22" t="s">
-        <v>1654</v>
+        <v>1675</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="11" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="31"/>
-      <c r="J8" s="28"/>
+        <v>1676</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="31"/>
       <c r="K8" s="21" t="s">
-        <v>1656</v>
+        <v>1677</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="22" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="28"/>
+        <v>1678</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="34"/>
+      <c r="J9" s="31"/>
       <c r="K9" s="7" t="s">
-        <v>1658</v>
+        <v>1679</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="7" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="28"/>
+        <v>1680</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="34"/>
+      <c r="J10" s="31"/>
       <c r="K10" s="11" t="s">
-        <v>1660</v>
+        <v>1681</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="11" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C11" s="32"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="28"/>
+        <v>1682</v>
+      </c>
+      <c r="C11" s="35"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="34"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="7" t="s">
-        <v>1662</v>
+        <v>1683</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="7" t="s">
-        <v>1663</v>
+        <v>1684</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>1664</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0"/>
       <c r="K13" s="7" t="s">
-        <v>1665</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="21" t="s">
-        <v>1666</v>
+        <v>1687</v>
       </c>
       <c r="K14" s="11" t="s">
-        <v>1667</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="21" t="s">
-        <v>1668</v>
+        <v>1689</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>1669</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="K16" s="11" t="s">
-        <v>1670</v>
+        <v>1691</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26247,10 +26743,10 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="21" t="s">
-        <v>1671</v>
+        <v>1692</v>
       </c>
       <c r="K18" s="11" t="s">
-        <v>1672</v>
+        <v>1693</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26258,109 +26754,109 @@
         <v>119</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>1673</v>
+        <v>1694</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="21" t="s">
-        <v>1674</v>
+        <v>1695</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="21" t="s">
-        <v>1675</v>
+        <v>1696</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="21" t="s">
-        <v>1676</v>
+        <v>1697</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="21" t="s">
-        <v>1677</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="21" t="s">
-        <v>1678</v>
+        <v>1699</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="21" t="s">
-        <v>1679</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="21" t="s">
-        <v>1680</v>
+        <v>1701</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="21" t="s">
-        <v>1681</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="21" t="s">
-        <v>1682</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="21" t="s">
-        <v>1683</v>
+        <v>1704</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="21" t="s">
-        <v>1684</v>
+        <v>1705</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="21" t="s">
-        <v>1685</v>
+        <v>1706</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="21" t="s">
-        <v>1686</v>
+        <v>1707</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="21" t="s">
-        <v>1687</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="21" t="s">
-        <v>1688</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="21" t="s">
-        <v>1689</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="21" t="s">
-        <v>1690</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="21" t="s">
-        <v>1691</v>
+        <v>1712</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="21" t="s">
-        <v>1692</v>
+        <v>1713</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="21" t="s">
-        <v>1693</v>
+        <v>1714</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26370,47 +26866,47 @@
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="21" t="s">
-        <v>1694</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="21" t="s">
-        <v>1695</v>
+        <v>1716</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="21" t="s">
-        <v>1696</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="21" t="s">
-        <v>1697</v>
+        <v>1718</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="21" t="s">
-        <v>1698</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="21" t="s">
-        <v>1699</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="21" t="s">
-        <v>1700</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="21" t="s">
-        <v>1701</v>
+        <v>1722</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="21" t="s">
-        <v>1702</v>
+        <v>1723</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26418,17 +26914,17 @@
         <v>193</v>
       </c>
       <c r="C58" s="21" t="s">
-        <v>1703</v>
+        <v>1724</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="21" t="s">
-        <v>1704</v>
+        <v>1725</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="21" t="s">
-        <v>1705</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -26438,27 +26934,27 @@
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="21" t="s">
-        <v>1706</v>
+        <v>1727</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="21" t="s">
-        <v>1707</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="21" t="s">
-        <v>1708</v>
+        <v>1729</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="21" t="s">
-        <v>1709</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="21" t="s">
-        <v>1710</v>
+        <v>1731</v>
       </c>
     </row>
     <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -26494,7 +26990,7 @@
   <dimension ref="C1:C94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F17" activeCellId="1" sqref="A682:A683 F17"/>
+      <selection pane="topLeft" activeCell="F17" activeCellId="0" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -26504,472 +27000,472 @@
   <sheetData>
     <row r="1" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C1" s="21" t="s">
-        <v>1711</v>
+        <v>1732</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="21" t="s">
-        <v>1712</v>
+        <v>1733</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="21" t="s">
-        <v>1713</v>
+        <v>1734</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="21" t="s">
-        <v>1714</v>
+        <v>1735</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="21" t="s">
-        <v>1715</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="21" t="s">
-        <v>1716</v>
+        <v>1737</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="21" t="s">
-        <v>1717</v>
+        <v>1738</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="21" t="s">
-        <v>1718</v>
+        <v>1739</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C9" s="21" t="s">
-        <v>1719</v>
+        <v>1740</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="21" t="s">
-        <v>1720</v>
+        <v>1741</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="21" t="s">
-        <v>1721</v>
+        <v>1742</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="21" t="s">
-        <v>1722</v>
+        <v>1743</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="21" t="s">
-        <v>1723</v>
+        <v>1744</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="21" t="s">
-        <v>1724</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="21" t="s">
-        <v>1725</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="21" t="s">
-        <v>1726</v>
+        <v>1747</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="21" t="s">
-        <v>1727</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="21" t="s">
-        <v>1728</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="21" t="s">
-        <v>1729</v>
+        <v>1750</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="21" t="s">
-        <v>1730</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="21" t="s">
-        <v>1731</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="21" t="s">
-        <v>1732</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="21" t="s">
-        <v>1733</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="21" t="s">
-        <v>1734</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C25" s="21" t="s">
-        <v>1735</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="21" t="s">
-        <v>1736</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="21" t="s">
-        <v>1737</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="21" t="s">
-        <v>1738</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="21" t="s">
-        <v>1739</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="21" t="s">
-        <v>1740</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="21" t="s">
-        <v>1741</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C32" s="21" t="s">
-        <v>1742</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="21" t="s">
-        <v>1743</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C34" s="21" t="s">
-        <v>1744</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="21" t="s">
-        <v>1745</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="21" t="s">
-        <v>1746</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="21" t="s">
-        <v>1747</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C38" s="21" t="s">
-        <v>1748</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="21" t="s">
-        <v>1749</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="21" t="s">
-        <v>1750</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="21" t="s">
-        <v>1751</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="21" t="s">
-        <v>1752</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="21" t="s">
-        <v>1753</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="21" t="s">
-        <v>1754</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C45" s="21" t="s">
-        <v>1755</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="21" t="s">
-        <v>1756</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="21" t="s">
-        <v>1757</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="21" t="s">
-        <v>1758</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C49" s="21" t="s">
-        <v>1759</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="21" t="s">
-        <v>1760</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C51" s="21" t="s">
-        <v>1761</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C52" s="21" t="s">
-        <v>1762</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C53" s="21" t="s">
-        <v>1763</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C54" s="21" t="s">
-        <v>1764</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C55" s="21" t="s">
-        <v>1765</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C56" s="21" t="s">
-        <v>1766</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="21" t="s">
-        <v>1767</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C58" s="21" t="s">
-        <v>1768</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="21" t="s">
-        <v>1769</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="21" t="s">
-        <v>1770</v>
+        <v>1791</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C61" s="21" t="s">
-        <v>1771</v>
+        <v>1792</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C62" s="21" t="s">
-        <v>1772</v>
+        <v>1793</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C63" s="21" t="s">
-        <v>1773</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="21" t="s">
-        <v>1774</v>
+        <v>1795</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="21" t="s">
-        <v>1775</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="21" t="s">
-        <v>1776</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="21" t="s">
-        <v>1777</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="21" t="s">
-        <v>1778</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C69" s="21" t="s">
-        <v>1779</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C70" s="21" t="s">
-        <v>1780</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C71" s="21" t="s">
-        <v>1781</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C72" s="21" t="s">
-        <v>1782</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C73" s="21" t="s">
-        <v>1783</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C74" s="21" t="s">
-        <v>1784</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C75" s="21" t="s">
-        <v>1785</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C76" s="21" t="s">
-        <v>1786</v>
+        <v>1807</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C77" s="21" t="s">
-        <v>1787</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C78" s="21" t="s">
-        <v>1788</v>
+        <v>1809</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C79" s="21" t="s">
-        <v>1789</v>
+        <v>1810</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C80" s="21" t="s">
-        <v>1790</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C81" s="21" t="s">
-        <v>1791</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C82" s="21" t="s">
-        <v>1792</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C83" s="21" t="s">
-        <v>1793</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C84" s="21" t="s">
-        <v>1794</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C85" s="21" t="s">
-        <v>1795</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C86" s="21" t="s">
-        <v>1796</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C87" s="21" t="s">
-        <v>1797</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C88" s="21" t="s">
-        <v>1798</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C89" s="21" t="s">
-        <v>1799</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C90" s="21" t="s">
-        <v>1800</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C91" s="21" t="s">
-        <v>1801</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C92" s="21" t="s">
-        <v>1802</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C93" s="21" t="s">
-        <v>1803</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="14.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C94" s="21" t="s">
-        <v>1804</v>
+        <v>1825</v>
       </c>
     </row>
   </sheetData>

--- a/pull-requests/filters.xlsx
+++ b/pull-requests/filters.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4082" uniqueCount="1826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4270" uniqueCount="1863">
   <si>
     <t xml:space="preserve">No</t>
   </si>
@@ -4054,6 +4054,120 @@
     <t xml:space="preserve">https://enerad.pl/</t>
   </si>
   <si>
+    <t xml:space="preserve">397</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-banner.$domain=gloskatowic.pl|glosczestochowy.pl|glosrybnika.pl|dziennikopolski.pl|glosrzeszowa.pl|glostrojmiasta.pl|gazetawielkopolska.pl|glostorunia.pl|gloslodzi.pl|gloskrakowa.pl|dziennikwarszawy.pl|gazetawalbrzych.pl|gloswroclawia.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gloskatowic.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">398</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gloskatowic.pl,glosczestochowy.pl,glosrybnika.pl,dziennikopolski.pl,glosrzeszowa.pl,glostrojmiasta.pl,gazetawielkopolska.pl,glostorunia.pl,gloslodzi.pl,gloskrakowa.pl,dziennikwarszawy.pl,gazetawalbrzych.pl,gloswroclawia.pl##a[href^="https://oh-my-wear.com/"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.glosczestochowy.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">399</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^1200x1200_$domain=gloskatowic.pl|glosczestochowy.pl|glosrybnika.pl|dziennikopolski.pl|glosrzeszowa.pl|glostrojmiasta.pl|gazetawielkopolska.pl|glostorunia.pl|gloslodzi.pl|gloskrakowa.pl|dziennikwarszawy.pl|gazetawalbrzych.pl|gloswroclawia.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dziennikopolski.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_rabaty_najwyzsze01.$domain=gloskatowic.pl|glosczestochowy.pl|glosrybnika.pl|dziennikopolski.pl|glosrzeszowa.pl|glostrojmiasta.pl|gazetawielkopolska.pl|glostorunia.pl|gloslodzi.pl|gloskrakowa.pl|dziennikwarszawy.pl|gazetawalbrzych.pl|gloswroclawia.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.gazetawielkopolska.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">^Oklejanie-$domain=gloskatowic.pl|glosczestochowy.pl|glosrybnika.pl|dziennikopolski.pl|glosrzeszowa.pl|glostrojmiasta.pl|gazetawielkopolska.pl|glostorunia.pl|gloslodzi.pl|gloskrakowa.pl|dziennikwarszawy.pl|gazetawalbrzych.pl|gloswroclawia.pl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.dziennikwarszawy.pl/szybka-interwencja-i-amfetamina-znaleziona-w-skarpecie/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">||glostrojmiasta.pl^*^Ko%C5%82dra-</t>
+  </si>
+  <si>
+    <t xml:space="preserve"